--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31640" yWindow="4580" windowWidth="34840" windowHeight="16420"/>
+    <workbookView xWindow="29240" yWindow="1440" windowWidth="34840" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="TestUserLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="TestUserReg" sheetId="3" r:id="rId2"/>
+    <sheet name="Task" sheetId="4" r:id="rId2"/>
+    <sheet name="TestUserReg" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>POST</t>
   </si>
@@ -121,10 +122,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://workdesk.esenyun.com/words/openapi/comments/adopt/2c9485fd66a5fcbc0166c859e0a10b46/1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test_xiaobaiban_coment</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -141,22 +138,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://workdesk.esenyun.com/words/openapi/comments/adopt/2c9485fd66a5fcbc0166c859e0a10b46/0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test_xiaobaiban_cainajianyi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://workdesk.esenyun.com/words/openapi/words/members/2c9485fd66a5fcbc0166c46eb41709e6/READ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://workdesk.esenyun.com/words/openapi/words/members/2c9485fd66a5fcbc0166c46eb41709e6/UNREAD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test_xiaobaiban_quxiaocaina</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -165,10 +150,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://workdesk.esenyun.com/words/openapi/words/remind-participant</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test_xiaobaiban_weidu</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -177,536 +158,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "groupId": "8a9c8ff35f81891f015f8569aa580002",
-  "wordId": "2c9485fd66a5fcbc0166c46eb41709e6",
-  "toMemberIds": [
-    "c0a80c87643946978e7b84c8c6b88f51",
-    "8a9d3ed0603584f501606d80913d000c",
-    "241a82e139a349e0a9dc9b8a1d9621d4",
-    "b0469abc385640ae8b3f0f7ab4e8e2bc",
-    "03c26f4acd8d4470884fa62b15c68681",
-    "fb9633392b5348ae97cc514fbed8c7e0",
-    "d2b8f5e698ea44bea76a96b7a59b2d2f",
-    "c76638d9bda34f989710b8e58c2233f3",
-    "dd51ebf979204e31a2a82b6dad395293",
-    "576763fcb3e44914a1adf12104fa814e",
-    "fcd30cd4a94747e5a572923c713cc9a0",
-    "de4ac2fd762446b983f0bcadb290c9f1",
-    "1b43a95e46dc45b8a0a5e4abb7db0522",
-    "ae9044743dbb4f5fbf5ed5a1eb3bc4b7",
-    "6837047319fd40309f36f1ebe2db7151",
-    "e21daf69e2c94a93a646d06d9d8024f5",
-    "29a2abb59ea843a3b1d6ecf5d8a7eaca",
-    "ba6ff1c9aa304716aff30453cd8ec9fa",
-    "58c9d7ce40a947debc208d754e47e631",
-    "2aed8e8e50734b48854829433aaa0e73",
-    "a7718462d14442ef9cf8c211cad971c6",
-    "5f5904982cbf425484ca508c261b990c",
-    "5ce0bde083874d05b5e107e02b4c826f",
-    "851c38ea21f446189bf15223a59aac30",
-    "ab9dadeed2444c64b2e7cd1f19107408",
-    "2e541d303c934e89bd0111b088e6e38b",
-    "67d1adafdc78473b8d3a4125b3a49907",
-    "702e3ee82bc94ba28998a8325e0ffdb4",
-    "a8e0b44a6cde498b9817796964075a21",
-    "68b3f8a509bd42e081b6a1423d736285",
-    "a903797bcbeb441ba4f138d5fc6b1d6f",
-    "18fade97de684f7c877a649bfa01d20f",
-    "101aa515988849b2b69d4a4c9ae50d6d",
-    "caa63815880344b69c7973fa35b9e09a",
-    "e1f509268f734e70b02c7f67bc96b08f",
-    "52c8af495ff847c98a31304d6a991646",
-    "697f5f0863e7495b8ea0742e1286c7ad",
-    "8993f07696f04b4c854c8764f2ff34eb",
-    "a79cc90a318442fb8167f20e1e911f9b",
-    "2b932da313a94cf1a18c5d55f29ab24b",
-    "f7d2ed9c853540b98b037f8307a66a0f",
-    "7546811936274d4b9c88160e0153b010",
-    "987b643c653e4cd38f0387367c44b15a",
-    "c05974af4b4a4b7d82aa9aa9ea617355",
-    "84a09626c5ef479e923b77cf4acec96e",
-    "0f61fbea2e124074adae0c49f30a2a52",
-    "509262a6f77045d7a98950d9d087ecef",
-    "47dbfc184dba4deb8a232c62cc6c302f",
-    "d73e80c089e347dfbfb73aa32aae7d76",
-    "5c084243688f4067964a1ce3082866d3",
-    "b9756a606213470684f5a8d004c11f51",
-    "0ef904f3de804fbe9d0d5e95befb2aeb",
-    "ceaeef0dcfea4d868cd5d429b9f34bfd",
-    "4cea796a2ca14be7b44df1fe8719dfb1",
-    "b4c9a9db5dd44f81abb3c05b737bf926",
-    "2fc3a4a1ce8f48acb34ee288803400e4",
-    "8a9c8ff3609cfec40160ea877de90000",
-    "37feadbf323a40ed9e977b7447398ac0",
-    "95ae105b7fa649a6907481e99f582376",
-    "8a9d3ed060ee8eb90161285866610016",
-    "769e8fe3beae4783858d472ff4dd9c72",
-    "bfe8b389bb4546348b4b735e7729f39e",
-    "b4a3c582a365469c86f1474ee3b5f889",
-    "f9ce8471008441fca184d67b20f1ed4d",
-    "1391bdb1e72844098d0a531e2fe840ed",
-    "ad7ff90356254a1389f98f21bf25444b",
-    "6bd9f674a6d4464caa4a1f88371c3817",
-    "f3928c4a75c94ebb9676ae28e611221e",
-    "626ab70b51174ae99e3635df6d318d0f",
-    "b45120c8c32a448ca6a0e3f1a24652b8",
-    "1f398738dfa6464d8a792093a1a55b46",
-    "9891d7939d4f4ef4a65e8fa6ff0e78a0",
-    "ab797caa52e14ab4b3f9c470f8a88b21",
-    "0eab52ae10a44199936d8c0133f68ba4",
-    "105e114179af404cab7b333b1fc9b1c0",
-    "0ff57c1a51fe4b5f81c88b3032adb24d",
-    "59079d3cd5e14474bdcf9e583f181055",
-    "c6bcf7b3e1c04d38be04f136387fc6a0",
-    "8a9870c16093114e016097451b1b0004",
-    "38595e20080e4fdeb663ebc95a8b3c58",
-    "64f9feac643444abb8f0cf90814216fc",
-    "d2a925e87c884ae08ef4ab0cf64cd683",
-    "332ac91c987a48b4b8571a3378459e8b",
-    "51ee6db64fa3488c83aae03d7c383156",
-    "86527d632d3c49cca0c43bfb3db4442c",
-    "78cad32bf6564b538e70be8229b46d5b",
-    "e02e2bf4450e4e6da7e07eef3c5fcbc2",
-    "97c8490bd11c4ec6bc5419b0c030e299",
-    "ff232f7f62dc446db44f6e3f8ed1ee01",
-    "8a83103847764d29983d3837053577aa",
-    "2f110a1f4eed4d00b875af972c7d32f5",
-    "e21e05c959d34553a7e3f77b9229c347",
-    "aac4eea625d542ee981bcdfc66a26a3f",
-    "4194ba7ce1384162a41c90753467f319",
-    "260f5fe8cfbd44fda08e1d4c9458b533",
-    "0ebd1bf809b446c4a6abc4bb3c47cbbd",
-    "7c812fff2e50446b936ca33e137510a3",
-    "556b32d6693f4ac6bd6725ae99fac3c9",
-    "bc9c4b0e3d6b4e14aecdece2844f8198",
-    "b2154542e93240b280c4d84572b3701b",
-    "b6ad3c6cd4724c0d864fcc707087fe9f",
-    "882138070e7e4ea29a11b0045b3085f9",
-    "56d0e20528a6470e95c77d382a13399f",
-    "229441ab808d4317bf8b6a3bf35043d0",
-    "2b0a4d4e58b54f8bb833ca063da3b4df",
-    "851f2999c2a54c169aae9fca37474444",
-    "31b6f401e07c45ee901a12f0212331d7",
-    "c7cbffc0ae084a448f7ca028722246ba",
-    "84760e9143504f35b0bb18c0511b263f",
-    "057677c70e76428e8a5dcd7bc12c1fe9",
-    "fd52411257f3482ba81ed58623fce0e8",
-    "feb8a24a8d22402f83e65e688b7f5816",
-    "530b694d69924b8faade016efc8f8c37",
-    "ef0dc392bf8842958d449f490750fea9",
-    "88c9c99588d24b2f84aedfe9b0c409c1",
-    "549ae5b6e25941989a5a118e5ba106e9",
-    "3c8c6114c5384812b38b56554fe34f1a",
-    "0fcfa7a05df242ccbc84db3e65c43f56",
-    "0f9f6b688090464b8b63e1062d9e5899",
-    "ca13685bcf31431a962fd43b9149ca10",
-    "494327ac58b54eacb4e4e3266fb8d883",
-    "1f311729ab264a559e89051ce851830c",
-    "2f5e9009453b4775ae6920117e4380c3",
-    "06b096db24bc454f8713dd39f9588028",
-    "f214fa3cbb6a4f27b31db07107103de2",
-    "aa7df86c5d114c8caa9a5f7cfa24a398",
-    "102ada2bad514800ba86a9be64252e89",
-    "eed7fac599c14bada2d6991b9bec78b9",
-    "ce622cb4b4a34ced8e6854685d06eef7",
-    "f58924d4a3a14a74bce30ef72ab7cf3c",
-    "9fb96c9bd17447559c416da1662c99b5",
-    "ba3fa83376ed4a16b40686d2ada666f6",
-    "02a06e4a8a2c4fd8859fdc18e6e94d82",
-    "65d2dff9da904215a7a4adf7701e3712",
-    "31782a3696f1437e95191444b143422e",
-    "4c6eca1422fe4a698fc7b8ec01feec44",
-    "aa414e20761b42ad8ea2a2b3d48813c5",
-    "e2880a52e60b434e95f3f9dc10a9027d",
-    "a3583b6f42274d1f9f393e2838b898b0",
-    "13db1c21655044609fe22ae02a73abdd",
-    "231e86ad5d32452e95a0299ded8b7a51",
-    "80683fe866be4cebb32c70ffc89bf211",
-    "607f1645d8eb4e7dace838396c1864c4",
-    "3ef3bc1a55734b8188ddbca155e040bd",
-    "0c2296badf254ef39c24ca18314871ca",
-    "4917fd57bd6a4e80bb06ca464f560dd6",
-    "48c40a23e5ab426e81c6c6e3b783383a",
-    "29a67dcb98ba4ebf95976826793d76be",
-    "16efea8114c04b9a8e124c44ae3833c7",
-    "d7302ce1a8444ffead7ece3802302341",
-    "13741c4f1c1d405599f02041d28e3481",
-    "6fa6cd1753c148448198ccfc405308ad",
-    "8a9c8ff3609cfec40160eef727b10001",
-    "5f76d73b21e84707872142d054f88812",
-    "f9513fc3cbba47c799ba319222be7c5c",
-    "4dfb75b067e3433c9cf32d4c10cb875a",
-    "e28e01bec3ab4fbab95a6c40c1fde574",
-    "e9a376094b3645c588a8e0d1a09f3c70",
-    "7fc39158e76e4357aeb45f3462e60a0e",
-    "c1ab4199a73144009b4fd2842f81fe7f",
-    "94509c461df54259abdf9010a94f8fe0",
-    "5dfb46ce438f418e803135aec6c56d4b",
-    "699f45e874f74a11823ae18cfd769e46",
-    "4ee73089610c4ac6afcf739699de87ff",
-    "9ccc7298deed40d181b0e3cf61114a15",
-    "c839c747c4b1461a9e502fa6de010cf9",
-    "be847c246141442082480d80310e4e68",
-    "eacbbef1137249a5a343d36cdd56a972",
-    "c26aaa6c473149fb92581c411098c414",
-    "44c1a8302ea3410db49c88d4e5c41ece",
-    "a363e7e4903d4b26aa7a54583c496cee",
-    "03c63c952b9d448c99bf2a87f406a18a",
-    "e1764c6df4a24c38b46fd9bf769cb5f1",
-    "8a9c8ff3609cfec40160eef88e620003",
-    "81dba95cf6ac486fafa22d47b7a93a3c",
-    "e4da5bb6ede64ded94c9ffee896735d5",
-    "cf30aa778d8e4d6c9373a9f496de9bf1",
-    "6bc4494301794280b38d76049603d0df",
-    "cf6aaa17b1154d1fa228d436cf99a95b",
-    "e7d70667389342f4b7a50a3fd211d43b",
-    "d695482ce82c4d88935ca9b3943f4b50",
-    "6db13d8d29a54fe0a1a5e927a15fd85c",
-    "7b86ddaf71424b3b82bf1971935b30ad",
-    "5d6820d387cc440bb74258ff4ee1eea9",
-    "d16acb6fddd749e999544b8fea953220",
-    "4a2c2b912ebe4568b5073ed2988241be",
-    "1928b4988580406bb1e3d45210815c48",
-    "86a5489b629649629a5ceef5fc94bc1d",
-    "8c763f4d33ad45dda3c758da0360a8e5",
-    "afa2f7397ae84a49895393681802be25",
-    "1a0154d4b61b415a8a35304bf7656238",
-    "3e504c4fda9045bc865ebdbac8767df4",
-    "ab7e635adfbe4e699510e170e2a1ca60",
-    "36937a7a1b3047e18990a7110d39f2a5",
-    "bbe07740e34d4e66b0ea2ca0e60159f5",
-    "a8e3e05148c9477a998e5a0d1518ecf8",
-    "672cc4f1773749be924e311f6333eb52",
-    "8a9d3ed060ee8eb901612861be25001c",
-    "6a6692515f57454b9aeaccff2ad45b05",
-    "2064fa6ef82c41d8ae2198d3defda846",
-    "01e2ce04a89e4dca807fd82ba4e6b757",
-    "0a0d7686d1da4729a1e40e7b4e1cb0c8",
-    "fcc7a2565f864258ba818c80e05ade75",
-    "295f7c6b82f34dcd8823d2f34c2257a1",
-    "9782ee4b0bb740e0bb94484498a23b6e",
-    "b51fd8a4ea7146579237b7feb7951c5d",
-    "702ea62ff6f74ec48dbf1abe43b68fb3",
-    "345b32247b824d14a9ae98fef23d9c98",
-    "9e1eb45e46b04c9c995dd92eac290044",
-    "af79a6100496478fa45a8a5a8a24247e",
-    "8f29aa8da0374907892e8d98297dd1a7",
-    "e2eb39aefb1b4129b77a2ff03ec78ad0",
-    "88d5db7932f74232be04913d421c8d5d",
-    "8c136bf2705b43fdaee74da94c001b7e",
-    "e61103f5f861406ca98b02456ec3f3b5",
-    "9723ff8564eb44e0b9cd32893d6b6f45",
-    "715d81b92dc94b55b5e3fe9d7e50c963",
-    "82a3dd0bab474ade8f752718c6f5068b",
-    "14db186ae12649f3937a39f74028b46a",
-    "46093b6151554830bea3503b769337ee",
-    "e28c148211e345cc9d1ef591e65cc455",
-    "baffb2b5736d4666b39c7319952f9651",
-    "99ed598c82ae4d3e99f19ce363f24441",
-    "2fa6a0f295054ca2b5e2e34cbb435bcd",
-    "06b4d07da5864eeba875004ec728632f",
-    "76cd8950aa1449ee8a4df100c6970e23",
-    "d97ad2c6c22c45d391c2e227e8ba4b76",
-    "4acaf73acce3408ca7f5063d2d1008df",
-    "8b2b7033881948c9ab246b2b7e55019e",
-    "a014ec2de71f4044a1561176cbf960ff",
-    "27b9344abb164331843db48162ad5b70",
-    "1d7f1afca9a04ecea6f02c74f47efd34",
-    "43108c93aa6f49d18e17984408136148",
-    "fa8cd29dce504215940d984bf7e86229",
-    "662b94a6a6d84a08a2aa306dd3fa4e1f",
-    "fb3b0375dc124b9b9efe1433960a5a90",
-    "8bf3bbc94bbd43bdbf80284b3b4a79b9",
-    "e7a3ec585f5741a1ad1151a33a75b35b",
-    "a9d1cca250de4b37b2ac92f6049fdbbc",
-    "77e96a3d4e20497c89521a544af70960",
-    "94fb6f8703044bf4b1b9e0b0a6269ecb",
-    "4a92955b27474fa199d698953fff6d25",
-    "386c5780b399430b9f5292c77ca66b8b",
-    "6cebac645ae74a2f86d6617bf0b4f24b",
-    "b09919fc256145f09377c5c8a82a1ab9",
-    "c4830d0141a54f878590a725e22d570c",
-    "1906556e70e940bb98950958432a9a07",
-    "de00191aecf941b2992d75cf35b1ffd8",
-    "19ba6b99c96c4ea5b6864f01cd12788f",
-    "04f70d9160b04dbfaf637d962e97e7c8",
-    "32c2a7f2efa644699ba5579f7593502c",
-    "48e2215f09b042acb699f9cd364458b7",
-    "85afcd736497434580a4a83f6622b00b",
-    "79ecc309525e4eee94e537be1f562681",
-    "fa72028449f54fb9931cd8ba82694db2",
-    "2a7d6f0cf1684dbd8b9cc7fffa7c4a34",
-    "1c8b5b4bea194aceb0ddd4482de52903",
-    "f28e39913506415d80f98ed21b878a5f",
-    "0721a3f4eca04048b1981f6baa888ba7",
-    "ec92a5ae015d4385bf9313b84564a430",
-    "f99b2464ee574d289e84dd55fda3f8b7",
-    "fae12883ec6e4308803a9b8a24302d98",
-    "23216b38c67b466994113c749e0572c0",
-    "0a0418c1d76a4e55bf91fe077e0dc164",
-    "a4989a436bae42d2a23260ed3bcda295",
-    "91034614eb5a46a7b54fc5c7851c935d",
-    "e690cb2ded3548c3bfdd19ecaadc66b1",
-    "700db3e8c9de448587b57cf3d68e4094",
-    "a1a9339a8519418b80f6cc5d966ae505",
-    "9b0c04a881bc4335a50942d1241646c4",
-    "1c92fa74992f49f2a1b23b6447b782e5",
-    "70a1e2ab1987464b9b65a89af2d859ba",
-    "56495bb9303646a0b2c1290d68854b1c",
-    "aaec0d1d842c455bbc712016b12a5c07",
-    "5f15aa8000db40059ef1612fbfcee8b3",
-    "c4163fa0252241e3b47aef3036c99fb8",
-    "92b7596d8a0744249f30469ee1a9af6c",
-    "768b7d9c31ac4c6e855c7ffea3f908c0",
-    "ed306466914347968378d711c175d1d8",
-    "d3da2a207ad8457aa13be4fd94d69ecd",
-    "c4d6499e887e49b69527d911113de6e9",
-    "aca8190b7b0945f78fd57ff8d68dde76",
-    "346bf005903341f2867b683693285744",
-    "014913b2adf249bda96dbe0d61dca45c",
-    "60004b4fedce4b338a6f267816d9542a",
-    "4be7c1ae5bd547dc932e1d18578a6fd8",
-    "2dd02a5f84934bff9d55ec7920b944d7",
-    "cec325cf92054652807502fefd14eca2",
-    "2327db3f6663469f9b19d73465d18000",
-    "b576841128ab4e0a9574ab5304904141",
-    "58cdbc0663c64458b231e9cb7afe1322",
-    "6cba557e803d41c0b96e4c10f503331e",
-    "3569ed4237c24b14b0918dbea034f78a",
-    "8a9c8ff3609cfec40160f7d3d1b10004",
-    "a2627f7f2d344cdcb25983defab9ac1f",
-    "da6603d19ed142be95dff304bc44c514",
-    "430c781b8f7748b487389fc7565d6eaa",
-    "a42f708314ff4736b4ca81d8c6ba89a2",
-    "20c52400342d4ffc980eab883b253129",
-    "8a9c8ff3609cfec40160f91e38d00006",
-    "b7e68f4aa41045ee83e8a3a388c4b382",
-    "51bc6c22ed034c79a1e3341e7ee1871b",
-    "8a9c8ff3609cfec40160f7d521520005",
-    "9d96d09b24a64533ab1921cc8ddc563f",
-    "13665fdfc6224da582e2863f15f80c39",
-    "2cbb0914035c4a94893957e1549714b8",
-    "8a9c8ff3609cfec40161023b6bce0007",
-    "ffc1365736b8481c86ed9f81ec85a088",
-    "aac38eff0a9643a8b069fd1acd59cf5a",
-    "ed676722a6ea4cc78ea3e4cd54798038",
-    "f4ff280237ac4a2599112cdc42cf8a40",
-    "744d14f717794a93b7644037ad4d645e",
-    "0834e83903e442c5a652b347aeb28297",
-    "03e0846bcd54442eb482acd5c45bb7c2",
-    "9e8ddbbf95d647b0868deec1b4c0951c",
-    "4b9483a2ea6d42e78465021e3922d81a",
-    "9590f43bc5b74c30b7d56359ce9120b8",
-    "14571108534e4f38b67928743c2b9deb",
-    "aab33f2c79bc4f7cabd5ff1ea152dd33",
-    "02a76915b60145dea1636499d87956b1",
-    "ab9a880f94254249aae9349172059134",
-    "efa7ac13b90f4c6ebe1ff14bafbebdfd",
-    "e00e6e11d3ae495f8d61bc14bfcecc9c",
-    "135c38416a794cf3a64da53935a36be9",
-    "81701a0f0bc44f8e85fb1acc9a7e5dec",
-    "cda86ba4558942bfa195cab342dcb164",
-    "84c0e39a28a34dce94cddf99d66d67d9",
-    "bd29ec847e13495c841b017fb7712f3e",
-    "59bf9b21d868482bbf6ebad5239e7cb1",
-    "baaa24e48a6d45e09f4d79214e07a439",
-    "4b7da546089f495fa44f982a886d8474",
-    "05a497f0e33a4f6c85b1532ac8fb6af7",
-    "ec3288669f7a4e86b86f065941a56107",
-    "c433c3ce61954a6fb7b8eb85b823f40f",
-    "331e493af849451c832db7d0ba5e12fb",
-    "eaf776425f534feda79193daed91caa5",
-    "fea5ffb17b2a46c191e0926f2fc2ef1b",
-    "63d779c9a5014ab4b3ee850f794d0bcc",
-    "86bd3ae43a154d56b16c3946ea6e5068",
-    "57f6a5bba510451abd5b13a302dbdaf4",
-    "d422d571861149fb8c28b77231d3fb12",
-    "c9b8e517431340ea9a6e8ce34dd8d32e",
-    "adb4d0161d374d1093e1e60de4b3aca3",
-    "eaf7886ee3e64566b0b2ffa43ff5154e",
-    "9592c7c1581a4b2aabce1fddae144c0d",
-    "8a9c8ff3609cfec40160eef734810002",
-    "23b35f0b79dd4d2096902988bc8267d7",
-    "ab26a0f50ddd4c9389ec25363ed09e6f",
-    "bf89c0ccae9841258cf4adaf26413d12",
-    "cc62182378464b1ca34ecdeb8becec71",
-    "773e92654eaf412ea1b3e00f8ce17b67",
-    "966986a6b8894b829e45e7aa4825b8c1",
-    "91c96cec981a41dca3c131bf157d5860",
-    "16d73626dc1e4fb19af0c7588307d895",
-    "236831da026b4222b0aa6bdea0f9fd84",
-    "1a5847c0923749989dceab68372aece8",
-    "e06b17000d234ec8ad87cc14d82b3119",
-    "139e03293b96487f94caf9d5de099791",
-    "9bb609966006424e8ad6dee2f91af5fa",
-    "b39eb718aca54fdd9caad6e96479f10b",
-    "ca8b003048fb490494317c58f64971e3",
-    "9bd44ecfe67f4e3ab6781327f073f09c",
-    "ea01a1d2359643d7bc8def60978b1589",
-    "f9f3cccec2ef42fe98390aeb13ca068e",
-    "507d5b864e72440091d973d11b35fd86",
-    "2034d7c9208748119f0c6192e0e18f93",
-    "dde118279c9f4f8bbc0528a0cea761fa",
-    "29bca3f007a44dac93a8eae6e0862e7e",
-    "72a48b7ce6c34e559619c90e7630608f",
-    "e28884a1a150408db769263baa3d9999",
-    "adf8feabc16d45ba9a51c4adda367153",
-    "f490c0d63ec54c218ba133ee1f240fdc",
-    "26fbeadbd78a4559b1e2d27fe2c2eafb",
-    "a683c573063347ca9521791d047e6a87",
-    "62fb9aaaf7e04f6989e5a9489ba76aae",
-    "94660ab5b5e240f79f85659778623baf",
-    "fb5629525c5f4ff1b914413cdb1661cb",
-    "4139cfc4946e4d0882a7f92efcbb2552",
-    "10ed5bf2708f47f78e639968ab44656c",
-    "8a9c8ff35f81891f015f8569aa760003",
-    "7a1787d9135f4c4688cc0dc469ca87d8",
-    "8b0528f4a44f4c359b7720d9ba5436f3",
-    "31726ff00e8942cb8ab627dfc1daf5c2",
-    "78cf84ceefc846b1a668e62d9fd9e9d5",
-    "f58334a8bfd44bc88052308930125dee",
-    "e3fd4a8a6b5044e0bbf44bbf2b085b46",
-    "8aee2a8733904aac89e41b323f8ce9eb",
-    "851939b088794f8b958dcee559fa072c",
-    "b204d70d7ceb4cab9d53bc01a587de96",
-    "8d1c44a2f7b44b5cb3d65b5aba8147ba",
-    "cf5dcd9487ee406890976ffa7fb4ebea",
-    "8a9c8ff3609cfec4016107fa51570008",
-    "c5e492d56dc741f0bb2a7e245a96641a",
-    "5f238a40d91a48ce8e61af190174ecdb",
-    "11ea32012fb5450c9a19a4f8342f97f9",
-    "dd971d88c2594a7880ba0538c81d309f",
-    "035e8ee940f94379a593d48464226804",
-    "8886982d69c94ebba03378fbfcc70ac0",
-    "670337da1220474e92c1b08bd72e8858",
-    "972332809f3a4169bc2327d22f42599e",
-    "b0c9795e8f194bc895ad687e7561b0c1",
-    "d289117825e74bdeaa113639e38ea993",
-    "5427a7c9f402484fa61ad0268fe5406b",
-    "f7a836d4ffd24876b23d887ce3172272",
-    "c4a63684c63c4211af529c20831b76a4",
-    "7ea8ddfd8a8f4def85267839b0772610",
-    "3d91e4293793455bbf5bd42c173d9ae5",
-    "f8d78410a602489691d86a121d44a3f9",
-    "18b6f1dc995047d390e41f6c35c69e67",
-    "569c8134f06e45d09d667f5505850534",
-    "17c8a07b9549467396213fa6cd9b68ca",
-    "55b43904009e45499e5b86d6e8592f6d",
-    "e5fda89ef948493e9eb8783bb86c1152",
-    "974ed70c879544fea440ad1ea0bfe41e",
-    "1a144ede092e4dfc99dd55603d0be234",
-    "5e4559cc89874bb6962cb470bd1958c5",
-    "c463a6612aef4a81a924a88b7ac9eb2a",
-    "4c53af38c8684d6db8aaac696cd4d9fc",
-    "15a23110cdb24ea5bf1f5bf18d8d49df",
-    "78bb4a3357c940968afe9832699ece90",
-    "0c9c3406124f467cba14d1f59bb1f81e",
-    "8c9690cb211247db8065a94de2db46e5",
-    "a983836f10894707af6bdc2ed93ca363",
-    "969ef82e3c464f76ac2e97b4661b7ff2",
-    "029e9ef115c142f89a559bc0c7c3e226",
-    "6a3ba35e7a1b403899fb07d52d529d89",
-    "6e38112dc9b84df49a110dbe0fdc3f44",
-    "d0f0ccae6c6b4606b7285e3ba3f4016e",
-    "8b88d27208a64e35a2bb95acc629b2f7",
-    "ca7afcc451c4472e9403c7a6676a0725",
-    "3c0c4b8e5a9441e9b842e957503bd024",
-    "0820170474fc4ff493e2d9d286b018c3",
-    "77537a52b8494c158d90906cb988b990",
-    "21191344c0f04ac3b5f949c15420a75d",
-    "c337ee1bcd1a4d4b9960dbee88ff1567",
-    "4b59e015564043d7960c6b26cb3592d0",
-    "785b181516f34b208e61925412db6e46",
-    "5b4b93a0c9184059a250d617c4ae1bf7",
-    "056c3bdc774a476196d0131f7fcfb850",
-    "732e0cd153dd4081a0f71d44bfbcc027",
-    "f529094777a64867b6b406823380e9c0",
-    "b1c45964a08f4e23b209c9b6ede849fc",
-    "a4b21abeb03147e092ac072558a17003",
-    "35f4dfb5e5594c30bcd1e89a4bf3a1d0",
-    "52628dac699a44e286788d08b8ce5928",
-    "5011e6e1a580490795511a86b14e762e",
-    "d9d40d572dec484cb04e30101375508d",
-    "05603343dad54a20b1132333918026c3",
-    "5736c2e2f8bd4b7e96534d70874fb66b",
-    "eee54dec36af4bc5b57879b51186bbb0",
-    "30b83efc1d6d474a99f7515029d20b04",
-    "d7cae916c2cb465b991ad17174aacc40",
-    "10f147bf047b4697a4a7f8c8ac579327",
-    "a1b8594cb1204e6ba4fce8f65c5e98bb",
-    "7a5011bc498843ee87a3956dc806edbd",
-    "2cc40a7bba674b5fb6ea3c4bded4c25a",
-    "a84da26c6d7c41a39d1700399ee27417",
-    "d6662da949a949fd97e6d404a79d3631",
-    "f84a3334749046529f34705311204319",
-    "93ca0fdbe2a541df9b6fc883de73d90c",
-    "111e4cd7570d46119ff86c85044d6044",
-    "8d9fd9154e6d470db3fa16b32eccb73f",
-    "afce0e0cb8d44006999712988c48d364",
-    "2fc30d8dd14d4e87abeab4dbd0030666",
-    "10f0bdab8c6b4a7c959f33adf2fffa4c",
-    "282ee7b014bb4f6da6ea3063a92acc74",
-    "ad9631f32652436c97cb7e58ce3ce592",
-    "a3391299b5694704977d20ee336507db",
-    "1c782a58639c4baaa1c0f8007f41893b",
-    "f13ede42d868454eb7540df675082f3b",
-    "3e9a71e2d8044fe7b19274179271ac47",
-    "27fce0c07a744938bd519284a869f589",
-    "608288caa8374caba3408c7b94ac2bfc",
-    "5403b1f81edc418bb2ad66a9ae6ce2e6",
-    "574a9821e6594686b25544d3b28b0fc8",
-    "f33bed92bcd34bb882994be7f6a6ba05",
-    "6bce2620540c441ea3e034bb8505706d",
-    "1a6c3d853c094e33bb8330566c43748c",
-    "4cbbca28ccd245dd902e450175748290",
-    "c33629f924354cf991646e5ccee99afd",
-    "b588b8e206494ee2876973b411dd7e07",
-    "ef6f47eb5c694880b852bcccd2f747bf",
-    "967f4c7fc1ac4e249cdd9f037db3e8ee",
-    "a93381f72b8342609738944118549165",
-    "59501a50e99e496b96860f5b807f0103",
-    "60d741713dd74aa6b089599cd7f85e51",
-    "ea3dfd1b4f9944a6abebdede11492ece",
-    "da8fdb3b6b1843d3995d081c8a105a25",
-    "215224bdd1574757ba291ee9d56b243c",
-    "0c221e2e098241c5bcaeb50547b21281",
-    "6d75ea600b4c4275b68b43dc03b78f88",
-    "f4df89d9f30841dea7380836a99cc06f",
-    "1d9a6b4f34814e0aafb3470f37e2fa47",
-    "a5c8403744db43998e315f81765761e6",
-    "0fe2fbf95e264ebebc813e30b247d297",
-    "98adbf87ffd74f179479cb95cab91397",
-    "35e4f19f87ac408abfe047ab667e3bbc",
-    "85e9ef053c3b4a0e8982c039ab807c18",
-    "d7f4cb98ba444f91ab530e69856f7f27",
-    "8a9d3ed060ee8eb9016128718762001e",
-    "cd44bbee8880444a9205ee25f85968bd",
-    "3abd6843716849b19285e668020c1ebf",
-    "972a21b922d941709776f424165d315b",
-    "4a668e17675d4a11a8c093e85437d786",
-    "88eaa5bd789545db81bbc2812de84262",
-    "da189dd4abb447aebe95ace2920bffd1",
-    "cc209a9d6e294e27963c71f9b29967bf",
-    "791fcd329ac44875aebdadaef0122ce8",
-    "ea2fa0a65b974d6493b6af01856d733c",
-    "58624f782e984392aa7eb592e89b4c21",
-    "82683ed2b3e64efea0d58a5621fb7a96",
-    "30d397bcd295466da7ed9d7dea7fe0de",
-    "32cb808cee4044fd92e90009cc121083",
-    "78288bb234604271b7c29fd56e40417e",
-    "a532d5100f694d2ebc29858399ad298e",
-    "eeb5244d652b49a8ac587d88886d7651",
-    "8bbfd3e20c37491da13b7b4af0ce8684"
-  ]
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://workdesk.esenyun.com/words/openapi/words/kudos/2c9485fd66a5fcbc0166c46eb41709e6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test_xiaobaiban_remind</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -717,6 +168,101 @@
   <si>
     <t>test_xiaobaiban_unkudos</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_collect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_collect_cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_search</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/kudos/2c9485fd66a5fcbc0166c46eb41709e6</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/adopt/2c9485fd66a5fcbc0166c912da070ba3/1?groupId=8a9c8ff35f81891f015f8569aa580002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/adopt/2c9485fd66a5fcbc0166c912da070ba3/0?groupId=8a9c8ff35f81891f015f8569aa580002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/members/2c9485fd66a5fcbc0166c46eb41709e6/READ</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/members/2c9485fd66a5fcbc0166c46eb41709e6/UNREAD</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/remind-participant</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/unkudos/2c9485fd66a5fcbc0166c46eb41709e6</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenpersonalspace/openapi/collect/create</t>
+  </si>
+  <si>
+    <t>{"groupId":"","itemType":"WORD","title":"测试专用，请勿删除","itemSource":"2c9485fd66a5fcbc0166c46eb41709e6"}</t>
+  </si>
+  <si>
+    <t>{"groupId":"8a9c8ff35f81891f015f8569aa580002","toMemberIds":["c0a80c87643946978e7b84c8c6b88f51","8a9d3ed0603584f501606d80913d000c","241a82e139a349e0a9dc9b8a1d9621d4","b0469abc385640ae8b3f0f7ab4e8e2bc","03c26f4acd8d4470884fa62b15c68681","fb9633392b5348ae97cc514fbed8c7e0","d2b8f5e698ea44bea76a96b7a59b2d2f","c76638d9bda34f989710b8e58c2233f3","dd51ebf979204e31a2a82b6dad395293","576763fcb3e44914a1adf12104fa814e","fcd30cd4a94747e5a572923c713cc9a0","de4ac2fd762446b983f0bcadb290c9f1","1b43a95e46dc45b8a0a5e4abb7db0522","ae9044743dbb4f5fbf5ed5a1eb3bc4b7","6837047319fd40309f36f1ebe2db7151","e21daf69e2c94a93a646d06d9d8024f5","29a2abb59ea843a3b1d6ecf5d8a7eaca","ba6ff1c9aa304716aff30453cd8ec9fa","58c9d7ce40a947debc208d754e47e631","2aed8e8e50734b48854829433aaa0e73","a7718462d14442ef9cf8c211cad971c6","5f5904982cbf425484ca508c261b990c","5ce0bde083874d05b5e107e02b4c826f","851c38ea21f446189bf15223a59aac30","ab9dadeed2444c64b2e7cd1f19107408","2e541d303c934e89bd0111b088e6e38b","67d1adafdc78473b8d3a4125b3a49907","702e3ee82bc94ba28998a8325e0ffdb4","a8e0b44a6cde498b9817796964075a21","68b3f8a509bd42e081b6a1423d736285","a903797bcbeb441ba4f138d5fc6b1d6f","18fade97de684f7c877a649bfa01d20f","101aa515988849b2b69d4a4c9ae50d6d","caa63815880344b69c7973fa35b9e09a","e1f509268f734e70b02c7f67bc96b08f","52c8af495ff847c98a31304d6a991646","697f5f0863e7495b8ea0742e1286c7ad","8993f07696f04b4c854c8764f2ff34eb","a79cc90a318442fb8167f20e1e911f9b","2b932da313a94cf1a18c5d55f29ab24b","f7d2ed9c853540b98b037f8307a66a0f","7546811936274d4b9c88160e0153b010","987b643c653e4cd38f0387367c44b15a","c05974af4b4a4b7d82aa9aa9ea617355","84a09626c5ef479e923b77cf4acec96e","0f61fbea2e124074adae0c49f30a2a52","509262a6f77045d7a98950d9d087ecef","47dbfc184dba4deb8a232c62cc6c302f","d73e80c089e347dfbfb73aa32aae7d76","5c084243688f4067964a1ce3082866d3","b9756a606213470684f5a8d004c11f51","0ef904f3de804fbe9d0d5e95befb2aeb","ceaeef0dcfea4d868cd5d429b9f34bfd","4cea796a2ca14be7b44df1fe8719dfb1","b4c9a9db5dd44f81abb3c05b737bf926","2fc3a4a1ce8f48acb34ee288803400e4","8a9c8ff3609cfec40160ea877de90000","37feadbf323a40ed9e977b7447398ac0","95ae105b7fa649a6907481e99f582376","8a9d3ed060ee8eb90161285866610016","769e8fe3beae4783858d472ff4dd9c72","bfe8b389bb4546348b4b735e7729f39e","b4a3c582a365469c86f1474ee3b5f889","f9ce8471008441fca184d67b20f1ed4d","1391bdb1e72844098d0a531e2fe840ed","ad7ff90356254a1389f98f21bf25444b","6bd9f674a6d4464caa4a1f88371c3817","f3928c4a75c94ebb9676ae28e611221e","626ab70b51174ae99e3635df6d318d0f","b45120c8c32a448ca6a0e3f1a24652b8","1f398738dfa6464d8a792093a1a55b46","9891d7939d4f4ef4a65e8fa6ff0e78a0","ab797caa52e14ab4b3f9c470f8a88b21","0eab52ae10a44199936d8c0133f68ba4","105e114179af404cab7b333b1fc9b1c0","0ff57c1a51fe4b5f81c88b3032adb24d","59079d3cd5e14474bdcf9e583f181055","c6bcf7b3e1c04d38be04f136387fc6a0","8a9870c16093114e016097451b1b0004","38595e20080e4fdeb663ebc95a8b3c58","64f9feac643444abb8f0cf90814216fc","d2a925e87c884ae08ef4ab0cf64cd683","332ac91c987a48b4b8571a3378459e8b","51ee6db64fa3488c83aae03d7c383156","86527d632d3c49cca0c43bfb3db4442c","78cad32bf6564b538e70be8229b46d5b","e02e2bf4450e4e6da7e07eef3c5fcbc2","97c8490bd11c4ec6bc5419b0c030e299","ff232f7f62dc446db44f6e3f8ed1ee01","8a83103847764d29983d3837053577aa","2f110a1f4eed4d00b875af972c7d32f5","e21e05c959d34553a7e3f77b9229c347","aac4eea625d542ee981bcdfc66a26a3f","4194ba7ce1384162a41c90753467f319","260f5fe8cfbd44fda08e1d4c9458b533","0ebd1bf809b446c4a6abc4bb3c47cbbd","7c812fff2e50446b936ca33e137510a3","556b32d6693f4ac6bd6725ae99fac3c9","bc9c4b0e3d6b4e14aecdece2844f8198","b2154542e93240b280c4d84572b3701b","b6ad3c6cd4724c0d864fcc707087fe9f","882138070e7e4ea29a11b0045b3085f9","56d0e20528a6470e95c77d382a13399f","229441ab808d4317bf8b6a3bf35043d0","2b0a4d4e58b54f8bb833ca063da3b4df","851f2999c2a54c169aae9fca37474444","31b6f401e07c45ee901a12f0212331d7","c7cbffc0ae084a448f7ca028722246ba","84760e9143504f35b0bb18c0511b263f","057677c70e76428e8a5dcd7bc12c1fe9","fd52411257f3482ba81ed58623fce0e8","feb8a24a8d22402f83e65e688b7f5816","530b694d69924b8faade016efc8f8c37","ef0dc392bf8842958d449f490750fea9","88c9c99588d24b2f84aedfe9b0c409c1","549ae5b6e25941989a5a118e5ba106e9","3c8c6114c5384812b38b56554fe34f1a","0fcfa7a05df242ccbc84db3e65c43f56","0f9f6b688090464b8b63e1062d9e5899","ca13685bcf31431a962fd43b9149ca10","494327ac58b54eacb4e4e3266fb8d883","1f311729ab264a559e89051ce851830c","2f5e9009453b4775ae6920117e4380c3","06b096db24bc454f8713dd39f9588028","f214fa3cbb6a4f27b31db07107103de2","aa7df86c5d114c8caa9a5f7cfa24a398","102ada2bad514800ba86a9be64252e89","eed7fac599c14bada2d6991b9bec78b9","ce622cb4b4a34ced8e6854685d06eef7","f58924d4a3a14a74bce30ef72ab7cf3c","9fb96c9bd17447559c416da1662c99b5","ba3fa83376ed4a16b40686d2ada666f6","02a06e4a8a2c4fd8859fdc18e6e94d82","65d2dff9da904215a7a4adf7701e3712","31782a3696f1437e95191444b143422e","4c6eca1422fe4a698fc7b8ec01feec44","aa414e20761b42ad8ea2a2b3d48813c5","e2880a52e60b434e95f3f9dc10a9027d","a3583b6f42274d1f9f393e2838b898b0","13db1c21655044609fe22ae02a73abdd","231e86ad5d32452e95a0299ded8b7a51","80683fe866be4cebb32c70ffc89bf211","607f1645d8eb4e7dace838396c1864c4","3ef3bc1a55734b8188ddbca155e040bd","0c2296badf254ef39c24ca18314871ca","4917fd57bd6a4e80bb06ca464f560dd6","48c40a23e5ab426e81c6c6e3b783383a","29a67dcb98ba4ebf95976826793d76be","16efea8114c04b9a8e124c44ae3833c7","d7302ce1a8444ffead7ece3802302341","13741c4f1c1d405599f02041d28e3481","6fa6cd1753c148448198ccfc405308ad","8a9c8ff3609cfec40160eef727b10001","5f76d73b21e84707872142d054f88812","f9513fc3cbba47c799ba319222be7c5c","4dfb75b067e3433c9cf32d4c10cb875a","e28e01bec3ab4fbab95a6c40c1fde574","e9a376094b3645c588a8e0d1a09f3c70","7fc39158e76e4357aeb45f3462e60a0e","c1ab4199a73144009b4fd2842f81fe7f","94509c461df54259abdf9010a94f8fe0","5dfb46ce438f418e803135aec6c56d4b","699f45e874f74a11823ae18cfd769e46","4ee73089610c4ac6afcf739699de87ff","9ccc7298deed40d181b0e3cf61114a15","c839c747c4b1461a9e502fa6de010cf9","be847c246141442082480d80310e4e68","eacbbef1137249a5a343d36cdd56a972","c26aaa6c473149fb92581c411098c414","44c1a8302ea3410db49c88d4e5c41ece","a363e7e4903d4b26aa7a54583c496cee","03c63c952b9d448c99bf2a87f406a18a","e1764c6df4a24c38b46fd9bf769cb5f1","8a9c8ff3609cfec40160eef88e620003","81dba95cf6ac486fafa22d47b7a93a3c","e4da5bb6ede64ded94c9ffee896735d5","cf30aa778d8e4d6c9373a9f496de9bf1","6bc4494301794280b38d76049603d0df","cf6aaa17b1154d1fa228d436cf99a95b","e7d70667389342f4b7a50a3fd211d43b","d695482ce82c4d88935ca9b3943f4b50","6db13d8d29a54fe0a1a5e927a15fd85c","7b86ddaf71424b3b82bf1971935b30ad","5d6820d387cc440bb74258ff4ee1eea9","d16acb6fddd749e999544b8fea953220","4a2c2b912ebe4568b5073ed2988241be","1928b4988580406bb1e3d45210815c48","86a5489b629649629a5ceef5fc94bc1d","8c763f4d33ad45dda3c758da0360a8e5","afa2f7397ae84a49895393681802be25","1a0154d4b61b415a8a35304bf7656238","3e504c4fda9045bc865ebdbac8767df4","ab7e635adfbe4e699510e170e2a1ca60","36937a7a1b3047e18990a7110d39f2a5","bbe07740e34d4e66b0ea2ca0e60159f5","a8e3e05148c9477a998e5a0d1518ecf8","672cc4f1773749be924e311f6333eb52","8a9d3ed060ee8eb901612861be25001c","6a6692515f57454b9aeaccff2ad45b05","2064fa6ef82c41d8ae2198d3defda846","01e2ce04a89e4dca807fd82ba4e6b757","0a0d7686d1da4729a1e40e7b4e1cb0c8","fcc7a2565f864258ba818c80e05ade75","295f7c6b82f34dcd8823d2f34c2257a1","9782ee4b0bb740e0bb94484498a23b6e","b51fd8a4ea7146579237b7feb7951c5d","702ea62ff6f74ec48dbf1abe43b68fb3","345b32247b824d14a9ae98fef23d9c98","9e1eb45e46b04c9c995dd92eac290044","af79a6100496478fa45a8a5a8a24247e","8f29aa8da0374907892e8d98297dd1a7","e2eb39aefb1b4129b77a2ff03ec78ad0","88d5db7932f74232be04913d421c8d5d","8c136bf2705b43fdaee74da94c001b7e","e61103f5f861406ca98b02456ec3f3b5","9723ff8564eb44e0b9cd32893d6b6f45","715d81b92dc94b55b5e3fe9d7e50c963","82a3dd0bab474ade8f752718c6f5068b","14db186ae12649f3937a39f74028b46a","46093b6151554830bea3503b769337ee","e28c148211e345cc9d1ef591e65cc455","baffb2b5736d4666b39c7319952f9651","99ed598c82ae4d3e99f19ce363f24441","2fa6a0f295054ca2b5e2e34cbb435bcd","06b4d07da5864eeba875004ec728632f","76cd8950aa1449ee8a4df100c6970e23","d97ad2c6c22c45d391c2e227e8ba4b76","4acaf73acce3408ca7f5063d2d1008df","8b2b7033881948c9ab246b2b7e55019e","a014ec2de71f4044a1561176cbf960ff","27b9344abb164331843db48162ad5b70","1d7f1afca9a04ecea6f02c74f47efd34","43108c93aa6f49d18e17984408136148","fa8cd29dce504215940d984bf7e86229","662b94a6a6d84a08a2aa306dd3fa4e1f","fb3b0375dc124b9b9efe1433960a5a90","8bf3bbc94bbd43bdbf80284b3b4a79b9","e7a3ec585f5741a1ad1151a33a75b35b","a9d1cca250de4b37b2ac92f6049fdbbc","77e96a3d4e20497c89521a544af70960","94fb6f8703044bf4b1b9e0b0a6269ecb","4a92955b27474fa199d698953fff6d25","386c5780b399430b9f5292c77ca66b8b","6cebac645ae74a2f86d6617bf0b4f24b","b09919fc256145f09377c5c8a82a1ab9","c4830d0141a54f878590a725e22d570c","1906556e70e940bb98950958432a9a07","de00191aecf941b2992d75cf35b1ffd8","19ba6b99c96c4ea5b6864f01cd12788f","04f70d9160b04dbfaf637d962e97e7c8","32c2a7f2efa644699ba5579f7593502c","48e2215f09b042acb699f9cd364458b7","85afcd736497434580a4a83f6622b00b","79ecc309525e4eee94e537be1f562681","fa72028449f54fb9931cd8ba82694db2","2a7d6f0cf1684dbd8b9cc7fffa7c4a34","1c8b5b4bea194aceb0ddd4482de52903","f28e39913506415d80f98ed21b878a5f","0721a3f4eca04048b1981f6baa888ba7","ec92a5ae015d4385bf9313b84564a430","f99b2464ee574d289e84dd55fda3f8b7","fae12883ec6e4308803a9b8a24302d98","23216b38c67b466994113c749e0572c0","0a0418c1d76a4e55bf91fe077e0dc164","a4989a436bae42d2a23260ed3bcda295","91034614eb5a46a7b54fc5c7851c935d","e690cb2ded3548c3bfdd19ecaadc66b1","700db3e8c9de448587b57cf3d68e4094","a1a9339a8519418b80f6cc5d966ae505","9b0c04a881bc4335a50942d1241646c4","1c92fa74992f49f2a1b23b6447b782e5","70a1e2ab1987464b9b65a89af2d859ba","56495bb9303646a0b2c1290d68854b1c","aaec0d1d842c455bbc712016b12a5c07","5f15aa8000db40059ef1612fbfcee8b3","c4163fa0252241e3b47aef3036c99fb8","92b7596d8a0744249f30469ee1a9af6c","768b7d9c31ac4c6e855c7ffea3f908c0","ed306466914347968378d711c175d1d8","d3da2a207ad8457aa13be4fd94d69ecd","c4d6499e887e49b69527d911113de6e9","aca8190b7b0945f78fd57ff8d68dde76","346bf005903341f2867b683693285744","014913b2adf249bda96dbe0d61dca45c","60004b4fedce4b338a6f267816d9542a","4be7c1ae5bd547dc932e1d18578a6fd8","2dd02a5f84934bff9d55ec7920b944d7","cec325cf92054652807502fefd14eca2","2327db3f6663469f9b19d73465d18000","b576841128ab4e0a9574ab5304904141","58cdbc0663c64458b231e9cb7afe1322","6cba557e803d41c0b96e4c10f503331e","3569ed4237c24b14b0918dbea034f78a","8a9c8ff3609cfec40160f7d3d1b10004","a2627f7f2d344cdcb25983defab9ac1f","da6603d19ed142be95dff304bc44c514","430c781b8f7748b487389fc7565d6eaa","a42f708314ff4736b4ca81d8c6ba89a2","20c52400342d4ffc980eab883b253129","8a9c8ff3609cfec40160f91e38d00006","b7e68f4aa41045ee83e8a3a388c4b382","51bc6c22ed034c79a1e3341e7ee1871b","8a9c8ff3609cfec40160f7d521520005","9d96d09b24a64533ab1921cc8ddc563f","13665fdfc6224da582e2863f15f80c39","2cbb0914035c4a94893957e1549714b8","8a9c8ff3609cfec40161023b6bce0007","ffc1365736b8481c86ed9f81ec85a088","aac38eff0a9643a8b069fd1acd59cf5a","ed676722a6ea4cc78ea3e4cd54798038","f4ff280237ac4a2599112cdc42cf8a40","744d14f717794a93b7644037ad4d645e","0834e83903e442c5a652b347aeb28297","03e0846bcd54442eb482acd5c45bb7c2","9e8ddbbf95d647b0868deec1b4c0951c","4b9483a2ea6d42e78465021e3922d81a","9590f43bc5b74c30b7d56359ce9120b8","14571108534e4f38b67928743c2b9deb","aab33f2c79bc4f7cabd5ff1ea152dd33","02a76915b60145dea1636499d87956b1","ab9a880f94254249aae9349172059134","efa7ac13b90f4c6ebe1ff14bafbebdfd","e00e6e11d3ae495f8d61bc14bfcecc9c","135c38416a794cf3a64da53935a36be9","81701a0f0bc44f8e85fb1acc9a7e5dec","cda86ba4558942bfa195cab342dcb164","84c0e39a28a34dce94cddf99d66d67d9","bd29ec847e13495c841b017fb7712f3e","59bf9b21d868482bbf6ebad5239e7cb1","baaa24e48a6d45e09f4d79214e07a439","4b7da546089f495fa44f982a886d8474","05a497f0e33a4f6c85b1532ac8fb6af7","ec3288669f7a4e86b86f065941a56107","c433c3ce61954a6fb7b8eb85b823f40f","331e493af849451c832db7d0ba5e12fb","eaf776425f534feda79193daed91caa5","fea5ffb17b2a46c191e0926f2fc2ef1b","63d779c9a5014ab4b3ee850f794d0bcc","86bd3ae43a154d56b16c3946ea6e5068","57f6a5bba510451abd5b13a302dbdaf4","d422d571861149fb8c28b77231d3fb12","c9b8e517431340ea9a6e8ce34dd8d32e","adb4d0161d374d1093e1e60de4b3aca3","eaf7886ee3e64566b0b2ffa43ff5154e","9592c7c1581a4b2aabce1fddae144c0d","23b35f0b79dd4d2096902988bc8267d7","ab26a0f50ddd4c9389ec25363ed09e6f","bf89c0ccae9841258cf4adaf26413d12","cc62182378464b1ca34ecdeb8becec71","773e92654eaf412ea1b3e00f8ce17b67","966986a6b8894b829e45e7aa4825b8c1","91c96cec981a41dca3c131bf157d5860","16d73626dc1e4fb19af0c7588307d895","236831da026b4222b0aa6bdea0f9fd84","1a5847c0923749989dceab68372aece8","e06b17000d234ec8ad87cc14d82b3119","139e03293b96487f94caf9d5de099791","9bb609966006424e8ad6dee2f91af5fa","b39eb718aca54fdd9caad6e96479f10b","ca8b003048fb490494317c58f64971e3","9bd44ecfe67f4e3ab6781327f073f09c","ea01a1d2359643d7bc8def60978b1589","f9f3cccec2ef42fe98390aeb13ca068e","507d5b864e72440091d973d11b35fd86","2034d7c9208748119f0c6192e0e18f93","dde118279c9f4f8bbc0528a0cea761fa","29bca3f007a44dac93a8eae6e0862e7e","72a48b7ce6c34e559619c90e7630608f","e28884a1a150408db769263baa3d9999","adf8feabc16d45ba9a51c4adda367153","f490c0d63ec54c218ba133ee1f240fdc","26fbeadbd78a4559b1e2d27fe2c2eafb","a683c573063347ca9521791d047e6a87","62fb9aaaf7e04f6989e5a9489ba76aae","94660ab5b5e240f79f85659778623baf","fb5629525c5f4ff1b914413cdb1661cb","4139cfc4946e4d0882a7f92efcbb2552","10ed5bf2708f47f78e639968ab44656c","8a9c8ff35f81891f015f8569aa760003","7a1787d9135f4c4688cc0dc469ca87d8","8b0528f4a44f4c359b7720d9ba5436f3","31726ff00e8942cb8ab627dfc1daf5c2","78cf84ceefc846b1a668e62d9fd9e9d5","f58334a8bfd44bc88052308930125dee","e3fd4a8a6b5044e0bbf44bbf2b085b46","8aee2a8733904aac89e41b323f8ce9eb","851939b088794f8b958dcee559fa072c","b204d70d7ceb4cab9d53bc01a587de96","8d1c44a2f7b44b5cb3d65b5aba8147ba","cf5dcd9487ee406890976ffa7fb4ebea","8a9c8ff3609cfec4016107fa51570008","c5e492d56dc741f0bb2a7e245a96641a","5f238a40d91a48ce8e61af190174ecdb","11ea32012fb5450c9a19a4f8342f97f9","dd971d88c2594a7880ba0538c81d309f","035e8ee940f94379a593d48464226804","8886982d69c94ebba03378fbfcc70ac0","670337da1220474e92c1b08bd72e8858","972332809f3a4169bc2327d22f42599e","b0c9795e8f194bc895ad687e7561b0c1","d289117825e74bdeaa113639e38ea993","5427a7c9f402484fa61ad0268fe5406b","f7a836d4ffd24876b23d887ce3172272","c4a63684c63c4211af529c20831b76a4","7ea8ddfd8a8f4def85267839b0772610","3d91e4293793455bbf5bd42c173d9ae5","f8d78410a602489691d86a121d44a3f9","18b6f1dc995047d390e41f6c35c69e67","569c8134f06e45d09d667f5505850534","17c8a07b9549467396213fa6cd9b68ca","55b43904009e45499e5b86d6e8592f6d","e5fda89ef948493e9eb8783bb86c1152","974ed70c879544fea440ad1ea0bfe41e","1a144ede092e4dfc99dd55603d0be234","5e4559cc89874bb6962cb470bd1958c5","c463a6612aef4a81a924a88b7ac9eb2a","4c53af38c8684d6db8aaac696cd4d9fc","15a23110cdb24ea5bf1f5bf18d8d49df","78bb4a3357c940968afe9832699ece90","0c9c3406124f467cba14d1f59bb1f81e","8c9690cb211247db8065a94de2db46e5","a983836f10894707af6bdc2ed93ca363","969ef82e3c464f76ac2e97b4661b7ff2","029e9ef115c142f89a559bc0c7c3e226","6a3ba35e7a1b403899fb07d52d529d89","6e38112dc9b84df49a110dbe0fdc3f44","d0f0ccae6c6b4606b7285e3ba3f4016e","8b88d27208a64e35a2bb95acc629b2f7","ca7afcc451c4472e9403c7a6676a0725","3c0c4b8e5a9441e9b842e957503bd024","0820170474fc4ff493e2d9d286b018c3","77537a52b8494c158d90906cb988b990","21191344c0f04ac3b5f949c15420a75d","c337ee1bcd1a4d4b9960dbee88ff1567","4b59e015564043d7960c6b26cb3592d0","785b181516f34b208e61925412db6e46","5b4b93a0c9184059a250d617c4ae1bf7","056c3bdc774a476196d0131f7fcfb850","732e0cd153dd4081a0f71d44bfbcc027","f529094777a64867b6b406823380e9c0","b1c45964a08f4e23b209c9b6ede849fc","a4b21abeb03147e092ac072558a17003","35f4dfb5e5594c30bcd1e89a4bf3a1d0","52628dac699a44e286788d08b8ce5928","5011e6e1a580490795511a86b14e762e","d9d40d572dec484cb04e30101375508d","05603343dad54a20b1132333918026c3","5736c2e2f8bd4b7e96534d70874fb66b","eee54dec36af4bc5b57879b51186bbb0","30b83efc1d6d474a99f7515029d20b04","d7cae916c2cb465b991ad17174aacc40","10f147bf047b4697a4a7f8c8ac579327","a1b8594cb1204e6ba4fce8f65c5e98bb","7a5011bc498843ee87a3956dc806edbd","2cc40a7bba674b5fb6ea3c4bded4c25a","a84da26c6d7c41a39d1700399ee27417","d6662da949a949fd97e6d404a79d3631","f84a3334749046529f34705311204319","93ca0fdbe2a541df9b6fc883de73d90c","111e4cd7570d46119ff86c85044d6044","8d9fd9154e6d470db3fa16b32eccb73f","afce0e0cb8d44006999712988c48d364","2fc30d8dd14d4e87abeab4dbd0030666","10f0bdab8c6b4a7c959f33adf2fffa4c","282ee7b014bb4f6da6ea3063a92acc74","ad9631f32652436c97cb7e58ce3ce592","a3391299b5694704977d20ee336507db","1c782a58639c4baaa1c0f8007f41893b","f13ede42d868454eb7540df675082f3b","3e9a71e2d8044fe7b19274179271ac47","27fce0c07a744938bd519284a869f589","608288caa8374caba3408c7b94ac2bfc","5403b1f81edc418bb2ad66a9ae6ce2e6","574a9821e6594686b25544d3b28b0fc8","f33bed92bcd34bb882994be7f6a6ba05","6bce2620540c441ea3e034bb8505706d","1a6c3d853c094e33bb8330566c43748c","4cbbca28ccd245dd902e450175748290","c33629f924354cf991646e5ccee99afd","b588b8e206494ee2876973b411dd7e07","ef6f47eb5c694880b852bcccd2f747bf","967f4c7fc1ac4e249cdd9f037db3e8ee","a93381f72b8342609738944118549165","59501a50e99e496b96860f5b807f0103","60d741713dd74aa6b089599cd7f85e51","ea3dfd1b4f9944a6abebdede11492ece","da8fdb3b6b1843d3995d081c8a105a25","215224bdd1574757ba291ee9d56b243c","0c221e2e098241c5bcaeb50547b21281","6d75ea600b4c4275b68b43dc03b78f88","f4df89d9f30841dea7380836a99cc06f","1d9a6b4f34814e0aafb3470f37e2fa47","a5c8403744db43998e315f81765761e6","0fe2fbf95e264ebebc813e30b247d297","98adbf87ffd74f179479cb95cab91397","35e4f19f87ac408abfe047ab667e3bbc","85e9ef053c3b4a0e8982c039ab807c18","d7f4cb98ba444f91ab530e69856f7f27","8a9d3ed060ee8eb9016128718762001e","cd44bbee8880444a9205ee25f85968bd","3abd6843716849b19285e668020c1ebf","972a21b922d941709776f424165d315b","4a668e17675d4a11a8c093e85437d786","88eaa5bd789545db81bbc2812de84262","da189dd4abb447aebe95ace2920bffd1","cc209a9d6e294e27963c71f9b29967bf","791fcd329ac44875aebdadaef0122ce8","ea2fa0a65b974d6493b6af01856d733c","58624f782e984392aa7eb592e89b4c21","82683ed2b3e64efea0d58a5621fb7a96","30d397bcd295466da7ed9d7dea7fe0de","32cb808cee4044fd92e90009cc121083","78288bb234604271b7c29fd56e40417e","a532d5100f694d2ebc29858399ad298e","eeb5244d652b49a8ac587d88886d7651","8bbfd3e20c37491da13b7b4af0ce8684"],"wordId":"2c9485fd66a5fcbc0166c46eb41709e6"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenpersonalspace/openapi/collect/delete/2c9485fd66a5fcbc0166c46eb41709e6</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/elasticSearch/list/comment?page=0&amp;size=20</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/members/2c9485fd66a5fcbc0166c46eb41709e6/COMMENT</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_looktaolun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/participants-group-member/2c9485fd66a5fcbc0166c46eb41709e6?page=0&amp;size=100000</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_groupmember</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/conclude</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_jielun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"groupId":"8a9c8ff35f81891f015f8569aa580002","id":"2c9485fd66a5fcbc0166c46eb41709e6","conclusion":"&lt;p&gt;测试结论吧哦1敏敏1&lt;\/p&gt;\n","data":"{\"conclusionAttach\":[]}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"wordId":"2c9485fd66a5fcbc0166c46eb41709e6","sort":"desc"}</t>
   </si>
 </sst>
 </file>
@@ -1131,16 +677,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104" customWidth="1"/>
+    <col min="2" max="2" width="126.83203125" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.33203125" customWidth="1"/>
@@ -1182,10 +728,10 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1199,13 +745,13 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -1214,13 +760,13 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -1229,13 +775,13 @@
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
@@ -1244,31 +790,31 @@
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -1276,13 +822,13 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -1291,60 +837,114 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -1548,13 +1148,6 @@
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1564,6 +1157,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29240" yWindow="1440" windowWidth="34840" windowHeight="16420"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
-    <sheet name="TestUserLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="4" r:id="rId2"/>
-    <sheet name="TestUserReg" sheetId="3" r:id="rId3"/>
+    <sheet name="H5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
   <si>
     <t>POST</t>
   </si>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"name": "范冰冰","password":"123456"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>case_name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -72,36 +68,6 @@
   <si>
     <t>test_user_login_normal</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_reg_normal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_reg_exist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "code": "100000",
-  "msg": "成功",
-  "data": {
-    "name": "范冰冰",
-    "password": "e10adc3949ba59abbe56e057f20f883e"
-  }
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://115.28.108.130:5000/api/user/reg/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://workdesk.esenyun.com/words/openapi/comments/create</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "wordId": "2c9485fd66a5fcbc0166c46eb41709e6", "content": "测试", "groupId": "8a9c8ff35f81891f015f8569aa580002", "data": "{\"imgs\":[],\"attach\":[]}", "sourceType": "WEB", "producedGTD": false }</t>
   </si>
   <si>
     <t>url</t>
@@ -263,6 +229,228 @@
   </si>
   <si>
     <t>{"wordId":"2c9485fd66a5fcbc0166c46eb41709e6","sort":"desc"}</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/summary/v2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/v3?category=todo&amp;page=0&amp;size=20&amp;sort=overdueDate&amp;type=todo</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/v3?category=outbox&amp;page=0&amp;size=20&amp;sort=overdueDate&amp;type=todo</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/v3?category=to-verify&amp;page=0&amp;size=20&amp;sort=overdueDate&amp;type=todo</t>
+  </si>
+  <si>
+    <t>test_looktask</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_todo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_outdo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_toverify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd-options?category=1&amp;prefix=gtd</t>
+  </si>
+  <si>
+    <t>test_gtd_option</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_create_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd</t>
+  </si>
+  <si>
+    <t>{"remark":"测试","remind":{"remindTime":"1546248600","type":"CUSTOMIZE","repetition":{}},"executors":[{"participator":"1c92fa74992f49f2a1b23b6447b782e5","role":"EXECUTOR","type":"MEMBER"}],"verifierId":"c4d18eb76d9548f29c46dbef29944d21","subject":"测试","description":"测试","dueDate":"1546248638","tags":[{"name":"测试"}]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/plugin/WORD/2c9485fd66a5fcbc0166c46eb41709e6/v2?page=0&amp;size=3.402823e%2B38</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_words_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd-option?option=gtd.generate.automation.verifier.auto-confirm&amp;value=true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_task_defaultverify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/mosaic/participation/day-current-member?page=0&amp;size=10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_day_Canyudu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/mosaic/participation/week-rank-current-member?page=0&amp;size=20</t>
+  </si>
+  <si>
+    <t>test_user_canyudu_history</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/get-report-segm-list/day_employee_wb_participate_increase_7_segm</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/all-base-report</t>
+  </si>
+  <si>
+    <t>test_user_words_dashboard_7days</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_words_base_report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esensearch/openapi/search/filter-search/WORD?ext=LASTMODIFIEDTIMEDESC&amp;page=0&amp;size=20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"searchFilterList":[{"filterDatas":[{"id":"40288189653c714401653c8355aa0006","sectionIndex":1,"sectionAliasName":"conclusion","aliasName":"UNCONCLUSION","name":"等待结论"}],"id":"40288189653c714401653c7d13450001","isMulti":0,"aliasName":"conclusion"},{"filterDatas":[{"id":"40288189653c714401653c84579f0008","sectionIndex":2,"sectionAliasName":"extParticipantFlag","aliasName":"all","name":"全部"}],"id":"40288189653c714401653c7e48360002","isMulti":0,"aliasName":"extParticipantFlag"},{"filterDatas":[{"id":"8a748208667ca2fe016681e9aea00025","sectionIndex":3,"sectionAliasName":"queryType","aliasName":"COMMENTED","name":"我回复的"}],"id":"40288189653c714401653c80a12f0003","isMulti":0,"aliasName":"queryType"},{"filterDatas":[{"id":"402881896545c1a3016545c786670002","sectionIndex":4,"sectionAliasName":"participatorGroup","aliasName":"all","name":"全部"}],"id":"402881896545c1a3016545c273570000","isMulti":0,"aliasName":"participatorGroup"}]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_shaixuan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_comenlaste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/comment-latest/2c9485fd66a5fcbc0166c46eb41709e6?time=1540984039</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenmessage/openapi/word-push-message-setting/off/2c9485fd66a5fcbc0166c46eb41709e6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_mremind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"wordid":"2c9485fd66a5fcbc0166c46eb41709e6"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_CRS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customers?page=undefined&amp;size=10&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customer-word-widget/2c9485fd66a5fcbc0166c46eb41709e6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "id": "5bae126c3cad160001c7f350",
+    "cusName": "江苏洋河酒厂股份有限大家洗剪吹公司客户端好看的",
+    "simpleName": "哦哦漂亮",
+    "cusMnemonicCode": "OOPL",
+    "cusNameIndex": "j",
+    "ownerId": "6837047319fd40309f36f1ebe2db7151",
+    "ownerName": "陈琳",
+    "ownerUrl": "https://img.esenyun.com/images/20181019/b73824b369904c6d934cce8c8bab0000.png",
+    "signType": 0,
+    "lastModifiedDate": "2018-10-10T12:09:53.778Z",
+    "check": true
+  }
+]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_CRS_word</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/logs/2c9485fd66a5fcbc0166c46eb41709e6?page=0&amp;size=20&amp;sort=asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/tag/list/2c9485fd66a5fcbc0166c46eb41709e6</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_tag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/show-new-v2/2c9485fd66a5fcbc0166c46eb41709e6?countedReadingTimes=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_show-new-v2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/sns/account?type=WECHAT</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenremind/openapi/reminder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_remindself</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":"{\"groupId\":\"8a9c8ff35f81891f015f8569aa580002\"}","subject":"测试专用，请勿删除","source":"2c9485fd66a5fcbc0166c46eb41709e6","sourceType":"WORD","remind":"1546217100"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_wechat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -329,8 +517,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF303942"/>
-      <name val="Menlo"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="3">
@@ -391,7 +579,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3"/>
@@ -679,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -694,24 +884,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>1</v>
@@ -728,16 +918,16 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
         <v>201</v>
@@ -745,13 +935,13 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -760,13 +950,13 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -775,13 +965,13 @@
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
@@ -790,13 +980,13 @@
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -805,16 +995,16 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -822,13 +1012,13 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -837,13 +1027,13 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
@@ -852,16 +1042,16 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -869,13 +1059,13 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -884,16 +1074,16 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -901,13 +1091,13 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -916,13 +1106,13 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
@@ -931,90 +1121,180 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="191" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E25" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="3">
+        <v>201</v>
+      </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
@@ -1158,12 +1438,406 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1171,69 +1845,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.5" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="116.33203125" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3">
-        <v>400</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="4" r:id="rId2"/>
     <sheet name="H5" sheetId="3" r:id="rId3"/>
+    <sheet name="hr" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="122">
   <si>
     <t>POST</t>
   </si>
@@ -306,15 +307,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>test_user_day_Canyudu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/mosaic/participation/week-rank-current-member?page=0&amp;size=20</t>
-  </si>
-  <si>
-    <t>test_user_canyudu_history</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/get-report-segm-list/day_employee_wb_participate_increase_7_segm</t>
@@ -452,12 +445,82 @@
     <t>test_xiaobaiban_wechat</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/words/openapi/words/show-word-simple/2c9485fd66a5fcbc0166c46eb41709e6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_simple</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_task_log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/logs?page=0&amp;size=20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/participators</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_task_participators</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-reports/wx3bc009c34c8a1040/8a9c8ff35f81891f015f8569aa580002/-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-sets?appId=wx3bc009c34c8a1040&amp;tenantId=8a9c8ff35f81891f015f8569aa580002</t>
+  </si>
+  <si>
+    <t>test_user_day_Canyudu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_canyudu_history</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_words_dashboard_feedback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_words_shezhi_feedback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/employee-outing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_words_dashboard_waichu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/outing-report?type=1&amp;queryType=1</t>
+  </si>
+  <si>
+    <t>test_user_hr_waichu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,11 +578,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Abadi MT Condensed Extra Bold"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -557,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -579,8 +637,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -869,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1138,16 +1199,16 @@
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1155,13 +1216,13 @@
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
@@ -1170,16 +1231,16 @@
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E19" s="3">
         <v>200</v>
@@ -1187,16 +1248,16 @@
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="191" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1204,16 +1265,16 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
@@ -1221,10 +1282,10 @@
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -1236,10 +1297,10 @@
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -1251,10 +1312,10 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>43</v>
@@ -1266,10 +1327,10 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>43</v>
@@ -1281,27 +1342,35 @@
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E26" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
@@ -1441,7 +1510,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1593,18 +1662,34 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -1845,16 +1930,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="116.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.5" customWidth="1"/>
   </cols>
@@ -1876,66 +1961,232 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9">
-        <v>200</v>
-      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="110.5" customWidth="1"/>
+    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="4" r:id="rId2"/>
     <sheet name="H5" sheetId="3" r:id="rId3"/>
     <sheet name="hr" sheetId="5" r:id="rId4"/>
+    <sheet name="personalprofile" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="137">
   <si>
     <t>POST</t>
   </si>
@@ -222,10 +223,6 @@
   </si>
   <si>
     <t>test_xiaobaiban_jielun</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"groupId":"8a9c8ff35f81891f015f8569aa580002","id":"2c9485fd66a5fcbc0166c46eb41709e6","conclusion":"&lt;p&gt;测试结论吧哦1敏敏1&lt;\/p&gt;\n","data":"{\"conclusionAttach\":[]}"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -400,120 +397,178 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>test_xiaobaiban_log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/tag/list/2c9485fd66a5fcbc0166c46eb41709e6</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_tag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/show-new-v2/2c9485fd66a5fcbc0166c46eb41709e6?countedReadingTimes=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_show-new-v2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/sns/account?type=WECHAT</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenremind/openapi/reminder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_remindself</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":"{\"groupId\":\"8a9c8ff35f81891f015f8569aa580002\"}","subject":"测试专用，请勿删除","source":"2c9485fd66a5fcbc0166c46eb41709e6","sourceType":"WORD","remind":"1546217100"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_wechat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/words/openapi/words/show-word-simple/2c9485fd66a5fcbc0166c46eb41709e6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_simple</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_task_log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/logs?page=0&amp;size=20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/participators</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_task_participators</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-reports/wx3bc009c34c8a1040/8a9c8ff35f81891f015f8569aa580002/-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-sets?appId=wx3bc009c34c8a1040&amp;tenantId=8a9c8ff35f81891f015f8569aa580002</t>
+  </si>
+  <si>
+    <t>test_user_day_Canyudu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_canyudu_history</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_words_dashboard_feedback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_words_shezhi_feedback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/employee-outing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_words_dashboard_waichu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/outing-report?type=1&amp;queryType=1</t>
+  </si>
+  <si>
+    <t>test_user_hr_waichu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/baseinfo-cards?userId=8a9d3ed0609d0e200160f7a3dcae0003</t>
+  </si>
+  <si>
+    <t>test_user_geren_WeimingPian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/personalprofile/openapi/user-vcard/permit/?code=c4d18eb76d9548f29c46dbef29944d21</t>
+  </si>
+  <si>
+    <t>test_user_geren_baseinfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/baseinfo-cards?userId=8a9d3ed0609d0e200160f7a3dcae0003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_ziliao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/sns/account?type=WECHAT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_weixin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/esenhrm/openapi/role-label/employee-tags/8a9d3ed0609d0e200160f7a3dcae0003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_more</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_myfeedback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/esenfeedback/openapi/feedbacks/count</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenfeedback/openapi/feedbacks/create</t>
+  </si>
+  <si>
+    <t>test_user_createeedback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"很愿意愿意学习一下","phone":"","sourceType":"APP_IOS"}</t>
+  </si>
+  <si>
+    <t>{"groupId":"8a9c8ff35f81891f015f8569aa580002","id":"2c9485fd66a5fcbc0166c46eb41709e6","conclusion":"&lt;p&gt;测试结论吧哦1敏敏&lt;\/p&gt;\n","data":"{\"conclusionAttach\":[]}"}</t>
+  </si>
+  <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/logs/2c9485fd66a5fcbc0166c46eb41709e6?page=0&amp;size=20&amp;sort=asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_xiaobaiban_log</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/tag/list/2c9485fd66a5fcbc0166c46eb41709e6</t>
-  </si>
-  <si>
-    <t>test_xiaobaiban_tag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/show-new-v2/2c9485fd66a5fcbc0166c46eb41709e6?countedReadingTimes=1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_xiaobaiban_show-new-v2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/sns/account?type=WECHAT</t>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/esenremind/openapi/reminder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_xiaobaiban_remindself</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"data":"{\"groupId\":\"8a9c8ff35f81891f015f8569aa580002\"}","subject":"测试专用，请勿删除","source":"2c9485fd66a5fcbc0166c46eb41709e6","sourceType":"WORD","remind":"1546217100"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_xiaobaiban_wechat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/approval/words/openapi/words/show-word-simple/2c9485fd66a5fcbc0166c46eb41709e6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_xiaobaiban_simple</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_task_log</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/logs?page=0&amp;size=20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/participators</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_task_participators</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-reports/wx3bc009c34c8a1040/8a9c8ff35f81891f015f8569aa580002/-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-sets?appId=wx3bc009c34c8a1040&amp;tenantId=8a9c8ff35f81891f015f8569aa580002</t>
-  </si>
-  <si>
-    <t>test_user_day_Canyudu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_canyudu_history</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_words_dashboard_feedback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_words_shezhi_feedback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/employee-outing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_words_dashboard_waichu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/outing-report?type=1&amp;queryType=1</t>
-  </si>
-  <si>
-    <t>test_user_hr_waichu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -930,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1199,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -1180,7 +1235,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1191,7 +1246,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -1199,16 +1254,16 @@
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1216,13 +1271,13 @@
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
@@ -1231,16 +1286,16 @@
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E19" s="3">
         <v>200</v>
@@ -1248,16 +1303,16 @@
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="191" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1265,16 +1320,16 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
@@ -1282,10 +1337,10 @@
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -1297,10 +1352,10 @@
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -1312,10 +1367,10 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>43</v>
@@ -1327,10 +1382,10 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>43</v>
@@ -1342,16 +1397,16 @@
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E26" s="3">
         <v>201</v>
@@ -1359,10 +1414,10 @@
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>43</v>
@@ -1541,10 +1596,10 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="149" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -1556,10 +1611,10 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
@@ -1571,10 +1626,10 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
@@ -1586,10 +1641,10 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
@@ -1601,10 +1656,10 @@
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
@@ -1616,16 +1671,16 @@
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3">
         <v>201</v>
@@ -1633,13 +1688,13 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -1648,13 +1703,13 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -1663,10 +1718,10 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1678,13 +1733,13 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -1933,7 +1988,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1963,10 +2018,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>14</v>
@@ -1977,10 +2032,10 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>14</v>
@@ -1991,10 +2046,10 @@
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
@@ -2005,10 +2060,10 @@
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
@@ -2019,10 +2074,10 @@
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
@@ -2033,13 +2088,13 @@
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -2047,10 +2102,10 @@
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>14</v>
@@ -2059,8 +2114,37 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="10">
+        <v>200</v>
+      </c>
+    </row>
     <row r="11" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -2143,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2173,15 +2257,127 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="110.5" customWidth="1"/>
+    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10">
         <v>200</v>
       </c>
     </row>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="4" r:id="rId2"/>
     <sheet name="H5" sheetId="3" r:id="rId3"/>
-    <sheet name="hr" sheetId="5" r:id="rId4"/>
-    <sheet name="personalprofile" sheetId="6" r:id="rId5"/>
+    <sheet name="letter" sheetId="7" r:id="rId4"/>
+    <sheet name="hr" sheetId="5" r:id="rId5"/>
+    <sheet name="chat" sheetId="8" r:id="rId6"/>
+    <sheet name="gtp" sheetId="9" r:id="rId7"/>
+    <sheet name="personalprofile" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -31,49 +34,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="215">
   <si>
     <t>POST</t>
   </si>
   <si>
     <t>http://115.28.108.130:5000/api/user/login/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"name": "张三","password":"123456"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h1&gt;登录成功&lt;/h1&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>case_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>expect_res</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_user_login_normal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -87,86 +90,86 @@
     <rPh sb="64" eb="65">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_coment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://workdesk.esenyun.com/words/openapi/comments/create</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_cainajianyi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_quxiaocaina</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_yidu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_weidu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_remind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_kudos</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_unkudos</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_collect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_collect_cancel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_search</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/kudos/2c9485fd66a5fcbc0166c46eb41709e6</t>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/adopt/2c9485fd66a5fcbc0166c912da070ba3/1?groupId=8a9c8ff35f81891f015f8569aa580002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/adopt/2c9485fd66a5fcbc0166c912da070ba3/0?groupId=8a9c8ff35f81891f015f8569aa580002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/members/2c9485fd66a5fcbc0166c46eb41709e6/READ</t>
@@ -188,7 +191,7 @@
   </si>
   <si>
     <t>{"groupId":"8a9c8ff35f81891f015f8569aa580002","toMemberIds":["c0a80c87643946978e7b84c8c6b88f51","8a9d3ed0603584f501606d80913d000c","241a82e139a349e0a9dc9b8a1d9621d4","b0469abc385640ae8b3f0f7ab4e8e2bc","03c26f4acd8d4470884fa62b15c68681","fb9633392b5348ae97cc514fbed8c7e0","d2b8f5e698ea44bea76a96b7a59b2d2f","c76638d9bda34f989710b8e58c2233f3","dd51ebf979204e31a2a82b6dad395293","576763fcb3e44914a1adf12104fa814e","fcd30cd4a94747e5a572923c713cc9a0","de4ac2fd762446b983f0bcadb290c9f1","1b43a95e46dc45b8a0a5e4abb7db0522","ae9044743dbb4f5fbf5ed5a1eb3bc4b7","6837047319fd40309f36f1ebe2db7151","e21daf69e2c94a93a646d06d9d8024f5","29a2abb59ea843a3b1d6ecf5d8a7eaca","ba6ff1c9aa304716aff30453cd8ec9fa","58c9d7ce40a947debc208d754e47e631","2aed8e8e50734b48854829433aaa0e73","a7718462d14442ef9cf8c211cad971c6","5f5904982cbf425484ca508c261b990c","5ce0bde083874d05b5e107e02b4c826f","851c38ea21f446189bf15223a59aac30","ab9dadeed2444c64b2e7cd1f19107408","2e541d303c934e89bd0111b088e6e38b","67d1adafdc78473b8d3a4125b3a49907","702e3ee82bc94ba28998a8325e0ffdb4","a8e0b44a6cde498b9817796964075a21","68b3f8a509bd42e081b6a1423d736285","a903797bcbeb441ba4f138d5fc6b1d6f","18fade97de684f7c877a649bfa01d20f","101aa515988849b2b69d4a4c9ae50d6d","caa63815880344b69c7973fa35b9e09a","e1f509268f734e70b02c7f67bc96b08f","52c8af495ff847c98a31304d6a991646","697f5f0863e7495b8ea0742e1286c7ad","8993f07696f04b4c854c8764f2ff34eb","a79cc90a318442fb8167f20e1e911f9b","2b932da313a94cf1a18c5d55f29ab24b","f7d2ed9c853540b98b037f8307a66a0f","7546811936274d4b9c88160e0153b010","987b643c653e4cd38f0387367c44b15a","c05974af4b4a4b7d82aa9aa9ea617355","84a09626c5ef479e923b77cf4acec96e","0f61fbea2e124074adae0c49f30a2a52","509262a6f77045d7a98950d9d087ecef","47dbfc184dba4deb8a232c62cc6c302f","d73e80c089e347dfbfb73aa32aae7d76","5c084243688f4067964a1ce3082866d3","b9756a606213470684f5a8d004c11f51","0ef904f3de804fbe9d0d5e95befb2aeb","ceaeef0dcfea4d868cd5d429b9f34bfd","4cea796a2ca14be7b44df1fe8719dfb1","b4c9a9db5dd44f81abb3c05b737bf926","2fc3a4a1ce8f48acb34ee288803400e4","8a9c8ff3609cfec40160ea877de90000","37feadbf323a40ed9e977b7447398ac0","95ae105b7fa649a6907481e99f582376","8a9d3ed060ee8eb90161285866610016","769e8fe3beae4783858d472ff4dd9c72","bfe8b389bb4546348b4b735e7729f39e","b4a3c582a365469c86f1474ee3b5f889","f9ce8471008441fca184d67b20f1ed4d","1391bdb1e72844098d0a531e2fe840ed","ad7ff90356254a1389f98f21bf25444b","6bd9f674a6d4464caa4a1f88371c3817","f3928c4a75c94ebb9676ae28e611221e","626ab70b51174ae99e3635df6d318d0f","b45120c8c32a448ca6a0e3f1a24652b8","1f398738dfa6464d8a792093a1a55b46","9891d7939d4f4ef4a65e8fa6ff0e78a0","ab797caa52e14ab4b3f9c470f8a88b21","0eab52ae10a44199936d8c0133f68ba4","105e114179af404cab7b333b1fc9b1c0","0ff57c1a51fe4b5f81c88b3032adb24d","59079d3cd5e14474bdcf9e583f181055","c6bcf7b3e1c04d38be04f136387fc6a0","8a9870c16093114e016097451b1b0004","38595e20080e4fdeb663ebc95a8b3c58","64f9feac643444abb8f0cf90814216fc","d2a925e87c884ae08ef4ab0cf64cd683","332ac91c987a48b4b8571a3378459e8b","51ee6db64fa3488c83aae03d7c383156","86527d632d3c49cca0c43bfb3db4442c","78cad32bf6564b538e70be8229b46d5b","e02e2bf4450e4e6da7e07eef3c5fcbc2","97c8490bd11c4ec6bc5419b0c030e299","ff232f7f62dc446db44f6e3f8ed1ee01","8a83103847764d29983d3837053577aa","2f110a1f4eed4d00b875af972c7d32f5","e21e05c959d34553a7e3f77b9229c347","aac4eea625d542ee981bcdfc66a26a3f","4194ba7ce1384162a41c90753467f319","260f5fe8cfbd44fda08e1d4c9458b533","0ebd1bf809b446c4a6abc4bb3c47cbbd","7c812fff2e50446b936ca33e137510a3","556b32d6693f4ac6bd6725ae99fac3c9","bc9c4b0e3d6b4e14aecdece2844f8198","b2154542e93240b280c4d84572b3701b","b6ad3c6cd4724c0d864fcc707087fe9f","882138070e7e4ea29a11b0045b3085f9","56d0e20528a6470e95c77d382a13399f","229441ab808d4317bf8b6a3bf35043d0","2b0a4d4e58b54f8bb833ca063da3b4df","851f2999c2a54c169aae9fca37474444","31b6f401e07c45ee901a12f0212331d7","c7cbffc0ae084a448f7ca028722246ba","84760e9143504f35b0bb18c0511b263f","057677c70e76428e8a5dcd7bc12c1fe9","fd52411257f3482ba81ed58623fce0e8","feb8a24a8d22402f83e65e688b7f5816","530b694d69924b8faade016efc8f8c37","ef0dc392bf8842958d449f490750fea9","88c9c99588d24b2f84aedfe9b0c409c1","549ae5b6e25941989a5a118e5ba106e9","3c8c6114c5384812b38b56554fe34f1a","0fcfa7a05df242ccbc84db3e65c43f56","0f9f6b688090464b8b63e1062d9e5899","ca13685bcf31431a962fd43b9149ca10","494327ac58b54eacb4e4e3266fb8d883","1f311729ab264a559e89051ce851830c","2f5e9009453b4775ae6920117e4380c3","06b096db24bc454f8713dd39f9588028","f214fa3cbb6a4f27b31db07107103de2","aa7df86c5d114c8caa9a5f7cfa24a398","102ada2bad514800ba86a9be64252e89","eed7fac599c14bada2d6991b9bec78b9","ce622cb4b4a34ced8e6854685d06eef7","f58924d4a3a14a74bce30ef72ab7cf3c","9fb96c9bd17447559c416da1662c99b5","ba3fa83376ed4a16b40686d2ada666f6","02a06e4a8a2c4fd8859fdc18e6e94d82","65d2dff9da904215a7a4adf7701e3712","31782a3696f1437e95191444b143422e","4c6eca1422fe4a698fc7b8ec01feec44","aa414e20761b42ad8ea2a2b3d48813c5","e2880a52e60b434e95f3f9dc10a9027d","a3583b6f42274d1f9f393e2838b898b0","13db1c21655044609fe22ae02a73abdd","231e86ad5d32452e95a0299ded8b7a51","80683fe866be4cebb32c70ffc89bf211","607f1645d8eb4e7dace838396c1864c4","3ef3bc1a55734b8188ddbca155e040bd","0c2296badf254ef39c24ca18314871ca","4917fd57bd6a4e80bb06ca464f560dd6","48c40a23e5ab426e81c6c6e3b783383a","29a67dcb98ba4ebf95976826793d76be","16efea8114c04b9a8e124c44ae3833c7","d7302ce1a8444ffead7ece3802302341","13741c4f1c1d405599f02041d28e3481","6fa6cd1753c148448198ccfc405308ad","8a9c8ff3609cfec40160eef727b10001","5f76d73b21e84707872142d054f88812","f9513fc3cbba47c799ba319222be7c5c","4dfb75b067e3433c9cf32d4c10cb875a","e28e01bec3ab4fbab95a6c40c1fde574","e9a376094b3645c588a8e0d1a09f3c70","7fc39158e76e4357aeb45f3462e60a0e","c1ab4199a73144009b4fd2842f81fe7f","94509c461df54259abdf9010a94f8fe0","5dfb46ce438f418e803135aec6c56d4b","699f45e874f74a11823ae18cfd769e46","4ee73089610c4ac6afcf739699de87ff","9ccc7298deed40d181b0e3cf61114a15","c839c747c4b1461a9e502fa6de010cf9","be847c246141442082480d80310e4e68","eacbbef1137249a5a343d36cdd56a972","c26aaa6c473149fb92581c411098c414","44c1a8302ea3410db49c88d4e5c41ece","a363e7e4903d4b26aa7a54583c496cee","03c63c952b9d448c99bf2a87f406a18a","e1764c6df4a24c38b46fd9bf769cb5f1","8a9c8ff3609cfec40160eef88e620003","81dba95cf6ac486fafa22d47b7a93a3c","e4da5bb6ede64ded94c9ffee896735d5","cf30aa778d8e4d6c9373a9f496de9bf1","6bc4494301794280b38d76049603d0df","cf6aaa17b1154d1fa228d436cf99a95b","e7d70667389342f4b7a50a3fd211d43b","d695482ce82c4d88935ca9b3943f4b50","6db13d8d29a54fe0a1a5e927a15fd85c","7b86ddaf71424b3b82bf1971935b30ad","5d6820d387cc440bb74258ff4ee1eea9","d16acb6fddd749e999544b8fea953220","4a2c2b912ebe4568b5073ed2988241be","1928b4988580406bb1e3d45210815c48","86a5489b629649629a5ceef5fc94bc1d","8c763f4d33ad45dda3c758da0360a8e5","afa2f7397ae84a49895393681802be25","1a0154d4b61b415a8a35304bf7656238","3e504c4fda9045bc865ebdbac8767df4","ab7e635adfbe4e699510e170e2a1ca60","36937a7a1b3047e18990a7110d39f2a5","bbe07740e34d4e66b0ea2ca0e60159f5","a8e3e05148c9477a998e5a0d1518ecf8","672cc4f1773749be924e311f6333eb52","8a9d3ed060ee8eb901612861be25001c","6a6692515f57454b9aeaccff2ad45b05","2064fa6ef82c41d8ae2198d3defda846","01e2ce04a89e4dca807fd82ba4e6b757","0a0d7686d1da4729a1e40e7b4e1cb0c8","fcc7a2565f864258ba818c80e05ade75","295f7c6b82f34dcd8823d2f34c2257a1","9782ee4b0bb740e0bb94484498a23b6e","b51fd8a4ea7146579237b7feb7951c5d","702ea62ff6f74ec48dbf1abe43b68fb3","345b32247b824d14a9ae98fef23d9c98","9e1eb45e46b04c9c995dd92eac290044","af79a6100496478fa45a8a5a8a24247e","8f29aa8da0374907892e8d98297dd1a7","e2eb39aefb1b4129b77a2ff03ec78ad0","88d5db7932f74232be04913d421c8d5d","8c136bf2705b43fdaee74da94c001b7e","e61103f5f861406ca98b02456ec3f3b5","9723ff8564eb44e0b9cd32893d6b6f45","715d81b92dc94b55b5e3fe9d7e50c963","82a3dd0bab474ade8f752718c6f5068b","14db186ae12649f3937a39f74028b46a","46093b6151554830bea3503b769337ee","e28c148211e345cc9d1ef591e65cc455","baffb2b5736d4666b39c7319952f9651","99ed598c82ae4d3e99f19ce363f24441","2fa6a0f295054ca2b5e2e34cbb435bcd","06b4d07da5864eeba875004ec728632f","76cd8950aa1449ee8a4df100c6970e23","d97ad2c6c22c45d391c2e227e8ba4b76","4acaf73acce3408ca7f5063d2d1008df","8b2b7033881948c9ab246b2b7e55019e","a014ec2de71f4044a1561176cbf960ff","27b9344abb164331843db48162ad5b70","1d7f1afca9a04ecea6f02c74f47efd34","43108c93aa6f49d18e17984408136148","fa8cd29dce504215940d984bf7e86229","662b94a6a6d84a08a2aa306dd3fa4e1f","fb3b0375dc124b9b9efe1433960a5a90","8bf3bbc94bbd43bdbf80284b3b4a79b9","e7a3ec585f5741a1ad1151a33a75b35b","a9d1cca250de4b37b2ac92f6049fdbbc","77e96a3d4e20497c89521a544af70960","94fb6f8703044bf4b1b9e0b0a6269ecb","4a92955b27474fa199d698953fff6d25","386c5780b399430b9f5292c77ca66b8b","6cebac645ae74a2f86d6617bf0b4f24b","b09919fc256145f09377c5c8a82a1ab9","c4830d0141a54f878590a725e22d570c","1906556e70e940bb98950958432a9a07","de00191aecf941b2992d75cf35b1ffd8","19ba6b99c96c4ea5b6864f01cd12788f","04f70d9160b04dbfaf637d962e97e7c8","32c2a7f2efa644699ba5579f7593502c","48e2215f09b042acb699f9cd364458b7","85afcd736497434580a4a83f6622b00b","79ecc309525e4eee94e537be1f562681","fa72028449f54fb9931cd8ba82694db2","2a7d6f0cf1684dbd8b9cc7fffa7c4a34","1c8b5b4bea194aceb0ddd4482de52903","f28e39913506415d80f98ed21b878a5f","0721a3f4eca04048b1981f6baa888ba7","ec92a5ae015d4385bf9313b84564a430","f99b2464ee574d289e84dd55fda3f8b7","fae12883ec6e4308803a9b8a24302d98","23216b38c67b466994113c749e0572c0","0a0418c1d76a4e55bf91fe077e0dc164","a4989a436bae42d2a23260ed3bcda295","91034614eb5a46a7b54fc5c7851c935d","e690cb2ded3548c3bfdd19ecaadc66b1","700db3e8c9de448587b57cf3d68e4094","a1a9339a8519418b80f6cc5d966ae505","9b0c04a881bc4335a50942d1241646c4","1c92fa74992f49f2a1b23b6447b782e5","70a1e2ab1987464b9b65a89af2d859ba","56495bb9303646a0b2c1290d68854b1c","aaec0d1d842c455bbc712016b12a5c07","5f15aa8000db40059ef1612fbfcee8b3","c4163fa0252241e3b47aef3036c99fb8","92b7596d8a0744249f30469ee1a9af6c","768b7d9c31ac4c6e855c7ffea3f908c0","ed306466914347968378d711c175d1d8","d3da2a207ad8457aa13be4fd94d69ecd","c4d6499e887e49b69527d911113de6e9","aca8190b7b0945f78fd57ff8d68dde76","346bf005903341f2867b683693285744","014913b2adf249bda96dbe0d61dca45c","60004b4fedce4b338a6f267816d9542a","4be7c1ae5bd547dc932e1d18578a6fd8","2dd02a5f84934bff9d55ec7920b944d7","cec325cf92054652807502fefd14eca2","2327db3f6663469f9b19d73465d18000","b576841128ab4e0a9574ab5304904141","58cdbc0663c64458b231e9cb7afe1322","6cba557e803d41c0b96e4c10f503331e","3569ed4237c24b14b0918dbea034f78a","8a9c8ff3609cfec40160f7d3d1b10004","a2627f7f2d344cdcb25983defab9ac1f","da6603d19ed142be95dff304bc44c514","430c781b8f7748b487389fc7565d6eaa","a42f708314ff4736b4ca81d8c6ba89a2","20c52400342d4ffc980eab883b253129","8a9c8ff3609cfec40160f91e38d00006","b7e68f4aa41045ee83e8a3a388c4b382","51bc6c22ed034c79a1e3341e7ee1871b","8a9c8ff3609cfec40160f7d521520005","9d96d09b24a64533ab1921cc8ddc563f","13665fdfc6224da582e2863f15f80c39","2cbb0914035c4a94893957e1549714b8","8a9c8ff3609cfec40161023b6bce0007","ffc1365736b8481c86ed9f81ec85a088","aac38eff0a9643a8b069fd1acd59cf5a","ed676722a6ea4cc78ea3e4cd54798038","f4ff280237ac4a2599112cdc42cf8a40","744d14f717794a93b7644037ad4d645e","0834e83903e442c5a652b347aeb28297","03e0846bcd54442eb482acd5c45bb7c2","9e8ddbbf95d647b0868deec1b4c0951c","4b9483a2ea6d42e78465021e3922d81a","9590f43bc5b74c30b7d56359ce9120b8","14571108534e4f38b67928743c2b9deb","aab33f2c79bc4f7cabd5ff1ea152dd33","02a76915b60145dea1636499d87956b1","ab9a880f94254249aae9349172059134","efa7ac13b90f4c6ebe1ff14bafbebdfd","e00e6e11d3ae495f8d61bc14bfcecc9c","135c38416a794cf3a64da53935a36be9","81701a0f0bc44f8e85fb1acc9a7e5dec","cda86ba4558942bfa195cab342dcb164","84c0e39a28a34dce94cddf99d66d67d9","bd29ec847e13495c841b017fb7712f3e","59bf9b21d868482bbf6ebad5239e7cb1","baaa24e48a6d45e09f4d79214e07a439","4b7da546089f495fa44f982a886d8474","05a497f0e33a4f6c85b1532ac8fb6af7","ec3288669f7a4e86b86f065941a56107","c433c3ce61954a6fb7b8eb85b823f40f","331e493af849451c832db7d0ba5e12fb","eaf776425f534feda79193daed91caa5","fea5ffb17b2a46c191e0926f2fc2ef1b","63d779c9a5014ab4b3ee850f794d0bcc","86bd3ae43a154d56b16c3946ea6e5068","57f6a5bba510451abd5b13a302dbdaf4","d422d571861149fb8c28b77231d3fb12","c9b8e517431340ea9a6e8ce34dd8d32e","adb4d0161d374d1093e1e60de4b3aca3","eaf7886ee3e64566b0b2ffa43ff5154e","9592c7c1581a4b2aabce1fddae144c0d","23b35f0b79dd4d2096902988bc8267d7","ab26a0f50ddd4c9389ec25363ed09e6f","bf89c0ccae9841258cf4adaf26413d12","cc62182378464b1ca34ecdeb8becec71","773e92654eaf412ea1b3e00f8ce17b67","966986a6b8894b829e45e7aa4825b8c1","91c96cec981a41dca3c131bf157d5860","16d73626dc1e4fb19af0c7588307d895","236831da026b4222b0aa6bdea0f9fd84","1a5847c0923749989dceab68372aece8","e06b17000d234ec8ad87cc14d82b3119","139e03293b96487f94caf9d5de099791","9bb609966006424e8ad6dee2f91af5fa","b39eb718aca54fdd9caad6e96479f10b","ca8b003048fb490494317c58f64971e3","9bd44ecfe67f4e3ab6781327f073f09c","ea01a1d2359643d7bc8def60978b1589","f9f3cccec2ef42fe98390aeb13ca068e","507d5b864e72440091d973d11b35fd86","2034d7c9208748119f0c6192e0e18f93","dde118279c9f4f8bbc0528a0cea761fa","29bca3f007a44dac93a8eae6e0862e7e","72a48b7ce6c34e559619c90e7630608f","e28884a1a150408db769263baa3d9999","adf8feabc16d45ba9a51c4adda367153","f490c0d63ec54c218ba133ee1f240fdc","26fbeadbd78a4559b1e2d27fe2c2eafb","a683c573063347ca9521791d047e6a87","62fb9aaaf7e04f6989e5a9489ba76aae","94660ab5b5e240f79f85659778623baf","fb5629525c5f4ff1b914413cdb1661cb","4139cfc4946e4d0882a7f92efcbb2552","10ed5bf2708f47f78e639968ab44656c","8a9c8ff35f81891f015f8569aa760003","7a1787d9135f4c4688cc0dc469ca87d8","8b0528f4a44f4c359b7720d9ba5436f3","31726ff00e8942cb8ab627dfc1daf5c2","78cf84ceefc846b1a668e62d9fd9e9d5","f58334a8bfd44bc88052308930125dee","e3fd4a8a6b5044e0bbf44bbf2b085b46","8aee2a8733904aac89e41b323f8ce9eb","851939b088794f8b958dcee559fa072c","b204d70d7ceb4cab9d53bc01a587de96","8d1c44a2f7b44b5cb3d65b5aba8147ba","cf5dcd9487ee406890976ffa7fb4ebea","8a9c8ff3609cfec4016107fa51570008","c5e492d56dc741f0bb2a7e245a96641a","5f238a40d91a48ce8e61af190174ecdb","11ea32012fb5450c9a19a4f8342f97f9","dd971d88c2594a7880ba0538c81d309f","035e8ee940f94379a593d48464226804","8886982d69c94ebba03378fbfcc70ac0","670337da1220474e92c1b08bd72e8858","972332809f3a4169bc2327d22f42599e","b0c9795e8f194bc895ad687e7561b0c1","d289117825e74bdeaa113639e38ea993","5427a7c9f402484fa61ad0268fe5406b","f7a836d4ffd24876b23d887ce3172272","c4a63684c63c4211af529c20831b76a4","7ea8ddfd8a8f4def85267839b0772610","3d91e4293793455bbf5bd42c173d9ae5","f8d78410a602489691d86a121d44a3f9","18b6f1dc995047d390e41f6c35c69e67","569c8134f06e45d09d667f5505850534","17c8a07b9549467396213fa6cd9b68ca","55b43904009e45499e5b86d6e8592f6d","e5fda89ef948493e9eb8783bb86c1152","974ed70c879544fea440ad1ea0bfe41e","1a144ede092e4dfc99dd55603d0be234","5e4559cc89874bb6962cb470bd1958c5","c463a6612aef4a81a924a88b7ac9eb2a","4c53af38c8684d6db8aaac696cd4d9fc","15a23110cdb24ea5bf1f5bf18d8d49df","78bb4a3357c940968afe9832699ece90","0c9c3406124f467cba14d1f59bb1f81e","8c9690cb211247db8065a94de2db46e5","a983836f10894707af6bdc2ed93ca363","969ef82e3c464f76ac2e97b4661b7ff2","029e9ef115c142f89a559bc0c7c3e226","6a3ba35e7a1b403899fb07d52d529d89","6e38112dc9b84df49a110dbe0fdc3f44","d0f0ccae6c6b4606b7285e3ba3f4016e","8b88d27208a64e35a2bb95acc629b2f7","ca7afcc451c4472e9403c7a6676a0725","3c0c4b8e5a9441e9b842e957503bd024","0820170474fc4ff493e2d9d286b018c3","77537a52b8494c158d90906cb988b990","21191344c0f04ac3b5f949c15420a75d","c337ee1bcd1a4d4b9960dbee88ff1567","4b59e015564043d7960c6b26cb3592d0","785b181516f34b208e61925412db6e46","5b4b93a0c9184059a250d617c4ae1bf7","056c3bdc774a476196d0131f7fcfb850","732e0cd153dd4081a0f71d44bfbcc027","f529094777a64867b6b406823380e9c0","b1c45964a08f4e23b209c9b6ede849fc","a4b21abeb03147e092ac072558a17003","35f4dfb5e5594c30bcd1e89a4bf3a1d0","52628dac699a44e286788d08b8ce5928","5011e6e1a580490795511a86b14e762e","d9d40d572dec484cb04e30101375508d","05603343dad54a20b1132333918026c3","5736c2e2f8bd4b7e96534d70874fb66b","eee54dec36af4bc5b57879b51186bbb0","30b83efc1d6d474a99f7515029d20b04","d7cae916c2cb465b991ad17174aacc40","10f147bf047b4697a4a7f8c8ac579327","a1b8594cb1204e6ba4fce8f65c5e98bb","7a5011bc498843ee87a3956dc806edbd","2cc40a7bba674b5fb6ea3c4bded4c25a","a84da26c6d7c41a39d1700399ee27417","d6662da949a949fd97e6d404a79d3631","f84a3334749046529f34705311204319","93ca0fdbe2a541df9b6fc883de73d90c","111e4cd7570d46119ff86c85044d6044","8d9fd9154e6d470db3fa16b32eccb73f","afce0e0cb8d44006999712988c48d364","2fc30d8dd14d4e87abeab4dbd0030666","10f0bdab8c6b4a7c959f33adf2fffa4c","282ee7b014bb4f6da6ea3063a92acc74","ad9631f32652436c97cb7e58ce3ce592","a3391299b5694704977d20ee336507db","1c782a58639c4baaa1c0f8007f41893b","f13ede42d868454eb7540df675082f3b","3e9a71e2d8044fe7b19274179271ac47","27fce0c07a744938bd519284a869f589","608288caa8374caba3408c7b94ac2bfc","5403b1f81edc418bb2ad66a9ae6ce2e6","574a9821e6594686b25544d3b28b0fc8","f33bed92bcd34bb882994be7f6a6ba05","6bce2620540c441ea3e034bb8505706d","1a6c3d853c094e33bb8330566c43748c","4cbbca28ccd245dd902e450175748290","c33629f924354cf991646e5ccee99afd","b588b8e206494ee2876973b411dd7e07","ef6f47eb5c694880b852bcccd2f747bf","967f4c7fc1ac4e249cdd9f037db3e8ee","a93381f72b8342609738944118549165","59501a50e99e496b96860f5b807f0103","60d741713dd74aa6b089599cd7f85e51","ea3dfd1b4f9944a6abebdede11492ece","da8fdb3b6b1843d3995d081c8a105a25","215224bdd1574757ba291ee9d56b243c","0c221e2e098241c5bcaeb50547b21281","6d75ea600b4c4275b68b43dc03b78f88","f4df89d9f30841dea7380836a99cc06f","1d9a6b4f34814e0aafb3470f37e2fa47","a5c8403744db43998e315f81765761e6","0fe2fbf95e264ebebc813e30b247d297","98adbf87ffd74f179479cb95cab91397","35e4f19f87ac408abfe047ab667e3bbc","85e9ef053c3b4a0e8982c039ab807c18","d7f4cb98ba444f91ab530e69856f7f27","8a9d3ed060ee8eb9016128718762001e","cd44bbee8880444a9205ee25f85968bd","3abd6843716849b19285e668020c1ebf","972a21b922d941709776f424165d315b","4a668e17675d4a11a8c093e85437d786","88eaa5bd789545db81bbc2812de84262","da189dd4abb447aebe95ace2920bffd1","cc209a9d6e294e27963c71f9b29967bf","791fcd329ac44875aebdadaef0122ce8","ea2fa0a65b974d6493b6af01856d733c","58624f782e984392aa7eb592e89b4c21","82683ed2b3e64efea0d58a5621fb7a96","30d397bcd295466da7ed9d7dea7fe0de","32cb808cee4044fd92e90009cc121083","78288bb234604271b7c29fd56e40417e","a532d5100f694d2ebc29858399ad298e","eeb5244d652b49a8ac587d88886d7651","8bbfd3e20c37491da13b7b4af0ce8684"],"wordId":"2c9485fd66a5fcbc0166c46eb41709e6"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenpersonalspace/openapi/collect/delete/2c9485fd66a5fcbc0166c46eb41709e6</t>
@@ -201,36 +204,36 @@
   </si>
   <si>
     <t>test_xiaobaiban_looktaolun</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/participants-group-member/2c9485fd66a5fcbc0166c46eb41709e6?page=0&amp;size=100000</t>
   </si>
   <si>
     <t>test_xiaobaiban_groupmember</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/conclude</t>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_jielun</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"wordId":"2c9485fd66a5fcbc0166c46eb41709e6","sort":"desc"}</t>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/summary/v2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/v3?category=todo&amp;page=0&amp;size=20&amp;sort=overdueDate&amp;type=todo</t>
@@ -243,65 +246,65 @@
   </si>
   <si>
     <t>test_looktask</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_todo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_outdo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_toverify</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd-options?category=1&amp;prefix=gtd</t>
   </si>
   <si>
     <t>test_gtd_option</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_create_task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd</t>
   </si>
   <si>
     <t>{"remark":"测试","remind":{"remindTime":"1546248600","type":"CUSTOMIZE","repetition":{}},"executors":[{"participator":"1c92fa74992f49f2a1b23b6447b782e5","role":"EXECUTOR","type":"MEMBER"}],"verifierId":"c4d18eb76d9548f29c46dbef29944d21","subject":"测试","description":"测试","dueDate":"1546248638","tags":[{"name":"测试"}]}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/plugin/WORD/2c9485fd66a5fcbc0166c46eb41709e6/v2?page=0&amp;size=3.402823e%2B38</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GTE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_words_task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd-option?option=gtd.generate.automation.verifier.auto-confirm&amp;value=true</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_task_defaultverify</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/mosaic/participation/day-current-member?page=0&amp;size=10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/mosaic/participation/week-rank-current-member?page=0&amp;size=20</t>
@@ -314,61 +317,61 @@
   </si>
   <si>
     <t>test_user_words_dashboard_7days</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_user_words_base_report</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esensearch/openapi/search/filter-search/WORD?ext=LASTMODIFIEDTIMEDESC&amp;page=0&amp;size=20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"searchFilterList":[{"filterDatas":[{"id":"40288189653c714401653c8355aa0006","sectionIndex":1,"sectionAliasName":"conclusion","aliasName":"UNCONCLUSION","name":"等待结论"}],"id":"40288189653c714401653c7d13450001","isMulti":0,"aliasName":"conclusion"},{"filterDatas":[{"id":"40288189653c714401653c84579f0008","sectionIndex":2,"sectionAliasName":"extParticipantFlag","aliasName":"all","name":"全部"}],"id":"40288189653c714401653c7e48360002","isMulti":0,"aliasName":"extParticipantFlag"},{"filterDatas":[{"id":"8a748208667ca2fe016681e9aea00025","sectionIndex":3,"sectionAliasName":"queryType","aliasName":"COMMENTED","name":"我回复的"}],"id":"40288189653c714401653c80a12f0003","isMulti":0,"aliasName":"queryType"},{"filterDatas":[{"id":"402881896545c1a3016545c786670002","sectionIndex":4,"sectionAliasName":"participatorGroup","aliasName":"all","name":"全部"}],"id":"402881896545c1a3016545c273570000","isMulti":0,"aliasName":"participatorGroup"}]}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_shaixuan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_comenlaste</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/comment-latest/2c9485fd66a5fcbc0166c46eb41709e6?time=1540984039</t>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenmessage/openapi/word-push-message-setting/off/2c9485fd66a5fcbc0166c46eb41709e6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_mremind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PUT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"wordid":"2c9485fd66a5fcbc0166c46eb41709e6"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_CRS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customers?page=undefined&amp;size=10&amp;sort=asc</t>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customer-word-widget/2c9485fd66a5fcbc0166c46eb41709e6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[
@@ -386,201 +389,531 @@
     "check": true
   }
 ]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_CRS_word</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_log</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/tag/list/2c9485fd66a5fcbc0166c46eb41709e6</t>
   </si>
   <si>
     <t>test_xiaobaiban_tag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_show-new-v2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/sns/account?type=WECHAT</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenremind/openapi/reminder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_remindself</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":"{\"groupId\":\"8a9c8ff35f81891f015f8569aa580002\"}","subject":"测试专用，请勿删除","source":"2c9485fd66a5fcbc0166c46eb41709e6","sourceType":"WORD","remind":"1546217100"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_wechat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/words/openapi/words/show-word-simple/2c9485fd66a5fcbc0166c46eb41709e6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_simple</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_task_log</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/logs?page=0&amp;size=20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/participators</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_task_participators</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-reports/wx3bc009c34c8a1040/8a9c8ff35f81891f015f8569aa580002/-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-sets?appId=wx3bc009c34c8a1040&amp;tenantId=8a9c8ff35f81891f015f8569aa580002</t>
+  </si>
+  <si>
+    <t>test_user_day_Canyudu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_canyudu_history</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_words_dashboard_feedback</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_words_shezhi_feedback</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/employee-outing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_words_dashboard_waichu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/outing-report?type=1&amp;queryType=1</t>
+  </si>
+  <si>
+    <t>test_user_hr_waichu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/baseinfo-cards?userId=8a9d3ed0609d0e200160f7a3dcae0003</t>
+  </si>
+  <si>
+    <t>test_user_geren_WeimingPian</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/personalprofile/openapi/user-vcard/permit/?code=c4d18eb76d9548f29c46dbef29944d21</t>
+  </si>
+  <si>
+    <t>test_user_geren_baseinfo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/baseinfo-cards?userId=8a9d3ed0609d0e200160f7a3dcae0003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_ziliao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/sns/account?type=WECHAT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_weixin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/esenhrm/openapi/role-label/employee-tags/8a9d3ed0609d0e200160f7a3dcae0003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_more</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_myfeedback</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/esenfeedback/openapi/feedbacks/count</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenfeedback/openapi/feedbacks/create</t>
+  </si>
+  <si>
+    <t>test_user_createeedback</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"很愿意愿意学习一下","phone":"","sourceType":"APP_IOS"}</t>
+  </si>
+  <si>
+    <t>{"groupId":"8a9c8ff35f81891f015f8569aa580002","id":"2c9485fd66a5fcbc0166c46eb41709e6","conclusion":"&lt;p&gt;测试结论吧哦1敏敏&lt;\/p&gt;\n","data":"{\"conclusionAttach\":[]}"}</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/logs/2c9485fd66a5fcbc0166c46eb41709e6?page=0&amp;size=20&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>test_user_geren_language</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_avoid_relative</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_experience_list</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_career</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_skill_list</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_certificate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_social_relative</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_train</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_base</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/Base</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_jiaoyu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/education-list</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/language-list</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/experience-list</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/emergency-contacts-list</t>
+  </si>
+  <si>
+    <t>test_user_geren_jinjilianxi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/avoid-relative-list</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/Career</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/skill-list</t>
+  </si>
+  <si>
+    <t>test_user_geren_zhiwuxinxi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/position-list</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/competency-list</t>
+  </si>
+  <si>
+    <t>test_user_geren_conpetency</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/certificate-list</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/social-relative-list</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/training-list</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/contract-list</t>
+  </si>
+  <si>
+    <t>test_user_geren_contract</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/project-list</t>
+  </si>
+  <si>
+    <t>test_user_geren_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/show-new-v2/2c9485fd66a5fcbc0166c46eb41709e6?countedReadingTimes=1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_xiaobaiban_show-new-v2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/sns/account?type=WECHAT</t>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/esenremind/openapi/reminder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_xiaobaiban_remindself</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/week-participation-summary-all?pt=20181014</t>
+  </si>
+  <si>
+    <t>test_user_canyudu_xiaojie</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_faq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://support.esenyun.com/esenfeedback/openapi/system/faq-catalogs</t>
+  </si>
+  <si>
+    <t>http://support.esenyun.com/esenfeedback/openapi/faq-follow/2c94830666202c4a016657fb9950007b/1</t>
+  </si>
+  <si>
+    <t>test_user_faq_follow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/someone-hrs-letter</t>
+  </si>
+  <si>
+    <t>test_user_letter_someone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/used?createdTime=2018-11-01T05:00:05Z&amp;page=0&amp;size=10&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>test_user_letter_oneday</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter-records?page=0&amp;size=10&amp;sort=</t>
+  </si>
+  <si>
+    <t>test_user_letter_history</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/billboard/month</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/billboard/quarter</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/billboard/year</t>
+  </si>
+  <si>
+    <t>test_user_letter_quarter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_letter_year</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/save</t>
+  </si>
+  <si>
+    <t>test_user_letter_save</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"data":"{\"groupId\":\"8a9c8ff35f81891f015f8569aa580002\"}","subject":"测试专用，请勿删除","source":"2c9485fd66a5fcbc0166c46eb41709e6","sourceType":"WORD","remind":"1546217100"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_xiaobaiban_wechat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/approval/words/openapi/words/show-word-simple/2c9485fd66a5fcbc0166c46eb41709e6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_xiaobaiban_simple</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_task_log</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/logs?page=0&amp;size=20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/participators</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_task_participators</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-reports/wx3bc009c34c8a1040/8a9c8ff35f81891f015f8569aa580002/-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-sets?appId=wx3bc009c34c8a1040&amp;tenantId=8a9c8ff35f81891f015f8569aa580002</t>
-  </si>
-  <si>
-    <t>test_user_day_Canyudu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_canyudu_history</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_words_dashboard_feedback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_words_shezhi_feedback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/employee-outing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_words_dashboard_waichu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/outing-report?type=1&amp;queryType=1</t>
-  </si>
-  <si>
-    <t>test_user_hr_waichu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/baseinfo-cards?userId=8a9d3ed0609d0e200160f7a3dcae0003</t>
-  </si>
-  <si>
-    <t>test_user_geren_WeimingPian</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/personal/personalprofile/openapi/user-vcard/permit/?code=c4d18eb76d9548f29c46dbef29944d21</t>
-  </si>
-  <si>
-    <t>test_user_geren_baseinfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/baseinfo-cards?userId=8a9d3ed0609d0e200160f7a3dcae0003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_geren_ziliao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/sns/account?type=WECHAT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_geren_weixin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/personal/esenhrm/openapi/role-label/employee-tags/8a9d3ed0609d0e200160f7a3dcae0003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_geren_more</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_myfeedback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/personal/esenfeedback/openapi/feedbacks/count</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/esenfeedback/openapi/feedbacks/create</t>
-  </si>
-  <si>
-    <t>test_user_createeedback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"title":"很愿意愿意学习一下","phone":"","sourceType":"APP_IOS"}</t>
-  </si>
-  <si>
-    <t>{"groupId":"8a9c8ff35f81891f015f8569aa580002","id":"2c9485fd66a5fcbc0166c46eb41709e6","conclusion":"&lt;p&gt;测试结论吧哦1敏敏&lt;\/p&gt;\n","data":"{\"conclusionAttach\":[]}"}</t>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/logs/2c9485fd66a5fcbc0166c46eb41709e6?page=0&amp;size=20&amp;sort=asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_letter_month</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "description": "测试",
+  "granteeId": "8a9c8ff35deb01ad015deb6e539d0003",
+  "realNameOption": "1",
+  "id": "",
+  "userId": ""
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/address-book/cache?showAll=0</t>
+  </si>
+  <si>
+    <t>test_user_geren_addressbook</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_teaminfo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esengtp/openapi/group-home-page?groupId=8a74859165cda425016682178d070003</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/esengtp/openapi/plugin-templates/notice/APPLY_ADD_FORMAL_GROUP_MEMBER_NOTICE?groupId=8a74859165cda425016682178d070003</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/esengtp/openapi/add-group-members</t>
+  </si>
+  <si>
+    <t>{
+"reason": "成员变动",
+"noticeCategory": "GROUP_MEMBER",
+"templateContent": "成员变动",
+"openIds": [],
+"noticeFlag": true,
+"agreeFlag": true,
+"defaultPosition": true,
+"members": [
+{
+"groupId": "8a74859165cda425016682178d070003",
+"openId": "8a9d3ed060ee8eb901612861be25001c",
+"memberName": "adsaf",
+"userId": "8a9870c160ee8cff01612861bde30026",
+"shortName": "adsaf",
+"avatar": ""
+}
+]
+}</t>
+  </si>
+  <si>
+    <t>test_user_team_addnotice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_team_removenotice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/esengtp/openapi/plugin-templates/notice/APPLY_REMOVE_FORMAL_GROUP_MEMBER_SUCCESS?groupId=8a74859165cda425016682178d070003</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/esengtp/openapi/remove-group-members</t>
+  </si>
+  <si>
+    <t>test_user_team_RemoveMember</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"reason": "成员变动",
+"noticeCategory": "GROUP_MEMBER",
+"templateContent": "成员变动",
+"openIds": [],
+"noticeFlag": true,
+"agreeFlag": true,
+"defaultPosition": true,
+"members": [
+{
+"groupId": "8a74859165cda425016682178d070003",
+"openId": "8a9d3ed060ee8eb901612861be25001c",
+"memberName": "adsaf",
+"userId": "8a9870c160ee8cff01612861bde30026",
+"shortName": "adsaf",
+"avatar": ""
+}
+]
+}</t>
+  </si>
+  <si>
+    <t>test_user_team_addmember</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenwxmp/openapi/authroizer/detail?appCategory=MA_VCARD</t>
+  </si>
+  <si>
+    <t>test_user_team_waibu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/esenhrm/openapi/role-label</t>
+  </si>
+  <si>
+    <t>{
+"groupId": "8a74859165cda425016682178d070003",
+"tagNames": [
+"好好阿浩好阿浩电话打"
+]
+}</t>
+  </si>
+  <si>
+    <t>test_user_team_juese</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esengtp/openapi/update-gtp-groups</t>
+  </si>
+  <si>
+    <t>test_user_team_update</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"logo":"","id":"8a74859165cda425016682178d070003","name":"项目项目项目","category":"PROJECT","description":"这是一个神奇的项目"}</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esensearch/openapi/search/filter-search/WORD?groupId=8a74859165cda425016682178d070003&amp;ext=LASTMODIFIEDTIMEDESC&amp;page=0&amp;size=20</t>
+  </si>
+  <si>
+    <t>test_user_team_words</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"searchFilterList":[]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,6 +966,18 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -658,37 +1003,37 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -697,6 +1042,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -985,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1246,7 +1613,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -1340,7 +1707,7 @@
         <v>91</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -1367,10 +1734,10 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>43</v>
@@ -1382,10 +1749,10 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>43</v>
@@ -1397,16 +1764,16 @@
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>201</v>
@@ -1414,10 +1781,10 @@
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>43</v>
@@ -1554,7 +1921,7 @@
       <c r="E45" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1718,10 +2085,10 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1733,13 +2100,13 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -1978,7 +2345,7 @@
       <c r="E44" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1988,7 +2355,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2018,7 +2385,7 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>69</v>
@@ -2032,7 +2399,7 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>70</v>
@@ -2074,10 +2441,10 @@
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
@@ -2088,13 +2455,13 @@
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -2102,10 +2469,10 @@
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>14</v>
@@ -2116,10 +2483,10 @@
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>14</v>
@@ -2130,35 +2497,64 @@
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="10">
+        <v>200</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -2217,13 +2613,159 @@
       <c r="E21" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="117" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2257,10 +2799,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>14</v>
@@ -2270,24 +2812,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="110.5" customWidth="1"/>
-    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="117" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -2309,13 +2853,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -2323,13 +2867,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10">
@@ -2338,13 +2882,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="10">
@@ -2353,13 +2897,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="10">
@@ -2368,21 +2912,686 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="10">
         <v>200</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="167.5" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="92" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="53" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="141.5" customWidth="1"/>
+    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="6"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="4" r:id="rId2"/>
     <sheet name="H5" sheetId="3" r:id="rId3"/>
-    <sheet name="letter" sheetId="7" r:id="rId4"/>
-    <sheet name="hr" sheetId="5" r:id="rId5"/>
-    <sheet name="chat" sheetId="8" r:id="rId6"/>
-    <sheet name="gtp" sheetId="9" r:id="rId7"/>
-    <sheet name="personalprofile" sheetId="6" r:id="rId8"/>
+    <sheet name="VCARD" sheetId="11" r:id="rId4"/>
+    <sheet name="letter" sheetId="7" r:id="rId5"/>
+    <sheet name="out" sheetId="5" r:id="rId6"/>
+    <sheet name="approval" sheetId="10" r:id="rId7"/>
+    <sheet name="chat" sheetId="8" r:id="rId8"/>
+    <sheet name="gtp" sheetId="9" r:id="rId9"/>
+    <sheet name="personalprofile" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -34,49 +36,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="254">
   <si>
     <t>POST</t>
   </si>
   <si>
     <t>http://115.28.108.130:5000/api/user/login/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"name": "张三","password":"123456"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h1&gt;登录成功&lt;/h1&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>case_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>expect_res</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_login_normal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -90,86 +92,86 @@
     <rPh sb="64" eb="65">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_coment</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://workdesk.esenyun.com/words/openapi/comments/create</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_cainajianyi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_quxiaocaina</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_yidu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_weidu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_remind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_kudos</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_unkudos</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_collect</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_collect_cancel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_search</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/kudos/2c9485fd66a5fcbc0166c46eb41709e6</t>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/adopt/2c9485fd66a5fcbc0166c912da070ba3/1?groupId=8a9c8ff35f81891f015f8569aa580002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/adopt/2c9485fd66a5fcbc0166c912da070ba3/0?groupId=8a9c8ff35f81891f015f8569aa580002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/members/2c9485fd66a5fcbc0166c46eb41709e6/READ</t>
@@ -191,7 +193,7 @@
   </si>
   <si>
     <t>{"groupId":"8a9c8ff35f81891f015f8569aa580002","toMemberIds":["c0a80c87643946978e7b84c8c6b88f51","8a9d3ed0603584f501606d80913d000c","241a82e139a349e0a9dc9b8a1d9621d4","b0469abc385640ae8b3f0f7ab4e8e2bc","03c26f4acd8d4470884fa62b15c68681","fb9633392b5348ae97cc514fbed8c7e0","d2b8f5e698ea44bea76a96b7a59b2d2f","c76638d9bda34f989710b8e58c2233f3","dd51ebf979204e31a2a82b6dad395293","576763fcb3e44914a1adf12104fa814e","fcd30cd4a94747e5a572923c713cc9a0","de4ac2fd762446b983f0bcadb290c9f1","1b43a95e46dc45b8a0a5e4abb7db0522","ae9044743dbb4f5fbf5ed5a1eb3bc4b7","6837047319fd40309f36f1ebe2db7151","e21daf69e2c94a93a646d06d9d8024f5","29a2abb59ea843a3b1d6ecf5d8a7eaca","ba6ff1c9aa304716aff30453cd8ec9fa","58c9d7ce40a947debc208d754e47e631","2aed8e8e50734b48854829433aaa0e73","a7718462d14442ef9cf8c211cad971c6","5f5904982cbf425484ca508c261b990c","5ce0bde083874d05b5e107e02b4c826f","851c38ea21f446189bf15223a59aac30","ab9dadeed2444c64b2e7cd1f19107408","2e541d303c934e89bd0111b088e6e38b","67d1adafdc78473b8d3a4125b3a49907","702e3ee82bc94ba28998a8325e0ffdb4","a8e0b44a6cde498b9817796964075a21","68b3f8a509bd42e081b6a1423d736285","a903797bcbeb441ba4f138d5fc6b1d6f","18fade97de684f7c877a649bfa01d20f","101aa515988849b2b69d4a4c9ae50d6d","caa63815880344b69c7973fa35b9e09a","e1f509268f734e70b02c7f67bc96b08f","52c8af495ff847c98a31304d6a991646","697f5f0863e7495b8ea0742e1286c7ad","8993f07696f04b4c854c8764f2ff34eb","a79cc90a318442fb8167f20e1e911f9b","2b932da313a94cf1a18c5d55f29ab24b","f7d2ed9c853540b98b037f8307a66a0f","7546811936274d4b9c88160e0153b010","987b643c653e4cd38f0387367c44b15a","c05974af4b4a4b7d82aa9aa9ea617355","84a09626c5ef479e923b77cf4acec96e","0f61fbea2e124074adae0c49f30a2a52","509262a6f77045d7a98950d9d087ecef","47dbfc184dba4deb8a232c62cc6c302f","d73e80c089e347dfbfb73aa32aae7d76","5c084243688f4067964a1ce3082866d3","b9756a606213470684f5a8d004c11f51","0ef904f3de804fbe9d0d5e95befb2aeb","ceaeef0dcfea4d868cd5d429b9f34bfd","4cea796a2ca14be7b44df1fe8719dfb1","b4c9a9db5dd44f81abb3c05b737bf926","2fc3a4a1ce8f48acb34ee288803400e4","8a9c8ff3609cfec40160ea877de90000","37feadbf323a40ed9e977b7447398ac0","95ae105b7fa649a6907481e99f582376","8a9d3ed060ee8eb90161285866610016","769e8fe3beae4783858d472ff4dd9c72","bfe8b389bb4546348b4b735e7729f39e","b4a3c582a365469c86f1474ee3b5f889","f9ce8471008441fca184d67b20f1ed4d","1391bdb1e72844098d0a531e2fe840ed","ad7ff90356254a1389f98f21bf25444b","6bd9f674a6d4464caa4a1f88371c3817","f3928c4a75c94ebb9676ae28e611221e","626ab70b51174ae99e3635df6d318d0f","b45120c8c32a448ca6a0e3f1a24652b8","1f398738dfa6464d8a792093a1a55b46","9891d7939d4f4ef4a65e8fa6ff0e78a0","ab797caa52e14ab4b3f9c470f8a88b21","0eab52ae10a44199936d8c0133f68ba4","105e114179af404cab7b333b1fc9b1c0","0ff57c1a51fe4b5f81c88b3032adb24d","59079d3cd5e14474bdcf9e583f181055","c6bcf7b3e1c04d38be04f136387fc6a0","8a9870c16093114e016097451b1b0004","38595e20080e4fdeb663ebc95a8b3c58","64f9feac643444abb8f0cf90814216fc","d2a925e87c884ae08ef4ab0cf64cd683","332ac91c987a48b4b8571a3378459e8b","51ee6db64fa3488c83aae03d7c383156","86527d632d3c49cca0c43bfb3db4442c","78cad32bf6564b538e70be8229b46d5b","e02e2bf4450e4e6da7e07eef3c5fcbc2","97c8490bd11c4ec6bc5419b0c030e299","ff232f7f62dc446db44f6e3f8ed1ee01","8a83103847764d29983d3837053577aa","2f110a1f4eed4d00b875af972c7d32f5","e21e05c959d34553a7e3f77b9229c347","aac4eea625d542ee981bcdfc66a26a3f","4194ba7ce1384162a41c90753467f319","260f5fe8cfbd44fda08e1d4c9458b533","0ebd1bf809b446c4a6abc4bb3c47cbbd","7c812fff2e50446b936ca33e137510a3","556b32d6693f4ac6bd6725ae99fac3c9","bc9c4b0e3d6b4e14aecdece2844f8198","b2154542e93240b280c4d84572b3701b","b6ad3c6cd4724c0d864fcc707087fe9f","882138070e7e4ea29a11b0045b3085f9","56d0e20528a6470e95c77d382a13399f","229441ab808d4317bf8b6a3bf35043d0","2b0a4d4e58b54f8bb833ca063da3b4df","851f2999c2a54c169aae9fca37474444","31b6f401e07c45ee901a12f0212331d7","c7cbffc0ae084a448f7ca028722246ba","84760e9143504f35b0bb18c0511b263f","057677c70e76428e8a5dcd7bc12c1fe9","fd52411257f3482ba81ed58623fce0e8","feb8a24a8d22402f83e65e688b7f5816","530b694d69924b8faade016efc8f8c37","ef0dc392bf8842958d449f490750fea9","88c9c99588d24b2f84aedfe9b0c409c1","549ae5b6e25941989a5a118e5ba106e9","3c8c6114c5384812b38b56554fe34f1a","0fcfa7a05df242ccbc84db3e65c43f56","0f9f6b688090464b8b63e1062d9e5899","ca13685bcf31431a962fd43b9149ca10","494327ac58b54eacb4e4e3266fb8d883","1f311729ab264a559e89051ce851830c","2f5e9009453b4775ae6920117e4380c3","06b096db24bc454f8713dd39f9588028","f214fa3cbb6a4f27b31db07107103de2","aa7df86c5d114c8caa9a5f7cfa24a398","102ada2bad514800ba86a9be64252e89","eed7fac599c14bada2d6991b9bec78b9","ce622cb4b4a34ced8e6854685d06eef7","f58924d4a3a14a74bce30ef72ab7cf3c","9fb96c9bd17447559c416da1662c99b5","ba3fa83376ed4a16b40686d2ada666f6","02a06e4a8a2c4fd8859fdc18e6e94d82","65d2dff9da904215a7a4adf7701e3712","31782a3696f1437e95191444b143422e","4c6eca1422fe4a698fc7b8ec01feec44","aa414e20761b42ad8ea2a2b3d48813c5","e2880a52e60b434e95f3f9dc10a9027d","a3583b6f42274d1f9f393e2838b898b0","13db1c21655044609fe22ae02a73abdd","231e86ad5d32452e95a0299ded8b7a51","80683fe866be4cebb32c70ffc89bf211","607f1645d8eb4e7dace838396c1864c4","3ef3bc1a55734b8188ddbca155e040bd","0c2296badf254ef39c24ca18314871ca","4917fd57bd6a4e80bb06ca464f560dd6","48c40a23e5ab426e81c6c6e3b783383a","29a67dcb98ba4ebf95976826793d76be","16efea8114c04b9a8e124c44ae3833c7","d7302ce1a8444ffead7ece3802302341","13741c4f1c1d405599f02041d28e3481","6fa6cd1753c148448198ccfc405308ad","8a9c8ff3609cfec40160eef727b10001","5f76d73b21e84707872142d054f88812","f9513fc3cbba47c799ba319222be7c5c","4dfb75b067e3433c9cf32d4c10cb875a","e28e01bec3ab4fbab95a6c40c1fde574","e9a376094b3645c588a8e0d1a09f3c70","7fc39158e76e4357aeb45f3462e60a0e","c1ab4199a73144009b4fd2842f81fe7f","94509c461df54259abdf9010a94f8fe0","5dfb46ce438f418e803135aec6c56d4b","699f45e874f74a11823ae18cfd769e46","4ee73089610c4ac6afcf739699de87ff","9ccc7298deed40d181b0e3cf61114a15","c839c747c4b1461a9e502fa6de010cf9","be847c246141442082480d80310e4e68","eacbbef1137249a5a343d36cdd56a972","c26aaa6c473149fb92581c411098c414","44c1a8302ea3410db49c88d4e5c41ece","a363e7e4903d4b26aa7a54583c496cee","03c63c952b9d448c99bf2a87f406a18a","e1764c6df4a24c38b46fd9bf769cb5f1","8a9c8ff3609cfec40160eef88e620003","81dba95cf6ac486fafa22d47b7a93a3c","e4da5bb6ede64ded94c9ffee896735d5","cf30aa778d8e4d6c9373a9f496de9bf1","6bc4494301794280b38d76049603d0df","cf6aaa17b1154d1fa228d436cf99a95b","e7d70667389342f4b7a50a3fd211d43b","d695482ce82c4d88935ca9b3943f4b50","6db13d8d29a54fe0a1a5e927a15fd85c","7b86ddaf71424b3b82bf1971935b30ad","5d6820d387cc440bb74258ff4ee1eea9","d16acb6fddd749e999544b8fea953220","4a2c2b912ebe4568b5073ed2988241be","1928b4988580406bb1e3d45210815c48","86a5489b629649629a5ceef5fc94bc1d","8c763f4d33ad45dda3c758da0360a8e5","afa2f7397ae84a49895393681802be25","1a0154d4b61b415a8a35304bf7656238","3e504c4fda9045bc865ebdbac8767df4","ab7e635adfbe4e699510e170e2a1ca60","36937a7a1b3047e18990a7110d39f2a5","bbe07740e34d4e66b0ea2ca0e60159f5","a8e3e05148c9477a998e5a0d1518ecf8","672cc4f1773749be924e311f6333eb52","8a9d3ed060ee8eb901612861be25001c","6a6692515f57454b9aeaccff2ad45b05","2064fa6ef82c41d8ae2198d3defda846","01e2ce04a89e4dca807fd82ba4e6b757","0a0d7686d1da4729a1e40e7b4e1cb0c8","fcc7a2565f864258ba818c80e05ade75","295f7c6b82f34dcd8823d2f34c2257a1","9782ee4b0bb740e0bb94484498a23b6e","b51fd8a4ea7146579237b7feb7951c5d","702ea62ff6f74ec48dbf1abe43b68fb3","345b32247b824d14a9ae98fef23d9c98","9e1eb45e46b04c9c995dd92eac290044","af79a6100496478fa45a8a5a8a24247e","8f29aa8da0374907892e8d98297dd1a7","e2eb39aefb1b4129b77a2ff03ec78ad0","88d5db7932f74232be04913d421c8d5d","8c136bf2705b43fdaee74da94c001b7e","e61103f5f861406ca98b02456ec3f3b5","9723ff8564eb44e0b9cd32893d6b6f45","715d81b92dc94b55b5e3fe9d7e50c963","82a3dd0bab474ade8f752718c6f5068b","14db186ae12649f3937a39f74028b46a","46093b6151554830bea3503b769337ee","e28c148211e345cc9d1ef591e65cc455","baffb2b5736d4666b39c7319952f9651","99ed598c82ae4d3e99f19ce363f24441","2fa6a0f295054ca2b5e2e34cbb435bcd","06b4d07da5864eeba875004ec728632f","76cd8950aa1449ee8a4df100c6970e23","d97ad2c6c22c45d391c2e227e8ba4b76","4acaf73acce3408ca7f5063d2d1008df","8b2b7033881948c9ab246b2b7e55019e","a014ec2de71f4044a1561176cbf960ff","27b9344abb164331843db48162ad5b70","1d7f1afca9a04ecea6f02c74f47efd34","43108c93aa6f49d18e17984408136148","fa8cd29dce504215940d984bf7e86229","662b94a6a6d84a08a2aa306dd3fa4e1f","fb3b0375dc124b9b9efe1433960a5a90","8bf3bbc94bbd43bdbf80284b3b4a79b9","e7a3ec585f5741a1ad1151a33a75b35b","a9d1cca250de4b37b2ac92f6049fdbbc","77e96a3d4e20497c89521a544af70960","94fb6f8703044bf4b1b9e0b0a6269ecb","4a92955b27474fa199d698953fff6d25","386c5780b399430b9f5292c77ca66b8b","6cebac645ae74a2f86d6617bf0b4f24b","b09919fc256145f09377c5c8a82a1ab9","c4830d0141a54f878590a725e22d570c","1906556e70e940bb98950958432a9a07","de00191aecf941b2992d75cf35b1ffd8","19ba6b99c96c4ea5b6864f01cd12788f","04f70d9160b04dbfaf637d962e97e7c8","32c2a7f2efa644699ba5579f7593502c","48e2215f09b042acb699f9cd364458b7","85afcd736497434580a4a83f6622b00b","79ecc309525e4eee94e537be1f562681","fa72028449f54fb9931cd8ba82694db2","2a7d6f0cf1684dbd8b9cc7fffa7c4a34","1c8b5b4bea194aceb0ddd4482de52903","f28e39913506415d80f98ed21b878a5f","0721a3f4eca04048b1981f6baa888ba7","ec92a5ae015d4385bf9313b84564a430","f99b2464ee574d289e84dd55fda3f8b7","fae12883ec6e4308803a9b8a24302d98","23216b38c67b466994113c749e0572c0","0a0418c1d76a4e55bf91fe077e0dc164","a4989a436bae42d2a23260ed3bcda295","91034614eb5a46a7b54fc5c7851c935d","e690cb2ded3548c3bfdd19ecaadc66b1","700db3e8c9de448587b57cf3d68e4094","a1a9339a8519418b80f6cc5d966ae505","9b0c04a881bc4335a50942d1241646c4","1c92fa74992f49f2a1b23b6447b782e5","70a1e2ab1987464b9b65a89af2d859ba","56495bb9303646a0b2c1290d68854b1c","aaec0d1d842c455bbc712016b12a5c07","5f15aa8000db40059ef1612fbfcee8b3","c4163fa0252241e3b47aef3036c99fb8","92b7596d8a0744249f30469ee1a9af6c","768b7d9c31ac4c6e855c7ffea3f908c0","ed306466914347968378d711c175d1d8","d3da2a207ad8457aa13be4fd94d69ecd","c4d6499e887e49b69527d911113de6e9","aca8190b7b0945f78fd57ff8d68dde76","346bf005903341f2867b683693285744","014913b2adf249bda96dbe0d61dca45c","60004b4fedce4b338a6f267816d9542a","4be7c1ae5bd547dc932e1d18578a6fd8","2dd02a5f84934bff9d55ec7920b944d7","cec325cf92054652807502fefd14eca2","2327db3f6663469f9b19d73465d18000","b576841128ab4e0a9574ab5304904141","58cdbc0663c64458b231e9cb7afe1322","6cba557e803d41c0b96e4c10f503331e","3569ed4237c24b14b0918dbea034f78a","8a9c8ff3609cfec40160f7d3d1b10004","a2627f7f2d344cdcb25983defab9ac1f","da6603d19ed142be95dff304bc44c514","430c781b8f7748b487389fc7565d6eaa","a42f708314ff4736b4ca81d8c6ba89a2","20c52400342d4ffc980eab883b253129","8a9c8ff3609cfec40160f91e38d00006","b7e68f4aa41045ee83e8a3a388c4b382","51bc6c22ed034c79a1e3341e7ee1871b","8a9c8ff3609cfec40160f7d521520005","9d96d09b24a64533ab1921cc8ddc563f","13665fdfc6224da582e2863f15f80c39","2cbb0914035c4a94893957e1549714b8","8a9c8ff3609cfec40161023b6bce0007","ffc1365736b8481c86ed9f81ec85a088","aac38eff0a9643a8b069fd1acd59cf5a","ed676722a6ea4cc78ea3e4cd54798038","f4ff280237ac4a2599112cdc42cf8a40","744d14f717794a93b7644037ad4d645e","0834e83903e442c5a652b347aeb28297","03e0846bcd54442eb482acd5c45bb7c2","9e8ddbbf95d647b0868deec1b4c0951c","4b9483a2ea6d42e78465021e3922d81a","9590f43bc5b74c30b7d56359ce9120b8","14571108534e4f38b67928743c2b9deb","aab33f2c79bc4f7cabd5ff1ea152dd33","02a76915b60145dea1636499d87956b1","ab9a880f94254249aae9349172059134","efa7ac13b90f4c6ebe1ff14bafbebdfd","e00e6e11d3ae495f8d61bc14bfcecc9c","135c38416a794cf3a64da53935a36be9","81701a0f0bc44f8e85fb1acc9a7e5dec","cda86ba4558942bfa195cab342dcb164","84c0e39a28a34dce94cddf99d66d67d9","bd29ec847e13495c841b017fb7712f3e","59bf9b21d868482bbf6ebad5239e7cb1","baaa24e48a6d45e09f4d79214e07a439","4b7da546089f495fa44f982a886d8474","05a497f0e33a4f6c85b1532ac8fb6af7","ec3288669f7a4e86b86f065941a56107","c433c3ce61954a6fb7b8eb85b823f40f","331e493af849451c832db7d0ba5e12fb","eaf776425f534feda79193daed91caa5","fea5ffb17b2a46c191e0926f2fc2ef1b","63d779c9a5014ab4b3ee850f794d0bcc","86bd3ae43a154d56b16c3946ea6e5068","57f6a5bba510451abd5b13a302dbdaf4","d422d571861149fb8c28b77231d3fb12","c9b8e517431340ea9a6e8ce34dd8d32e","adb4d0161d374d1093e1e60de4b3aca3","eaf7886ee3e64566b0b2ffa43ff5154e","9592c7c1581a4b2aabce1fddae144c0d","23b35f0b79dd4d2096902988bc8267d7","ab26a0f50ddd4c9389ec25363ed09e6f","bf89c0ccae9841258cf4adaf26413d12","cc62182378464b1ca34ecdeb8becec71","773e92654eaf412ea1b3e00f8ce17b67","966986a6b8894b829e45e7aa4825b8c1","91c96cec981a41dca3c131bf157d5860","16d73626dc1e4fb19af0c7588307d895","236831da026b4222b0aa6bdea0f9fd84","1a5847c0923749989dceab68372aece8","e06b17000d234ec8ad87cc14d82b3119","139e03293b96487f94caf9d5de099791","9bb609966006424e8ad6dee2f91af5fa","b39eb718aca54fdd9caad6e96479f10b","ca8b003048fb490494317c58f64971e3","9bd44ecfe67f4e3ab6781327f073f09c","ea01a1d2359643d7bc8def60978b1589","f9f3cccec2ef42fe98390aeb13ca068e","507d5b864e72440091d973d11b35fd86","2034d7c9208748119f0c6192e0e18f93","dde118279c9f4f8bbc0528a0cea761fa","29bca3f007a44dac93a8eae6e0862e7e","72a48b7ce6c34e559619c90e7630608f","e28884a1a150408db769263baa3d9999","adf8feabc16d45ba9a51c4adda367153","f490c0d63ec54c218ba133ee1f240fdc","26fbeadbd78a4559b1e2d27fe2c2eafb","a683c573063347ca9521791d047e6a87","62fb9aaaf7e04f6989e5a9489ba76aae","94660ab5b5e240f79f85659778623baf","fb5629525c5f4ff1b914413cdb1661cb","4139cfc4946e4d0882a7f92efcbb2552","10ed5bf2708f47f78e639968ab44656c","8a9c8ff35f81891f015f8569aa760003","7a1787d9135f4c4688cc0dc469ca87d8","8b0528f4a44f4c359b7720d9ba5436f3","31726ff00e8942cb8ab627dfc1daf5c2","78cf84ceefc846b1a668e62d9fd9e9d5","f58334a8bfd44bc88052308930125dee","e3fd4a8a6b5044e0bbf44bbf2b085b46","8aee2a8733904aac89e41b323f8ce9eb","851939b088794f8b958dcee559fa072c","b204d70d7ceb4cab9d53bc01a587de96","8d1c44a2f7b44b5cb3d65b5aba8147ba","cf5dcd9487ee406890976ffa7fb4ebea","8a9c8ff3609cfec4016107fa51570008","c5e492d56dc741f0bb2a7e245a96641a","5f238a40d91a48ce8e61af190174ecdb","11ea32012fb5450c9a19a4f8342f97f9","dd971d88c2594a7880ba0538c81d309f","035e8ee940f94379a593d48464226804","8886982d69c94ebba03378fbfcc70ac0","670337da1220474e92c1b08bd72e8858","972332809f3a4169bc2327d22f42599e","b0c9795e8f194bc895ad687e7561b0c1","d289117825e74bdeaa113639e38ea993","5427a7c9f402484fa61ad0268fe5406b","f7a836d4ffd24876b23d887ce3172272","c4a63684c63c4211af529c20831b76a4","7ea8ddfd8a8f4def85267839b0772610","3d91e4293793455bbf5bd42c173d9ae5","f8d78410a602489691d86a121d44a3f9","18b6f1dc995047d390e41f6c35c69e67","569c8134f06e45d09d667f5505850534","17c8a07b9549467396213fa6cd9b68ca","55b43904009e45499e5b86d6e8592f6d","e5fda89ef948493e9eb8783bb86c1152","974ed70c879544fea440ad1ea0bfe41e","1a144ede092e4dfc99dd55603d0be234","5e4559cc89874bb6962cb470bd1958c5","c463a6612aef4a81a924a88b7ac9eb2a","4c53af38c8684d6db8aaac696cd4d9fc","15a23110cdb24ea5bf1f5bf18d8d49df","78bb4a3357c940968afe9832699ece90","0c9c3406124f467cba14d1f59bb1f81e","8c9690cb211247db8065a94de2db46e5","a983836f10894707af6bdc2ed93ca363","969ef82e3c464f76ac2e97b4661b7ff2","029e9ef115c142f89a559bc0c7c3e226","6a3ba35e7a1b403899fb07d52d529d89","6e38112dc9b84df49a110dbe0fdc3f44","d0f0ccae6c6b4606b7285e3ba3f4016e","8b88d27208a64e35a2bb95acc629b2f7","ca7afcc451c4472e9403c7a6676a0725","3c0c4b8e5a9441e9b842e957503bd024","0820170474fc4ff493e2d9d286b018c3","77537a52b8494c158d90906cb988b990","21191344c0f04ac3b5f949c15420a75d","c337ee1bcd1a4d4b9960dbee88ff1567","4b59e015564043d7960c6b26cb3592d0","785b181516f34b208e61925412db6e46","5b4b93a0c9184059a250d617c4ae1bf7","056c3bdc774a476196d0131f7fcfb850","732e0cd153dd4081a0f71d44bfbcc027","f529094777a64867b6b406823380e9c0","b1c45964a08f4e23b209c9b6ede849fc","a4b21abeb03147e092ac072558a17003","35f4dfb5e5594c30bcd1e89a4bf3a1d0","52628dac699a44e286788d08b8ce5928","5011e6e1a580490795511a86b14e762e","d9d40d572dec484cb04e30101375508d","05603343dad54a20b1132333918026c3","5736c2e2f8bd4b7e96534d70874fb66b","eee54dec36af4bc5b57879b51186bbb0","30b83efc1d6d474a99f7515029d20b04","d7cae916c2cb465b991ad17174aacc40","10f147bf047b4697a4a7f8c8ac579327","a1b8594cb1204e6ba4fce8f65c5e98bb","7a5011bc498843ee87a3956dc806edbd","2cc40a7bba674b5fb6ea3c4bded4c25a","a84da26c6d7c41a39d1700399ee27417","d6662da949a949fd97e6d404a79d3631","f84a3334749046529f34705311204319","93ca0fdbe2a541df9b6fc883de73d90c","111e4cd7570d46119ff86c85044d6044","8d9fd9154e6d470db3fa16b32eccb73f","afce0e0cb8d44006999712988c48d364","2fc30d8dd14d4e87abeab4dbd0030666","10f0bdab8c6b4a7c959f33adf2fffa4c","282ee7b014bb4f6da6ea3063a92acc74","ad9631f32652436c97cb7e58ce3ce592","a3391299b5694704977d20ee336507db","1c782a58639c4baaa1c0f8007f41893b","f13ede42d868454eb7540df675082f3b","3e9a71e2d8044fe7b19274179271ac47","27fce0c07a744938bd519284a869f589","608288caa8374caba3408c7b94ac2bfc","5403b1f81edc418bb2ad66a9ae6ce2e6","574a9821e6594686b25544d3b28b0fc8","f33bed92bcd34bb882994be7f6a6ba05","6bce2620540c441ea3e034bb8505706d","1a6c3d853c094e33bb8330566c43748c","4cbbca28ccd245dd902e450175748290","c33629f924354cf991646e5ccee99afd","b588b8e206494ee2876973b411dd7e07","ef6f47eb5c694880b852bcccd2f747bf","967f4c7fc1ac4e249cdd9f037db3e8ee","a93381f72b8342609738944118549165","59501a50e99e496b96860f5b807f0103","60d741713dd74aa6b089599cd7f85e51","ea3dfd1b4f9944a6abebdede11492ece","da8fdb3b6b1843d3995d081c8a105a25","215224bdd1574757ba291ee9d56b243c","0c221e2e098241c5bcaeb50547b21281","6d75ea600b4c4275b68b43dc03b78f88","f4df89d9f30841dea7380836a99cc06f","1d9a6b4f34814e0aafb3470f37e2fa47","a5c8403744db43998e315f81765761e6","0fe2fbf95e264ebebc813e30b247d297","98adbf87ffd74f179479cb95cab91397","35e4f19f87ac408abfe047ab667e3bbc","85e9ef053c3b4a0e8982c039ab807c18","d7f4cb98ba444f91ab530e69856f7f27","8a9d3ed060ee8eb9016128718762001e","cd44bbee8880444a9205ee25f85968bd","3abd6843716849b19285e668020c1ebf","972a21b922d941709776f424165d315b","4a668e17675d4a11a8c093e85437d786","88eaa5bd789545db81bbc2812de84262","da189dd4abb447aebe95ace2920bffd1","cc209a9d6e294e27963c71f9b29967bf","791fcd329ac44875aebdadaef0122ce8","ea2fa0a65b974d6493b6af01856d733c","58624f782e984392aa7eb592e89b4c21","82683ed2b3e64efea0d58a5621fb7a96","30d397bcd295466da7ed9d7dea7fe0de","32cb808cee4044fd92e90009cc121083","78288bb234604271b7c29fd56e40417e","a532d5100f694d2ebc29858399ad298e","eeb5244d652b49a8ac587d88886d7651","8bbfd3e20c37491da13b7b4af0ce8684"],"wordId":"2c9485fd66a5fcbc0166c46eb41709e6"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenpersonalspace/openapi/collect/delete/2c9485fd66a5fcbc0166c46eb41709e6</t>
@@ -204,36 +206,36 @@
   </si>
   <si>
     <t>test_xiaobaiban_looktaolun</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/participants-group-member/2c9485fd66a5fcbc0166c46eb41709e6?page=0&amp;size=100000</t>
   </si>
   <si>
     <t>test_xiaobaiban_groupmember</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/conclude</t>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_jielun</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"wordId":"2c9485fd66a5fcbc0166c46eb41709e6","sort":"desc"}</t>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/summary/v2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/v3?category=todo&amp;page=0&amp;size=20&amp;sort=overdueDate&amp;type=todo</t>
@@ -246,65 +248,65 @@
   </si>
   <si>
     <t>test_looktask</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_todo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_outdo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_toverify</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd-options?category=1&amp;prefix=gtd</t>
   </si>
   <si>
     <t>test_gtd_option</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_create_task</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd</t>
   </si>
   <si>
     <t>{"remark":"测试","remind":{"remindTime":"1546248600","type":"CUSTOMIZE","repetition":{}},"executors":[{"participator":"1c92fa74992f49f2a1b23b6447b782e5","role":"EXECUTOR","type":"MEMBER"}],"verifierId":"c4d18eb76d9548f29c46dbef29944d21","subject":"测试","description":"测试","dueDate":"1546248638","tags":[{"name":"测试"}]}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/plugin/WORD/2c9485fd66a5fcbc0166c46eb41709e6/v2?page=0&amp;size=3.402823e%2B38</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GTE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_words_task</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd-option?option=gtd.generate.automation.verifier.auto-confirm&amp;value=true</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_task_defaultverify</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/mosaic/participation/day-current-member?page=0&amp;size=10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/mosaic/participation/week-rank-current-member?page=0&amp;size=20</t>
@@ -317,61 +319,61 @@
   </si>
   <si>
     <t>test_user_words_dashboard_7days</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_words_base_report</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esensearch/openapi/search/filter-search/WORD?ext=LASTMODIFIEDTIMEDESC&amp;page=0&amp;size=20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"searchFilterList":[{"filterDatas":[{"id":"40288189653c714401653c8355aa0006","sectionIndex":1,"sectionAliasName":"conclusion","aliasName":"UNCONCLUSION","name":"等待结论"}],"id":"40288189653c714401653c7d13450001","isMulti":0,"aliasName":"conclusion"},{"filterDatas":[{"id":"40288189653c714401653c84579f0008","sectionIndex":2,"sectionAliasName":"extParticipantFlag","aliasName":"all","name":"全部"}],"id":"40288189653c714401653c7e48360002","isMulti":0,"aliasName":"extParticipantFlag"},{"filterDatas":[{"id":"8a748208667ca2fe016681e9aea00025","sectionIndex":3,"sectionAliasName":"queryType","aliasName":"COMMENTED","name":"我回复的"}],"id":"40288189653c714401653c80a12f0003","isMulti":0,"aliasName":"queryType"},{"filterDatas":[{"id":"402881896545c1a3016545c786670002","sectionIndex":4,"sectionAliasName":"participatorGroup","aliasName":"all","name":"全部"}],"id":"402881896545c1a3016545c273570000","isMulti":0,"aliasName":"participatorGroup"}]}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_shaixuan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_comenlaste</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/comment-latest/2c9485fd66a5fcbc0166c46eb41709e6?time=1540984039</t>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenmessage/openapi/word-push-message-setting/off/2c9485fd66a5fcbc0166c46eb41709e6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_mremind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PUT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"wordid":"2c9485fd66a5fcbc0166c46eb41709e6"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_CRS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customers?page=undefined&amp;size=10&amp;sort=asc</t>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customer-word-widget/2c9485fd66a5fcbc0166c46eb41709e6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[
@@ -389,176 +391,176 @@
     "check": true
   }
 ]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_CRS_word</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_log</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/tag/list/2c9485fd66a5fcbc0166c46eb41709e6</t>
   </si>
   <si>
     <t>test_xiaobaiban_tag</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_show-new-v2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/sns/account?type=WECHAT</t>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenremind/openapi/reminder</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_remindself</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"data":"{\"groupId\":\"8a9c8ff35f81891f015f8569aa580002\"}","subject":"测试专用，请勿删除","source":"2c9485fd66a5fcbc0166c46eb41709e6","sourceType":"WORD","remind":"1546217100"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_wechat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/approval/words/openapi/words/show-word-simple/2c9485fd66a5fcbc0166c46eb41709e6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_simple</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_task_log</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/logs?page=0&amp;size=20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/participators</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GTE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_task_participators</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-reports/wx3bc009c34c8a1040/8a9c8ff35f81891f015f8569aa580002/-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-sets?appId=wx3bc009c34c8a1040&amp;tenantId=8a9c8ff35f81891f015f8569aa580002</t>
   </si>
   <si>
     <t>test_user_day_Canyudu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_canyudu_history</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_words_dashboard_feedback</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_words_shezhi_feedback</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/employee-outing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_words_dashboard_waichu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/outing-report?type=1&amp;queryType=1</t>
   </si>
   <si>
     <t>test_user_hr_waichu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/baseinfo-cards?userId=8a9d3ed0609d0e200160f7a3dcae0003</t>
   </si>
   <si>
     <t>test_user_geren_WeimingPian</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/personal/personalprofile/openapi/user-vcard/permit/?code=c4d18eb76d9548f29c46dbef29944d21</t>
   </si>
   <si>
     <t>test_user_geren_baseinfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/baseinfo-cards?userId=8a9d3ed0609d0e200160f7a3dcae0003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_ziliao</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/sns/account?type=WECHAT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_weixin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/personal/esenhrm/openapi/role-label/employee-tags/8a9d3ed0609d0e200160f7a3dcae0003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_more</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_myfeedback</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/personal/esenfeedback/openapi/feedbacks/count</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenfeedback/openapi/feedbacks/create</t>
   </si>
   <si>
     <t>test_user_createeedback</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"title":"很愿意愿意学习一下","phone":"","sourceType":"APP_IOS"}</t>
@@ -571,47 +573,47 @@
   </si>
   <si>
     <t>test_user_geren_language</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_avoid_relative</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_experience_list</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_career</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_skill_list</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_certificate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_social_relative</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_train</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_base</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/Base</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_jiaoyu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/education-list</t>
@@ -627,7 +629,7 @@
   </si>
   <si>
     <t>test_user_geren_jinjilianxi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/avoid-relative-list</t>
@@ -640,22 +642,22 @@
   </si>
   <si>
     <t>test_user_geren_zhiwuxinxi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/position-list</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/competency-list</t>
   </si>
   <si>
     <t>test_user_geren_conpetency</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/certificate-list</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/social-relative-list</t>
@@ -668,29 +670,29 @@
   </si>
   <si>
     <t>test_user_geren_contract</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/project-list</t>
   </si>
   <si>
     <t>test_user_geren_project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/show-new-v2/2c9485fd66a5fcbc0166c46eb41709e6?countedReadingTimes=1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/week-participation-summary-all?pt=20181014</t>
   </si>
   <si>
     <t>test_user_canyudu_xiaojie</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_faq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>http://support.esenyun.com/esenfeedback/openapi/system/faq-catalogs</t>
@@ -700,28 +702,28 @@
   </si>
   <si>
     <t>test_user_faq_follow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/someone-hrs-letter</t>
   </si>
   <si>
     <t>test_user_letter_someone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/used?createdTime=2018-11-01T05:00:05Z&amp;page=0&amp;size=10&amp;sort=asc</t>
   </si>
   <si>
     <t>test_user_letter_oneday</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter-records?page=0&amp;size=10&amp;sort=</t>
   </si>
   <si>
     <t>test_user_letter_history</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/billboard/month</t>
@@ -734,26 +736,26 @@
   </si>
   <si>
     <t>test_user_letter_quarter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_letter_year</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/save</t>
   </si>
   <si>
     <t>test_user_letter_save</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_letter_month</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -763,18 +765,18 @@
   "id": "",
   "userId": ""
 }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/address-book/cache?showAll=0</t>
   </si>
   <si>
     <t>test_user_geren_addressbook</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_teaminfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esengtp/openapi/group-home-page?groupId=8a74859165cda425016682178d070003</t>
@@ -808,11 +810,11 @@
   </si>
   <si>
     <t>test_user_team_addnotice</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>test_user_team_removenotice</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/personal/esengtp/openapi/plugin-templates/notice/APPLY_REMOVE_FORMAL_GROUP_MEMBER_SUCCESS?groupId=8a74859165cda425016682178d070003</t>
@@ -822,7 +824,7 @@
   </si>
   <si>
     <t>test_user_team_RemoveMember</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -847,18 +849,18 @@
   </si>
   <si>
     <t>test_user_team_addmember</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenwxmp/openapi/authroizer/detail?appCategory=MA_VCARD</t>
   </si>
   <si>
     <t>test_user_team_waibu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/personal/esenhrm/openapi/role-label</t>
@@ -873,14 +875,14 @@
   </si>
   <si>
     <t>test_user_team_juese</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esengtp/openapi/update-gtp-groups</t>
   </si>
   <si>
     <t>test_user_team_update</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"logo":"","id":"8a74859165cda425016682178d070003","name":"项目项目项目","category":"PROJECT","description":"这是一个神奇的项目"}</t>
@@ -890,22 +892,169 @@
   </si>
   <si>
     <t>test_user_team_words</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"searchFilterList":[]}</t>
+  </si>
+  <si>
+    <t>test_user_hr_worktime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/worktime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/employee-outing/outing-employees?page=0&amp;size=3&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>test_user_hr_Out_now</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/employee-outing/get-today-out-employee?page=0&amp;size=10&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>test_user_hr_Out_today</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/outing-report?type=1&amp;queryType=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_hr_Outingreport</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/find-approve-list?page=0&amp;size=20&amp;sort=0</t>
+  </si>
+  <si>
+    <t>test__ApprovalList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/find-approval-by-id/2c94831366b022a30166ca078810034d</t>
+  </si>
+  <si>
+    <t>test__find_approval_by_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test__find_approval_chaosongme</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":null,"type":4}</t>
+  </si>
+  <si>
+    <t>{"type":5}</t>
+  </si>
+  <si>
+    <t>{"status":0,"type":2}</t>
+  </si>
+  <si>
+    <t>test__find_approval_my_shenqing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test__find_approval_my_shenpi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/template-shoeList?page=0&amp;size=20&amp;sort=undefined&amp;status=1</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test__approval_template</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"approveProcessDTO":{"approver":{"approvalPersonDTOList":[{"avator":"https://img.esenyun.com/images/20180823/10d6f33d6961482699e676c81c3319fd.png","group":0,"id":"8a9d3ed0609d0e200160f7a3dcae0003","name":"曹瑞华","openId":"c4d18eb76d9548f29c46dbef29944d21","order":1,"weight":0,"scope":1}]},"carbon":{"approvalPersonDTOList":[{"avator":"https://img.esenyun.com/images/20180823/10d6f33d6961482699e676c81c3319fd.png","group":0,"id":"8a9d3ed0609d0e200160f7a3dcae0003","name":"曹瑞华","openId":"c4d18eb76d9548f29c46dbef29944d21","order":1}]},"scope":"0","type":"parallel"},"contentType":1,"wordSaveApprovalDTO":null,"formInstanceDTO":{"jsonValue":"{\"name\":\"测试2\",\"tenantId\":\"8a9c8ff35f81891f015f8569aa580002\",\"id\":\"5b222a5b5afbd40006eb4f93\",\"code\":null,\"displayName\":\"测试2\",\"description\":\"阿斯顿被拒绝后\",\"categoryId\":\"5a4dd3ed0539eb7c7f29a4cd\",\"logo\":null,\"repeatable\":null,\"emptyFlg\":null,\"jsonTemplate\":[[{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"0\",\"label\":\"单行文本框\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"单行文本框\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"INPUT\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":51,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"text\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"1\",\"label\":\"多行文本框\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"多行文本框\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"TEXTAREA\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":null,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"TEXTAREA\",\"cols\":20,\"rows\":5,\"wrap\":\"soft\"},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"2\",\"label\":\"下拉框\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"下拉框\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"SELECT\",\"required\":false,\"tabIndex\":null,\"value\":null,\"options\":[{\"disabled\":false,\"label\":\"选项1\",\"value\":\"选项1\"},{\"disabled\":false,\"label\":\"选项2\",\"value\":\"选项2\"}],\"type\":\"SELECT\",\"filterable\":false,\"multiple\":false,\"placeholder\":\"请填写文本内容\"},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"3\",\"label\":\"圣诞节哈酒红色\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"数值\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"INPUTNUMBER\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":12,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"number\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":2},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"4\",\"label\":\"阿塞拜疆多久啊\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"数值\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"INPUTNUMBER\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":12,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"number\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":2},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"5\",\"label\":\"日期选择\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"日期选择\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"DATEPICKER\",\"required\":false,\"tabIndex\":null,\"value\":null,\"format\":\"mm/dd/yy\",\"max\":null,\"min\":null,\"placeholder\":null,\"type\":\"DATEPICKER\",\"focusedDate\":null,\"inline\":false,\"toggleIcon\":null,\"toggleLabel\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"6\",\"label\":\"人员选择\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"人员选择\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"PEOPLESELECT\",\"required\":false,\"tabIndex\":null,\"value\":[{\"avator\":\"\",\"group\":0,\"id\":\"8a9870c160ee8cff01612861bde30026\",\"name\":\"adsaf\",\"openId\":\"8a9d3ed060ee8eb901612861be25001c\",\"order\":1}],\"options\":[{\"disabled\":false,\"label\":\"选项1\",\"value\":\"选项1\"}],\"type\":\"SELECT\",\"filterable\":false,\"multiple\":false,\"placeholder\":\"\"},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"7\",\"label\":\"单选框\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"ui-g\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\",\"option\":\"ui-g-3\"}},\"name\":\"单选框\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"RADIO_GROUP\",\"required\":false,\"tabIndex\":null,\"value\":null,\"options\":[{\"disabled\":false,\"label\":\"选项1\",\"value\":\"选项1\"},{\"disabled\":false,\"label\":\"选项2\",\"value\":\"选项2\"}],\"type\":\"RADIO_GROUP\",\"legend\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"8\",\"label\":\"文本描述\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"文本描述\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"TEXTDESCRIPTION\",\"required\":false,\"tabIndex\":null,\"value\":\"\",\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":51,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"text\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":null}]]}","templateEmptyFlg":null,"templateId":"5b222a5b5afbd40006eb4f93","templateName":"测试2","templateRepeatable":null,"tenantId":"8a9c8ff35f81891f015f8569aa580002","versionFlg":true},"comment":"测试2","groupId":"8a9c8ff35f81891f015f8569aa580002","status":0}</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/deployApproval</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test__approval_create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/vcard/esenvcard/openapi/my-vcard</t>
+  </si>
+  <si>
+    <t>test_VCARD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/vcard/esenwxmp/openapi/authroizer/username?appCategory=MA_VCARD</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/vcard/esenvcard/openapi/search/index?page=0&amp;size=20&amp;sort=createdTimeInstant,desc</t>
+  </si>
+  <si>
+    <t>test_VCARD_mingpianjia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"customerFlg":null,"keywords":null,"source":null,"tagValue":null}</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/vcard/esenvcard/openapi/evaluations</t>
+  </si>
+  <si>
+    <t>test_VCARD_pingjia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/vcard/esenvcard/openapi/report/report-ext</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/vcard/esenvcard/openapi/report/view-histories?page=0&amp;size=20&amp;sort=lastModifiedTime,desc</t>
+  </si>
+  <si>
+    <t>test_VCARD_report</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_VCARD_history</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_VCARD_authroizer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1003,37 +1152,37 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1043,28 +1192,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3"/>
@@ -1921,9 +2074,362 @@
       <c r="E45" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="141.5" customWidth="1"/>
+    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2345,7 +2851,7 @@
       <c r="E44" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2613,13 +3119,224 @@
       <c r="E21" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="141.5" customWidth="1"/>
+    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E34" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2760,14 +3477,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -2811,13 +3528,225 @@
         <v>200</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="110.5" customWidth="1"/>
+    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2958,17 +3887,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3238,360 +4167,7 @@
       <c r="D42" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="141.5" customWidth="1"/>
-    <col min="3" max="5" width="19.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3"/>
+    <workbookView xWindow="29820" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
-    <sheet name="Task" sheetId="4" r:id="rId2"/>
-    <sheet name="H5" sheetId="3" r:id="rId3"/>
-    <sheet name="VCARD" sheetId="11" r:id="rId4"/>
-    <sheet name="letter" sheetId="7" r:id="rId5"/>
-    <sheet name="out" sheetId="5" r:id="rId6"/>
-    <sheet name="approval" sheetId="10" r:id="rId7"/>
-    <sheet name="chat" sheetId="8" r:id="rId8"/>
-    <sheet name="gtp" sheetId="9" r:id="rId9"/>
-    <sheet name="personalprofile" sheetId="6" r:id="rId10"/>
+    <sheet name="uaa" sheetId="12" r:id="rId2"/>
+    <sheet name="account" sheetId="13" r:id="rId3"/>
+    <sheet name="Task" sheetId="4" r:id="rId4"/>
+    <sheet name="H5" sheetId="3" r:id="rId5"/>
+    <sheet name="VCARD" sheetId="11" r:id="rId6"/>
+    <sheet name="letter" sheetId="7" r:id="rId7"/>
+    <sheet name="out" sheetId="5" r:id="rId8"/>
+    <sheet name="approval" sheetId="10" r:id="rId9"/>
+    <sheet name="chat" sheetId="8" r:id="rId10"/>
+    <sheet name="gtp" sheetId="9" r:id="rId11"/>
+    <sheet name="personalprofile" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="277">
   <si>
     <t>POST</t>
   </si>
@@ -96,10 +98,6 @@
   </si>
   <si>
     <t>test_xiaobaiban_coment</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://workdesk.esenyun.com/words/openapi/comments/create</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1036,12 +1034,98 @@
     <t>test_VCARD_authroizer</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/submit-approval</t>
+  </si>
+  <si>
+    <t>test__approval_approw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"apid","status":1,"exId":"2c94831366b022a30166cf1338e3041e","forumId":null,"groupId":"8a9c8ff35f81891f015f8569aa580002","piId":null,"runId":null,"comment":""}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://workdesk.esenyun.com/words/openapi/comments/create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_uaa_invite_mobile</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_uaa_invite_qrcode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenuaa/openapi/invite/qrcode</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenuaa/openapi/invite/mobile</t>
+  </si>
+  <si>
+    <t>{"invitees":["17602157114(17602157114)"]}</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/groups</t>
+  </si>
+  <si>
+    <t>test_account_groups_list</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_account_groups_account</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/account</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/tenant</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/tenant-options</t>
+  </si>
+  <si>
+    <t>test_account_groups_option</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/group/switch</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>["homepage.banner.image.1","homepage.banner.image.2","homepage.banner.image.3","homepage.banner.image.4","homepage.banner.image.5"]</t>
+  </si>
+  <si>
+    <t>test_account_groups_switch</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_account_groups_info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>group=8a9c8ff35f81891f015f8569aa580002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,6 +1211,22 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1150,7 +1250,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1163,6 +1263,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1219,13 +1333,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="20">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3"/>
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1505,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1685,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1571,13 +1699,13 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -1586,13 +1714,13 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -1601,13 +1729,13 @@
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
@@ -1616,13 +1744,13 @@
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -1631,16 +1759,16 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -1648,13 +1776,13 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -1663,13 +1791,13 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
@@ -1678,16 +1806,16 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -1695,13 +1823,13 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -1710,16 +1838,16 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -1727,13 +1855,13 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -1742,13 +1870,13 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
@@ -1757,16 +1885,16 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -1774,16 +1902,16 @@
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1791,13 +1919,13 @@
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
@@ -1806,16 +1934,16 @@
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E19" s="3">
         <v>200</v>
@@ -1823,16 +1951,16 @@
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="191" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1840,16 +1968,16 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
@@ -1857,13 +1985,13 @@
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
@@ -1872,13 +2000,13 @@
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
@@ -1887,13 +2015,13 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
@@ -1902,13 +2030,13 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
@@ -1917,16 +2045,16 @@
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E26" s="3">
         <v>201</v>
@@ -1934,13 +2062,13 @@
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3">
@@ -2081,6 +2209,432 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="117" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="167.5" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="92" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="53" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -2114,13 +2668,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15">
@@ -2129,13 +2683,13 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>121</v>
-      </c>
       <c r="C3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
@@ -2144,13 +2698,13 @@
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
@@ -2159,13 +2713,13 @@
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
@@ -2174,13 +2728,13 @@
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15">
@@ -2189,13 +2743,13 @@
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
@@ -2204,13 +2758,13 @@
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="15">
@@ -2219,13 +2773,13 @@
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
@@ -2234,13 +2788,13 @@
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="15">
@@ -2249,13 +2803,13 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15">
@@ -2264,13 +2818,13 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15">
@@ -2279,13 +2833,13 @@
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15">
@@ -2294,13 +2848,13 @@
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15">
@@ -2309,13 +2863,13 @@
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15">
@@ -2324,13 +2878,13 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s">
         <v>144</v>
       </c>
-      <c r="B16" t="s">
-        <v>145</v>
-      </c>
       <c r="C16" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15">
@@ -2339,13 +2893,13 @@
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
         <v>146</v>
       </c>
-      <c r="B17" t="s">
-        <v>147</v>
-      </c>
       <c r="C17" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15">
@@ -2354,13 +2908,13 @@
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15">
@@ -2369,13 +2923,13 @@
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
         <v>155</v>
       </c>
-      <c r="B19" t="s">
-        <v>156</v>
-      </c>
       <c r="C19" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15">
@@ -2384,13 +2938,13 @@
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15">
@@ -2399,13 +2953,13 @@
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15">
@@ -2414,13 +2968,13 @@
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15">
@@ -2434,6 +2988,381 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="167.5" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="167.5" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
@@ -2469,13 +3398,13 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="149" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
@@ -2484,13 +3413,13 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
@@ -2499,13 +3428,13 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -2514,13 +3443,13 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -2529,13 +3458,13 @@
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
@@ -2544,16 +3473,16 @@
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E7" s="3">
         <v>201</v>
@@ -2561,13 +3490,13 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -2576,13 +3505,13 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -2591,13 +3520,13 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
@@ -2606,13 +3535,13 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -2856,7 +3785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -2891,13 +3820,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -2905,13 +3834,13 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -2919,13 +3848,13 @@
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -2933,13 +3862,13 @@
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -2947,13 +3876,13 @@
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -2961,13 +3890,13 @@
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -2975,13 +3904,13 @@
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -2989,13 +3918,13 @@
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="10">
         <v>200</v>
@@ -3003,16 +3932,16 @@
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
@@ -3020,13 +3949,13 @@
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="10">
         <v>200</v>
@@ -3034,13 +3963,13 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="10">
@@ -3049,13 +3978,13 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="10">
@@ -3125,12 +4054,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3159,13 +4088,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15">
@@ -3174,13 +4103,13 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
@@ -3189,16 +4118,16 @@
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>246</v>
       </c>
       <c r="E4" s="15">
         <v>200</v>
@@ -3206,13 +4135,13 @@
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
@@ -3221,13 +4150,13 @@
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15">
@@ -3236,21 +4165,18 @@
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="E9" s="15"/>
@@ -3336,7 +4262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3372,13 +4298,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3386,13 +4312,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10">
@@ -3401,13 +4327,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="10">
@@ -3416,13 +4342,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="10">
@@ -3431,13 +4357,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="10">
@@ -3446,13 +4372,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="10">
@@ -3461,16 +4387,16 @@
     </row>
     <row r="8" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>186</v>
-      </c>
       <c r="D8" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -3482,7 +4408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3516,13 +4442,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3530,13 +4456,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
         <v>215</v>
       </c>
-      <c r="B3" t="s">
-        <v>216</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10">
@@ -3545,13 +4471,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="10">
@@ -3560,13 +4486,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="10">
@@ -3575,314 +4501,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="110.5" customWidth="1"/>
-    <col min="3" max="5" width="19.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="10">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="117" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="10">
         <v>200</v>
       </c>
     </row>
@@ -3894,18 +4522,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="167.5" customWidth="1"/>
+    <col min="2" max="2" width="110.5" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="73.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3928,13 +4556,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>43</v>
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" t="s">
+        <v>228</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3942,63 +4573,65 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="17"/>
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" t="s">
+        <v>228</v>
+      </c>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>195</v>
+        <v>222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>201</v>
+        <v>222</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -4006,165 +4639,51 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>233</v>
+      </c>
+      <c r="C7" t="s">
+        <v>234</v>
+      </c>
       <c r="E7" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="92" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>207</v>
+        <v>237</v>
+      </c>
+      <c r="C8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" t="s">
+        <v>236</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="18"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="18"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="18"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="18"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D40" s="18"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D41" s="18"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D42" s="18"/>
+        <v>253</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="15">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2"/>
+    <workbookView xWindow="1260" yWindow="1420" windowWidth="29460" windowHeight="16140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
     <sheet name="uaa" sheetId="12" r:id="rId2"/>
     <sheet name="account" sheetId="13" r:id="rId3"/>
-    <sheet name="Task" sheetId="4" r:id="rId4"/>
-    <sheet name="H5" sheetId="3" r:id="rId5"/>
-    <sheet name="VCARD" sheetId="11" r:id="rId6"/>
-    <sheet name="letter" sheetId="7" r:id="rId7"/>
-    <sheet name="out" sheetId="5" r:id="rId8"/>
-    <sheet name="approval" sheetId="10" r:id="rId9"/>
-    <sheet name="chat" sheetId="8" r:id="rId10"/>
-    <sheet name="gtp" sheetId="9" r:id="rId11"/>
-    <sheet name="personalprofile" sheetId="6" r:id="rId12"/>
+    <sheet name="CRS" sheetId="16" r:id="rId4"/>
+    <sheet name="common" sheetId="14" r:id="rId5"/>
+    <sheet name="Task" sheetId="4" r:id="rId6"/>
+    <sheet name="H5" sheetId="3" r:id="rId7"/>
+    <sheet name="VCARD" sheetId="11" r:id="rId8"/>
+    <sheet name="letter" sheetId="7" r:id="rId9"/>
+    <sheet name="out" sheetId="5" r:id="rId10"/>
+    <sheet name="approval" sheetId="10" r:id="rId11"/>
+    <sheet name="chat" sheetId="8" r:id="rId12"/>
+    <sheet name="gtp" sheetId="9" r:id="rId13"/>
+    <sheet name="personalprofile" sheetId="6" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="321">
   <si>
     <t>POST</t>
   </si>
@@ -1118,6 +1120,241 @@
   </si>
   <si>
     <t>group=8a9c8ff35f81891f015f8569aa580002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esencommon/openapi/version-info?appId=com.esenyun.workline&amp;channel=IOS&amp;version=1.3.11</t>
+  </si>
+  <si>
+    <t>test_common_shuoming</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenuaa/oauth/token</t>
+  </si>
+  <si>
+    <t>grant_type=password&amp;password=19851126&amp;scope=app&amp;username=15921879033</t>
+  </si>
+  <si>
+    <t>test_uaa_login_wrong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_uaa_login_Correct</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>grant_type=password&amp;password=19851104&amp;scope=app&amp;username=15921879033</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_uaa_wrong_verifycode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenuaa/openapi/invite/mobile/verify</t>
+  </si>
+  <si>
+    <t>{"channel":"IOS","code":"11107"}</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenuaa/openapi/account/reset_password/init/mobile</t>
+  </si>
+  <si>
+    <t>mobile=15921879033</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenuaa/openapi/account/reset_password/verify/pin</t>
+  </si>
+  <si>
+    <t>test_account_ResetPwd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_account_Reset_False</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pin":"0000","mobile":"15921879033","code":"B27CDECF56E8EF2BA6793C23CF9C8716DE2DD3D4"}</t>
+  </si>
+  <si>
+    <t>test_CRS_Customer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customers?page=0&amp;size=10&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>test_CRS_CustomerDatail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customer-task-list?page=0&amp;size=10&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esenfeedback/openapi/crs/customer/5bae126c3cad160001c7f350?page=0&amp;size=10&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>test_CRS_CustomerFeedback</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": "5bae126c3cad160001c7f350",
+"qccCode": "362352f8603a491e747ebfc3c9a9d599",
+"boardId": null,
+"ownerId": "6837047319fd40309f36f1ebe2db7151",
+"ownerName": "陈琳",
+"ownerUrl": "https://img.esenyun.com/images/20181102/0036b2a6e929408c8610b865dae15340.png",
+"cusName": "江苏洋河酒厂股份有限大家洗剪吹公司客户端好看的",
+"commissionerId": null,
+"commissionerName": null,
+"commissionerUrl": null,
+"simpleName": "哦哦漂亮",
+"cusNameIndex": "j",
+"cusLogo": "https://co-image.qichacha.com/CompanyImage/362352f8603a491e747ebfc3c9a9d599.jpg",
+"cusLocation": "江苏省宿迁市洋河中大街118号",
+"cusProvince": "新疆维吾尔自治区",
+"cusTaxNumber": null,
+"cusLegalRepresentative": null,
+"cusRegisteredCapital": null,
+"cusCompanySite": "www.chinayanghe.com",
+"cusCompanyStart": null,
+"cusCompanyTelephone": "0527-84938001",
+"cusCompanyEmail": "530205232@qq.com",
+"cusDescription": "酒类的生产、销售,预包装食品的批发与零售,粮食收购,自营和代理各类商品和技术的进出口(国家限定公司经营或禁止进出口的商品和技术除外),国内贸易,电子商务平台建设,商品的网上销售。(依法须经批准的项目,经相关部门批准后方可开展经营活动)",
+"scopeOperation": "",
+"cusExt": null,
+"teamId": null,
+"teamName": null,
+"cusGroupId": null,
+"cusCountry": "中国",
+"cusCity": "新疆维吾尔自治区",
+"countyArea": null,
+"cusSourceId": null,
+"cusSourceName": null,
+"cusLevelId": "2c948cd865f1d7fc01661ff0ef4c0103",
+"cusLevelName": "非优先客户",
+"cusTradeId": "2c948cd865f1d7fc01661ff19318010a",
+"cusTradeName": "服务",
+"cusMnemonicCode": "OOPL",
+"signType": 0,
+"serviceTeamId": null,
+"serviceTeamName": null,
+"blackMarker": null,
+"followStatus": null,
+"lastModifiedDate": "2018-10-10T12:09:53.778Z",
+"visible": true,
+"owner": false,
+"version": null,
+"sourceType": null,
+"source": null
+}</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CRS_Customer_Create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customer</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencommon/openapi/areas/district?district=340800</t>
+  </si>
+  <si>
+    <t>test_CRS_Customer_Area</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/cus-levels?page=0&amp;size=20&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/sources?page=0&amp;size=20&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/trades?page=0&amp;size=20&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>test_CRS_sourcelist</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CRS_tradelist</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CRS_levellist</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"cusName": "华为2",
+"cusCompanyTelephone": "15921879033",
+"cusCountry": "中国",
+"cusProvince": "安徽省",
+"cusCity": "安庆市",
+"cusLevelId": "2c948cd865f1d7fc01661ff0ef4c0102",
+"signType": 1,
+"simpleName": "Ha1",
+"cusMnemonicCode": "Ha1"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>beizhu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称唯一性</t>
+    <rPh sb="0" eb="1">
+      <t>ming'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wie'yi'xing</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CRS_contact</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/contact</t>
+  </si>
+  <si>
+    <t>test_CRS_contact_Create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/contacts?page=0&amp;size=10&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>{
+"cusId": "5bae126c3cad160001c7f350",
+"cusName": "江苏洋河酒厂股份有限大家洗剪吹公司客户端好看的",
+"name": "曹瑞华",
+"mobile": "15921879033",
+"position": "测试",
+"dept": "研发部",
+"sex": "1",
+"formOfAddress": "老曹",
+"remark": "无",
+"status": "0",
+"background": "无",
+"zipCode": "15921879033",
+"birthday": "2018-11-02"
+}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1250,7 +1487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1277,8 +1514,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1332,8 +1585,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="36">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3"/>
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1346,6 +1602,14 @@
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
@@ -1354,6 +1618,14 @@
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2210,6 +2482,289 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="110.5" customWidth="1"/>
+    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="110.5" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="73.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="15">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2354,7 +2909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -2634,7 +3189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -2992,7 +3547,713 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="127" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="115.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="115.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="21">
+        <v>201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="209" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E11" s="10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3023,35 +4284,20 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>261</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4" s="18"/>
@@ -3136,233 +4382,14 @@
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="167.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="18"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
@@ -3785,7 +4812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -4054,7 +5081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
@@ -4262,7 +5289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -4406,287 +5433,4 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="110.5" customWidth="1"/>
-    <col min="3" max="5" width="19.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="110.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="73.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E9" s="15">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1420" windowWidth="29460" windowHeight="16140" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="29460" windowHeight="16140" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="345">
   <si>
     <t>POST</t>
   </si>
@@ -1355,6 +1355,98 @@
 "zipCode": "15921879033",
 "birthday": "2018-11-02"
 }</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esenspm/openapi/market-activities?page=0&amp;size=10&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esenspm/openapi/market-activity</t>
+  </si>
+  <si>
+    <t>test_CRS_market</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CRS_market_create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"activityCategoryId": "",
+"name": "活动测试",
+"ownerId": "c4d18eb76d9548f29c46dbef29944d21",
+"ownerName": "曹瑞华",
+"planBeginDate": "2018-11-02 00:00:00",
+"planEndDate": "2018-11-02 00:00:00"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esenspm/openapi/opportunities?page=0&amp;size=10&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>test_CRS_spm_shangji</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CRS_spm_xiansuo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esenspm/openapi/sales-leads?page=0&amp;size=10&amp;sort=asc</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenchat/openapi/chat-group</t>
+  </si>
+  <si>
+    <t>{"name":"曹瑞华、曹瑞华、曹瑞华","members":["8a9d3ed0609d0e200160f7a3dcae0003","2c948a9a6368e0ff016396dc98d40003","2c9483986368e0fc016396be21be0000"]}</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenchat/openapi/chat-group/app/</t>
+  </si>
+  <si>
+    <t>test_chat_create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"groupId":"1468730550","name":"四人帮"}</t>
+  </si>
+  <si>
+    <t>test_chat_GaiMing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenchat/openapi/chat-group/members</t>
+  </si>
+  <si>
+    <t>test_chat_AddMember</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"groupId":"1468730550","members":["8a9870c160ee8cff01612861bde30026"]}</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenchat/openapi/chat-group/members/remove/1468730550/8a9870c160ee8cff01612861bde30026</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_chat_RemoveMember</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1487,7 +1579,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1500,6 +1592,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1589,7 +1691,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="46">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3"/>
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1610,6 +1712,11 @@
     <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
@@ -1626,6 +1733,11 @@
     <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2765,10 +2877,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2776,7 +2888,7 @@
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="49.5" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2797,15 +2909,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>173</v>
+        <v>335</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>42</v>
+        <v>295</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>333</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -2813,99 +2928,56 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>175</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>337</v>
+      </c>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>177</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>339</v>
+      </c>
+      <c r="C4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>186</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="8"/>
+        <v>342</v>
+      </c>
+      <c r="C5" t="s">
+        <v>343</v>
+      </c>
       <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="10">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3991,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4170,7 +4242,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="209" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>318</v>
       </c>
@@ -4188,16 +4260,72 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D13" s="18"/>
+      <c r="A12" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="10">
+        <v>201</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="18"/>
+      <c r="A14" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="18"/>
+      <c r="A15" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="18"/>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="29460" windowHeight="16140" activeTab="11"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="27060" windowHeight="15440" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,10 @@
     <sheet name="out" sheetId="5" r:id="rId10"/>
     <sheet name="approval" sheetId="10" r:id="rId11"/>
     <sheet name="chat" sheetId="8" r:id="rId12"/>
-    <sheet name="gtp" sheetId="9" r:id="rId13"/>
-    <sheet name="personalprofile" sheetId="6" r:id="rId14"/>
+    <sheet name="yunpan" sheetId="17" r:id="rId13"/>
+    <sheet name="gtp" sheetId="9" r:id="rId14"/>
+    <sheet name="personalprofile" sheetId="6" r:id="rId15"/>
+    <sheet name="WXAPP" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="376">
   <si>
     <t>POST</t>
   </si>
@@ -1447,6 +1449,120 @@
   </si>
   <si>
     <t>test_chat_RemoveMember</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"groupId":"8a9b55985dcc7e25015dcf07cad2000c","nameSpace":"PUBLIC","order":"ASC","path":"","sort":"CREATE_TIME","action":"LIST"}</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/yundisk/openapi/storage/list</t>
+  </si>
+  <si>
+    <t>test_yudisk_list</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/personalprofile/openapi/tags/add?openId=</t>
+  </si>
+  <si>
+    <t>[
+  "人群中哭著",
+  "啦啦啦啦啦啦啦啦"
+]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_geren_addtag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wxapp.esenyun.com/esenaccount/openapi/sns/account?type=WECHAT</t>
+  </si>
+  <si>
+    <t>test_wxapp_sns</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_wxapp_tucaolist</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wxapp.esenyun.com/esenfeedback/openapi/wxa/search?page=0&amp;size=10</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"openId":"oJo0A5RoItIWYfIujWAU3u35t1RQ","status":null,"say":""}</t>
+  </si>
+  <si>
+    <t>test_wxapp_subscribe</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appCategory":"WXMP","unionId":"otx7U0gZQGt4GEt44yiciM8TdtYI"}</t>
+  </si>
+  <si>
+    <t>https://wxapp.esenyun.com/esenwxmp/openapi/ma-users/subscribe</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_wxapp_shaixuan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_wxapp_findproblem</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wxapp.esenyun.com/esenfeedback/openapi/problem/find-problem</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemId=1533537477133181</t>
+  </si>
+  <si>
+    <t>test_wxapp_findproblem_jindu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wxapp.esenyun.com/esenbadge/openapi/badge/entities/span/sns?spanId=ESENYUN%3AAPP%3AFEEDBACK</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wxapp.esenyun.com/esenfeedback/openapi/problem/alert-problem?problemId=1533537477133181</t>
+  </si>
+  <si>
+    <t>test_wxapp_findproblem_remind</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/logs-problem?problemId=1533537477133181</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_feedback_log</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/problem-user-exts/sns_wechat_otx7U0gZQGt4GEt44yiciM8TdtYI</t>
+  </si>
+  <si>
+    <t>test_user_feedbackerinfo</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2879,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2982,6 +3098,111 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="117" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="49.5" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -3261,12 +3482,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3607,6 +3828,210 @@
       <c r="E22" s="15">
         <v>200</v>
       </c>
+    </row>
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="E23" s="15">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="117" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="49.5" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" t="s">
+        <v>365</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4944,15 +5369,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.83203125" customWidth="1"/>
-    <col min="2" max="2" width="133.1640625" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
     <col min="5" max="5" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5147,18 +5572,34 @@
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="27060" windowHeight="15440" activeTab="6"/>
+    <workbookView xWindow="37000" yWindow="4040" windowWidth="27060" windowHeight="15440" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -42,49 +42,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="382">
   <si>
     <t>POST</t>
   </si>
   <si>
     <t>http://115.28.108.130:5000/api/user/login/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"name": "张三","password":"123456"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h1&gt;登录成功&lt;/h1&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>case_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>expect_res</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_login_normal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -98,82 +98,82 @@
     <rPh sb="64" eb="65">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_coment</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_cainajianyi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_quxiaocaina</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_yidu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_weidu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_remind</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_kudos</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_unkudos</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_collect</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_collect_cancel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_search</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/kudos/2c9485fd66a5fcbc0166c46eb41709e6</t>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/adopt/2c9485fd66a5fcbc0166c912da070ba3/1?groupId=8a9c8ff35f81891f015f8569aa580002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/adopt/2c9485fd66a5fcbc0166c912da070ba3/0?groupId=8a9c8ff35f81891f015f8569aa580002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/members/2c9485fd66a5fcbc0166c46eb41709e6/READ</t>
@@ -195,7 +195,7 @@
   </si>
   <si>
     <t>{"groupId":"8a9c8ff35f81891f015f8569aa580002","toMemberIds":["c0a80c87643946978e7b84c8c6b88f51","8a9d3ed0603584f501606d80913d000c","241a82e139a349e0a9dc9b8a1d9621d4","b0469abc385640ae8b3f0f7ab4e8e2bc","03c26f4acd8d4470884fa62b15c68681","fb9633392b5348ae97cc514fbed8c7e0","d2b8f5e698ea44bea76a96b7a59b2d2f","c76638d9bda34f989710b8e58c2233f3","dd51ebf979204e31a2a82b6dad395293","576763fcb3e44914a1adf12104fa814e","fcd30cd4a94747e5a572923c713cc9a0","de4ac2fd762446b983f0bcadb290c9f1","1b43a95e46dc45b8a0a5e4abb7db0522","ae9044743dbb4f5fbf5ed5a1eb3bc4b7","6837047319fd40309f36f1ebe2db7151","e21daf69e2c94a93a646d06d9d8024f5","29a2abb59ea843a3b1d6ecf5d8a7eaca","ba6ff1c9aa304716aff30453cd8ec9fa","58c9d7ce40a947debc208d754e47e631","2aed8e8e50734b48854829433aaa0e73","a7718462d14442ef9cf8c211cad971c6","5f5904982cbf425484ca508c261b990c","5ce0bde083874d05b5e107e02b4c826f","851c38ea21f446189bf15223a59aac30","ab9dadeed2444c64b2e7cd1f19107408","2e541d303c934e89bd0111b088e6e38b","67d1adafdc78473b8d3a4125b3a49907","702e3ee82bc94ba28998a8325e0ffdb4","a8e0b44a6cde498b9817796964075a21","68b3f8a509bd42e081b6a1423d736285","a903797bcbeb441ba4f138d5fc6b1d6f","18fade97de684f7c877a649bfa01d20f","101aa515988849b2b69d4a4c9ae50d6d","caa63815880344b69c7973fa35b9e09a","e1f509268f734e70b02c7f67bc96b08f","52c8af495ff847c98a31304d6a991646","697f5f0863e7495b8ea0742e1286c7ad","8993f07696f04b4c854c8764f2ff34eb","a79cc90a318442fb8167f20e1e911f9b","2b932da313a94cf1a18c5d55f29ab24b","f7d2ed9c853540b98b037f8307a66a0f","7546811936274d4b9c88160e0153b010","987b643c653e4cd38f0387367c44b15a","c05974af4b4a4b7d82aa9aa9ea617355","84a09626c5ef479e923b77cf4acec96e","0f61fbea2e124074adae0c49f30a2a52","509262a6f77045d7a98950d9d087ecef","47dbfc184dba4deb8a232c62cc6c302f","d73e80c089e347dfbfb73aa32aae7d76","5c084243688f4067964a1ce3082866d3","b9756a606213470684f5a8d004c11f51","0ef904f3de804fbe9d0d5e95befb2aeb","ceaeef0dcfea4d868cd5d429b9f34bfd","4cea796a2ca14be7b44df1fe8719dfb1","b4c9a9db5dd44f81abb3c05b737bf926","2fc3a4a1ce8f48acb34ee288803400e4","8a9c8ff3609cfec40160ea877de90000","37feadbf323a40ed9e977b7447398ac0","95ae105b7fa649a6907481e99f582376","8a9d3ed060ee8eb90161285866610016","769e8fe3beae4783858d472ff4dd9c72","bfe8b389bb4546348b4b735e7729f39e","b4a3c582a365469c86f1474ee3b5f889","f9ce8471008441fca184d67b20f1ed4d","1391bdb1e72844098d0a531e2fe840ed","ad7ff90356254a1389f98f21bf25444b","6bd9f674a6d4464caa4a1f88371c3817","f3928c4a75c94ebb9676ae28e611221e","626ab70b51174ae99e3635df6d318d0f","b45120c8c32a448ca6a0e3f1a24652b8","1f398738dfa6464d8a792093a1a55b46","9891d7939d4f4ef4a65e8fa6ff0e78a0","ab797caa52e14ab4b3f9c470f8a88b21","0eab52ae10a44199936d8c0133f68ba4","105e114179af404cab7b333b1fc9b1c0","0ff57c1a51fe4b5f81c88b3032adb24d","59079d3cd5e14474bdcf9e583f181055","c6bcf7b3e1c04d38be04f136387fc6a0","8a9870c16093114e016097451b1b0004","38595e20080e4fdeb663ebc95a8b3c58","64f9feac643444abb8f0cf90814216fc","d2a925e87c884ae08ef4ab0cf64cd683","332ac91c987a48b4b8571a3378459e8b","51ee6db64fa3488c83aae03d7c383156","86527d632d3c49cca0c43bfb3db4442c","78cad32bf6564b538e70be8229b46d5b","e02e2bf4450e4e6da7e07eef3c5fcbc2","97c8490bd11c4ec6bc5419b0c030e299","ff232f7f62dc446db44f6e3f8ed1ee01","8a83103847764d29983d3837053577aa","2f110a1f4eed4d00b875af972c7d32f5","e21e05c959d34553a7e3f77b9229c347","aac4eea625d542ee981bcdfc66a26a3f","4194ba7ce1384162a41c90753467f319","260f5fe8cfbd44fda08e1d4c9458b533","0ebd1bf809b446c4a6abc4bb3c47cbbd","7c812fff2e50446b936ca33e137510a3","556b32d6693f4ac6bd6725ae99fac3c9","bc9c4b0e3d6b4e14aecdece2844f8198","b2154542e93240b280c4d84572b3701b","b6ad3c6cd4724c0d864fcc707087fe9f","882138070e7e4ea29a11b0045b3085f9","56d0e20528a6470e95c77d382a13399f","229441ab808d4317bf8b6a3bf35043d0","2b0a4d4e58b54f8bb833ca063da3b4df","851f2999c2a54c169aae9fca37474444","31b6f401e07c45ee901a12f0212331d7","c7cbffc0ae084a448f7ca028722246ba","84760e9143504f35b0bb18c0511b263f","057677c70e76428e8a5dcd7bc12c1fe9","fd52411257f3482ba81ed58623fce0e8","feb8a24a8d22402f83e65e688b7f5816","530b694d69924b8faade016efc8f8c37","ef0dc392bf8842958d449f490750fea9","88c9c99588d24b2f84aedfe9b0c409c1","549ae5b6e25941989a5a118e5ba106e9","3c8c6114c5384812b38b56554fe34f1a","0fcfa7a05df242ccbc84db3e65c43f56","0f9f6b688090464b8b63e1062d9e5899","ca13685bcf31431a962fd43b9149ca10","494327ac58b54eacb4e4e3266fb8d883","1f311729ab264a559e89051ce851830c","2f5e9009453b4775ae6920117e4380c3","06b096db24bc454f8713dd39f9588028","f214fa3cbb6a4f27b31db07107103de2","aa7df86c5d114c8caa9a5f7cfa24a398","102ada2bad514800ba86a9be64252e89","eed7fac599c14bada2d6991b9bec78b9","ce622cb4b4a34ced8e6854685d06eef7","f58924d4a3a14a74bce30ef72ab7cf3c","9fb96c9bd17447559c416da1662c99b5","ba3fa83376ed4a16b40686d2ada666f6","02a06e4a8a2c4fd8859fdc18e6e94d82","65d2dff9da904215a7a4adf7701e3712","31782a3696f1437e95191444b143422e","4c6eca1422fe4a698fc7b8ec01feec44","aa414e20761b42ad8ea2a2b3d48813c5","e2880a52e60b434e95f3f9dc10a9027d","a3583b6f42274d1f9f393e2838b898b0","13db1c21655044609fe22ae02a73abdd","231e86ad5d32452e95a0299ded8b7a51","80683fe866be4cebb32c70ffc89bf211","607f1645d8eb4e7dace838396c1864c4","3ef3bc1a55734b8188ddbca155e040bd","0c2296badf254ef39c24ca18314871ca","4917fd57bd6a4e80bb06ca464f560dd6","48c40a23e5ab426e81c6c6e3b783383a","29a67dcb98ba4ebf95976826793d76be","16efea8114c04b9a8e124c44ae3833c7","d7302ce1a8444ffead7ece3802302341","13741c4f1c1d405599f02041d28e3481","6fa6cd1753c148448198ccfc405308ad","8a9c8ff3609cfec40160eef727b10001","5f76d73b21e84707872142d054f88812","f9513fc3cbba47c799ba319222be7c5c","4dfb75b067e3433c9cf32d4c10cb875a","e28e01bec3ab4fbab95a6c40c1fde574","e9a376094b3645c588a8e0d1a09f3c70","7fc39158e76e4357aeb45f3462e60a0e","c1ab4199a73144009b4fd2842f81fe7f","94509c461df54259abdf9010a94f8fe0","5dfb46ce438f418e803135aec6c56d4b","699f45e874f74a11823ae18cfd769e46","4ee73089610c4ac6afcf739699de87ff","9ccc7298deed40d181b0e3cf61114a15","c839c747c4b1461a9e502fa6de010cf9","be847c246141442082480d80310e4e68","eacbbef1137249a5a343d36cdd56a972","c26aaa6c473149fb92581c411098c414","44c1a8302ea3410db49c88d4e5c41ece","a363e7e4903d4b26aa7a54583c496cee","03c63c952b9d448c99bf2a87f406a18a","e1764c6df4a24c38b46fd9bf769cb5f1","8a9c8ff3609cfec40160eef88e620003","81dba95cf6ac486fafa22d47b7a93a3c","e4da5bb6ede64ded94c9ffee896735d5","cf30aa778d8e4d6c9373a9f496de9bf1","6bc4494301794280b38d76049603d0df","cf6aaa17b1154d1fa228d436cf99a95b","e7d70667389342f4b7a50a3fd211d43b","d695482ce82c4d88935ca9b3943f4b50","6db13d8d29a54fe0a1a5e927a15fd85c","7b86ddaf71424b3b82bf1971935b30ad","5d6820d387cc440bb74258ff4ee1eea9","d16acb6fddd749e999544b8fea953220","4a2c2b912ebe4568b5073ed2988241be","1928b4988580406bb1e3d45210815c48","86a5489b629649629a5ceef5fc94bc1d","8c763f4d33ad45dda3c758da0360a8e5","afa2f7397ae84a49895393681802be25","1a0154d4b61b415a8a35304bf7656238","3e504c4fda9045bc865ebdbac8767df4","ab7e635adfbe4e699510e170e2a1ca60","36937a7a1b3047e18990a7110d39f2a5","bbe07740e34d4e66b0ea2ca0e60159f5","a8e3e05148c9477a998e5a0d1518ecf8","672cc4f1773749be924e311f6333eb52","8a9d3ed060ee8eb901612861be25001c","6a6692515f57454b9aeaccff2ad45b05","2064fa6ef82c41d8ae2198d3defda846","01e2ce04a89e4dca807fd82ba4e6b757","0a0d7686d1da4729a1e40e7b4e1cb0c8","fcc7a2565f864258ba818c80e05ade75","295f7c6b82f34dcd8823d2f34c2257a1","9782ee4b0bb740e0bb94484498a23b6e","b51fd8a4ea7146579237b7feb7951c5d","702ea62ff6f74ec48dbf1abe43b68fb3","345b32247b824d14a9ae98fef23d9c98","9e1eb45e46b04c9c995dd92eac290044","af79a6100496478fa45a8a5a8a24247e","8f29aa8da0374907892e8d98297dd1a7","e2eb39aefb1b4129b77a2ff03ec78ad0","88d5db7932f74232be04913d421c8d5d","8c136bf2705b43fdaee74da94c001b7e","e61103f5f861406ca98b02456ec3f3b5","9723ff8564eb44e0b9cd32893d6b6f45","715d81b92dc94b55b5e3fe9d7e50c963","82a3dd0bab474ade8f752718c6f5068b","14db186ae12649f3937a39f74028b46a","46093b6151554830bea3503b769337ee","e28c148211e345cc9d1ef591e65cc455","baffb2b5736d4666b39c7319952f9651","99ed598c82ae4d3e99f19ce363f24441","2fa6a0f295054ca2b5e2e34cbb435bcd","06b4d07da5864eeba875004ec728632f","76cd8950aa1449ee8a4df100c6970e23","d97ad2c6c22c45d391c2e227e8ba4b76","4acaf73acce3408ca7f5063d2d1008df","8b2b7033881948c9ab246b2b7e55019e","a014ec2de71f4044a1561176cbf960ff","27b9344abb164331843db48162ad5b70","1d7f1afca9a04ecea6f02c74f47efd34","43108c93aa6f49d18e17984408136148","fa8cd29dce504215940d984bf7e86229","662b94a6a6d84a08a2aa306dd3fa4e1f","fb3b0375dc124b9b9efe1433960a5a90","8bf3bbc94bbd43bdbf80284b3b4a79b9","e7a3ec585f5741a1ad1151a33a75b35b","a9d1cca250de4b37b2ac92f6049fdbbc","77e96a3d4e20497c89521a544af70960","94fb6f8703044bf4b1b9e0b0a6269ecb","4a92955b27474fa199d698953fff6d25","386c5780b399430b9f5292c77ca66b8b","6cebac645ae74a2f86d6617bf0b4f24b","b09919fc256145f09377c5c8a82a1ab9","c4830d0141a54f878590a725e22d570c","1906556e70e940bb98950958432a9a07","de00191aecf941b2992d75cf35b1ffd8","19ba6b99c96c4ea5b6864f01cd12788f","04f70d9160b04dbfaf637d962e97e7c8","32c2a7f2efa644699ba5579f7593502c","48e2215f09b042acb699f9cd364458b7","85afcd736497434580a4a83f6622b00b","79ecc309525e4eee94e537be1f562681","fa72028449f54fb9931cd8ba82694db2","2a7d6f0cf1684dbd8b9cc7fffa7c4a34","1c8b5b4bea194aceb0ddd4482de52903","f28e39913506415d80f98ed21b878a5f","0721a3f4eca04048b1981f6baa888ba7","ec92a5ae015d4385bf9313b84564a430","f99b2464ee574d289e84dd55fda3f8b7","fae12883ec6e4308803a9b8a24302d98","23216b38c67b466994113c749e0572c0","0a0418c1d76a4e55bf91fe077e0dc164","a4989a436bae42d2a23260ed3bcda295","91034614eb5a46a7b54fc5c7851c935d","e690cb2ded3548c3bfdd19ecaadc66b1","700db3e8c9de448587b57cf3d68e4094","a1a9339a8519418b80f6cc5d966ae505","9b0c04a881bc4335a50942d1241646c4","1c92fa74992f49f2a1b23b6447b782e5","70a1e2ab1987464b9b65a89af2d859ba","56495bb9303646a0b2c1290d68854b1c","aaec0d1d842c455bbc712016b12a5c07","5f15aa8000db40059ef1612fbfcee8b3","c4163fa0252241e3b47aef3036c99fb8","92b7596d8a0744249f30469ee1a9af6c","768b7d9c31ac4c6e855c7ffea3f908c0","ed306466914347968378d711c175d1d8","d3da2a207ad8457aa13be4fd94d69ecd","c4d6499e887e49b69527d911113de6e9","aca8190b7b0945f78fd57ff8d68dde76","346bf005903341f2867b683693285744","014913b2adf249bda96dbe0d61dca45c","60004b4fedce4b338a6f267816d9542a","4be7c1ae5bd547dc932e1d18578a6fd8","2dd02a5f84934bff9d55ec7920b944d7","cec325cf92054652807502fefd14eca2","2327db3f6663469f9b19d73465d18000","b576841128ab4e0a9574ab5304904141","58cdbc0663c64458b231e9cb7afe1322","6cba557e803d41c0b96e4c10f503331e","3569ed4237c24b14b0918dbea034f78a","8a9c8ff3609cfec40160f7d3d1b10004","a2627f7f2d344cdcb25983defab9ac1f","da6603d19ed142be95dff304bc44c514","430c781b8f7748b487389fc7565d6eaa","a42f708314ff4736b4ca81d8c6ba89a2","20c52400342d4ffc980eab883b253129","8a9c8ff3609cfec40160f91e38d00006","b7e68f4aa41045ee83e8a3a388c4b382","51bc6c22ed034c79a1e3341e7ee1871b","8a9c8ff3609cfec40160f7d521520005","9d96d09b24a64533ab1921cc8ddc563f","13665fdfc6224da582e2863f15f80c39","2cbb0914035c4a94893957e1549714b8","8a9c8ff3609cfec40161023b6bce0007","ffc1365736b8481c86ed9f81ec85a088","aac38eff0a9643a8b069fd1acd59cf5a","ed676722a6ea4cc78ea3e4cd54798038","f4ff280237ac4a2599112cdc42cf8a40","744d14f717794a93b7644037ad4d645e","0834e83903e442c5a652b347aeb28297","03e0846bcd54442eb482acd5c45bb7c2","9e8ddbbf95d647b0868deec1b4c0951c","4b9483a2ea6d42e78465021e3922d81a","9590f43bc5b74c30b7d56359ce9120b8","14571108534e4f38b67928743c2b9deb","aab33f2c79bc4f7cabd5ff1ea152dd33","02a76915b60145dea1636499d87956b1","ab9a880f94254249aae9349172059134","efa7ac13b90f4c6ebe1ff14bafbebdfd","e00e6e11d3ae495f8d61bc14bfcecc9c","135c38416a794cf3a64da53935a36be9","81701a0f0bc44f8e85fb1acc9a7e5dec","cda86ba4558942bfa195cab342dcb164","84c0e39a28a34dce94cddf99d66d67d9","bd29ec847e13495c841b017fb7712f3e","59bf9b21d868482bbf6ebad5239e7cb1","baaa24e48a6d45e09f4d79214e07a439","4b7da546089f495fa44f982a886d8474","05a497f0e33a4f6c85b1532ac8fb6af7","ec3288669f7a4e86b86f065941a56107","c433c3ce61954a6fb7b8eb85b823f40f","331e493af849451c832db7d0ba5e12fb","eaf776425f534feda79193daed91caa5","fea5ffb17b2a46c191e0926f2fc2ef1b","63d779c9a5014ab4b3ee850f794d0bcc","86bd3ae43a154d56b16c3946ea6e5068","57f6a5bba510451abd5b13a302dbdaf4","d422d571861149fb8c28b77231d3fb12","c9b8e517431340ea9a6e8ce34dd8d32e","adb4d0161d374d1093e1e60de4b3aca3","eaf7886ee3e64566b0b2ffa43ff5154e","9592c7c1581a4b2aabce1fddae144c0d","23b35f0b79dd4d2096902988bc8267d7","ab26a0f50ddd4c9389ec25363ed09e6f","bf89c0ccae9841258cf4adaf26413d12","cc62182378464b1ca34ecdeb8becec71","773e92654eaf412ea1b3e00f8ce17b67","966986a6b8894b829e45e7aa4825b8c1","91c96cec981a41dca3c131bf157d5860","16d73626dc1e4fb19af0c7588307d895","236831da026b4222b0aa6bdea0f9fd84","1a5847c0923749989dceab68372aece8","e06b17000d234ec8ad87cc14d82b3119","139e03293b96487f94caf9d5de099791","9bb609966006424e8ad6dee2f91af5fa","b39eb718aca54fdd9caad6e96479f10b","ca8b003048fb490494317c58f64971e3","9bd44ecfe67f4e3ab6781327f073f09c","ea01a1d2359643d7bc8def60978b1589","f9f3cccec2ef42fe98390aeb13ca068e","507d5b864e72440091d973d11b35fd86","2034d7c9208748119f0c6192e0e18f93","dde118279c9f4f8bbc0528a0cea761fa","29bca3f007a44dac93a8eae6e0862e7e","72a48b7ce6c34e559619c90e7630608f","e28884a1a150408db769263baa3d9999","adf8feabc16d45ba9a51c4adda367153","f490c0d63ec54c218ba133ee1f240fdc","26fbeadbd78a4559b1e2d27fe2c2eafb","a683c573063347ca9521791d047e6a87","62fb9aaaf7e04f6989e5a9489ba76aae","94660ab5b5e240f79f85659778623baf","fb5629525c5f4ff1b914413cdb1661cb","4139cfc4946e4d0882a7f92efcbb2552","10ed5bf2708f47f78e639968ab44656c","8a9c8ff35f81891f015f8569aa760003","7a1787d9135f4c4688cc0dc469ca87d8","8b0528f4a44f4c359b7720d9ba5436f3","31726ff00e8942cb8ab627dfc1daf5c2","78cf84ceefc846b1a668e62d9fd9e9d5","f58334a8bfd44bc88052308930125dee","e3fd4a8a6b5044e0bbf44bbf2b085b46","8aee2a8733904aac89e41b323f8ce9eb","851939b088794f8b958dcee559fa072c","b204d70d7ceb4cab9d53bc01a587de96","8d1c44a2f7b44b5cb3d65b5aba8147ba","cf5dcd9487ee406890976ffa7fb4ebea","8a9c8ff3609cfec4016107fa51570008","c5e492d56dc741f0bb2a7e245a96641a","5f238a40d91a48ce8e61af190174ecdb","11ea32012fb5450c9a19a4f8342f97f9","dd971d88c2594a7880ba0538c81d309f","035e8ee940f94379a593d48464226804","8886982d69c94ebba03378fbfcc70ac0","670337da1220474e92c1b08bd72e8858","972332809f3a4169bc2327d22f42599e","b0c9795e8f194bc895ad687e7561b0c1","d289117825e74bdeaa113639e38ea993","5427a7c9f402484fa61ad0268fe5406b","f7a836d4ffd24876b23d887ce3172272","c4a63684c63c4211af529c20831b76a4","7ea8ddfd8a8f4def85267839b0772610","3d91e4293793455bbf5bd42c173d9ae5","f8d78410a602489691d86a121d44a3f9","18b6f1dc995047d390e41f6c35c69e67","569c8134f06e45d09d667f5505850534","17c8a07b9549467396213fa6cd9b68ca","55b43904009e45499e5b86d6e8592f6d","e5fda89ef948493e9eb8783bb86c1152","974ed70c879544fea440ad1ea0bfe41e","1a144ede092e4dfc99dd55603d0be234","5e4559cc89874bb6962cb470bd1958c5","c463a6612aef4a81a924a88b7ac9eb2a","4c53af38c8684d6db8aaac696cd4d9fc","15a23110cdb24ea5bf1f5bf18d8d49df","78bb4a3357c940968afe9832699ece90","0c9c3406124f467cba14d1f59bb1f81e","8c9690cb211247db8065a94de2db46e5","a983836f10894707af6bdc2ed93ca363","969ef82e3c464f76ac2e97b4661b7ff2","029e9ef115c142f89a559bc0c7c3e226","6a3ba35e7a1b403899fb07d52d529d89","6e38112dc9b84df49a110dbe0fdc3f44","d0f0ccae6c6b4606b7285e3ba3f4016e","8b88d27208a64e35a2bb95acc629b2f7","ca7afcc451c4472e9403c7a6676a0725","3c0c4b8e5a9441e9b842e957503bd024","0820170474fc4ff493e2d9d286b018c3","77537a52b8494c158d90906cb988b990","21191344c0f04ac3b5f949c15420a75d","c337ee1bcd1a4d4b9960dbee88ff1567","4b59e015564043d7960c6b26cb3592d0","785b181516f34b208e61925412db6e46","5b4b93a0c9184059a250d617c4ae1bf7","056c3bdc774a476196d0131f7fcfb850","732e0cd153dd4081a0f71d44bfbcc027","f529094777a64867b6b406823380e9c0","b1c45964a08f4e23b209c9b6ede849fc","a4b21abeb03147e092ac072558a17003","35f4dfb5e5594c30bcd1e89a4bf3a1d0","52628dac699a44e286788d08b8ce5928","5011e6e1a580490795511a86b14e762e","d9d40d572dec484cb04e30101375508d","05603343dad54a20b1132333918026c3","5736c2e2f8bd4b7e96534d70874fb66b","eee54dec36af4bc5b57879b51186bbb0","30b83efc1d6d474a99f7515029d20b04","d7cae916c2cb465b991ad17174aacc40","10f147bf047b4697a4a7f8c8ac579327","a1b8594cb1204e6ba4fce8f65c5e98bb","7a5011bc498843ee87a3956dc806edbd","2cc40a7bba674b5fb6ea3c4bded4c25a","a84da26c6d7c41a39d1700399ee27417","d6662da949a949fd97e6d404a79d3631","f84a3334749046529f34705311204319","93ca0fdbe2a541df9b6fc883de73d90c","111e4cd7570d46119ff86c85044d6044","8d9fd9154e6d470db3fa16b32eccb73f","afce0e0cb8d44006999712988c48d364","2fc30d8dd14d4e87abeab4dbd0030666","10f0bdab8c6b4a7c959f33adf2fffa4c","282ee7b014bb4f6da6ea3063a92acc74","ad9631f32652436c97cb7e58ce3ce592","a3391299b5694704977d20ee336507db","1c782a58639c4baaa1c0f8007f41893b","f13ede42d868454eb7540df675082f3b","3e9a71e2d8044fe7b19274179271ac47","27fce0c07a744938bd519284a869f589","608288caa8374caba3408c7b94ac2bfc","5403b1f81edc418bb2ad66a9ae6ce2e6","574a9821e6594686b25544d3b28b0fc8","f33bed92bcd34bb882994be7f6a6ba05","6bce2620540c441ea3e034bb8505706d","1a6c3d853c094e33bb8330566c43748c","4cbbca28ccd245dd902e450175748290","c33629f924354cf991646e5ccee99afd","b588b8e206494ee2876973b411dd7e07","ef6f47eb5c694880b852bcccd2f747bf","967f4c7fc1ac4e249cdd9f037db3e8ee","a93381f72b8342609738944118549165","59501a50e99e496b96860f5b807f0103","60d741713dd74aa6b089599cd7f85e51","ea3dfd1b4f9944a6abebdede11492ece","da8fdb3b6b1843d3995d081c8a105a25","215224bdd1574757ba291ee9d56b243c","0c221e2e098241c5bcaeb50547b21281","6d75ea600b4c4275b68b43dc03b78f88","f4df89d9f30841dea7380836a99cc06f","1d9a6b4f34814e0aafb3470f37e2fa47","a5c8403744db43998e315f81765761e6","0fe2fbf95e264ebebc813e30b247d297","98adbf87ffd74f179479cb95cab91397","35e4f19f87ac408abfe047ab667e3bbc","85e9ef053c3b4a0e8982c039ab807c18","d7f4cb98ba444f91ab530e69856f7f27","8a9d3ed060ee8eb9016128718762001e","cd44bbee8880444a9205ee25f85968bd","3abd6843716849b19285e668020c1ebf","972a21b922d941709776f424165d315b","4a668e17675d4a11a8c093e85437d786","88eaa5bd789545db81bbc2812de84262","da189dd4abb447aebe95ace2920bffd1","cc209a9d6e294e27963c71f9b29967bf","791fcd329ac44875aebdadaef0122ce8","ea2fa0a65b974d6493b6af01856d733c","58624f782e984392aa7eb592e89b4c21","82683ed2b3e64efea0d58a5621fb7a96","30d397bcd295466da7ed9d7dea7fe0de","32cb808cee4044fd92e90009cc121083","78288bb234604271b7c29fd56e40417e","a532d5100f694d2ebc29858399ad298e","eeb5244d652b49a8ac587d88886d7651","8bbfd3e20c37491da13b7b4af0ce8684"],"wordId":"2c9485fd66a5fcbc0166c46eb41709e6"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenpersonalspace/openapi/collect/delete/2c9485fd66a5fcbc0166c46eb41709e6</t>
@@ -208,36 +208,36 @@
   </si>
   <si>
     <t>test_xiaobaiban_looktaolun</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/participants-group-member/2c9485fd66a5fcbc0166c46eb41709e6?page=0&amp;size=100000</t>
   </si>
   <si>
     <t>test_xiaobaiban_groupmember</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/conclude</t>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_jielun</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"wordId":"2c9485fd66a5fcbc0166c46eb41709e6","sort":"desc"}</t>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/summary/v2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/v3?category=todo&amp;page=0&amp;size=20&amp;sort=overdueDate&amp;type=todo</t>
@@ -250,65 +250,65 @@
   </si>
   <si>
     <t>test_looktask</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_todo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_outdo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_toverify</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd-options?category=1&amp;prefix=gtd</t>
   </si>
   <si>
     <t>test_gtd_option</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_create_task</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd</t>
   </si>
   <si>
     <t>{"remark":"测试","remind":{"remindTime":"1546248600","type":"CUSTOMIZE","repetition":{}},"executors":[{"participator":"1c92fa74992f49f2a1b23b6447b782e5","role":"EXECUTOR","type":"MEMBER"}],"verifierId":"c4d18eb76d9548f29c46dbef29944d21","subject":"测试","description":"测试","dueDate":"1546248638","tags":[{"name":"测试"}]}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/plugin/WORD/2c9485fd66a5fcbc0166c46eb41709e6/v2?page=0&amp;size=3.402823e%2B38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GTE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_words_task</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd-option?option=gtd.generate.automation.verifier.auto-confirm&amp;value=true</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_task_defaultverify</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/mosaic/participation/day-current-member?page=0&amp;size=10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/mosaic/participation/week-rank-current-member?page=0&amp;size=20</t>
@@ -321,61 +321,61 @@
   </si>
   <si>
     <t>test_user_words_dashboard_7days</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_words_base_report</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esensearch/openapi/search/filter-search/WORD?ext=LASTMODIFIEDTIMEDESC&amp;page=0&amp;size=20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"searchFilterList":[{"filterDatas":[{"id":"40288189653c714401653c8355aa0006","sectionIndex":1,"sectionAliasName":"conclusion","aliasName":"UNCONCLUSION","name":"等待结论"}],"id":"40288189653c714401653c7d13450001","isMulti":0,"aliasName":"conclusion"},{"filterDatas":[{"id":"40288189653c714401653c84579f0008","sectionIndex":2,"sectionAliasName":"extParticipantFlag","aliasName":"all","name":"全部"}],"id":"40288189653c714401653c7e48360002","isMulti":0,"aliasName":"extParticipantFlag"},{"filterDatas":[{"id":"8a748208667ca2fe016681e9aea00025","sectionIndex":3,"sectionAliasName":"queryType","aliasName":"COMMENTED","name":"我回复的"}],"id":"40288189653c714401653c80a12f0003","isMulti":0,"aliasName":"queryType"},{"filterDatas":[{"id":"402881896545c1a3016545c786670002","sectionIndex":4,"sectionAliasName":"participatorGroup","aliasName":"all","name":"全部"}],"id":"402881896545c1a3016545c273570000","isMulti":0,"aliasName":"participatorGroup"}]}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_shaixuan</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_comenlaste</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/comment-latest/2c9485fd66a5fcbc0166c46eb41709e6?time=1540984039</t>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenmessage/openapi/word-push-message-setting/off/2c9485fd66a5fcbc0166c46eb41709e6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_mremind</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PUT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"wordid":"2c9485fd66a5fcbc0166c46eb41709e6"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_CRS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customers?page=undefined&amp;size=10&amp;sort=asc</t>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customer-word-widget/2c9485fd66a5fcbc0166c46eb41709e6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[
@@ -393,176 +393,176 @@
     "check": true
   }
 ]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_CRS_word</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_log</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/tag/list/2c9485fd66a5fcbc0166c46eb41709e6</t>
   </si>
   <si>
     <t>test_xiaobaiban_tag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_show-new-v2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/sns/account?type=WECHAT</t>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenremind/openapi/reminder</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_remindself</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"data":"{\"groupId\":\"8a9c8ff35f81891f015f8569aa580002\"}","subject":"测试专用，请勿删除","source":"2c9485fd66a5fcbc0166c46eb41709e6","sourceType":"WORD","remind":"1546217100"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_wechat</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/approval/words/openapi/words/show-word-simple/2c9485fd66a5fcbc0166c46eb41709e6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_xiaobaiban_simple</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_task_log</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/logs?page=0&amp;size=20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/participators</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GTE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_task_participators</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-reports/wx3bc009c34c8a1040/8a9c8ff35f81891f015f8569aa580002/-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/problem-sets?appId=wx3bc009c34c8a1040&amp;tenantId=8a9c8ff35f81891f015f8569aa580002</t>
   </si>
   <si>
     <t>test_user_day_Canyudu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_canyudu_history</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_words_dashboard_feedback</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_words_shezhi_feedback</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/employee-outing</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_words_dashboard_waichu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/outing-report?type=1&amp;queryType=1</t>
   </si>
   <si>
     <t>test_user_hr_waichu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/baseinfo-cards?userId=8a9d3ed0609d0e200160f7a3dcae0003</t>
   </si>
   <si>
     <t>test_user_geren_WeimingPian</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/personal/personalprofile/openapi/user-vcard/permit/?code=c4d18eb76d9548f29c46dbef29944d21</t>
   </si>
   <si>
     <t>test_user_geren_baseinfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/baseinfo-cards?userId=8a9d3ed0609d0e200160f7a3dcae0003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_ziliao</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/sns/account?type=WECHAT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_weixin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/personal/esenhrm/openapi/role-label/employee-tags/8a9d3ed0609d0e200160f7a3dcae0003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_more</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_myfeedback</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/personal/esenfeedback/openapi/feedbacks/count</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenfeedback/openapi/feedbacks/create</t>
   </si>
   <si>
     <t>test_user_createeedback</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"title":"很愿意愿意学习一下","phone":"","sourceType":"APP_IOS"}</t>
@@ -575,47 +575,47 @@
   </si>
   <si>
     <t>test_user_geren_language</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_avoid_relative</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_experience_list</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_career</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_skill_list</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_certificate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_social_relative</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_train</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_base</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/Base</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_jiaoyu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/education-list</t>
@@ -631,7 +631,7 @@
   </si>
   <si>
     <t>test_user_geren_jinjilianxi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/avoid-relative-list</t>
@@ -644,22 +644,22 @@
   </si>
   <si>
     <t>test_user_geren_zhiwuxinxi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/position-list</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/competency-list</t>
   </si>
   <si>
     <t>test_user_geren_conpetency</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/certificate-list</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/social-relative-list</t>
@@ -672,29 +672,29 @@
   </si>
   <si>
     <t>test_user_geren_contract</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/project-list</t>
   </si>
   <si>
     <t>test_user_geren_project</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/show-new-v2/2c9485fd66a5fcbc0166c46eb41709e6?countedReadingTimes=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/week-participation-summary-all?pt=20181014</t>
   </si>
   <si>
     <t>test_user_canyudu_xiaojie</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_faq</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>http://support.esenyun.com/esenfeedback/openapi/system/faq-catalogs</t>
@@ -704,28 +704,28 @@
   </si>
   <si>
     <t>test_user_faq_follow</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/someone-hrs-letter</t>
   </si>
   <si>
     <t>test_user_letter_someone</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/used?createdTime=2018-11-01T05:00:05Z&amp;page=0&amp;size=10&amp;sort=asc</t>
   </si>
   <si>
     <t>test_user_letter_oneday</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter-records?page=0&amp;size=10&amp;sort=</t>
   </si>
   <si>
     <t>test_user_letter_history</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/billboard/month</t>
@@ -738,26 +738,26 @@
   </si>
   <si>
     <t>test_user_letter_quarter</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_letter_year</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/letter/esenhrsletter/openapi/hrs-letter/save</t>
   </si>
   <si>
     <t>test_user_letter_save</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_letter_month</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -767,18 +767,18 @@
   "id": "",
   "userId": ""
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/address-book/cache?showAll=0</t>
   </si>
   <si>
     <t>test_user_geren_addressbook</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_teaminfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esengtp/openapi/group-home-page?groupId=8a74859165cda425016682178d070003</t>
@@ -812,11 +812,11 @@
   </si>
   <si>
     <t>test_user_team_addnotice</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_team_removenotice</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/personal/esengtp/openapi/plugin-templates/notice/APPLY_REMOVE_FORMAL_GROUP_MEMBER_SUCCESS?groupId=8a74859165cda425016682178d070003</t>
@@ -826,7 +826,7 @@
   </si>
   <si>
     <t>test_user_team_RemoveMember</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -851,18 +851,18 @@
   </si>
   <si>
     <t>test_user_team_addmember</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenwxmp/openapi/authroizer/detail?appCategory=MA_VCARD</t>
   </si>
   <si>
     <t>test_user_team_waibu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/personal/esenhrm/openapi/role-label</t>
@@ -877,14 +877,14 @@
   </si>
   <si>
     <t>test_user_team_juese</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esengtp/openapi/update-gtp-groups</t>
   </si>
   <si>
     <t>test_user_team_update</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"logo":"","id":"8a74859165cda425016682178d070003","name":"项目项目项目","category":"PROJECT","description":"这是一个神奇的项目"}</t>
@@ -894,62 +894,62 @@
   </si>
   <si>
     <t>test_user_team_words</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"searchFilterList":[]}</t>
   </si>
   <si>
     <t>test_user_hr_worktime</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/worktime</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/employee-outing/outing-employees?page=0&amp;size=3&amp;sort=asc</t>
   </si>
   <si>
     <t>test_user_hr_Out_now</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/employee-outing/get-today-out-employee?page=0&amp;size=10&amp;sort=asc</t>
   </si>
   <si>
     <t>test_user_hr_Out_today</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/ps/esenhrmouting/openapi/outing-report?type=1&amp;queryType=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_hr_Outingreport</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/find-approve-list?page=0&amp;size=20&amp;sort=0</t>
   </si>
   <si>
     <t>test__ApprovalList</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/find-approval-by-id/2c94831366b022a30166ca078810034d</t>
   </si>
   <si>
     <t>test__find_approval_by_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test__find_approval_chaosongme</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"status":null,"type":4}</t>
@@ -962,22 +962,22 @@
   </si>
   <si>
     <t>test__find_approval_my_shenqing</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test__find_approval_my_shenpi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/template-shoeList?page=0&amp;size=20&amp;sort=undefined&amp;status=1</t>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test__approval_template</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"approveProcessDTO":{"approver":{"approvalPersonDTOList":[{"avator":"https://img.esenyun.com/images/20180823/10d6f33d6961482699e676c81c3319fd.png","group":0,"id":"8a9d3ed0609d0e200160f7a3dcae0003","name":"曹瑞华","openId":"c4d18eb76d9548f29c46dbef29944d21","order":1,"weight":0,"scope":1}]},"carbon":{"approvalPersonDTOList":[{"avator":"https://img.esenyun.com/images/20180823/10d6f33d6961482699e676c81c3319fd.png","group":0,"id":"8a9d3ed0609d0e200160f7a3dcae0003","name":"曹瑞华","openId":"c4d18eb76d9548f29c46dbef29944d21","order":1}]},"scope":"0","type":"parallel"},"contentType":1,"wordSaveApprovalDTO":null,"formInstanceDTO":{"jsonValue":"{\"name\":\"测试2\",\"tenantId\":\"8a9c8ff35f81891f015f8569aa580002\",\"id\":\"5b222a5b5afbd40006eb4f93\",\"code\":null,\"displayName\":\"测试2\",\"description\":\"阿斯顿被拒绝后\",\"categoryId\":\"5a4dd3ed0539eb7c7f29a4cd\",\"logo\":null,\"repeatable\":null,\"emptyFlg\":null,\"jsonTemplate\":[[{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"0\",\"label\":\"单行文本框\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"单行文本框\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"INPUT\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":51,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"text\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"1\",\"label\":\"多行文本框\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"多行文本框\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"TEXTAREA\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":null,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"TEXTAREA\",\"cols\":20,\"rows\":5,\"wrap\":\"soft\"},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"2\",\"label\":\"下拉框\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"下拉框\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"SELECT\",\"required\":false,\"tabIndex\":null,\"value\":null,\"options\":[{\"disabled\":false,\"label\":\"选项1\",\"value\":\"选项1\"},{\"disabled\":false,\"label\":\"选项2\",\"value\":\"选项2\"}],\"type\":\"SELECT\",\"filterable\":false,\"multiple\":false,\"placeholder\":\"请填写文本内容\"},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"3\",\"label\":\"圣诞节哈酒红色\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"数值\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"INPUTNUMBER\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":12,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"number\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":2},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"4\",\"label\":\"阿塞拜疆多久啊\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"数值\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"INPUTNUMBER\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":12,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"number\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":2},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"5\",\"label\":\"日期选择\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"日期选择\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"DATEPICKER\",\"required\":false,\"tabIndex\":null,\"value\":null,\"format\":\"mm/dd/yy\",\"max\":null,\"min\":null,\"placeholder\":null,\"type\":\"DATEPICKER\",\"focusedDate\":null,\"inline\":false,\"toggleIcon\":null,\"toggleLabel\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"6\",\"label\":\"人员选择\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"人员选择\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"PEOPLESELECT\",\"required\":false,\"tabIndex\":null,\"value\":[{\"avator\":\"\",\"group\":0,\"id\":\"8a9870c160ee8cff01612861bde30026\",\"name\":\"adsaf\",\"openId\":\"8a9d3ed060ee8eb901612861be25001c\",\"order\":1}],\"options\":[{\"disabled\":false,\"label\":\"选项1\",\"value\":\"选项1\"}],\"type\":\"SELECT\",\"filterable\":false,\"multiple\":false,\"placeholder\":\"\"},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"7\",\"label\":\"单选框\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"ui-g\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\",\"option\":\"ui-g-3\"}},\"name\":\"单选框\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"RADIO_GROUP\",\"required\":false,\"tabIndex\":null,\"value\":null,\"options\":[{\"disabled\":false,\"label\":\"选项1\",\"value\":\"选项1\"},{\"disabled\":false,\"label\":\"选项2\",\"value\":\"选项2\"}],\"type\":\"RADIO_GROUP\",\"legend\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"8\",\"label\":\"文本描述\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"文本描述\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"TEXTDESCRIPTION\",\"required\":false,\"tabIndex\":null,\"value\":\"\",\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":51,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"text\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":null}]]}","templateEmptyFlg":null,"templateId":"5b222a5b5afbd40006eb4f93","templateName":"测试2","templateRepeatable":null,"tenantId":"8a9c8ff35f81891f015f8569aa580002","versionFlg":true},"comment":"测试2","groupId":"8a9c8ff35f81891f015f8569aa580002","status":0}</t>
@@ -987,18 +987,18 @@
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test__approval_create</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/vcard/esenvcard/openapi/my-vcard</t>
   </si>
   <si>
     <t>test_VCARD</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/vcard/esenwxmp/openapi/authroizer/username?appCategory=MA_VCARD</t>
@@ -1008,7 +1008,7 @@
   </si>
   <si>
     <t>test_VCARD_mingpianjia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"customerFlg":null,"keywords":null,"source":null,"tagValue":null}</t>
@@ -1018,7 +1018,7 @@
   </si>
   <si>
     <t>test_VCARD_pingjia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/vcard/esenvcard/openapi/report/report-ext</t>
@@ -1028,38 +1028,38 @@
   </si>
   <si>
     <t>test_VCARD_report</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_VCARD_history</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_VCARD_authroizer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/submit-approval</t>
   </si>
   <si>
     <t>test__approval_approw</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"id":"apid","status":1,"exId":"2c94831366b022a30166cf1338e3041e","forumId":null,"groupId":"8a9c8ff35f81891f015f8569aa580002","piId":null,"runId":null,"comment":""}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://workdesk.esenyun.com/words/openapi/comments/create</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_uaa_invite_mobile</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_uaa_invite_qrcode</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenuaa/openapi/invite/qrcode</t>
@@ -1075,11 +1075,11 @@
   </si>
   <si>
     <t>test_account_groups_list</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_account_groups_account</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/account</t>
@@ -1092,44 +1092,44 @@
   </si>
   <si>
     <t>test_account_groups_option</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenaccount/openapi/group/switch</t>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>["homepage.banner.image.1","homepage.banner.image.2","homepage.banner.image.3","homepage.banner.image.4","homepage.banner.image.5"]</t>
   </si>
   <si>
     <t>test_account_groups_switch</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_account_groups_info</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>group=8a9c8ff35f81891f015f8569aa580002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esencommon/openapi/version-info?appId=com.esenyun.workline&amp;channel=IOS&amp;version=1.3.11</t>
   </si>
   <si>
     <t>test_common_shuoming</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenuaa/oauth/token</t>
@@ -1139,19 +1139,19 @@
   </si>
   <si>
     <t>test_uaa_login_wrong</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_uaa_login_Correct</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>grant_type=password&amp;password=19851104&amp;scope=app&amp;username=15921879033</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_uaa_wrong_verifycode</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenuaa/openapi/invite/mobile/verify</t>
@@ -1170,32 +1170,32 @@
   </si>
   <si>
     <t>test_account_ResetPwd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_account_Reset_False</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"pin":"0000","mobile":"15921879033","code":"B27CDECF56E8EF2BA6793C23CF9C8716DE2DD3D4"}</t>
   </si>
   <si>
     <t>test_CRS_Customer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customers?page=0&amp;size=10&amp;sort=asc</t>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{}</t>
   </si>
   <si>
     <t>test_CRS_CustomerDatail</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customer-task-list?page=0&amp;size=10&amp;sort=asc</t>
@@ -1205,7 +1205,7 @@
   </si>
   <si>
     <t>test_CRS_CustomerFeedback</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1262,11 +1262,11 @@
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_CRS_Customer_Create</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customer</t>
@@ -1276,7 +1276,7 @@
   </si>
   <si>
     <t>test_CRS_Customer_Area</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/cus-levels?page=0&amp;size=20&amp;sort=asc</t>
@@ -1289,15 +1289,15 @@
   </si>
   <si>
     <t>test_CRS_sourcelist</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_CRS_tradelist</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_CRS_levellist</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1311,11 +1311,11 @@
 "simpleName": "Ha1",
 "cusMnemonicCode": "Ha1"
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>beizhu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>名称唯一性</t>
@@ -1325,18 +1325,18 @@
     <rPh sb="2" eb="3">
       <t>wie'yi'xing</t>
     </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_CRS_contact</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/contact</t>
   </si>
   <si>
     <t>test_CRS_contact_Create</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/contacts?page=0&amp;size=10&amp;sort=asc</t>
@@ -1357,7 +1357,7 @@
 "zipCode": "15921879033",
 "birthday": "2018-11-02"
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esenspm/openapi/market-activities?page=0&amp;size=10&amp;sort=asc</t>
@@ -1367,11 +1367,11 @@
   </si>
   <si>
     <t>test_CRS_market</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_CRS_market_create</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1382,29 +1382,29 @@
 "planBeginDate": "2018-11-02 00:00:00",
 "planEndDate": "2018-11-02 00:00:00"
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esenspm/openapi/opportunities?page=0&amp;size=10&amp;sort=asc</t>
   </si>
   <si>
     <t>test_CRS_spm_shangji</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_CRS_spm_xiansuo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/crs/esenspm/openapi/sales-leads?page=0&amp;size=10&amp;sort=asc</t>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenchat/openapi/chat-group</t>
@@ -1417,25 +1417,25 @@
   </si>
   <si>
     <t>test_chat_create</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PUT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"groupId":"1468730550","name":"四人帮"}</t>
   </si>
   <si>
     <t>test_chat_GaiMing</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenchat/openapi/chat-group/members</t>
   </si>
   <si>
     <t>test_chat_AddMember</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"groupId":"1468730550","members":["8a9870c160ee8cff01612861bde30026"]}</t>
@@ -1445,11 +1445,11 @@
   </si>
   <si>
     <t>DELETE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_chat_RemoveMember</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"groupId":"8a9b55985dcc7e25015dcf07cad2000c","nameSpace":"PUBLIC","order":"ASC","path":"","sort":"CREATE_TIME","action":"LIST"}</t>
@@ -1459,7 +1459,7 @@
   </si>
   <si>
     <t>test_yudisk_list</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/personal/personalprofile/openapi/tags/add?openId=</t>
@@ -1469,113 +1469,144 @@
   "人群中哭著",
   "啦啦啦啦啦啦啦啦"
 ]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_user_geren_addtag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://wxapp.esenyun.com/esenaccount/openapi/sns/account?type=WECHAT</t>
   </si>
   <si>
     <t>test_wxapp_sns</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_wxapp_tucaolist</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://wxapp.esenyun.com/esenfeedback/openapi/wxa/search?page=0&amp;size=10</t>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"openId":"oJo0A5RoItIWYfIujWAU3u35t1RQ","status":null,"say":""}</t>
   </si>
   <si>
     <t>test_wxapp_subscribe</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{"appCategory":"WXMP","unionId":"otx7U0gZQGt4GEt44yiciM8TdtYI"}</t>
   </si>
   <si>
     <t>https://wxapp.esenyun.com/esenwxmp/openapi/ma-users/subscribe</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_wxapp_shaixuan</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>test_wxapp_findproblem</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://wxapp.esenyun.com/esenfeedback/openapi/problem/find-problem</t>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>problemId=1533537477133181</t>
   </si>
   <si>
     <t>test_wxapp_findproblem_jindu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://wxapp.esenyun.com/esenbadge/openapi/badge/entities/span/sns?spanId=ESENYUN%3AAPP%3AFEEDBACK</t>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://wxapp.esenyun.com/esenfeedback/openapi/problem/alert-problem?problemId=1533537477133181</t>
   </si>
   <si>
     <t>test_wxapp_findproblem_remind</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_feedback_log</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/problem-user-exts/sns_wechat_otx7U0gZQGt4GEt44yiciM8TdtYI</t>
+  </si>
+  <si>
+    <t>test_user_feedbackerinfo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/logs-problem?problemId=1533537477133181</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/widget-templates</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_templates</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/user-follows/attention-user</t>
+  </si>
+  <si>
+    <t>test_user_geren_guanzhu</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_feedback_log</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/problem-user-exts/sns_wechat_otx7U0gZQGt4GEt44yiciM8TdtYI</t>
-  </si>
-  <si>
-    <t>test_user_feedbackerinfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attentionFlag":"true","userId":"8a9c8ff35deb01ad015deb9a13310008"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1697,77 +1728,77 @@
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1777,34 +1808,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2133,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2576,11 +2613,19 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
@@ -2702,7 +2747,7 @@
       <c r="E45" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2815,7 +2860,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2986,7 +3031,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3091,7 +3136,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3197,7 +3242,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3477,24 +3522,26 @@
       <c r="D42" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="141.5" customWidth="1"/>
-    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -3846,8 +3893,25 @@
         <v>200</v>
       </c>
     </row>
+    <row r="24" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="B24" t="s">
+        <v>378</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="E24" s="15">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4034,7 +4098,7 @@
       <c r="B20" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4244,7 +4308,7 @@
       <c r="D35" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4478,7 +4542,7 @@
       <c r="D35" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4795,7 +4859,7 @@
       <c r="D29" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4937,7 +5001,7 @@
       <c r="D31" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5360,7 +5424,7 @@
       <c r="E44" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5369,8 +5433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5573,13 +5637,13 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -5588,10 +5652,10 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -5644,7 +5708,7 @@
       <c r="E21" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
@@ -5853,7 +5917,7 @@
       <c r="E34" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5999,7 +6063,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -3531,7 +3531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/PycharmProjects/jiekou2/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3E3355E5-18D1-4F92-97E6-5738BF107D1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37000" yWindow="4040" windowWidth="27060" windowHeight="15440" activeTab="14"/>
+    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -31,18 +27,18 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="392">
   <si>
     <t>POST</t>
   </si>
@@ -785,9 +781,6 @@
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/personal/esengtp/openapi/plugin-templates/notice/APPLY_ADD_FORMAL_GROUP_MEMBER_NOTICE?groupId=8a74859165cda425016682178d070003</t>
-  </si>
-  <si>
-    <t>https://m.workdesk.esenyun.com/personal/esengtp/openapi/add-group-members</t>
   </si>
   <si>
     <t>{
@@ -1588,11 +1581,50 @@
     <t>{"attentionFlag":"true","userId":"8a9c8ff35deb01ad015deb9a13310008"}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/user-profile/join-invite-code?code=222255</t>
+  </si>
+  <si>
+    <t>test_user_geren_join_invite</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/personalprofile/openapi/record/list-info</t>
+  </si>
+  <si>
+    <t>test_user_geren_join_record</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esengtp/openapi/outsider/count-template-managers/8a9b55985dcc7e25015dcf07cad2000c</t>
+  </si>
+  <si>
+    <t>test_user_team_outsider</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/esengtp/openapi/add-group-members</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esengtp/openapi/permissions/account</t>
+  </si>
+  <si>
+    <t>test_user_team_permmissions</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/feedback/esenbadge/openapi/badge/entities/span?spanId=ESENYUN%3AAPP%3AFEEDBACK</t>
+  </si>
+  <si>
+    <t>test_user_feedbacke_shaisuan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1726,7 +1758,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1779,8 +1811,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1843,13 +1876,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="46"/>
   </cellXfs>
-  <cellStyles count="46">
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4"/>
+  <cellStyles count="47">
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
@@ -1870,6 +1907,7 @@
     <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
@@ -2167,23 +2205,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="126.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126.875" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2217,12 +2255,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -2234,7 +2272,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2279,7 +2317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2311,7 +2349,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2326,7 +2364,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2341,7 +2379,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2358,7 +2396,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2373,7 +2411,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -2390,7 +2428,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2405,7 +2443,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2420,7 +2458,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2454,7 +2492,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>77</v>
       </c>
@@ -2469,7 +2507,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
@@ -2486,7 +2524,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="191" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="191.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
@@ -2503,7 +2541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
@@ -2520,7 +2558,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>90</v>
       </c>
@@ -2535,7 +2573,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -2550,7 +2588,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -2565,7 +2603,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>99</v>
       </c>
@@ -2580,7 +2618,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>96</v>
       </c>
@@ -2597,7 +2635,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>101</v>
       </c>
@@ -2612,12 +2650,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>42</v>
@@ -2627,119 +2665,119 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="8"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="8"/>
       <c r="C45" s="2"/>
@@ -2754,21 +2792,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="110.5" customWidth="1"/>
-    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+    <col min="3" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -2785,7 +2823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>117</v>
       </c>
@@ -2801,10 +2839,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
         <v>214</v>
-      </c>
-      <c r="B3" t="s">
-        <v>215</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>13</v>
@@ -2816,10 +2854,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>13</v>
@@ -2831,10 +2869,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>13</v>
@@ -2846,10 +2884,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>13</v>
@@ -2866,23 +2904,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="110.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="73.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="73.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -2899,18 +2937,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
         <v>227</v>
-      </c>
-      <c r="D2" t="s">
-        <v>228</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -2918,10 +2956,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>13</v>
@@ -2933,16 +2971,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" t="s">
         <v>226</v>
       </c>
-      <c r="B4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>227</v>
-      </c>
-      <c r="D4" t="s">
-        <v>228</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -2950,16 +2988,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -2967,16 +3005,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -2984,47 +3022,47 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" t="s">
         <v>235</v>
       </c>
-      <c r="B7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
         <v>237</v>
       </c>
-      <c r="C8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="D9" t="s">
         <v>254</v>
-      </c>
-      <c r="B9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" t="s">
-        <v>255</v>
       </c>
       <c r="E9" s="15">
         <v>200</v>
@@ -3037,23 +3075,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="49.5" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -3070,18 +3108,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>332</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>333</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3089,33 +3127,33 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
         <v>338</v>
       </c>
-      <c r="B3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="C4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="B4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -3123,13 +3161,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" t="s">
         <v>342</v>
-      </c>
-      <c r="C5" t="s">
-        <v>343</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3143,23 +3181,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="49.5" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -3176,18 +3214,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3195,33 +3233,33 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
         <v>338</v>
       </c>
-      <c r="B3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="C4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="B4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -3229,13 +3267,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" t="s">
         <v>342</v>
-      </c>
-      <c r="C5" t="s">
-        <v>343</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3248,23 +3286,23 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="167.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -3281,7 +3319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>190</v>
       </c>
@@ -3297,7 +3335,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>192</v>
@@ -3312,10 +3350,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
         <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>197</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>42</v>
@@ -3325,18 +3363,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>193</v>
+        <v>200</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>387</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3344,16 +3382,16 @@
     </row>
     <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -3361,48 +3399,48 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="B7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="92" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E9" s="10">
         <v>200</v>
@@ -3410,26 +3448,47 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="18"/>
+      <c r="E11" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" t="s">
+        <v>388</v>
+      </c>
       <c r="D12" s="18"/>
+      <c r="E12" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="18"/>
@@ -3523,28 +3582,31 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{B52FB003-FD32-4F45-8CE0-D61D478FB7BA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="141.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -3561,7 +3623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>121</v>
       </c>
@@ -3576,7 +3638,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>119</v>
       </c>
@@ -3591,7 +3653,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>123</v>
       </c>
@@ -3606,7 +3668,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>125</v>
       </c>
@@ -3621,7 +3683,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>127</v>
       </c>
@@ -3636,7 +3698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>135</v>
       </c>
@@ -3651,7 +3713,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>136</v>
       </c>
@@ -3666,7 +3728,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>137</v>
       </c>
@@ -3681,7 +3743,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>138</v>
       </c>
@@ -3696,7 +3758,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>139</v>
       </c>
@@ -3711,7 +3773,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>140</v>
       </c>
@@ -3726,7 +3788,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>141</v>
       </c>
@@ -3741,7 +3803,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>142</v>
       </c>
@@ -3756,7 +3818,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>162</v>
       </c>
@@ -3771,7 +3833,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>143</v>
       </c>
@@ -3786,7 +3848,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>145</v>
       </c>
@@ -3801,7 +3863,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>150</v>
       </c>
@@ -3816,7 +3878,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>154</v>
       </c>
@@ -3831,7 +3893,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>157</v>
       </c>
@@ -3846,7 +3908,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>164</v>
       </c>
@@ -3861,7 +3923,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>189</v>
       </c>
@@ -3876,18 +3938,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E23" s="15">
         <v>200</v>
@@ -3895,18 +3957,46 @@
     </row>
     <row r="24" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" t="s">
+        <v>377</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="B24" t="s">
-        <v>378</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="E24" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" t="s">
         <v>381</v>
       </c>
-      <c r="E24" s="15">
+      <c r="C25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="24">
         <v>200</v>
       </c>
     </row>
@@ -3917,23 +4007,23 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="49.5" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -3950,50 +4040,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>355</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>358</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>359</v>
       </c>
       <c r="E4" s="10">
         <v>400</v>
@@ -4001,13 +4091,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>368</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4015,16 +4105,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" t="s">
         <v>364</v>
-      </c>
-      <c r="D6" t="s">
-        <v>365</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -4032,16 +4122,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" t="s">
         <v>364</v>
-      </c>
-      <c r="D7" t="s">
-        <v>365</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -4049,13 +4139,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -4104,23 +4194,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="127" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -4137,18 +4227,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -4156,10 +4246,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
@@ -4169,35 +4259,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="10">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4205,16 +4295,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" t="s">
         <v>284</v>
-      </c>
-      <c r="B6" t="s">
-        <v>285</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E6" s="10">
         <v>400</v>
@@ -4315,23 +4405,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="115.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="115.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -4348,12 +4438,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
@@ -4364,16 +4454,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -4381,13 +4471,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
         <v>264</v>
       </c>
-      <c r="B4" t="s">
-        <v>265</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
@@ -4396,31 +4486,31 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -4428,33 +4518,33 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="B8" t="s">
         <v>288</v>
       </c>
-      <c r="E7" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>291</v>
-      </c>
-      <c r="B8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>292</v>
       </c>
       <c r="E8" s="10">
         <v>400</v>
@@ -4549,23 +4639,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="115.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="115.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -4582,21 +4672,21 @@
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -4604,16 +4694,16 @@
     </row>
     <row r="3" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
         <v>297</v>
       </c>
-      <c r="B3" t="s">
-        <v>298</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -4621,48 +4711,48 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
         <v>303</v>
       </c>
-      <c r="B5" t="s">
-        <v>304</v>
-      </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E5" s="21">
         <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -4671,13 +4761,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -4686,13 +4776,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -4701,13 +4791,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="10">
@@ -4716,33 +4806,33 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E11" s="10">
         <v>201</v>
@@ -4750,33 +4840,33 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>321</v>
       </c>
-      <c r="C12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E12" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="C13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>324</v>
-      </c>
-      <c r="B13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>325</v>
       </c>
       <c r="E13" s="10">
         <v>201</v>
@@ -4784,16 +4874,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E14" s="10">
         <v>200</v>
@@ -4801,16 +4891,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" t="s">
         <v>328</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>329</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="18" t="s">
         <v>330</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>331</v>
       </c>
       <c r="E15" s="10">
         <v>200</v>
@@ -4866,23 +4956,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="167.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -4899,12 +4989,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
@@ -5007,23 +5097,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="126.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126.875" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -5040,7 +5130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -5055,7 +5145,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -5085,7 +5175,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -5100,7 +5190,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -5132,7 +5222,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
@@ -5147,7 +5237,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
@@ -5162,7 +5252,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
@@ -5177,7 +5267,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -5192,231 +5282,231 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="8"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="2"/>
@@ -5430,22 +5520,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" customWidth="1"/>
-    <col min="2" max="2" width="98.83203125" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="105.875" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
     <col min="5" max="5" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -5462,7 +5552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>109</v>
       </c>
@@ -5476,7 +5566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>110</v>
       </c>
@@ -5490,7 +5580,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>72</v>
       </c>
@@ -5504,7 +5594,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="8" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>73</v>
       </c>
@@ -5518,7 +5608,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>111</v>
       </c>
@@ -5532,7 +5622,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>112</v>
       </c>
@@ -5546,7 +5636,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>115</v>
       </c>
@@ -5637,13 +5727,13 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -5652,10 +5742,10 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -5666,11 +5756,19 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -5715,21 +5813,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="141.5" customWidth="1"/>
-    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+    <col min="3" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -5746,12 +5844,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>
@@ -5761,12 +5859,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>13</v>
@@ -5776,29 +5874,29 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" t="s">
         <v>245</v>
-      </c>
-      <c r="E4" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" t="s">
-        <v>246</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>13</v>
@@ -5808,12 +5906,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -5823,12 +5921,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>13</v>
@@ -5838,82 +5936,82 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E34" s="15"/>
     </row>
   </sheetData>
@@ -5923,23 +6021,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -5956,7 +6054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -6045,7 +6143,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="125.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>184</v>
       </c>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3E3355E5-18D1-4F92-97E6-5738BF107D1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3CF8D1DB-664E-47B2-A19A-975D72633A5C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="402">
   <si>
     <t>POST</t>
   </si>
@@ -347,19 +347,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/esenmessage/openapi/word-push-message-setting/off/2c9485fd66a5fcbc0166c46eb41709e6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>test_xiaobaiban_mremind</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"wordid":"2c9485fd66a5fcbc0166c46eb41709e6"}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -451,10 +439,6 @@
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/logs?page=0&amp;size=20</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/participators</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1262,9 +1246,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customer</t>
-  </si>
-  <si>
     <t>https://m.workdesk.esenyun.com/crs/esencommon/openapi/areas/district?district=340800</t>
   </si>
   <si>
@@ -1620,12 +1601,519 @@
     <t>test_user_feedbacke_shaisuan</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customer-team-members/5bae126c3cad160001c7f350</t>
+  </si>
+  <si>
+    <t>test_CRS_customer_teammember</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CRS_customer_tasklist</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ "id": "5bae126c3cad160001c7f350",
+ "qccCode": "362352f8603a491e747ebfc3c9a9d599",
+ "boardId": null,
+ "ownerId": "6837047319fd40309f36f1ebe2db7151",
+ "ownerName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈琳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+ "ownerUrl": "https://img.esenyun.com/images/20181102/0036b2a6e929408c8610b865dae15340.png",
+ "cusName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>江苏洋河酒厂股份有限大家洗剪吹公司客户端好看的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+ "commissionerId": null,
+ "commissionerName": null,
+ "commissionerUrl": null,
+ "simpleName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>哦哦漂亮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+ "cusNameIndex": "j",
+ "cusLogo": "https://co-image.qichacha.com/CompanyImage/362352f8603a491e747ebfc3c9a9d599.jpg",
+ "cusLocation": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>江苏省宿迁市洋河中大街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>118</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+ "cusProvince": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新疆维吾尔自治区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+ "cusTaxNumber": null,
+ "cusLegalRepresentative": null,
+ "cusRegisteredCapital": null,
+ "cusCompanySite": "www.chinayanghe.com",
+ "cusCompanyStart": null,
+ "cusCompanyTelephone": "0527-84938001",
+ "cusCompanyEmail": "530205232@qq.com",
+ "cusDescription": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>酒类的生产、销售</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预包装食品的批发与零售</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>粮食收购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自营和代理各类商品和技术的进出口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国家限定公司经营或禁止进出口的商品和技术除外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国内贸易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子商务平台建设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品的网上销售。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依法须经批准的项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经相关部门批准后方可开展经营活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)",
+ "scopeOperation": "",
+ "cusExt": null,
+ "teamId": null,
+ "teamName": null,
+ "cusGroupId": null,
+ "cusCountry": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+ "cusCity": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新疆维吾尔自治区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+ "countyArea": null,
+ "cusSourceId": null,
+ "cusSourceName": null,
+ "cusLevelId": "2c948cd865f1d7fc01661ff0ef4c0103",
+ "cusLevelName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非优先客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+ "cusTradeId": "2c948cd865f1d7fc01661ff19318010a",
+ "cusTradeName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+ "cusMnemonicCode": "OOPL",
+ "signType": 0,
+ "serviceTeamId": null,
+ "serviceTeamName": null,
+ "blackMarker": null,
+ "followStatus": null,
+ "lastModifiedDate": "2018-10-10T12:09:53.778Z",
+ "visible": true,
+ "owner": false,
+ "version": null,
+ "sourceType": null,
+ "source": null
+}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/crs/esencrs/openapi/customer-task-list?page=0&amp;size=10&amp;sort=asc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a016685ca07d10195/participators</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_CRS_customer_record</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esencrs/openapi/comment</t>
+  </si>
+  <si>
+    <r>
+      <t>{"content":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务很好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>","data":"{\"imgs\":[\"https:\\\/\\\/img.esenyun.com\\\/images\\\/20181106\\\/2c7f989894e3483f85517d34931ecc99.png\"]}","entityId":"5bdc0d898b2d81000199a464","cusId":"5bdc0d898b2d81000199a464","version":0,"sourceType":"APP_IOS","entityType":1}</t>
+    </r>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenmtc/openapi/notification-setting/WHITE_BOARD/2c9485fd66a5fcbc0166c46eb41709e6/on</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_tongzhi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":"{\"groupId\":\"8a9c8ff35f81891f015f8569aa580002\"}","subject":"测试专用，请勿删除","source":"2c9485fd66a5fcbc0166c46eb41709e6","sourceType":"WORD","remind":"1550390400"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1735,6 +2223,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1813,7 +2314,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1880,6 +2381,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2208,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="C26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2260,7 +2764,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -2469,7 +2973,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -2507,35 +3011,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="E19" s="3">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="191.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -2543,16 +3047,16 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
@@ -2560,10 +3064,10 @@
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
@@ -2575,10 +3079,10 @@
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
@@ -2590,10 +3094,10 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>42</v>
@@ -2605,10 +3109,10 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>42</v>
@@ -2620,16 +3124,16 @@
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="E26" s="3">
         <v>201</v>
@@ -2637,10 +3141,10 @@
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>42</v>
@@ -2652,10 +3156,10 @@
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>42</v>
@@ -2666,11 +3170,19 @@
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -2786,8 +3298,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{30C5901A-BCEB-416B-9EDC-394B392A7873}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2825,10 +3340,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
@@ -2839,10 +3354,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>13</v>
@@ -2854,10 +3369,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>13</v>
@@ -2869,10 +3384,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>13</v>
@@ -2884,10 +3399,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>13</v>
@@ -2939,16 +3454,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" t="s">
-        <v>226</v>
-      </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -2956,10 +3471,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>13</v>
@@ -2971,16 +3486,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -2988,16 +3503,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3005,16 +3520,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -3022,13 +3537,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -3036,16 +3551,16 @@
     </row>
     <row r="8" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -3053,16 +3568,16 @@
     </row>
     <row r="9" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E9" s="15">
         <v>200</v>
@@ -3110,16 +3625,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3127,16 +3642,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -3144,16 +3659,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>335</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>340</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -3161,13 +3676,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3216,16 +3731,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3233,16 +3748,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -3250,16 +3765,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>335</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>340</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -3267,13 +3782,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3321,10 +3836,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>42</v>
@@ -3335,10 +3850,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>42</v>
@@ -3350,10 +3865,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>42</v>
@@ -3365,16 +3880,16 @@
     </row>
     <row r="5" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3382,16 +3897,16 @@
     </row>
     <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -3399,13 +3914,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -3414,16 +3929,16 @@
     </row>
     <row r="8" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -3431,16 +3946,16 @@
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E9" s="10">
         <v>200</v>
@@ -3448,16 +3963,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
@@ -3465,10 +3980,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>13</v>
@@ -3480,10 +3995,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10">
@@ -3625,10 +4140,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>
@@ -3640,10 +4155,10 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>13</v>
@@ -3655,10 +4170,10 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>13</v>
@@ -3670,10 +4185,10 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>13</v>
@@ -3685,10 +4200,10 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -3700,10 +4215,10 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>13</v>
@@ -3715,10 +4230,10 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>13</v>
@@ -3730,10 +4245,10 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>13</v>
@@ -3745,10 +4260,10 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>13</v>
@@ -3760,10 +4275,10 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>13</v>
@@ -3775,10 +4290,10 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -3790,10 +4305,10 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>13</v>
@@ -3805,10 +4320,10 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>13</v>
@@ -3820,10 +4335,10 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -3835,10 +4350,10 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>13</v>
@@ -3850,10 +4365,10 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>13</v>
@@ -3865,10 +4380,10 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -3880,10 +4395,10 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>13</v>
@@ -3895,10 +4410,10 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>13</v>
@@ -3910,10 +4425,10 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -3925,10 +4440,10 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>13</v>
@@ -3940,16 +4455,16 @@
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E23" s="15">
         <v>200</v>
@@ -3957,16 +4472,16 @@
     </row>
     <row r="24" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B24" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E24" s="15">
         <v>200</v>
@@ -3974,10 +4489,10 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>19</v>
@@ -3988,10 +4503,10 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B26" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>13</v>
@@ -4042,13 +4557,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10">
@@ -4057,16 +4572,16 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -4074,16 +4589,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E4" s="10">
         <v>400</v>
@@ -4091,13 +4606,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4105,16 +4620,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -4122,16 +4637,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -4139,13 +4654,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -4229,16 +4744,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -4246,10 +4761,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
@@ -4261,16 +4776,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E4" s="10">
         <v>400</v>
@@ -4278,16 +4793,16 @@
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4295,16 +4810,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E6" s="10">
         <v>400</v>
@@ -4440,10 +4955,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
@@ -4454,16 +4969,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -4471,13 +4986,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
@@ -4486,13 +5001,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -4501,16 +5016,16 @@
     </row>
     <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -4518,16 +5033,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -4535,16 +5050,16 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E8" s="10">
         <v>400</v>
@@ -4642,8 +5157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4672,21 +5187,21 @@
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -4694,16 +5209,16 @@
     </row>
     <row r="3" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="B3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>300</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -4711,13 +5226,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
@@ -4726,33 +5241,33 @@
     </row>
     <row r="5" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E5" s="21">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -4761,13 +5276,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -4776,13 +5291,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -4791,13 +5306,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="10">
@@ -4806,16 +5321,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
@@ -4823,16 +5338,16 @@
     </row>
     <row r="11" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E11" s="10">
         <v>201</v>
@@ -4840,16 +5355,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E12" s="10">
         <v>200</v>
@@ -4857,16 +5372,16 @@
     </row>
     <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E13" s="10">
         <v>201</v>
@@ -4874,16 +5389,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>325</v>
-      </c>
-      <c r="C14" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>330</v>
       </c>
       <c r="E14" s="10">
         <v>200</v>
@@ -4891,67 +5406,111 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B15" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C15" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E15" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" t="s">
+        <v>390</v>
+      </c>
       <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="E17" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="E18" s="10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{CC3915FE-AE1F-47F9-BF54-D14A2C35049F}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{F66AEA04-533E-4556-B8EF-64F7609FE89C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4991,10 +5550,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
@@ -5101,7 +5660,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5254,10 +5813,10 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -5269,13 +5828,13 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>104</v>
+        <v>394</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -5515,6 +6074,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{7809E279-F02A-40C1-AB2D-E61AF4F798DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5523,7 +6085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -5554,7 +6116,7 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>68</v>
@@ -5568,7 +6130,7 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>69</v>
@@ -5610,10 +6172,10 @@
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>13</v>
@@ -5624,13 +6186,13 @@
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -5638,10 +6200,10 @@
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>13</v>
@@ -5652,10 +6214,10 @@
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>13</v>
@@ -5666,16 +6228,16 @@
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
@@ -5683,10 +6245,10 @@
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>13</v>
@@ -5697,10 +6259,10 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>13</v>
@@ -5712,10 +6274,10 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>46</v>
@@ -5727,13 +6289,13 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -5742,10 +6304,10 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -5757,10 +6319,10 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -5846,10 +6408,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>
@@ -5861,10 +6423,10 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>13</v>
@@ -5876,16 +6438,16 @@
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E4" s="15">
         <v>200</v>
@@ -5893,10 +6455,10 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>13</v>
@@ -5908,10 +6470,10 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -5923,10 +6485,10 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>13</v>
@@ -6025,7 +6587,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6056,10 +6618,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>42</v>
@@ -6070,10 +6632,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>42</v>
@@ -6085,10 +6647,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>42</v>
@@ -6100,10 +6662,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>42</v>
@@ -6115,10 +6677,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>42</v>
@@ -6130,10 +6692,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>42</v>
@@ -6145,19 +6707,19 @@
     </row>
     <row r="8" spans="1:5" ht="125.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>187</v>
-      </c>
       <c r="E8" s="10">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3CF8D1DB-664E-47B2-A19A-975D72633A5C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DFF4F63B-D793-4EC7-BBD6-42358ECDC67F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="411">
   <si>
     <t>POST</t>
   </si>
@@ -83,20 +83,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "wordId": "2c9485fd66a5fcbc0166c46eb41709e6",
-  "content": "测试",
-  "groupId": "8a9c8ff35f81891f015f8569aa580002",
-  "data": "{\"imgs\":[],\"attach\":[]}",
-  "sourceType": "WEB",
-  "producedGTD": false
-}</t>
-    <rPh sb="64" eb="65">
-      <t>ce'shi</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>test_xiaobaiban_coment</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -161,39 +147,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/kudos/2c9485fd66a5fcbc0166c46eb41709e6</t>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/adopt/2c9485fd66a5fcbc0166c912da070ba3/1?groupId=8a9c8ff35f81891f015f8569aa580002</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/adopt/2c9485fd66a5fcbc0166c912da070ba3/0?groupId=8a9c8ff35f81891f015f8569aa580002</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/members/2c9485fd66a5fcbc0166c46eb41709e6/READ</t>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/members/2c9485fd66a5fcbc0166c46eb41709e6/UNREAD</t>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/remind-participant</t>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/unkudos/2c9485fd66a5fcbc0166c46eb41709e6</t>
-  </si>
-  <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenpersonalspace/openapi/collect/create</t>
   </si>
   <si>
     <t>{"groupId":"","itemType":"WORD","title":"测试专用，请勿删除","itemSource":"2c9485fd66a5fcbc0166c46eb41709e6"}</t>
   </si>
   <si>
-    <t>{"groupId":"8a9c8ff35f81891f015f8569aa580002","toMemberIds":["c0a80c87643946978e7b84c8c6b88f51","8a9d3ed0603584f501606d80913d000c","241a82e139a349e0a9dc9b8a1d9621d4","b0469abc385640ae8b3f0f7ab4e8e2bc","03c26f4acd8d4470884fa62b15c68681","fb9633392b5348ae97cc514fbed8c7e0","d2b8f5e698ea44bea76a96b7a59b2d2f","c76638d9bda34f989710b8e58c2233f3","dd51ebf979204e31a2a82b6dad395293","576763fcb3e44914a1adf12104fa814e","fcd30cd4a94747e5a572923c713cc9a0","de4ac2fd762446b983f0bcadb290c9f1","1b43a95e46dc45b8a0a5e4abb7db0522","ae9044743dbb4f5fbf5ed5a1eb3bc4b7","6837047319fd40309f36f1ebe2db7151","e21daf69e2c94a93a646d06d9d8024f5","29a2abb59ea843a3b1d6ecf5d8a7eaca","ba6ff1c9aa304716aff30453cd8ec9fa","58c9d7ce40a947debc208d754e47e631","2aed8e8e50734b48854829433aaa0e73","a7718462d14442ef9cf8c211cad971c6","5f5904982cbf425484ca508c261b990c","5ce0bde083874d05b5e107e02b4c826f","851c38ea21f446189bf15223a59aac30","ab9dadeed2444c64b2e7cd1f19107408","2e541d303c934e89bd0111b088e6e38b","67d1adafdc78473b8d3a4125b3a49907","702e3ee82bc94ba28998a8325e0ffdb4","a8e0b44a6cde498b9817796964075a21","68b3f8a509bd42e081b6a1423d736285","a903797bcbeb441ba4f138d5fc6b1d6f","18fade97de684f7c877a649bfa01d20f","101aa515988849b2b69d4a4c9ae50d6d","caa63815880344b69c7973fa35b9e09a","e1f509268f734e70b02c7f67bc96b08f","52c8af495ff847c98a31304d6a991646","697f5f0863e7495b8ea0742e1286c7ad","8993f07696f04b4c854c8764f2ff34eb","a79cc90a318442fb8167f20e1e911f9b","2b932da313a94cf1a18c5d55f29ab24b","f7d2ed9c853540b98b037f8307a66a0f","7546811936274d4b9c88160e0153b010","987b643c653e4cd38f0387367c44b15a","c05974af4b4a4b7d82aa9aa9ea617355","84a09626c5ef479e923b77cf4acec96e","0f61fbea2e124074adae0c49f30a2a52","509262a6f77045d7a98950d9d087ecef","47dbfc184dba4deb8a232c62cc6c302f","d73e80c089e347dfbfb73aa32aae7d76","5c084243688f4067964a1ce3082866d3","b9756a606213470684f5a8d004c11f51","0ef904f3de804fbe9d0d5e95befb2aeb","ceaeef0dcfea4d868cd5d429b9f34bfd","4cea796a2ca14be7b44df1fe8719dfb1","b4c9a9db5dd44f81abb3c05b737bf926","2fc3a4a1ce8f48acb34ee288803400e4","8a9c8ff3609cfec40160ea877de90000","37feadbf323a40ed9e977b7447398ac0","95ae105b7fa649a6907481e99f582376","8a9d3ed060ee8eb90161285866610016","769e8fe3beae4783858d472ff4dd9c72","bfe8b389bb4546348b4b735e7729f39e","b4a3c582a365469c86f1474ee3b5f889","f9ce8471008441fca184d67b20f1ed4d","1391bdb1e72844098d0a531e2fe840ed","ad7ff90356254a1389f98f21bf25444b","6bd9f674a6d4464caa4a1f88371c3817","f3928c4a75c94ebb9676ae28e611221e","626ab70b51174ae99e3635df6d318d0f","b45120c8c32a448ca6a0e3f1a24652b8","1f398738dfa6464d8a792093a1a55b46","9891d7939d4f4ef4a65e8fa6ff0e78a0","ab797caa52e14ab4b3f9c470f8a88b21","0eab52ae10a44199936d8c0133f68ba4","105e114179af404cab7b333b1fc9b1c0","0ff57c1a51fe4b5f81c88b3032adb24d","59079d3cd5e14474bdcf9e583f181055","c6bcf7b3e1c04d38be04f136387fc6a0","8a9870c16093114e016097451b1b0004","38595e20080e4fdeb663ebc95a8b3c58","64f9feac643444abb8f0cf90814216fc","d2a925e87c884ae08ef4ab0cf64cd683","332ac91c987a48b4b8571a3378459e8b","51ee6db64fa3488c83aae03d7c383156","86527d632d3c49cca0c43bfb3db4442c","78cad32bf6564b538e70be8229b46d5b","e02e2bf4450e4e6da7e07eef3c5fcbc2","97c8490bd11c4ec6bc5419b0c030e299","ff232f7f62dc446db44f6e3f8ed1ee01","8a83103847764d29983d3837053577aa","2f110a1f4eed4d00b875af972c7d32f5","e21e05c959d34553a7e3f77b9229c347","aac4eea625d542ee981bcdfc66a26a3f","4194ba7ce1384162a41c90753467f319","260f5fe8cfbd44fda08e1d4c9458b533","0ebd1bf809b446c4a6abc4bb3c47cbbd","7c812fff2e50446b936ca33e137510a3","556b32d6693f4ac6bd6725ae99fac3c9","bc9c4b0e3d6b4e14aecdece2844f8198","b2154542e93240b280c4d84572b3701b","b6ad3c6cd4724c0d864fcc707087fe9f","882138070e7e4ea29a11b0045b3085f9","56d0e20528a6470e95c77d382a13399f","229441ab808d4317bf8b6a3bf35043d0","2b0a4d4e58b54f8bb833ca063da3b4df","851f2999c2a54c169aae9fca37474444","31b6f401e07c45ee901a12f0212331d7","c7cbffc0ae084a448f7ca028722246ba","84760e9143504f35b0bb18c0511b263f","057677c70e76428e8a5dcd7bc12c1fe9","fd52411257f3482ba81ed58623fce0e8","feb8a24a8d22402f83e65e688b7f5816","530b694d69924b8faade016efc8f8c37","ef0dc392bf8842958d449f490750fea9","88c9c99588d24b2f84aedfe9b0c409c1","549ae5b6e25941989a5a118e5ba106e9","3c8c6114c5384812b38b56554fe34f1a","0fcfa7a05df242ccbc84db3e65c43f56","0f9f6b688090464b8b63e1062d9e5899","ca13685bcf31431a962fd43b9149ca10","494327ac58b54eacb4e4e3266fb8d883","1f311729ab264a559e89051ce851830c","2f5e9009453b4775ae6920117e4380c3","06b096db24bc454f8713dd39f9588028","f214fa3cbb6a4f27b31db07107103de2","aa7df86c5d114c8caa9a5f7cfa24a398","102ada2bad514800ba86a9be64252e89","eed7fac599c14bada2d6991b9bec78b9","ce622cb4b4a34ced8e6854685d06eef7","f58924d4a3a14a74bce30ef72ab7cf3c","9fb96c9bd17447559c416da1662c99b5","ba3fa83376ed4a16b40686d2ada666f6","02a06e4a8a2c4fd8859fdc18e6e94d82","65d2dff9da904215a7a4adf7701e3712","31782a3696f1437e95191444b143422e","4c6eca1422fe4a698fc7b8ec01feec44","aa414e20761b42ad8ea2a2b3d48813c5","e2880a52e60b434e95f3f9dc10a9027d","a3583b6f42274d1f9f393e2838b898b0","13db1c21655044609fe22ae02a73abdd","231e86ad5d32452e95a0299ded8b7a51","80683fe866be4cebb32c70ffc89bf211","607f1645d8eb4e7dace838396c1864c4","3ef3bc1a55734b8188ddbca155e040bd","0c2296badf254ef39c24ca18314871ca","4917fd57bd6a4e80bb06ca464f560dd6","48c40a23e5ab426e81c6c6e3b783383a","29a67dcb98ba4ebf95976826793d76be","16efea8114c04b9a8e124c44ae3833c7","d7302ce1a8444ffead7ece3802302341","13741c4f1c1d405599f02041d28e3481","6fa6cd1753c148448198ccfc405308ad","8a9c8ff3609cfec40160eef727b10001","5f76d73b21e84707872142d054f88812","f9513fc3cbba47c799ba319222be7c5c","4dfb75b067e3433c9cf32d4c10cb875a","e28e01bec3ab4fbab95a6c40c1fde574","e9a376094b3645c588a8e0d1a09f3c70","7fc39158e76e4357aeb45f3462e60a0e","c1ab4199a73144009b4fd2842f81fe7f","94509c461df54259abdf9010a94f8fe0","5dfb46ce438f418e803135aec6c56d4b","699f45e874f74a11823ae18cfd769e46","4ee73089610c4ac6afcf739699de87ff","9ccc7298deed40d181b0e3cf61114a15","c839c747c4b1461a9e502fa6de010cf9","be847c246141442082480d80310e4e68","eacbbef1137249a5a343d36cdd56a972","c26aaa6c473149fb92581c411098c414","44c1a8302ea3410db49c88d4e5c41ece","a363e7e4903d4b26aa7a54583c496cee","03c63c952b9d448c99bf2a87f406a18a","e1764c6df4a24c38b46fd9bf769cb5f1","8a9c8ff3609cfec40160eef88e620003","81dba95cf6ac486fafa22d47b7a93a3c","e4da5bb6ede64ded94c9ffee896735d5","cf30aa778d8e4d6c9373a9f496de9bf1","6bc4494301794280b38d76049603d0df","cf6aaa17b1154d1fa228d436cf99a95b","e7d70667389342f4b7a50a3fd211d43b","d695482ce82c4d88935ca9b3943f4b50","6db13d8d29a54fe0a1a5e927a15fd85c","7b86ddaf71424b3b82bf1971935b30ad","5d6820d387cc440bb74258ff4ee1eea9","d16acb6fddd749e999544b8fea953220","4a2c2b912ebe4568b5073ed2988241be","1928b4988580406bb1e3d45210815c48","86a5489b629649629a5ceef5fc94bc1d","8c763f4d33ad45dda3c758da0360a8e5","afa2f7397ae84a49895393681802be25","1a0154d4b61b415a8a35304bf7656238","3e504c4fda9045bc865ebdbac8767df4","ab7e635adfbe4e699510e170e2a1ca60","36937a7a1b3047e18990a7110d39f2a5","bbe07740e34d4e66b0ea2ca0e60159f5","a8e3e05148c9477a998e5a0d1518ecf8","672cc4f1773749be924e311f6333eb52","8a9d3ed060ee8eb901612861be25001c","6a6692515f57454b9aeaccff2ad45b05","2064fa6ef82c41d8ae2198d3defda846","01e2ce04a89e4dca807fd82ba4e6b757","0a0d7686d1da4729a1e40e7b4e1cb0c8","fcc7a2565f864258ba818c80e05ade75","295f7c6b82f34dcd8823d2f34c2257a1","9782ee4b0bb740e0bb94484498a23b6e","b51fd8a4ea7146579237b7feb7951c5d","702ea62ff6f74ec48dbf1abe43b68fb3","345b32247b824d14a9ae98fef23d9c98","9e1eb45e46b04c9c995dd92eac290044","af79a6100496478fa45a8a5a8a24247e","8f29aa8da0374907892e8d98297dd1a7","e2eb39aefb1b4129b77a2ff03ec78ad0","88d5db7932f74232be04913d421c8d5d","8c136bf2705b43fdaee74da94c001b7e","e61103f5f861406ca98b02456ec3f3b5","9723ff8564eb44e0b9cd32893d6b6f45","715d81b92dc94b55b5e3fe9d7e50c963","82a3dd0bab474ade8f752718c6f5068b","14db186ae12649f3937a39f74028b46a","46093b6151554830bea3503b769337ee","e28c148211e345cc9d1ef591e65cc455","baffb2b5736d4666b39c7319952f9651","99ed598c82ae4d3e99f19ce363f24441","2fa6a0f295054ca2b5e2e34cbb435bcd","06b4d07da5864eeba875004ec728632f","76cd8950aa1449ee8a4df100c6970e23","d97ad2c6c22c45d391c2e227e8ba4b76","4acaf73acce3408ca7f5063d2d1008df","8b2b7033881948c9ab246b2b7e55019e","a014ec2de71f4044a1561176cbf960ff","27b9344abb164331843db48162ad5b70","1d7f1afca9a04ecea6f02c74f47efd34","43108c93aa6f49d18e17984408136148","fa8cd29dce504215940d984bf7e86229","662b94a6a6d84a08a2aa306dd3fa4e1f","fb3b0375dc124b9b9efe1433960a5a90","8bf3bbc94bbd43bdbf80284b3b4a79b9","e7a3ec585f5741a1ad1151a33a75b35b","a9d1cca250de4b37b2ac92f6049fdbbc","77e96a3d4e20497c89521a544af70960","94fb6f8703044bf4b1b9e0b0a6269ecb","4a92955b27474fa199d698953fff6d25","386c5780b399430b9f5292c77ca66b8b","6cebac645ae74a2f86d6617bf0b4f24b","b09919fc256145f09377c5c8a82a1ab9","c4830d0141a54f878590a725e22d570c","1906556e70e940bb98950958432a9a07","de00191aecf941b2992d75cf35b1ffd8","19ba6b99c96c4ea5b6864f01cd12788f","04f70d9160b04dbfaf637d962e97e7c8","32c2a7f2efa644699ba5579f7593502c","48e2215f09b042acb699f9cd364458b7","85afcd736497434580a4a83f6622b00b","79ecc309525e4eee94e537be1f562681","fa72028449f54fb9931cd8ba82694db2","2a7d6f0cf1684dbd8b9cc7fffa7c4a34","1c8b5b4bea194aceb0ddd4482de52903","f28e39913506415d80f98ed21b878a5f","0721a3f4eca04048b1981f6baa888ba7","ec92a5ae015d4385bf9313b84564a430","f99b2464ee574d289e84dd55fda3f8b7","fae12883ec6e4308803a9b8a24302d98","23216b38c67b466994113c749e0572c0","0a0418c1d76a4e55bf91fe077e0dc164","a4989a436bae42d2a23260ed3bcda295","91034614eb5a46a7b54fc5c7851c935d","e690cb2ded3548c3bfdd19ecaadc66b1","700db3e8c9de448587b57cf3d68e4094","a1a9339a8519418b80f6cc5d966ae505","9b0c04a881bc4335a50942d1241646c4","1c92fa74992f49f2a1b23b6447b782e5","70a1e2ab1987464b9b65a89af2d859ba","56495bb9303646a0b2c1290d68854b1c","aaec0d1d842c455bbc712016b12a5c07","5f15aa8000db40059ef1612fbfcee8b3","c4163fa0252241e3b47aef3036c99fb8","92b7596d8a0744249f30469ee1a9af6c","768b7d9c31ac4c6e855c7ffea3f908c0","ed306466914347968378d711c175d1d8","d3da2a207ad8457aa13be4fd94d69ecd","c4d6499e887e49b69527d911113de6e9","aca8190b7b0945f78fd57ff8d68dde76","346bf005903341f2867b683693285744","014913b2adf249bda96dbe0d61dca45c","60004b4fedce4b338a6f267816d9542a","4be7c1ae5bd547dc932e1d18578a6fd8","2dd02a5f84934bff9d55ec7920b944d7","cec325cf92054652807502fefd14eca2","2327db3f6663469f9b19d73465d18000","b576841128ab4e0a9574ab5304904141","58cdbc0663c64458b231e9cb7afe1322","6cba557e803d41c0b96e4c10f503331e","3569ed4237c24b14b0918dbea034f78a","8a9c8ff3609cfec40160f7d3d1b10004","a2627f7f2d344cdcb25983defab9ac1f","da6603d19ed142be95dff304bc44c514","430c781b8f7748b487389fc7565d6eaa","a42f708314ff4736b4ca81d8c6ba89a2","20c52400342d4ffc980eab883b253129","8a9c8ff3609cfec40160f91e38d00006","b7e68f4aa41045ee83e8a3a388c4b382","51bc6c22ed034c79a1e3341e7ee1871b","8a9c8ff3609cfec40160f7d521520005","9d96d09b24a64533ab1921cc8ddc563f","13665fdfc6224da582e2863f15f80c39","2cbb0914035c4a94893957e1549714b8","8a9c8ff3609cfec40161023b6bce0007","ffc1365736b8481c86ed9f81ec85a088","aac38eff0a9643a8b069fd1acd59cf5a","ed676722a6ea4cc78ea3e4cd54798038","f4ff280237ac4a2599112cdc42cf8a40","744d14f717794a93b7644037ad4d645e","0834e83903e442c5a652b347aeb28297","03e0846bcd54442eb482acd5c45bb7c2","9e8ddbbf95d647b0868deec1b4c0951c","4b9483a2ea6d42e78465021e3922d81a","9590f43bc5b74c30b7d56359ce9120b8","14571108534e4f38b67928743c2b9deb","aab33f2c79bc4f7cabd5ff1ea152dd33","02a76915b60145dea1636499d87956b1","ab9a880f94254249aae9349172059134","efa7ac13b90f4c6ebe1ff14bafbebdfd","e00e6e11d3ae495f8d61bc14bfcecc9c","135c38416a794cf3a64da53935a36be9","81701a0f0bc44f8e85fb1acc9a7e5dec","cda86ba4558942bfa195cab342dcb164","84c0e39a28a34dce94cddf99d66d67d9","bd29ec847e13495c841b017fb7712f3e","59bf9b21d868482bbf6ebad5239e7cb1","baaa24e48a6d45e09f4d79214e07a439","4b7da546089f495fa44f982a886d8474","05a497f0e33a4f6c85b1532ac8fb6af7","ec3288669f7a4e86b86f065941a56107","c433c3ce61954a6fb7b8eb85b823f40f","331e493af849451c832db7d0ba5e12fb","eaf776425f534feda79193daed91caa5","fea5ffb17b2a46c191e0926f2fc2ef1b","63d779c9a5014ab4b3ee850f794d0bcc","86bd3ae43a154d56b16c3946ea6e5068","57f6a5bba510451abd5b13a302dbdaf4","d422d571861149fb8c28b77231d3fb12","c9b8e517431340ea9a6e8ce34dd8d32e","adb4d0161d374d1093e1e60de4b3aca3","eaf7886ee3e64566b0b2ffa43ff5154e","9592c7c1581a4b2aabce1fddae144c0d","23b35f0b79dd4d2096902988bc8267d7","ab26a0f50ddd4c9389ec25363ed09e6f","bf89c0ccae9841258cf4adaf26413d12","cc62182378464b1ca34ecdeb8becec71","773e92654eaf412ea1b3e00f8ce17b67","966986a6b8894b829e45e7aa4825b8c1","91c96cec981a41dca3c131bf157d5860","16d73626dc1e4fb19af0c7588307d895","236831da026b4222b0aa6bdea0f9fd84","1a5847c0923749989dceab68372aece8","e06b17000d234ec8ad87cc14d82b3119","139e03293b96487f94caf9d5de099791","9bb609966006424e8ad6dee2f91af5fa","b39eb718aca54fdd9caad6e96479f10b","ca8b003048fb490494317c58f64971e3","9bd44ecfe67f4e3ab6781327f073f09c","ea01a1d2359643d7bc8def60978b1589","f9f3cccec2ef42fe98390aeb13ca068e","507d5b864e72440091d973d11b35fd86","2034d7c9208748119f0c6192e0e18f93","dde118279c9f4f8bbc0528a0cea761fa","29bca3f007a44dac93a8eae6e0862e7e","72a48b7ce6c34e559619c90e7630608f","e28884a1a150408db769263baa3d9999","adf8feabc16d45ba9a51c4adda367153","f490c0d63ec54c218ba133ee1f240fdc","26fbeadbd78a4559b1e2d27fe2c2eafb","a683c573063347ca9521791d047e6a87","62fb9aaaf7e04f6989e5a9489ba76aae","94660ab5b5e240f79f85659778623baf","fb5629525c5f4ff1b914413cdb1661cb","4139cfc4946e4d0882a7f92efcbb2552","10ed5bf2708f47f78e639968ab44656c","8a9c8ff35f81891f015f8569aa760003","7a1787d9135f4c4688cc0dc469ca87d8","8b0528f4a44f4c359b7720d9ba5436f3","31726ff00e8942cb8ab627dfc1daf5c2","78cf84ceefc846b1a668e62d9fd9e9d5","f58334a8bfd44bc88052308930125dee","e3fd4a8a6b5044e0bbf44bbf2b085b46","8aee2a8733904aac89e41b323f8ce9eb","851939b088794f8b958dcee559fa072c","b204d70d7ceb4cab9d53bc01a587de96","8d1c44a2f7b44b5cb3d65b5aba8147ba","cf5dcd9487ee406890976ffa7fb4ebea","8a9c8ff3609cfec4016107fa51570008","c5e492d56dc741f0bb2a7e245a96641a","5f238a40d91a48ce8e61af190174ecdb","11ea32012fb5450c9a19a4f8342f97f9","dd971d88c2594a7880ba0538c81d309f","035e8ee940f94379a593d48464226804","8886982d69c94ebba03378fbfcc70ac0","670337da1220474e92c1b08bd72e8858","972332809f3a4169bc2327d22f42599e","b0c9795e8f194bc895ad687e7561b0c1","d289117825e74bdeaa113639e38ea993","5427a7c9f402484fa61ad0268fe5406b","f7a836d4ffd24876b23d887ce3172272","c4a63684c63c4211af529c20831b76a4","7ea8ddfd8a8f4def85267839b0772610","3d91e4293793455bbf5bd42c173d9ae5","f8d78410a602489691d86a121d44a3f9","18b6f1dc995047d390e41f6c35c69e67","569c8134f06e45d09d667f5505850534","17c8a07b9549467396213fa6cd9b68ca","55b43904009e45499e5b86d6e8592f6d","e5fda89ef948493e9eb8783bb86c1152","974ed70c879544fea440ad1ea0bfe41e","1a144ede092e4dfc99dd55603d0be234","5e4559cc89874bb6962cb470bd1958c5","c463a6612aef4a81a924a88b7ac9eb2a","4c53af38c8684d6db8aaac696cd4d9fc","15a23110cdb24ea5bf1f5bf18d8d49df","78bb4a3357c940968afe9832699ece90","0c9c3406124f467cba14d1f59bb1f81e","8c9690cb211247db8065a94de2db46e5","a983836f10894707af6bdc2ed93ca363","969ef82e3c464f76ac2e97b4661b7ff2","029e9ef115c142f89a559bc0c7c3e226","6a3ba35e7a1b403899fb07d52d529d89","6e38112dc9b84df49a110dbe0fdc3f44","d0f0ccae6c6b4606b7285e3ba3f4016e","8b88d27208a64e35a2bb95acc629b2f7","ca7afcc451c4472e9403c7a6676a0725","3c0c4b8e5a9441e9b842e957503bd024","0820170474fc4ff493e2d9d286b018c3","77537a52b8494c158d90906cb988b990","21191344c0f04ac3b5f949c15420a75d","c337ee1bcd1a4d4b9960dbee88ff1567","4b59e015564043d7960c6b26cb3592d0","785b181516f34b208e61925412db6e46","5b4b93a0c9184059a250d617c4ae1bf7","056c3bdc774a476196d0131f7fcfb850","732e0cd153dd4081a0f71d44bfbcc027","f529094777a64867b6b406823380e9c0","b1c45964a08f4e23b209c9b6ede849fc","a4b21abeb03147e092ac072558a17003","35f4dfb5e5594c30bcd1e89a4bf3a1d0","52628dac699a44e286788d08b8ce5928","5011e6e1a580490795511a86b14e762e","d9d40d572dec484cb04e30101375508d","05603343dad54a20b1132333918026c3","5736c2e2f8bd4b7e96534d70874fb66b","eee54dec36af4bc5b57879b51186bbb0","30b83efc1d6d474a99f7515029d20b04","d7cae916c2cb465b991ad17174aacc40","10f147bf047b4697a4a7f8c8ac579327","a1b8594cb1204e6ba4fce8f65c5e98bb","7a5011bc498843ee87a3956dc806edbd","2cc40a7bba674b5fb6ea3c4bded4c25a","a84da26c6d7c41a39d1700399ee27417","d6662da949a949fd97e6d404a79d3631","f84a3334749046529f34705311204319","93ca0fdbe2a541df9b6fc883de73d90c","111e4cd7570d46119ff86c85044d6044","8d9fd9154e6d470db3fa16b32eccb73f","afce0e0cb8d44006999712988c48d364","2fc30d8dd14d4e87abeab4dbd0030666","10f0bdab8c6b4a7c959f33adf2fffa4c","282ee7b014bb4f6da6ea3063a92acc74","ad9631f32652436c97cb7e58ce3ce592","a3391299b5694704977d20ee336507db","1c782a58639c4baaa1c0f8007f41893b","f13ede42d868454eb7540df675082f3b","3e9a71e2d8044fe7b19274179271ac47","27fce0c07a744938bd519284a869f589","608288caa8374caba3408c7b94ac2bfc","5403b1f81edc418bb2ad66a9ae6ce2e6","574a9821e6594686b25544d3b28b0fc8","f33bed92bcd34bb882994be7f6a6ba05","6bce2620540c441ea3e034bb8505706d","1a6c3d853c094e33bb8330566c43748c","4cbbca28ccd245dd902e450175748290","c33629f924354cf991646e5ccee99afd","b588b8e206494ee2876973b411dd7e07","ef6f47eb5c694880b852bcccd2f747bf","967f4c7fc1ac4e249cdd9f037db3e8ee","a93381f72b8342609738944118549165","59501a50e99e496b96860f5b807f0103","60d741713dd74aa6b089599cd7f85e51","ea3dfd1b4f9944a6abebdede11492ece","da8fdb3b6b1843d3995d081c8a105a25","215224bdd1574757ba291ee9d56b243c","0c221e2e098241c5bcaeb50547b21281","6d75ea600b4c4275b68b43dc03b78f88","f4df89d9f30841dea7380836a99cc06f","1d9a6b4f34814e0aafb3470f37e2fa47","a5c8403744db43998e315f81765761e6","0fe2fbf95e264ebebc813e30b247d297","98adbf87ffd74f179479cb95cab91397","35e4f19f87ac408abfe047ab667e3bbc","85e9ef053c3b4a0e8982c039ab807c18","d7f4cb98ba444f91ab530e69856f7f27","8a9d3ed060ee8eb9016128718762001e","cd44bbee8880444a9205ee25f85968bd","3abd6843716849b19285e668020c1ebf","972a21b922d941709776f424165d315b","4a668e17675d4a11a8c093e85437d786","88eaa5bd789545db81bbc2812de84262","da189dd4abb447aebe95ace2920bffd1","cc209a9d6e294e27963c71f9b29967bf","791fcd329ac44875aebdadaef0122ce8","ea2fa0a65b974d6493b6af01856d733c","58624f782e984392aa7eb592e89b4c21","82683ed2b3e64efea0d58a5621fb7a96","30d397bcd295466da7ed9d7dea7fe0de","32cb808cee4044fd92e90009cc121083","78288bb234604271b7c29fd56e40417e","a532d5100f694d2ebc29858399ad298e","eeb5244d652b49a8ac587d88886d7651","8bbfd3e20c37491da13b7b4af0ce8684"],"wordId":"2c9485fd66a5fcbc0166c46eb41709e6"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenpersonalspace/openapi/collect/delete/2c9485fd66a5fcbc0166c46eb41709e6</t>
   </si>
   <si>
@@ -227,9 +186,6 @@
   <si>
     <t>test_xiaobaiban_jielun</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"wordId":"2c9485fd66a5fcbc0166c46eb41709e6","sort":"desc"}</t>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/summary/v2</t>
@@ -659,10 +615,6 @@
   </si>
   <si>
     <t>test_user_geren_project</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/show-new-v2/2c9485fd66a5fcbc0166c46eb41709e6?countedReadingTimes=1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2107,6 +2059,88 @@
   </si>
   <si>
     <t>{"data":"{\"groupId\":\"8a9c8ff35f81891f015f8569aa580002\"}","subject":"测试专用，请勿删除","source":"2c9485fd66a5fcbc0166c46eb41709e6","sourceType":"WORD","remind":"1550390400"}</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenbadge/openapi/badge/entities/span?spanId=ESENYUN:NATIVE_APP:MYWB</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_badge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/create</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_create_delete</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"deleteWidgetIds":[],"wordPlugins":{"VALUES":[]},"wordConfigs":{"UPDATEMESSAGE":true,"CONCLUDED":true},"participateGroupIds":[],"companyTags":[],"sourceType":"APP_IOS","contentType":"ANNOUNCE","participateIds":["c4d18eb76d9548f29c46dbef29944d21","1c92fa74992f49f2a1b23b6447b782e5","eee54dec36af4bc5b57879b51186bbb0","2fc30d8dd14d4e87abeab4dbd0030666","35e4f19f87ac408abfe047ab667e3bbc"],"tagList":[],"title":"测试888","createSourceType":"USER","group":"","eAppWidgets":[],"data":"{\n  \"attach\" : [\n\n  ]\n}","sequence":"1541495384","content":"测试&lt;p&gt;&lt;\/p&gt;"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/create</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_create_common</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"groupId":"8a9c8ff35f81891f015f8569aa580002","content":"测试","wordId":id,"sourceType":"APP_IOS","producedGTD":false}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "groupId": "",
+ "content": "测试",
+ "wordId": "2c948b0966cf12560166e8ab7fb80710",
+ "sourceType": "APP_IOS",
+ "producedGTD": false
+}</t>
+    <rPh sb="64" eb="65">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/adopt/2c94850566cf167c0166e8abe7fb071b/1?groupId=(null)</t>
+  </si>
+  <si>
+    <t>{"groupId":"","toMemberIds":["c0a80c87643946978e7b84c8c6b88f51","8a9d3ed0603584f501606d80913d000c","241a82e139a349e0a9dc9b8a1d9621d4","b0469abc385640ae8b3f0f7ab4e8e2bc","03c26f4acd8d4470884fa62b15c68681","fb9633392b5348ae97cc514fbed8c7e0","d2b8f5e698ea44bea76a96b7a59b2d2f","c76638d9bda34f989710b8e58c2233f3","dd51ebf979204e31a2a82b6dad395293","576763fcb3e44914a1adf12104fa814e","fcd30cd4a94747e5a572923c713cc9a0","de4ac2fd762446b983f0bcadb290c9f1","1b43a95e46dc45b8a0a5e4abb7db0522","ae9044743dbb4f5fbf5ed5a1eb3bc4b7","6837047319fd40309f36f1ebe2db7151","e21daf69e2c94a93a646d06d9d8024f5","29a2abb59ea843a3b1d6ecf5d8a7eaca","ba6ff1c9aa304716aff30453cd8ec9fa","58c9d7ce40a947debc208d754e47e631","2aed8e8e50734b48854829433aaa0e73","a7718462d14442ef9cf8c211cad971c6","5f5904982cbf425484ca508c261b990c","5ce0bde083874d05b5e107e02b4c826f","851c38ea21f446189bf15223a59aac30","ab9dadeed2444c64b2e7cd1f19107408","2e541d303c934e89bd0111b088e6e38b","67d1adafdc78473b8d3a4125b3a49907","702e3ee82bc94ba28998a8325e0ffdb4","a8e0b44a6cde498b9817796964075a21","68b3f8a509bd42e081b6a1423d736285","a903797bcbeb441ba4f138d5fc6b1d6f","18fade97de684f7c877a649bfa01d20f","101aa515988849b2b69d4a4c9ae50d6d","caa63815880344b69c7973fa35b9e09a","e1f509268f734e70b02c7f67bc96b08f","52c8af495ff847c98a31304d6a991646","697f5f0863e7495b8ea0742e1286c7ad","8993f07696f04b4c854c8764f2ff34eb","a79cc90a318442fb8167f20e1e911f9b","2b932da313a94cf1a18c5d55f29ab24b","f7d2ed9c853540b98b037f8307a66a0f","7546811936274d4b9c88160e0153b010","987b643c653e4cd38f0387367c44b15a","c05974af4b4a4b7d82aa9aa9ea617355","84a09626c5ef479e923b77cf4acec96e","0f61fbea2e124074adae0c49f30a2a52","509262a6f77045d7a98950d9d087ecef","47dbfc184dba4deb8a232c62cc6c302f","d73e80c089e347dfbfb73aa32aae7d76","5c084243688f4067964a1ce3082866d3","b9756a606213470684f5a8d004c11f51","0ef904f3de804fbe9d0d5e95befb2aeb","ceaeef0dcfea4d868cd5d429b9f34bfd","4cea796a2ca14be7b44df1fe8719dfb1","b4c9a9db5dd44f81abb3c05b737bf926","2fc3a4a1ce8f48acb34ee288803400e4","8a9c8ff3609cfec40160ea877de90000","37feadbf323a40ed9e977b7447398ac0","95ae105b7fa649a6907481e99f582376","8a9d3ed060ee8eb90161285866610016","769e8fe3beae4783858d472ff4dd9c72","bfe8b389bb4546348b4b735e7729f39e","b4a3c582a365469c86f1474ee3b5f889","f9ce8471008441fca184d67b20f1ed4d","1391bdb1e72844098d0a531e2fe840ed","ad7ff90356254a1389f98f21bf25444b","6bd9f674a6d4464caa4a1f88371c3817","f3928c4a75c94ebb9676ae28e611221e","626ab70b51174ae99e3635df6d318d0f","b45120c8c32a448ca6a0e3f1a24652b8","1f398738dfa6464d8a792093a1a55b46","9891d7939d4f4ef4a65e8fa6ff0e78a0","ab797caa52e14ab4b3f9c470f8a88b21","0eab52ae10a44199936d8c0133f68ba4","105e114179af404cab7b333b1fc9b1c0","0ff57c1a51fe4b5f81c88b3032adb24d","59079d3cd5e14474bdcf9e583f181055","c6bcf7b3e1c04d38be04f136387fc6a0","8a9870c16093114e016097451b1b0004","38595e20080e4fdeb663ebc95a8b3c58","64f9feac643444abb8f0cf90814216fc","d2a925e87c884ae08ef4ab0cf64cd683","332ac91c987a48b4b8571a3378459e8b","51ee6db64fa3488c83aae03d7c383156","86527d632d3c49cca0c43bfb3db4442c","78cad32bf6564b538e70be8229b46d5b","e02e2bf4450e4e6da7e07eef3c5fcbc2","97c8490bd11c4ec6bc5419b0c030e299","ff232f7f62dc446db44f6e3f8ed1ee01","8a83103847764d29983d3837053577aa","2f110a1f4eed4d00b875af972c7d32f5","e21e05c959d34553a7e3f77b9229c347","aac4eea625d542ee981bcdfc66a26a3f","4194ba7ce1384162a41c90753467f319","260f5fe8cfbd44fda08e1d4c9458b533","0ebd1bf809b446c4a6abc4bb3c47cbbd","7c812fff2e50446b936ca33e137510a3","556b32d6693f4ac6bd6725ae99fac3c9","bc9c4b0e3d6b4e14aecdece2844f8198","b2154542e93240b280c4d84572b3701b","b6ad3c6cd4724c0d864fcc707087fe9f","882138070e7e4ea29a11b0045b3085f9","56d0e20528a6470e95c77d382a13399f","229441ab808d4317bf8b6a3bf35043d0","2b0a4d4e58b54f8bb833ca063da3b4df","851f2999c2a54c169aae9fca37474444","31b6f401e07c45ee901a12f0212331d7","c7cbffc0ae084a448f7ca028722246ba","84760e9143504f35b0bb18c0511b263f","057677c70e76428e8a5dcd7bc12c1fe9","fd52411257f3482ba81ed58623fce0e8","feb8a24a8d22402f83e65e688b7f5816","530b694d69924b8faade016efc8f8c37","ef0dc392bf8842958d449f490750fea9","88c9c99588d24b2f84aedfe9b0c409c1","549ae5b6e25941989a5a118e5ba106e9","3c8c6114c5384812b38b56554fe34f1a","0fcfa7a05df242ccbc84db3e65c43f56","0f9f6b688090464b8b63e1062d9e5899","ca13685bcf31431a962fd43b9149ca10","494327ac58b54eacb4e4e3266fb8d883","1f311729ab264a559e89051ce851830c","2f5e9009453b4775ae6920117e4380c3","06b096db24bc454f8713dd39f9588028","f214fa3cbb6a4f27b31db07107103de2","aa7df86c5d114c8caa9a5f7cfa24a398","102ada2bad514800ba86a9be64252e89","eed7fac599c14bada2d6991b9bec78b9","ce622cb4b4a34ced8e6854685d06eef7","f58924d4a3a14a74bce30ef72ab7cf3c","9fb96c9bd17447559c416da1662c99b5","ba3fa83376ed4a16b40686d2ada666f6","02a06e4a8a2c4fd8859fdc18e6e94d82","65d2dff9da904215a7a4adf7701e3712","31782a3696f1437e95191444b143422e","4c6eca1422fe4a698fc7b8ec01feec44","aa414e20761b42ad8ea2a2b3d48813c5","e2880a52e60b434e95f3f9dc10a9027d","a3583b6f42274d1f9f393e2838b898b0","13db1c21655044609fe22ae02a73abdd","231e86ad5d32452e95a0299ded8b7a51","80683fe866be4cebb32c70ffc89bf211","607f1645d8eb4e7dace838396c1864c4","3ef3bc1a55734b8188ddbca155e040bd","0c2296badf254ef39c24ca18314871ca","4917fd57bd6a4e80bb06ca464f560dd6","48c40a23e5ab426e81c6c6e3b783383a","29a67dcb98ba4ebf95976826793d76be","16efea8114c04b9a8e124c44ae3833c7","d7302ce1a8444ffead7ece3802302341","13741c4f1c1d405599f02041d28e3481","6fa6cd1753c148448198ccfc405308ad","8a9c8ff3609cfec40160eef727b10001","5f76d73b21e84707872142d054f88812","f9513fc3cbba47c799ba319222be7c5c","4dfb75b067e3433c9cf32d4c10cb875a","e28e01bec3ab4fbab95a6c40c1fde574","e9a376094b3645c588a8e0d1a09f3c70","7fc39158e76e4357aeb45f3462e60a0e","c1ab4199a73144009b4fd2842f81fe7f","94509c461df54259abdf9010a94f8fe0","5dfb46ce438f418e803135aec6c56d4b","699f45e874f74a11823ae18cfd769e46","4ee73089610c4ac6afcf739699de87ff","9ccc7298deed40d181b0e3cf61114a15","c839c747c4b1461a9e502fa6de010cf9","be847c246141442082480d80310e4e68","eacbbef1137249a5a343d36cdd56a972","c26aaa6c473149fb92581c411098c414","44c1a8302ea3410db49c88d4e5c41ece","a363e7e4903d4b26aa7a54583c496cee","03c63c952b9d448c99bf2a87f406a18a","e1764c6df4a24c38b46fd9bf769cb5f1","8a9c8ff3609cfec40160eef88e620003","81dba95cf6ac486fafa22d47b7a93a3c","e4da5bb6ede64ded94c9ffee896735d5","cf30aa778d8e4d6c9373a9f496de9bf1","6bc4494301794280b38d76049603d0df","cf6aaa17b1154d1fa228d436cf99a95b","e7d70667389342f4b7a50a3fd211d43b","d695482ce82c4d88935ca9b3943f4b50","6db13d8d29a54fe0a1a5e927a15fd85c","7b86ddaf71424b3b82bf1971935b30ad","5d6820d387cc440bb74258ff4ee1eea9","d16acb6fddd749e999544b8fea953220","4a2c2b912ebe4568b5073ed2988241be","1928b4988580406bb1e3d45210815c48","86a5489b629649629a5ceef5fc94bc1d","8c763f4d33ad45dda3c758da0360a8e5","afa2f7397ae84a49895393681802be25","1a0154d4b61b415a8a35304bf7656238","3e504c4fda9045bc865ebdbac8767df4","ab7e635adfbe4e699510e170e2a1ca60","36937a7a1b3047e18990a7110d39f2a5","bbe07740e34d4e66b0ea2ca0e60159f5","a8e3e05148c9477a998e5a0d1518ecf8","672cc4f1773749be924e311f6333eb52","8a9d3ed060ee8eb901612861be25001c","6a6692515f57454b9aeaccff2ad45b05","2064fa6ef82c41d8ae2198d3defda846","01e2ce04a89e4dca807fd82ba4e6b757","0a0d7686d1da4729a1e40e7b4e1cb0c8","fcc7a2565f864258ba818c80e05ade75","295f7c6b82f34dcd8823d2f34c2257a1","9782ee4b0bb740e0bb94484498a23b6e","b51fd8a4ea7146579237b7feb7951c5d","702ea62ff6f74ec48dbf1abe43b68fb3","345b32247b824d14a9ae98fef23d9c98","9e1eb45e46b04c9c995dd92eac290044","af79a6100496478fa45a8a5a8a24247e","8f29aa8da0374907892e8d98297dd1a7","e2eb39aefb1b4129b77a2ff03ec78ad0","88d5db7932f74232be04913d421c8d5d","8c136bf2705b43fdaee74da94c001b7e","e61103f5f861406ca98b02456ec3f3b5","9723ff8564eb44e0b9cd32893d6b6f45","715d81b92dc94b55b5e3fe9d7e50c963","82a3dd0bab474ade8f752718c6f5068b","14db186ae12649f3937a39f74028b46a","46093b6151554830bea3503b769337ee","e28c148211e345cc9d1ef591e65cc455","baffb2b5736d4666b39c7319952f9651","99ed598c82ae4d3e99f19ce363f24441","2fa6a0f295054ca2b5e2e34cbb435bcd","06b4d07da5864eeba875004ec728632f","76cd8950aa1449ee8a4df100c6970e23","d97ad2c6c22c45d391c2e227e8ba4b76","4acaf73acce3408ca7f5063d2d1008df","8b2b7033881948c9ab246b2b7e55019e","a014ec2de71f4044a1561176cbf960ff","27b9344abb164331843db48162ad5b70","1d7f1afca9a04ecea6f02c74f47efd34","43108c93aa6f49d18e17984408136148","fa8cd29dce504215940d984bf7e86229","662b94a6a6d84a08a2aa306dd3fa4e1f","fb3b0375dc124b9b9efe1433960a5a90","8bf3bbc94bbd43bdbf80284b3b4a79b9","e7a3ec585f5741a1ad1151a33a75b35b","a9d1cca250de4b37b2ac92f6049fdbbc","77e96a3d4e20497c89521a544af70960","94fb6f8703044bf4b1b9e0b0a6269ecb","4a92955b27474fa199d698953fff6d25","386c5780b399430b9f5292c77ca66b8b","6cebac645ae74a2f86d6617bf0b4f24b","b09919fc256145f09377c5c8a82a1ab9","c4830d0141a54f878590a725e22d570c","1906556e70e940bb98950958432a9a07","de00191aecf941b2992d75cf35b1ffd8","19ba6b99c96c4ea5b6864f01cd12788f","04f70d9160b04dbfaf637d962e97e7c8","32c2a7f2efa644699ba5579f7593502c","48e2215f09b042acb699f9cd364458b7","85afcd736497434580a4a83f6622b00b","79ecc309525e4eee94e537be1f562681","fa72028449f54fb9931cd8ba82694db2","2a7d6f0cf1684dbd8b9cc7fffa7c4a34","1c8b5b4bea194aceb0ddd4482de52903","f28e39913506415d80f98ed21b878a5f","0721a3f4eca04048b1981f6baa888ba7","ec92a5ae015d4385bf9313b84564a430","f99b2464ee574d289e84dd55fda3f8b7","fae12883ec6e4308803a9b8a24302d98","23216b38c67b466994113c749e0572c0","0a0418c1d76a4e55bf91fe077e0dc164","a4989a436bae42d2a23260ed3bcda295","91034614eb5a46a7b54fc5c7851c935d","e690cb2ded3548c3bfdd19ecaadc66b1","700db3e8c9de448587b57cf3d68e4094","a1a9339a8519418b80f6cc5d966ae505","9b0c04a881bc4335a50942d1241646c4","1c92fa74992f49f2a1b23b6447b782e5","70a1e2ab1987464b9b65a89af2d859ba","56495bb9303646a0b2c1290d68854b1c","aaec0d1d842c455bbc712016b12a5c07","5f15aa8000db40059ef1612fbfcee8b3","c4163fa0252241e3b47aef3036c99fb8","92b7596d8a0744249f30469ee1a9af6c","768b7d9c31ac4c6e855c7ffea3f908c0","ed306466914347968378d711c175d1d8","d3da2a207ad8457aa13be4fd94d69ecd","c4d6499e887e49b69527d911113de6e9","aca8190b7b0945f78fd57ff8d68dde76","346bf005903341f2867b683693285744","014913b2adf249bda96dbe0d61dca45c","60004b4fedce4b338a6f267816d9542a","4be7c1ae5bd547dc932e1d18578a6fd8","2dd02a5f84934bff9d55ec7920b944d7","cec325cf92054652807502fefd14eca2","2327db3f6663469f9b19d73465d18000","b576841128ab4e0a9574ab5304904141","58cdbc0663c64458b231e9cb7afe1322","6cba557e803d41c0b96e4c10f503331e","3569ed4237c24b14b0918dbea034f78a","8a9c8ff3609cfec40160f7d3d1b10004","a2627f7f2d344cdcb25983defab9ac1f","da6603d19ed142be95dff304bc44c514","1be5b7ae509242b19adaf4bc2a55631c","430c781b8f7748b487389fc7565d6eaa","a42f708314ff4736b4ca81d8c6ba89a2","20c52400342d4ffc980eab883b253129","8a9c8ff3609cfec40160f91e38d00006","b7e68f4aa41045ee83e8a3a388c4b382","51bc6c22ed034c79a1e3341e7ee1871b","8a9c8ff3609cfec40160f7d521520005","9d96d09b24a64533ab1921cc8ddc563f","13665fdfc6224da582e2863f15f80c39","2cbb0914035c4a94893957e1549714b8","8a9c8ff3609cfec40161023b6bce0007","ffc1365736b8481c86ed9f81ec85a088","aac38eff0a9643a8b069fd1acd59cf5a","ed676722a6ea4cc78ea3e4cd54798038","f4ff280237ac4a2599112cdc42cf8a40","744d14f717794a93b7644037ad4d645e","0834e83903e442c5a652b347aeb28297","03e0846bcd54442eb482acd5c45bb7c2","9e8ddbbf95d647b0868deec1b4c0951c","4b9483a2ea6d42e78465021e3922d81a","9590f43bc5b74c30b7d56359ce9120b8","14571108534e4f38b67928743c2b9deb","aab33f2c79bc4f7cabd5ff1ea152dd33","02a76915b60145dea1636499d87956b1","ab9a880f94254249aae9349172059134","efa7ac13b90f4c6ebe1ff14bafbebdfd","e00e6e11d3ae495f8d61bc14bfcecc9c","135c38416a794cf3a64da53935a36be9","81701a0f0bc44f8e85fb1acc9a7e5dec","cda86ba4558942bfa195cab342dcb164","84c0e39a28a34dce94cddf99d66d67d9","bd29ec847e13495c841b017fb7712f3e","59bf9b21d868482bbf6ebad5239e7cb1","baaa24e48a6d45e09f4d79214e07a439","4b7da546089f495fa44f982a886d8474","05a497f0e33a4f6c85b1532ac8fb6af7","ec3288669f7a4e86b86f065941a56107","c433c3ce61954a6fb7b8eb85b823f40f","331e493af849451c832db7d0ba5e12fb","eaf776425f534feda79193daed91caa5","fea5ffb17b2a46c191e0926f2fc2ef1b","63d779c9a5014ab4b3ee850f794d0bcc","86bd3ae43a154d56b16c3946ea6e5068","57f6a5bba510451abd5b13a302dbdaf4","d422d571861149fb8c28b77231d3fb12","c9b8e517431340ea9a6e8ce34dd8d32e","adb4d0161d374d1093e1e60de4b3aca3","eaf7886ee3e64566b0b2ffa43ff5154e","9592c7c1581a4b2aabce1fddae144c0d","23b35f0b79dd4d2096902988bc8267d7","ab26a0f50ddd4c9389ec25363ed09e6f","bf89c0ccae9841258cf4adaf26413d12","cc62182378464b1ca34ecdeb8becec71","773e92654eaf412ea1b3e00f8ce17b67","966986a6b8894b829e45e7aa4825b8c1","91c96cec981a41dca3c131bf157d5860","16d73626dc1e4fb19af0c7588307d895","236831da026b4222b0aa6bdea0f9fd84","1a5847c0923749989dceab68372aece8","e06b17000d234ec8ad87cc14d82b3119","139e03293b96487f94caf9d5de099791","9bb609966006424e8ad6dee2f91af5fa","b39eb718aca54fdd9caad6e96479f10b","ca8b003048fb490494317c58f64971e3","9bd44ecfe67f4e3ab6781327f073f09c","ea01a1d2359643d7bc8def60978b1589","f9f3cccec2ef42fe98390aeb13ca068e","507d5b864e72440091d973d11b35fd86","2034d7c9208748119f0c6192e0e18f93","dde118279c9f4f8bbc0528a0cea761fa","29bca3f007a44dac93a8eae6e0862e7e","72a48b7ce6c34e559619c90e7630608f","e28884a1a150408db769263baa3d9999","adf8feabc16d45ba9a51c4adda367153","f490c0d63ec54c218ba133ee1f240fdc","26fbeadbd78a4559b1e2d27fe2c2eafb","a683c573063347ca9521791d047e6a87","62fb9aaaf7e04f6989e5a9489ba76aae","94660ab5b5e240f79f85659778623baf","fb5629525c5f4ff1b914413cdb1661cb","4139cfc4946e4d0882a7f92efcbb2552","10ed5bf2708f47f78e639968ab44656c","8a9c8ff35f81891f015f8569aa760003","7a1787d9135f4c4688cc0dc469ca87d8","8b0528f4a44f4c359b7720d9ba5436f3","31726ff00e8942cb8ab627dfc1daf5c2","78cf84ceefc846b1a668e62d9fd9e9d5","f58334a8bfd44bc88052308930125dee","e3fd4a8a6b5044e0bbf44bbf2b085b46","8aee2a8733904aac89e41b323f8ce9eb","851939b088794f8b958dcee559fa072c","b204d70d7ceb4cab9d53bc01a587de96","8d1c44a2f7b44b5cb3d65b5aba8147ba","cf5dcd9487ee406890976ffa7fb4ebea","8a9c8ff3609cfec4016107fa51570008","c5e492d56dc741f0bb2a7e245a96641a","5f238a40d91a48ce8e61af190174ecdb","11ea32012fb5450c9a19a4f8342f97f9","dd971d88c2594a7880ba0538c81d309f","035e8ee940f94379a593d48464226804","8886982d69c94ebba03378fbfcc70ac0","670337da1220474e92c1b08bd72e8858","972332809f3a4169bc2327d22f42599e","b0c9795e8f194bc895ad687e7561b0c1","d289117825e74bdeaa113639e38ea993","5427a7c9f402484fa61ad0268fe5406b","f7a836d4ffd24876b23d887ce3172272","c4a63684c63c4211af529c20831b76a4","7ea8ddfd8a8f4def85267839b0772610","3d91e4293793455bbf5bd42c173d9ae5","f8d78410a602489691d86a121d44a3f9","18b6f1dc995047d390e41f6c35c69e67","569c8134f06e45d09d667f5505850534","17c8a07b9549467396213fa6cd9b68ca","55b43904009e45499e5b86d6e8592f6d","e5fda89ef948493e9eb8783bb86c1152","974ed70c879544fea440ad1ea0bfe41e","1a144ede092e4dfc99dd55603d0be234","5e4559cc89874bb6962cb470bd1958c5","c463a6612aef4a81a924a88b7ac9eb2a","4c53af38c8684d6db8aaac696cd4d9fc","15a23110cdb24ea5bf1f5bf18d8d49df","78bb4a3357c940968afe9832699ece90","0c9c3406124f467cba14d1f59bb1f81e","8c9690cb211247db8065a94de2db46e5","a983836f10894707af6bdc2ed93ca363","969ef82e3c464f76ac2e97b4661b7ff2","029e9ef115c142f89a559bc0c7c3e226","6a3ba35e7a1b403899fb07d52d529d89","6e38112dc9b84df49a110dbe0fdc3f44","d0f0ccae6c6b4606b7285e3ba3f4016e","8b88d27208a64e35a2bb95acc629b2f7","ca7afcc451c4472e9403c7a6676a0725","3c0c4b8e5a9441e9b842e957503bd024","0820170474fc4ff493e2d9d286b018c3","77537a52b8494c158d90906cb988b990","21191344c0f04ac3b5f949c15420a75d","c337ee1bcd1a4d4b9960dbee88ff1567","4b59e015564043d7960c6b26cb3592d0","785b181516f34b208e61925412db6e46","5b4b93a0c9184059a250d617c4ae1bf7","056c3bdc774a476196d0131f7fcfb850","732e0cd153dd4081a0f71d44bfbcc027","f529094777a64867b6b406823380e9c0","b1c45964a08f4e23b209c9b6ede849fc","a4b21abeb03147e092ac072558a17003","35f4dfb5e5594c30bcd1e89a4bf3a1d0","52628dac699a44e286788d08b8ce5928","5011e6e1a580490795511a86b14e762e","d9d40d572dec484cb04e30101375508d","05603343dad54a20b1132333918026c3","5736c2e2f8bd4b7e96534d70874fb66b","eee54dec36af4bc5b57879b51186bbb0","30b83efc1d6d474a99f7515029d20b04","d7cae916c2cb465b991ad17174aacc40","10f147bf047b4697a4a7f8c8ac579327","a1b8594cb1204e6ba4fce8f65c5e98bb","7a5011bc498843ee87a3956dc806edbd","2cc40a7bba674b5fb6ea3c4bded4c25a","a84da26c6d7c41a39d1700399ee27417","d6662da949a949fd97e6d404a79d3631","f84a3334749046529f34705311204319","93ca0fdbe2a541df9b6fc883de73d90c","111e4cd7570d46119ff86c85044d6044","8d9fd9154e6d470db3fa16b32eccb73f","afce0e0cb8d44006999712988c48d364","2fc30d8dd14d4e87abeab4dbd0030666","10f0bdab8c6b4a7c959f33adf2fffa4c","282ee7b014bb4f6da6ea3063a92acc74","ad9631f32652436c97cb7e58ce3ce592","a3391299b5694704977d20ee336507db","1c782a58639c4baaa1c0f8007f41893b","f13ede42d868454eb7540df675082f3b","3e9a71e2d8044fe7b19274179271ac47","27fce0c07a744938bd519284a869f589","608288caa8374caba3408c7b94ac2bfc","5403b1f81edc418bb2ad66a9ae6ce2e6","574a9821e6594686b25544d3b28b0fc8","f33bed92bcd34bb882994be7f6a6ba05","6bce2620540c441ea3e034bb8505706d","1a6c3d853c094e33bb8330566c43748c","4cbbca28ccd245dd902e450175748290","c33629f924354cf991646e5ccee99afd","b588b8e206494ee2876973b411dd7e07","ef6f47eb5c694880b852bcccd2f747bf","967f4c7fc1ac4e249cdd9f037db3e8ee","a93381f72b8342609738944118549165","59501a50e99e496b96860f5b807f0103","60d741713dd74aa6b089599cd7f85e51","ea3dfd1b4f9944a6abebdede11492ece","da8fdb3b6b1843d3995d081c8a105a25","215224bdd1574757ba291ee9d56b243c","0c221e2e098241c5bcaeb50547b21281","6d75ea600b4c4275b68b43dc03b78f88","f4df89d9f30841dea7380836a99cc06f","1d9a6b4f34814e0aafb3470f37e2fa47","a5c8403744db43998e315f81765761e6","0fe2fbf95e264ebebc813e30b247d297","98adbf87ffd74f179479cb95cab91397","35e4f19f87ac408abfe047ab667e3bbc","85e9ef053c3b4a0e8982c039ab807c18","d7f4cb98ba444f91ab530e69856f7f27","8a9d3ed060ee8eb9016128718762001e","cd44bbee8880444a9205ee25f85968bd","3abd6843716849b19285e668020c1ebf","972a21b922d941709776f424165d315b","4a668e17675d4a11a8c093e85437d786","88eaa5bd789545db81bbc2812de84262","da189dd4abb447aebe95ace2920bffd1","cc209a9d6e294e27963c71f9b29967bf","791fcd329ac44875aebdadaef0122ce8","ea2fa0a65b974d6493b6af01856d733c","58624f782e984392aa7eb592e89b4c21","82683ed2b3e64efea0d58a5621fb7a96","30d397bcd295466da7ed9d7dea7fe0de","32cb808cee4044fd92e90009cc121083","78288bb234604271b7c29fd56e40417e","a532d5100f694d2ebc29858399ad298e","eeb5244d652b49a8ac587d88886d7651","8bbfd3e20c37491da13b7b4af0ce8684"],"wordId":"2c948b0966cf12560166e8ab7fb80710"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/remind-participant</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/kudos/2c948b0966cf12560166e8ab7fb80710</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/unkudos/2c948b0966cf12560166e8ab7fb80710</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"wordId":"2c948b0966cf12560166e8ab7fb80710","sort":"desc"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/show-new-v2/2c948b0966cf12560166e8ab7fb80710?countedReadingTimes=1</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/adopt/2c94850566cf167c0166e8b910d60724/0?groupId=(null)</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/members/2c948b0966cf12560166e8ab7fb80710/UNREAD</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/members/2c948b0966cf12560166e8ab7fb80710/READ</t>
   </si>
 </sst>
 </file>
@@ -2712,14 +2746,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="C26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="126.875" customWidth="1"/>
+    <col min="2" max="2" width="145.75" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.375" customWidth="1"/>
@@ -2759,18 +2793,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="E3" s="3">
         <v>201</v>
@@ -2778,13 +2812,13 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>401</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -2793,13 +2827,13 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>408</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -2808,13 +2842,13 @@
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>410</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
@@ -2823,13 +2857,13 @@
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>409</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -2838,16 +2872,16 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>403</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>402</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -2855,13 +2889,13 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>28</v>
+        <v>404</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -2870,13 +2904,13 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>405</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
@@ -2885,16 +2919,16 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -2902,13 +2936,13 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -2917,16 +2951,16 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>406</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -2934,13 +2968,13 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -2949,13 +2983,13 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
@@ -2964,16 +2998,16 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -2981,16 +3015,16 @@
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -2998,13 +3032,13 @@
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
@@ -3013,16 +3047,16 @@
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E19" s="3">
         <v>201</v>
@@ -3030,16 +3064,16 @@
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="191.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -3047,16 +3081,16 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
@@ -3064,13 +3098,13 @@
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
@@ -3079,13 +3113,13 @@
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
@@ -3094,13 +3128,13 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>161</v>
+        <v>407</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
@@ -3109,13 +3143,13 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
@@ -3124,16 +3158,16 @@
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E26" s="3">
         <v>201</v>
@@ -3141,13 +3175,13 @@
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3">
@@ -3156,13 +3190,13 @@
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3">
@@ -3171,13 +3205,13 @@
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
@@ -3185,32 +3219,68 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="E31" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="264" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -3300,9 +3370,13 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B19" r:id="rId1" xr:uid="{30C5901A-BCEB-416B-9EDC-394B392A7873}"/>
+    <hyperlink ref="B33" r:id="rId2" xr:uid="{5A54E733-BAE4-48C0-A401-AFC875889B53}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{D5ADEA20-C61A-4C2C-A2B3-CCB9450E7319}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{7000B035-3C9A-4AF8-AD3D-76942E17E2C5}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{B81CFBC0-5816-4A07-B651-7947C2C55E2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3340,13 +3414,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3354,13 +3428,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10">
@@ -3369,13 +3443,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="10">
@@ -3384,13 +3458,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="10">
@@ -3399,13 +3473,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="10">
@@ -3454,16 +3528,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3471,13 +3545,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10">
@@ -3486,16 +3560,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -3503,16 +3577,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3520,16 +3594,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -3537,13 +3611,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -3551,16 +3625,16 @@
     </row>
     <row r="8" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -3568,16 +3642,16 @@
     </row>
     <row r="9" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E9" s="15">
         <v>200</v>
@@ -3625,16 +3699,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3642,16 +3716,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -3659,16 +3733,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -3676,13 +3750,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3731,16 +3805,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3748,16 +3822,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -3765,16 +3839,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -3782,13 +3856,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3836,13 +3910,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3850,13 +3924,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10">
@@ -3865,13 +3939,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="10">
@@ -3880,16 +3954,16 @@
     </row>
     <row r="5" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3897,16 +3971,16 @@
     </row>
     <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -3914,13 +3988,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -3929,16 +4003,16 @@
     </row>
     <row r="8" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -3946,16 +4020,16 @@
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E9" s="10">
         <v>200</v>
@@ -3963,16 +4037,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
@@ -3980,13 +4054,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="10">
@@ -3995,10 +4069,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10">
@@ -4140,13 +4214,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15">
@@ -4155,13 +4229,13 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
@@ -4170,13 +4244,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
@@ -4185,13 +4259,13 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
@@ -4200,13 +4274,13 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15">
@@ -4215,13 +4289,13 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
@@ -4230,13 +4304,13 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="15">
@@ -4245,13 +4319,13 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
@@ -4260,13 +4334,13 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="15">
@@ -4275,13 +4349,13 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15">
@@ -4290,13 +4364,13 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15">
@@ -4305,13 +4379,13 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15">
@@ -4320,13 +4394,13 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15">
@@ -4335,13 +4409,13 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15">
@@ -4350,13 +4424,13 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15">
@@ -4365,13 +4439,13 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15">
@@ -4380,13 +4454,13 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15">
@@ -4395,13 +4469,13 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15">
@@ -4410,13 +4484,13 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15">
@@ -4425,13 +4499,13 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15">
@@ -4440,13 +4514,13 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15">
@@ -4455,16 +4529,16 @@
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E23" s="15">
         <v>200</v>
@@ -4472,16 +4546,16 @@
     </row>
     <row r="24" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E24" s="15">
         <v>200</v>
@@ -4489,13 +4563,13 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B25" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="24">
         <v>400</v>
@@ -4503,13 +4577,13 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B26" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="24">
         <v>200</v>
@@ -4557,13 +4631,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10">
@@ -4572,16 +4646,16 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -4589,16 +4663,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E4" s="10">
         <v>400</v>
@@ -4606,13 +4680,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4620,16 +4694,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -4637,16 +4711,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -4654,13 +4728,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -4744,16 +4818,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -4761,13 +4835,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10">
@@ -4776,16 +4850,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E4" s="10">
         <v>400</v>
@@ -4793,16 +4867,16 @@
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4810,16 +4884,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E6" s="10">
         <v>400</v>
@@ -4955,13 +5029,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -4969,16 +5043,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -4986,13 +5060,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
@@ -5001,13 +5075,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -5016,16 +5090,16 @@
     </row>
     <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -5033,16 +5107,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -5050,16 +5124,16 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E8" s="10">
         <v>400</v>
@@ -5187,21 +5261,21 @@
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -5209,16 +5283,16 @@
     </row>
     <row r="3" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -5226,13 +5300,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
@@ -5241,33 +5315,33 @@
     </row>
     <row r="5" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E5" s="21">
         <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -5276,13 +5350,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -5291,13 +5365,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -5306,13 +5380,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="10">
@@ -5321,16 +5395,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
@@ -5338,16 +5412,16 @@
     </row>
     <row r="11" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E11" s="10">
         <v>201</v>
@@ -5355,16 +5429,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E12" s="10">
         <v>200</v>
@@ -5372,16 +5446,16 @@
     </row>
     <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E13" s="10">
         <v>201</v>
@@ -5389,16 +5463,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B14" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E14" s="10">
         <v>200</v>
@@ -5406,16 +5480,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E15" s="10">
         <v>200</v>
@@ -5423,13 +5497,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C16" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -5438,16 +5512,16 @@
     </row>
     <row r="17" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E17" s="10">
         <v>200</v>
@@ -5455,16 +5529,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E18" s="10">
         <v>201</v>
@@ -5550,13 +5624,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -5691,13 +5765,13 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
@@ -5706,13 +5780,13 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
@@ -5721,13 +5795,13 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -5736,13 +5810,13 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -5751,13 +5825,13 @@
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
@@ -5766,16 +5840,16 @@
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3">
         <v>201</v>
@@ -5783,13 +5857,13 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -5798,13 +5872,13 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -5813,13 +5887,13 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
@@ -5828,13 +5902,13 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -6116,13 +6190,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -6130,13 +6204,13 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -6144,13 +6218,13 @@
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -6158,13 +6232,13 @@
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -6172,13 +6246,13 @@
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -6186,13 +6260,13 @@
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -6200,13 +6274,13 @@
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -6214,13 +6288,13 @@
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="10">
         <v>200</v>
@@ -6228,16 +6302,16 @@
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
@@ -6245,13 +6319,13 @@
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="10">
         <v>200</v>
@@ -6259,13 +6333,13 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="10">
@@ -6274,13 +6348,13 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="10">
@@ -6289,13 +6363,13 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -6304,13 +6378,13 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
@@ -6319,13 +6393,13 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
@@ -6408,13 +6482,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15">
@@ -6423,13 +6497,13 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
@@ -6438,16 +6512,16 @@
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E4" s="15">
         <v>200</v>
@@ -6455,13 +6529,13 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
@@ -6470,13 +6544,13 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15">
@@ -6485,13 +6559,13 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
@@ -6618,13 +6692,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -6632,13 +6706,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10">
@@ -6647,13 +6721,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="10">
@@ -6662,13 +6736,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="10">
@@ -6677,13 +6751,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="10">
@@ -6692,13 +6766,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="10">
@@ -6707,16 +6781,16 @@
     </row>
     <row r="8" spans="1:5" ht="125.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E8" s="10">
         <v>400</v>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DFF4F63B-D793-4EC7-BBD6-42358ECDC67F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{608E8DD0-3B14-4F47-B2FE-8EA17A831AF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="414">
   <si>
     <t>POST</t>
   </si>
@@ -395,10 +395,6 @@
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c948bfa6682029a0166c986987117a8/logs?page=0&amp;size=20</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTE</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2068,9 +2064,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/create</t>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2088,10 +2081,6 @@
   </si>
   <si>
     <t>test_xiaobaiban_create_common</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"groupId":"8a9c8ff35f81891f015f8569aa580002","content":"测试","wordId":id,"sourceType":"APP_IOS","producedGTD":false}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2141,6 +2130,30 @@
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/members/2c948b0966cf12560166e8ab7fb80710/READ</t>
+  </si>
+  <si>
+    <t>test_task_delete</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_delete_common</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"groupId":"","content":"测试","wordId":"2c948b0966cf12560166e8ab7fb80710","sourceType":"APP_IOS","producedGTD":false}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/destroy/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/create</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2348,7 +2361,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2417,6 +2430,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -2746,8 +2762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2798,13 +2814,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E3" s="3">
         <v>201</v>
@@ -2815,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -2830,7 +2846,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -2845,7 +2861,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -2860,7 +2876,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -2874,14 +2890,14 @@
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>403</v>
+      <c r="B8" s="27" t="s">
+        <v>400</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -2892,7 +2908,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -2907,7 +2923,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -2960,7 +2976,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -3007,7 +3023,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -3056,7 +3072,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E19" s="3">
         <v>201</v>
@@ -3101,7 +3117,7 @@
         <v>77</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -3131,7 +3147,7 @@
         <v>80</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -3190,10 +3206,10 @@
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>33</v>
@@ -3205,13 +3221,13 @@
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
@@ -3220,10 +3236,10 @@
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -3235,10 +3251,10 @@
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -3250,16 +3266,16 @@
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="264" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
@@ -3267,27 +3283,35 @@
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>394</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E33" s="3">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
@@ -3374,9 +3398,11 @@
     <hyperlink ref="B8" r:id="rId3" xr:uid="{D5ADEA20-C61A-4C2C-A2B3-CCB9450E7319}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{7000B035-3C9A-4AF8-AD3D-76942E17E2C5}"/>
     <hyperlink ref="B10" r:id="rId5" xr:uid="{B81CFBC0-5816-4A07-B651-7947C2C55E2B}"/>
+    <hyperlink ref="B34" r:id="rId6" xr:uid="{6993D596-BC10-4688-AA40-B90B1889A920}"/>
+    <hyperlink ref="B32" r:id="rId7" xr:uid="{FB3B2490-328A-419B-A4FE-AFCFC8605E17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -3414,10 +3440,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
@@ -3428,10 +3454,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
         <v>198</v>
-      </c>
-      <c r="B3" t="s">
-        <v>199</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>12</v>
@@ -3443,10 +3469,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>12</v>
@@ -3458,10 +3484,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>12</v>
@@ -3473,10 +3499,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>12</v>
@@ -3528,16 +3554,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
         <v>211</v>
-      </c>
-      <c r="D2" t="s">
-        <v>212</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3545,10 +3571,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>12</v>
@@ -3560,16 +3586,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
         <v>210</v>
       </c>
-      <c r="B4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>211</v>
-      </c>
-      <c r="D4" t="s">
-        <v>212</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -3577,16 +3603,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3594,16 +3620,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -3611,13 +3637,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
         <v>217</v>
-      </c>
-      <c r="C7" t="s">
-        <v>218</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -3625,16 +3651,16 @@
     </row>
     <row r="8" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" t="s">
         <v>221</v>
       </c>
-      <c r="C8" t="s">
-        <v>222</v>
-      </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -3642,16 +3668,16 @@
     </row>
     <row r="9" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" t="s">
         <v>238</v>
-      </c>
-      <c r="B9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" t="s">
-        <v>239</v>
       </c>
       <c r="E9" s="15">
         <v>200</v>
@@ -3699,16 +3725,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>316</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3716,16 +3742,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -3733,16 +3759,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="B4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -3750,13 +3776,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" t="s">
         <v>325</v>
-      </c>
-      <c r="C5" t="s">
-        <v>326</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3805,16 +3831,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3822,16 +3848,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -3839,16 +3865,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="B4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -3856,13 +3882,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" t="s">
         <v>325</v>
-      </c>
-      <c r="C5" t="s">
-        <v>326</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3910,10 +3936,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>33</v>
@@ -3924,10 +3950,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>33</v>
@@ -3939,10 +3965,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
         <v>180</v>
-      </c>
-      <c r="B4" t="s">
-        <v>181</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>33</v>
@@ -3954,16 +3980,16 @@
     </row>
     <row r="5" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3971,16 +3997,16 @@
     </row>
     <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>183</v>
-      </c>
-      <c r="B6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>184</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -3988,13 +4014,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="B7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -4003,16 +4029,16 @@
     </row>
     <row r="8" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -4020,16 +4046,16 @@
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="10">
         <v>200</v>
@@ -4037,16 +4063,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
@@ -4054,10 +4080,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>12</v>
@@ -4069,10 +4095,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10">
@@ -4214,10 +4240,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>12</v>
@@ -4229,10 +4255,10 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
@@ -4244,10 +4270,10 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>12</v>
@@ -4259,10 +4285,10 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -4274,10 +4300,10 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
@@ -4289,10 +4315,10 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
@@ -4304,10 +4330,10 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -4319,10 +4345,10 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>12</v>
@@ -4334,10 +4360,10 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>12</v>
@@ -4349,10 +4375,10 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -4364,10 +4390,10 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>12</v>
@@ -4379,10 +4405,10 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>12</v>
@@ -4394,10 +4420,10 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -4409,10 +4435,10 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>12</v>
@@ -4424,10 +4450,10 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
         <v>129</v>
-      </c>
-      <c r="B16" t="s">
-        <v>130</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>12</v>
@@ -4439,10 +4465,10 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
         <v>131</v>
-      </c>
-      <c r="B17" t="s">
-        <v>132</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -4454,10 +4480,10 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>12</v>
@@ -4469,10 +4495,10 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
         <v>140</v>
-      </c>
-      <c r="B19" t="s">
-        <v>141</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>12</v>
@@ -4484,10 +4510,10 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>12</v>
@@ -4499,10 +4525,10 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>12</v>
@@ -4514,10 +4540,10 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>12</v>
@@ -4529,16 +4555,16 @@
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E23" s="15">
         <v>200</v>
@@ -4546,16 +4572,16 @@
     </row>
     <row r="24" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="B24" t="s">
-        <v>361</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>363</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>364</v>
       </c>
       <c r="E24" s="15">
         <v>200</v>
@@ -4563,10 +4589,10 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>18</v>
@@ -4577,10 +4603,10 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>12</v>
@@ -4631,13 +4657,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10">
@@ -4646,16 +4672,16 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>338</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -4663,16 +4689,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>341</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>342</v>
       </c>
       <c r="E4" s="10">
         <v>400</v>
@@ -4680,13 +4706,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>351</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4694,16 +4720,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" t="s">
         <v>347</v>
-      </c>
-      <c r="D6" t="s">
-        <v>348</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -4711,16 +4737,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" t="s">
         <v>347</v>
-      </c>
-      <c r="D7" t="s">
-        <v>348</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -4728,13 +4754,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -4787,7 +4813,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4818,16 +4844,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -4835,10 +4861,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>18</v>
@@ -4850,33 +4876,33 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="10">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4884,16 +4910,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" t="s">
         <v>268</v>
-      </c>
-      <c r="B6" t="s">
-        <v>269</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="10">
         <v>400</v>
@@ -5029,10 +5055,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
@@ -5043,16 +5069,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -5060,13 +5086,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
         <v>248</v>
       </c>
-      <c r="B4" t="s">
-        <v>249</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
@@ -5075,13 +5101,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -5090,16 +5116,16 @@
     </row>
     <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -5107,16 +5133,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>272</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -5124,16 +5150,16 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="B8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>276</v>
       </c>
       <c r="E8" s="10">
         <v>400</v>
@@ -5261,21 +5287,21 @@
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -5283,16 +5309,16 @@
     </row>
     <row r="3" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
         <v>281</v>
       </c>
-      <c r="B3" t="s">
-        <v>282</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -5300,13 +5326,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
@@ -5315,33 +5341,33 @@
     </row>
     <row r="5" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E5" s="21">
         <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -5350,13 +5376,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -5365,13 +5391,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -5380,13 +5406,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="10">
@@ -5395,16 +5421,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
@@ -5412,16 +5438,16 @@
     </row>
     <row r="11" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E11" s="10">
         <v>201</v>
@@ -5429,16 +5455,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>279</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>280</v>
       </c>
       <c r="E12" s="10">
         <v>200</v>
@@ -5446,16 +5472,16 @@
     </row>
     <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>307</v>
-      </c>
-      <c r="B13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>308</v>
       </c>
       <c r="E13" s="10">
         <v>201</v>
@@ -5463,16 +5489,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E14" s="10">
         <v>200</v>
@@ -5480,16 +5506,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" t="s">
         <v>311</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>312</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="18" t="s">
         <v>313</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>314</v>
       </c>
       <c r="E15" s="10">
         <v>200</v>
@@ -5497,13 +5523,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" t="s">
         <v>378</v>
-      </c>
-      <c r="B16" t="s">
-        <v>377</v>
-      </c>
-      <c r="C16" t="s">
-        <v>379</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -5512,33 +5538,33 @@
     </row>
     <row r="17" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E17" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E18" s="10">
         <v>201</v>
@@ -5624,10 +5650,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
@@ -5733,8 +5759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5902,13 +5928,13 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -5916,11 +5942,19 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>201</v>
+      </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -6150,8 +6184,10 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{7809E279-F02A-40C1-AB2D-E61AF4F798DD}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{0D194A37-E911-4189-A8FC-60FE3F16DFFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6190,7 +6226,7 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>58</v>
@@ -6204,7 +6240,7 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>59</v>
@@ -6246,10 +6282,10 @@
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>12</v>
@@ -6260,13 +6296,13 @@
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -6274,10 +6310,10 @@
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>12</v>
@@ -6288,10 +6324,10 @@
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>12</v>
@@ -6302,16 +6338,16 @@
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
@@ -6319,10 +6355,10 @@
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>12</v>
@@ -6333,10 +6369,10 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>12</v>
@@ -6348,10 +6384,10 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>37</v>
@@ -6363,13 +6399,13 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -6378,10 +6414,10 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -6393,10 +6429,10 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -6482,10 +6518,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>12</v>
@@ -6497,10 +6533,10 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
@@ -6512,16 +6548,16 @@
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="B4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="E4" s="15">
         <v>200</v>
@@ -6529,10 +6565,10 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -6544,10 +6580,10 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
@@ -6559,10 +6595,10 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
@@ -6692,10 +6728,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>33</v>
@@ -6706,10 +6742,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>33</v>
@@ -6721,10 +6757,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>33</v>
@@ -6736,10 +6772,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>33</v>
@@ -6751,10 +6787,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>33</v>
@@ -6766,10 +6802,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>33</v>
@@ -6781,16 +6817,16 @@
     </row>
     <row r="8" spans="1:5" ht="125.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="D8" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="10">
         <v>400</v>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{608E8DD0-3B14-4F47-B2FE-8EA17A831AF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{265FACC2-5DCD-4713-B981-D13D2BB6098B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="425">
   <si>
     <t>POST</t>
   </si>
@@ -903,9 +903,6 @@
   <si>
     <t>test__approval_template</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"approveProcessDTO":{"approver":{"approvalPersonDTOList":[{"avator":"https://img.esenyun.com/images/20180823/10d6f33d6961482699e676c81c3319fd.png","group":0,"id":"8a9d3ed0609d0e200160f7a3dcae0003","name":"曹瑞华","openId":"c4d18eb76d9548f29c46dbef29944d21","order":1,"weight":0,"scope":1}]},"carbon":{"approvalPersonDTOList":[{"avator":"https://img.esenyun.com/images/20180823/10d6f33d6961482699e676c81c3319fd.png","group":0,"id":"8a9d3ed0609d0e200160f7a3dcae0003","name":"曹瑞华","openId":"c4d18eb76d9548f29c46dbef29944d21","order":1}]},"scope":"0","type":"parallel"},"contentType":1,"wordSaveApprovalDTO":null,"formInstanceDTO":{"jsonValue":"{\"name\":\"测试2\",\"tenantId\":\"8a9c8ff35f81891f015f8569aa580002\",\"id\":\"5b222a5b5afbd40006eb4f93\",\"code\":null,\"displayName\":\"测试2\",\"description\":\"阿斯顿被拒绝后\",\"categoryId\":\"5a4dd3ed0539eb7c7f29a4cd\",\"logo\":null,\"repeatable\":null,\"emptyFlg\":null,\"jsonTemplate\":[[{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"0\",\"label\":\"单行文本框\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"单行文本框\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"INPUT\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":51,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"text\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"1\",\"label\":\"多行文本框\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"多行文本框\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"TEXTAREA\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":null,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"TEXTAREA\",\"cols\":20,\"rows\":5,\"wrap\":\"soft\"},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"2\",\"label\":\"下拉框\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"下拉框\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"SELECT\",\"required\":false,\"tabIndex\":null,\"value\":null,\"options\":[{\"disabled\":false,\"label\":\"选项1\",\"value\":\"选项1\"},{\"disabled\":false,\"label\":\"选项2\",\"value\":\"选项2\"}],\"type\":\"SELECT\",\"filterable\":false,\"multiple\":false,\"placeholder\":\"请填写文本内容\"},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"3\",\"label\":\"圣诞节哈酒红色\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"数值\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"INPUTNUMBER\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":12,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"number\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":2},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"4\",\"label\":\"阿塞拜疆多久啊\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"数值\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"INPUTNUMBER\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":12,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"number\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":2},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"5\",\"label\":\"日期选择\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"日期选择\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"DATEPICKER\",\"required\":false,\"tabIndex\":null,\"value\":null,\"format\":\"mm/dd/yy\",\"max\":null,\"min\":null,\"placeholder\":null,\"type\":\"DATEPICKER\",\"focusedDate\":null,\"inline\":false,\"toggleIcon\":null,\"toggleLabel\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"6\",\"label\":\"人员选择\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"人员选择\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"PEOPLESELECT\",\"required\":false,\"tabIndex\":null,\"value\":[{\"avator\":\"\",\"group\":0,\"id\":\"8a9870c160ee8cff01612861bde30026\",\"name\":\"adsaf\",\"openId\":\"8a9d3ed060ee8eb901612861be25001c\",\"order\":1}],\"options\":[{\"disabled\":false,\"label\":\"选项1\",\"value\":\"选项1\"}],\"type\":\"SELECT\",\"filterable\":false,\"multiple\":false,\"placeholder\":\"\"},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"7\",\"label\":\"单选框\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"ui-g\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\",\"option\":\"ui-g-3\"}},\"name\":\"单选框\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"RADIO_GROUP\",\"required\":false,\"tabIndex\":null,\"value\":null,\"options\":[{\"disabled\":false,\"label\":\"选项1\",\"value\":\"选项1\"},{\"disabled\":false,\"label\":\"选项2\",\"value\":\"选项2\"}],\"type\":\"RADIO_GROUP\",\"legend\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"8\",\"label\":\"文本描述\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"文本描述\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"TEXTDESCRIPTION\",\"required\":false,\"tabIndex\":null,\"value\":\"\",\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":51,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"text\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":null}]]}","templateEmptyFlg":null,"templateId":"5b222a5b5afbd40006eb4f93","templateName":"测试2","templateRepeatable":null,"tenantId":"8a9c8ff35f81891f015f8569aa580002","versionFlg":true},"comment":"测试2","groupId":"8a9c8ff35f81891f015f8569aa580002","status":0}</t>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/deployApproval</t>
@@ -2153,6 +2150,101 @@
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/create</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_task_cancel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"REDO"}</t>
+  </si>
+  <si>
+    <t>test_task_redo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"CANCEL"}</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd/2c94845666ca1e670166ece5a8490700/action</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_task_ok</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"VERIFY","result":"OK"}</t>
+  </si>
+  <si>
+    <t>test_task_reject</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"VERIFY","result":"REJECT"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "approveProcessDTO": {
+  "approver": {
+   "approvalPersonDTOList": [{
+    "avator": "https://img.esenyun.com/images/20180823/10d6f33d6961482699e676c81c3319fd.png",
+    "group": 0,
+    "id": "8a9d3ed0609d0e200160f7a3dcae0003",
+    "name": "曹瑞华",
+    "openId": "c4d18eb76d9548f29c46dbef29944d21",
+    "order": 1,
+    "weight": 0,
+    "scope": 1
+   }]
+  },
+  "carbon": {
+   "approvalPersonDTOList": [{
+    "avator": "https://img.esenyun.com/images/20180823/10d6f33d6961482699e676c81c3319fd.png",
+    "group": 0,
+    "id": "8a9d3ed0609d0e200160f7a3dcae0003",
+    "name": "曹瑞华",
+    "openId": "c4d18eb76d9548f29c46dbef29944d21",
+    "order": 1
+   }]
+  },
+  "scope": "0",
+  "type": "parallel"
+ },
+ "contentType": 1,
+ "wordSaveApprovalDTO": null,
+ "formInstanceDTO": {
+  "jsonValue": "{\"name\":\"9.21\",\"tenantId\":\"8a9c8ff35f81891f015f8569aa580002\",\"id\":\"5ba48cbb328fc20001fa8984\",\"code\":null,\"displayName\":\"9.21\",\"description\":\"9.21\",\"categoryId\":\"5a4dd3ed0539eb7c7f29a4cd\",\"logo\":null,\"repeatable\":null,\"emptyFlg\":null,\"jsonTemplate\":[[{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"0\",\"label\":\"数值\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"数值\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":{\"mark\":true,\"capital\":true},\"hint\":\"INPUTNUMBER\",\"required\":false,\"tabIndex\":null,\"value\":110,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":12,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"number\",\"list\":[],\"mask\":null,\"max\":999999999999999,\"min\":0,\"multiple\":false,\"pattern\":null,\"step\":0},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"1\",\"label\":\"金额\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"金额\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":{\"mark\":true,\"capital\":true},\"hint\":\"INPUTCASH\",\"required\":false,\"tabIndex\":null,\"value\":10,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":12,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"number\",\"list\":[],\"mask\":null,\"max\":999999999999999,\"min\":0,\"multiple\":false,\"pattern\":null,\"step\":0},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"2\",\"label\":\"日期选择\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-6\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"日期选择\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"DATEPICKER\",\"required\":false,\"tabIndex\":null,\"value\":\"2018-11-07\",\"format\":\"mm/dd/yy\",\"max\":null,\"min\":null,\"placeholder\":null,\"type\":\"DATEPICKER\",\"focusedDate\":null,\"inline\":false,\"toggleIcon\":null,\"toggleLabel\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"3\",\"label\":\"人员选择\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"人员选择\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"PEOPLESELECT\",\"required\":false,\"tabIndex\":null,\"value\":[{\"avator\":\"https://img.esenyun.com/images/20180823/10d6f33d6961482699e676c81c3319fd.png\",\"group\":0,\"id\":\"8a9d3ed0609d0e200160f7a3dcae0003\",\"name\":\"曹瑞华\",\"openId\":\"c4d18eb76d9548f29c46dbef29944d21\",\"order\":1}],\"options\":[{\"disabled\":false,\"label\":\"选项1\",\"value\":\"选项1\"}],\"type\":\"SELECT\",\"filterable\":false,\"multiple\":false,\"placeholder\":\"\"},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"4\",\"label\":\"上传附件\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"上传附件\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"FILEUPLOADER\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"off\",\"autoFocus\":false,\"maxLength\":51,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"text\",\"list\":[],\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"5\",\"label\":\"图片选择\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"图片选择\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"PHOTOSELECT\",\"required\":false,\"tabIndex\":null,\"value\":null,\"autoComplete\":\"on\",\"autoFocus\":false,\"maxLength\":null,\"minLength\":null,\"placeholder\":\"\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"text\",\"list\":null,\"mask\":null,\"max\":null,\"min\":null,\"multiple\":false,\"pattern\":null,\"step\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"6\",\"label\":\"表格明细1\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"表格明细1\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":[{\"modelData\":[{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"1\",\"label\":\"数值\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"数值\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"INPUTNUMBER\",\"required\":false,\"tabIndex\":null,\"value\":\"\",\"autoComplete\":\"on\",\"autoFocus\":false,\"maxLength\":null,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"text\",\"list\":null,\"mask\":null,\"max\":null,\"min\":null,\"multiple\":null,\"pattern\":null,\"step\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"2\",\"label\":\"金额\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"name\":\"金额\",\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"INPUTCASH\",\"required\":false,\"tabIndex\":1,\"value\":\"\",\"autoComplete\":\"on\",\"autoFocus\":false,\"maxLength\":null,\"minLength\":null,\"placeholder\":\"请填写文本内容\",\"prefix\":null,\"readOnly\":false,\"spellCheck\":false,\"suffix\":null,\"type\":\"INPUT\",\"accept\":null,\"inputType\":\"text\",\"list\":null,\"mask\":null,\"max\":null,\"min\":null,\"multiple\":null,\"pattern\":null,\"step\":null},{\"asyncValidators\":null,\"errorMessages\":null,\"hidden\":false,\"id\":\"3\",\"label\":\"日期\",\"labelTooltip\":null,\"controlTooltip\":null,\"layout\":{\"element\":{\"container\":\"\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"\",\"label\":\"ui-widget\"},\"grid\":{\"container\":\"ui-g-12\",\"control\":\"\",\"errors\":\"\",\"group\":\"\",\"hint\":\"\",\"host\":\"ui-g\",\"label\":\"\"}},\"relation\":[],\"updateOn\":null,\"validators\":null,\"disabled\":false,\"additional\":null,\"hint\":\"DATEPICKER\",\"required\":false,\"tabIndex\":1,\"value\":\"\",\"format\":null,\"max\":null,\"min\":null,\"placeholder\":\"请填写文本内容\",\"type\":\"DATEPICKER\",\"focusedDate\":null,\"inline\":false,\"toggleIcon\":null,\"toggleLabel\":null}],\"groupData\":{\"validator\":null,\"asyncValidator\":null,\"pristine\":true,\"touched\":false,\"_onDisabledChange\":[],\"controls\":{\"1\":{\"validator\":null,\"asyncValidator\":null,\"pristine\":true,\"touched\":false,\"_onDisabledChange\":[null],\"_onChange\":[null],\"_pendingValue\":\"\",\"value\":\"\",\"status\":\"VALID\",\"errors\":null,\"_updateOn\":\"change\",\"valueChanges\":{\"_isScalar\":false,\"observers\":[],\"closed\":false,\"isStopped\":false,\"hasError\":false,\"thrownError\":null,\"__isAsync\":false},\"statusChanges\":{\"_isScalar\":false,\"observers\":[],\"closed\":false,\"isStopped\":false,\"hasError\":false,\"thrownError\":null,\"__isAsync\":false},\"_parent\":\"~jsonTemplate~0~6~additional~0~groupData\"},\"2\":{\"validator\":null,\"asyncValidator\":null,\"pristine\":true,\"touched\":false,\"_onDisabledChange\":[null],\"_onChange\":[null],\"_pendingValue\":\"\",\"value\":\"\",\"status\":\"VALID\",\"errors\":null,\"_updateOn\":\"change\",\"valueChanges\":{\"_isScalar\":false,\"observers\":[],\"closed\":false,\"isStopped\":false,\"hasError\":false,\"thrownError\":null,\"__isAsync\":false},\"statusChanges\":{\"_isScalar\":false,\"observers\":[],\"closed\":false,\"isStopped\":false,\"hasError\":false,\"thrownError\":null,\"__isAsync\":false},\"_parent\":\"~jsonTemplate~0~6~additional~0~groupData\"},\"3\":{\"validator\":null,\"asyncValidator\":null,\"pristine\":true,\"touched\":false,\"_onDisabledChange\":[],\"_onChange\":[],\"_pendingValue\":\"\",\"value\":\"\",\"status\":\"VALID\",\"errors\":null,\"_updateOn\":\"change\",\"valueChanges\":{\"_isScalar\":false,\"observers\":[],\"closed\":false,\"isStopped\":false,\"hasError\":false,\"thrownError\":null,\"__isAsync\":false},\"statusChanges\":{\"_isScalar\":false,\"observers\":[],\"closed\":false,\"isStopped\":false,\"hasError\":false,\"thrownError\":null,\"__isAsync\":false},\"_parent\":\"~jsonTemplate~0~6~additional~0~groupData\"}},\"valueChanges\":{\"_isScalar\":false,\"observers\":[],\"closed\":false,\"isStopped\":false,\"hasError\":false,\"thrownError\":null,\"__isAsync\":false},\"statusChanges\":{\"_isScalar\":false,\"observers\":[],\"closed\":false,\"isStopped\":false,\"hasError\":false,\"thrownError\":null,\"__isAsync\":false},\"status\":\"VALID\",\"value\":{\"1\":\"\",\"2\":\"\",\"3\":\"\"},\"errors\":null}}],\"hint\":\"FORMDETAIL\",\"required\":false,\"tabIndex\":null,\"value\":null,\"options\":[{\"disabled\":false,\"label\":\"数值\",\"value\":\"\"},{\"disabled\":false,\"label\":\"金额\",\"value\":\"\"},{\"disabled\":false,\"label\":\"日期\",\"value\":\"\"}],\"type\":\"SELECT\",\"filterable\":false,\"multiple\":false,\"placeholder\":\"请填写文本内容\"}]]}",
+  "templateEmptyFlg": null,
+  "templateId": "5ba48cbb328fc20001fa8984",
+  "templateName": "9.21",
+  "templateRepeatable": null,
+  "tenantId": "8a9c8ff35f81891f015f8569aa580002",
+  "versionFlg": true
+ },
+ "comment": "9.21",
+ "groupId": "8a9c8ff35f81891f015f8569aa580002",
+ "status": 0
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test__approval_submmit_ok</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "id": id
+ "status": 1,
+ "exId": "2c94831366b022a30166ed51175f07cf",
+ "forumId": null,
+ "groupId": "8a9c8ff35f81891f015f8569aa580002",
+ "piId": null,
+ "runId": null,
+ "comment": ""
+}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2762,7 +2854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -2814,13 +2906,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E3" s="3">
         <v>201</v>
@@ -2831,7 +2923,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -2846,7 +2938,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -2861,7 +2953,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -2876,7 +2968,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -2891,13 +2983,13 @@
         <v>19</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -2908,7 +3000,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -2923,7 +3015,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -2976,7 +3068,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -3072,7 +3164,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E19" s="3">
         <v>201</v>
@@ -3147,7 +3239,7 @@
         <v>80</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -3206,10 +3298,10 @@
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>33</v>
@@ -3221,13 +3313,13 @@
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
@@ -3236,10 +3328,10 @@
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -3251,10 +3343,10 @@
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -3266,16 +3358,16 @@
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="264" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
@@ -3283,16 +3375,16 @@
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E33" s="3">
         <v>201</v>
@@ -3300,10 +3392,10 @@
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -3520,9 +3612,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3649,18 +3741,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" t="s">
         <v>220</v>
       </c>
-      <c r="C8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" t="s">
-        <v>219</v>
+      <c r="D8" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -3668,19 +3760,30 @@
     </row>
     <row r="9" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" t="s">
         <v>237</v>
       </c>
-      <c r="B9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" t="s">
-        <v>238</v>
-      </c>
       <c r="E9" s="15">
         <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -3725,16 +3828,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>314</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>315</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3742,16 +3845,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>319</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -3759,16 +3862,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>322</v>
-      </c>
-      <c r="B4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>323</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -3776,13 +3879,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" t="s">
         <v>324</v>
-      </c>
-      <c r="C5" t="s">
-        <v>325</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3831,16 +3934,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -3848,16 +3951,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>319</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -3865,16 +3968,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>322</v>
-      </c>
-      <c r="B4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>323</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -3882,13 +3985,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" t="s">
         <v>324</v>
-      </c>
-      <c r="C5" t="s">
-        <v>325</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3983,7 +4086,7 @@
         <v>184</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>169</v>
@@ -4080,10 +4183,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>12</v>
@@ -4095,10 +4198,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10">
@@ -4555,16 +4658,16 @@
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E23" s="15">
         <v>200</v>
@@ -4572,16 +4675,16 @@
     </row>
     <row r="24" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="B24" t="s">
-        <v>360</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>362</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>363</v>
       </c>
       <c r="E24" s="15">
         <v>200</v>
@@ -4589,10 +4692,10 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>18</v>
@@ -4603,10 +4706,10 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>12</v>
@@ -4657,13 +4760,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10">
@@ -4672,16 +4775,16 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>337</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -4689,16 +4792,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>340</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>341</v>
       </c>
       <c r="E4" s="10">
         <v>400</v>
@@ -4706,13 +4809,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>350</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4720,16 +4823,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" t="s">
         <v>346</v>
-      </c>
-      <c r="D6" t="s">
-        <v>347</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -4737,16 +4840,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" t="s">
         <v>346</v>
-      </c>
-      <c r="D7" t="s">
-        <v>347</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -4754,13 +4857,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -4844,16 +4947,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -4861,10 +4964,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>18</v>
@@ -4876,16 +4979,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E4" s="10">
         <v>401</v>
@@ -4893,16 +4996,16 @@
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4910,16 +5013,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
         <v>267</v>
-      </c>
-      <c r="B6" t="s">
-        <v>268</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" s="10">
         <v>400</v>
@@ -5055,10 +5158,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
@@ -5069,16 +5172,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -5086,13 +5189,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
         <v>247</v>
       </c>
-      <c r="B4" t="s">
-        <v>248</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
@@ -5101,13 +5204,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -5116,16 +5219,16 @@
     </row>
     <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -5133,16 +5236,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>271</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -5150,16 +5253,16 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="B8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>275</v>
       </c>
       <c r="E8" s="10">
         <v>400</v>
@@ -5287,21 +5390,21 @@
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -5309,16 +5412,16 @@
     </row>
     <row r="3" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" t="s">
         <v>280</v>
       </c>
-      <c r="B3" t="s">
-        <v>281</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -5326,13 +5429,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
@@ -5341,33 +5444,33 @@
     </row>
     <row r="5" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" s="21">
         <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -5376,13 +5479,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -5391,13 +5494,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -5406,13 +5509,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="10">
@@ -5421,16 +5524,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
@@ -5438,16 +5541,16 @@
     </row>
     <row r="11" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" s="10">
         <v>201</v>
@@ -5455,16 +5558,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="E12" s="10">
         <v>200</v>
@@ -5472,16 +5575,16 @@
     </row>
     <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>306</v>
-      </c>
-      <c r="B13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>307</v>
       </c>
       <c r="E13" s="10">
         <v>201</v>
@@ -5489,16 +5592,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E14" s="10">
         <v>200</v>
@@ -5506,16 +5609,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" t="s">
         <v>310</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>311</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="18" t="s">
         <v>312</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>313</v>
       </c>
       <c r="E15" s="10">
         <v>200</v>
@@ -5523,13 +5626,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" t="s">
         <v>377</v>
-      </c>
-      <c r="B16" t="s">
-        <v>376</v>
-      </c>
-      <c r="C16" t="s">
-        <v>378</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -5538,16 +5641,16 @@
     </row>
     <row r="17" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E17" s="10">
         <v>200</v>
@@ -5555,16 +5658,16 @@
     </row>
     <row r="18" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E18" s="10">
         <v>201</v>
@@ -5650,10 +5753,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
@@ -5760,7 +5863,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5931,7 +6034,7 @@
         <v>91</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -5943,13 +6046,13 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -5957,32 +6060,68 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>410</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>410</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E16" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -6185,9 +6324,14 @@
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{7809E279-F02A-40C1-AB2D-E61AF4F798DD}"/>
     <hyperlink ref="B12" r:id="rId2" xr:uid="{0D194A37-E911-4189-A8FC-60FE3F16DFFD}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{9437B672-B25D-465B-83A0-862CCF3ECFCF}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{1CBE5935-F9DC-4F39-9021-3D2579D723A1}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{C873E813-C583-4631-BF09-03EB61041328}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{41D0CA70-A3FA-4DC2-8449-FBB454F504A9}"/>
+    <hyperlink ref="B16" r:id="rId7" xr:uid="{894D2278-B6FA-4D74-AD4E-C9C3D9DC59F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -6399,13 +6543,13 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -6414,10 +6558,10 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -6429,10 +6573,10 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -6518,10 +6662,10 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>12</v>
@@ -6533,10 +6677,10 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
@@ -6548,16 +6692,16 @@
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
         <v>210</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4" s="15">
         <v>200</v>
@@ -6565,10 +6709,10 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -6580,10 +6724,10 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
@@ -6595,10 +6739,10 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{265FACC2-5DCD-4713-B981-D13D2BB6098B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{073E83DF-3ABB-4ACC-979D-9BE7B1862983}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="429">
   <si>
     <t>POST</t>
   </si>
@@ -2245,6 +2245,21 @@
  "runId": null,
  "comment": ""
 }</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/find-process-form/2c94831366b022a30166e7e981c006c7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test__approval_over</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"FINISH"}</t>
+  </si>
+  <si>
+    <t>test_task_finish</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3612,10 +3627,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3623,7 +3638,7 @@
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="110.5" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="73.625" customWidth="1"/>
+    <col min="4" max="4" width="35.125" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3785,9 +3800,29 @@
       <c r="D10" s="9" t="s">
         <v>424</v>
       </c>
+      <c r="E10" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{46E6670A-2AC7-4BBE-AD17-97CB656EDFF0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5862,8 +5897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6100,7 +6135,9 @@
       <c r="B15" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>419</v>
       </c>
@@ -6115,7 +6152,9 @@
       <c r="B16" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>421</v>
       </c>
@@ -6124,11 +6163,21 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
@@ -6329,9 +6378,10 @@
     <hyperlink ref="B14" r:id="rId5" xr:uid="{C873E813-C583-4631-BF09-03EB61041328}"/>
     <hyperlink ref="B15" r:id="rId6" xr:uid="{41D0CA70-A3FA-4DC2-8449-FBB454F504A9}"/>
     <hyperlink ref="B16" r:id="rId7" xr:uid="{894D2278-B6FA-4D74-AD4E-C9C3D9DC59F3}"/>
+    <hyperlink ref="B17" r:id="rId8" xr:uid="{E673A82D-A9A2-4EB1-A122-E86CF8C66408}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{073E83DF-3ABB-4ACC-979D-9BE7B1862983}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FE7BF55F-D744-469C-B134-5043E92A4CB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="432">
   <si>
     <t>POST</t>
   </si>
@@ -2260,6 +2260,17 @@
   </si>
   <si>
     <t>test_task_finish</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esencrs/openapi/customer-report</t>
+  </si>
+  <si>
+    <t>test_CRS_relitu</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5395,8 +5406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5709,7 +5720,19 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C19" t="s">
+        <v>431</v>
+      </c>
       <c r="D19" s="18"/>
+      <c r="E19" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D20" s="18"/>
@@ -5897,7 +5920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -6389,7 +6412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FE7BF55F-D744-469C-B134-5043E92A4CB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FB53745E-7D96-4F14-A573-B0F97BB448B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="434">
   <si>
     <t>POST</t>
   </si>
@@ -2271,6 +2271,13 @@
   </si>
   <si>
     <t>GET</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esengtp/openapi/group-home-page</t>
+  </si>
+  <si>
+    <t>test_user_homepage</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3801,7 +3808,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>423</v>
       </c>
@@ -4053,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4249,13 +4256,25 @@
       <c r="B12" t="s">
         <v>370</v>
       </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" t="s">
+        <v>432</v>
+      </c>
       <c r="D13" s="18"/>
+      <c r="E13" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="18"/>
@@ -6412,7 +6431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FB53745E-7D96-4F14-A573-B0F97BB448B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E0A772A-6792-4487-9C54-A49B78C98DFC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="444">
   <si>
     <t>POST</t>
   </si>
@@ -2278,6 +2278,42 @@
   </si>
   <si>
     <t>test_user_homepage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenbase/openapi/markers</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_markers</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"markerType":["TENANT","WORD"]}</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/delete-draft</t>
+  </si>
+  <si>
+    <t>test__approval_delete_draft</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/delete-approval</t>
+  </si>
+  <si>
+    <t>test__approval_delete_approval</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test__approval_chehui</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/undo-approval</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2887,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3439,11 +3475,21 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
@@ -3645,10 +3691,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3836,12 +3882,65 @@
         <v>200</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" t="s">
+        <v>443</v>
+      </c>
+      <c r="E12" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="C13" t="s">
+        <v>443</v>
+      </c>
+      <c r="E13" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="24">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{46E6670A-2AC7-4BBE-AD17-97CB656EDFF0}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{119C7CE3-D486-43E8-A8C6-60D8444C4DF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4060,8 +4159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E0A772A-6792-4487-9C54-A49B78C98DFC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9B3343A5-3BCA-43ED-B57C-062328572514}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -2923,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3693,8 +3693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9B3343A5-3BCA-43ED-B57C-062328572514}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4CEAE3E4-AD35-49D0-8822-CE52732D8219}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="446">
   <si>
     <t>POST</t>
   </si>
@@ -2314,6 +2314,13 @@
   </si>
   <si>
     <t>POST</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://workdesk.esenyun.com/apply/esenossaccount/openapi/trial/images/imagecode</t>
+  </si>
+  <si>
+    <t>test_account_imagecode</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2923,7 +2930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5290,8 +5297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5433,7 +5440,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="18"/>
+      <c r="E9" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="18"/>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FB53745E-7D96-4F14-A573-B0F97BB448B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37005" yWindow="4035" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -26,8 +25,8 @@
     <sheet name="WXAPP" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -38,15 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="438">
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>http://115.28.108.130:5000/api/user/login/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name": "张三","password":"123456"}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -75,15 +70,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>test_user_login_normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>url</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_xiaobaiban_coment</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2035,6 +2022,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>","data":"{\"imgs\":[\"https:\\\/\\\/img.esenyun.com\\\/images\\\/20181106\\\/2c7f989894e3483f85517d34931ecc99.png\"]}","entityId":"5bdc0d898b2d81000199a464","cusId":"5bdc0d898b2d81000199a464","version":0,"sourceType":"APP_IOS","entityType":1}</t>
     </r>
@@ -2130,10 +2118,6 @@
   </si>
   <si>
     <t>test_task_delete</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_xiaobaiban_delete_common</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2280,12 +2264,43 @@
     <t>test_user_homepage</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>test_xiaobaiban_delete_common</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_user_login_normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.108.130:5000/api/user/login/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_coment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_coment_picture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"groupId":"","data":"{\"attach\":[],\"imgs\":[\"https:\\\/\\\/img.esenyun.com\\\/images\\\/20181109\\\/44dbda1948bb4bc7b0f8fa1c2b3c48ad.png\"]}","content":"","wordId":"2c948b0966cf12560166e8ab7fb80710","sourceType":"APP_IOS","producedGTD":false}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/create</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2378,6 +2393,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2561,11 +2577,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 3" xfId="2"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
@@ -2877,21 +2893,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E41:E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="34.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.75" customWidth="1"/>
@@ -2900,615 +2918,625 @@
     <col min="5" max="5" width="60.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
+        <v>431</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>432</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="132">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>433</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E3" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="44.1" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="B12" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="33">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E13" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="54.95" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="16.5">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="99">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E19" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="191.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="191.1" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="16.5">
+      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="16.5">
+      <c r="A22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="B22" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A24" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="99">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E26" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A28" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A29" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A30" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A31" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="264" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="264">
       <c r="A32" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="66">
+      <c r="A33" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E32" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E33" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A34" s="2" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="115.5">
+      <c r="A35" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E35" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A45" s="2"/>
       <c r="B45" s="8"/>
       <c r="C45" s="2"/>
@@ -3518,119 +3546,120 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" xr:uid="{30C5901A-BCEB-416B-9EDC-394B392A7873}"/>
-    <hyperlink ref="B33" r:id="rId2" xr:uid="{5A54E733-BAE4-48C0-A401-AFC875889B53}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{D5ADEA20-C61A-4C2C-A2B3-CCB9450E7319}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{7000B035-3C9A-4AF8-AD3D-76942E17E2C5}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{B81CFBC0-5816-4A07-B651-7947C2C55E2B}"/>
-    <hyperlink ref="B34" r:id="rId6" xr:uid="{6993D596-BC10-4688-AA40-B90B1889A920}"/>
-    <hyperlink ref="B32" r:id="rId7" xr:uid="{FB3B2490-328A-419B-A4FE-AFCFC8605E17}"/>
+    <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="B33" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B34" r:id="rId6"/>
+    <hyperlink ref="B32" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="110.5" customWidth="1"/>
     <col min="3" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="10">
@@ -3644,14 +3673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="110.5" customWidth="1"/>
@@ -3660,177 +3689,177 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>209</v>
       </c>
-      <c r="B4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
         <v>214</v>
       </c>
-      <c r="B5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>216</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" t="s">
-        <v>220</v>
-      </c>
       <c r="D8" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32.1" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="189">
+      <c r="A10" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E10" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="A11" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="E8" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="171" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="E10" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>426</v>
-      </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="15">
         <v>200</v>
@@ -3839,21 +3868,21 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{46E6670A-2AC7-4BBE-AD17-97CB656EDFF0}"/>
+    <hyperlink ref="B11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
@@ -3862,83 +3891,83 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" t="s">
         <v>314</v>
       </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="D3" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27">
+      <c r="A4" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" t="s">
         <v>321</v>
-      </c>
-      <c r="B4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" t="s">
-        <v>324</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3952,14 +3981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
@@ -3968,83 +3997,83 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27">
+      <c r="A4" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" t="s">
         <v>321</v>
-      </c>
-      <c r="B4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" t="s">
-        <v>324</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4057,14 +4086,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="167.5" customWidth="1"/>
@@ -4073,314 +4102,314 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="69.95" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="89.25">
       <c r="A8" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51">
+      <c r="A9" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="E9" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="E10" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="14.25">
       <c r="A12" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="14.25">
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="14.25">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" ht="14.25">
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" ht="14.25">
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" ht="14.25">
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" ht="14.25">
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" ht="14.25">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" ht="14.25">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" ht="14.25">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" ht="14.25">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" ht="14.25">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" ht="14.25">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" ht="14.25">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" ht="14.25">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" ht="14.25">
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" ht="14.25">
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" ht="14.25">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:4" ht="14.25">
       <c r="D32" s="18"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" ht="14.25">
       <c r="D33" s="18"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" ht="14.25">
       <c r="D34" s="18"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" ht="14.25">
       <c r="D35" s="18"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" ht="14.25">
       <c r="D36" s="18"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" ht="14.25">
       <c r="D37" s="18"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" ht="14.25">
       <c r="D38" s="18"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" ht="14.25">
       <c r="D39" s="18"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" ht="14.25">
       <c r="D40" s="18"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" ht="14.25">
       <c r="D41" s="18"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" ht="14.25">
       <c r="D42" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{B52FB003-FD32-4F45-8CE0-D61D478FB7BA}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="141.5" customWidth="1"/>
@@ -4389,395 +4418,395 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17.25">
       <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.25">
       <c r="A12" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="14.25">
       <c r="A19" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="14.25">
       <c r="A21" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="14.25">
       <c r="A22" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E23" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="39" customHeight="1">
       <c r="A24" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="E24" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25">
+      <c r="A25" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B25" t="s">
         <v>360</v>
       </c>
-      <c r="B24" t="s">
-        <v>359</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="E24" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="B25" t="s">
-        <v>363</v>
-      </c>
       <c r="C25" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E25" s="24">
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="14.25">
       <c r="A26" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B26" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26" s="24">
         <v>200</v>
@@ -4790,14 +4819,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
@@ -4806,185 +4835,186 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27">
+      <c r="A4" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>341</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E4" s="10">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="D6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" t="s">
-        <v>346</v>
-      </c>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E7" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="127" customWidth="1"/>
@@ -4993,191 +5023,191 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>242</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="27">
       <c r="A4" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E4" s="10">
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="27">
       <c r="A5" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
         <v>264</v>
       </c>
-      <c r="B5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>268</v>
       </c>
       <c r="E6" s="10">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="14.25">
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="14.25">
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="14.25">
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="14.25">
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14.25">
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="14.25">
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14.25">
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="14.25">
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="14.25">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" ht="14.25">
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" ht="14.25">
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" ht="14.25">
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" ht="14.25">
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" ht="14.25">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" ht="14.25">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" ht="14.25">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" ht="14.25">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" ht="14.25">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" ht="14.25">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" ht="14.25">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" ht="14.25">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" ht="14.25">
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" ht="14.25">
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" ht="14.25">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:4" ht="14.25">
       <c r="D32" s="18"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" ht="14.25">
       <c r="D33" s="18"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" ht="14.25">
       <c r="D34" s="18"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" ht="14.25">
       <c r="D35" s="18"/>
     </row>
   </sheetData>
@@ -5188,14 +5218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="115.125" customWidth="1"/>
@@ -5204,214 +5234,214 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" t="s">
-        <v>247</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="38.25">
       <c r="A6" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>255</v>
-      </c>
       <c r="E6" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5">
+      <c r="A8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="B8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>274</v>
       </c>
       <c r="E8" s="10">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="14.25">
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="14.25">
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14.25">
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="14.25">
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14.25">
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="14.25">
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="14.25">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" ht="14.25">
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" ht="14.25">
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" ht="14.25">
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" ht="14.25">
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" ht="14.25">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" ht="14.25">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" ht="14.25">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" ht="14.25">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" ht="14.25">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" ht="14.25">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" ht="14.25">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" ht="14.25">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" ht="14.25">
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" ht="14.25">
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" ht="14.25">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:4" ht="14.25">
       <c r="D32" s="18"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" ht="14.25">
       <c r="D33" s="18"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" ht="14.25">
       <c r="D34" s="18"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" ht="14.25">
       <c r="D35" s="18"/>
     </row>
   </sheetData>
@@ -5422,14 +5452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="115.125" customWidth="1"/>
@@ -5438,356 +5468,356 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="165" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B3" t="s">
         <v>277</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C3" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>281</v>
-      </c>
-      <c r="C4" t="s">
-        <v>284</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="140.25">
       <c r="A5" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E5" s="21">
         <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" t="s">
         <v>297</v>
       </c>
-      <c r="B10" t="s">
-        <v>300</v>
-      </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="71.099999999999994" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>298</v>
-      </c>
-      <c r="C11" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>301</v>
       </c>
       <c r="E11" s="10">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="102">
+      <c r="A13" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="E12" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>305</v>
-      </c>
       <c r="B13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="C13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>306</v>
       </c>
       <c r="E13" s="10">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25">
+      <c r="A15" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" t="s">
         <v>308</v>
       </c>
-      <c r="B14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E14" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="D15" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="B15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>312</v>
-      </c>
       <c r="E15" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="145.5" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="76.5">
+      <c r="A18" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="E17" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>383</v>
-      </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E18" s="10">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="14.25">
       <c r="A19" s="8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B19" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C19" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="14.25">
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="14.25">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="14.25">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="14.25">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="14.25">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="14.25">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="14.25">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="14.25">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="14.25">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="14.25">
       <c r="D29" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{CC3915FE-AE1F-47F9-BF54-D14A2C35049F}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{F66AEA04-533E-4556-B8EF-64F7609FE89C}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5795,14 +5825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="167.5" customWidth="1"/>
@@ -5811,122 +5841,122 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="14.25">
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14.25">
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="14.25">
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="14.25">
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="14.25">
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="14.25">
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="14.25">
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14.25">
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="14.25">
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14.25">
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="14.25">
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="14.25">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" ht="14.25">
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" ht="14.25">
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" ht="14.25">
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" ht="14.25">
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" ht="14.25">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" ht="14.25">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" ht="14.25">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" ht="14.25">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" ht="14.25">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" ht="14.25">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" ht="14.25">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" ht="14.25">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" ht="14.25">
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" ht="14.25">
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" ht="14.25">
       <c r="D31" s="18"/>
     </row>
   </sheetData>
@@ -5936,14 +5966,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="34.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="126.875" customWidth="1"/>
@@ -5952,458 +5982,458 @@
     <col min="5" max="5" width="60.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="149.1" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="44.1" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A12" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A13" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5">
+      <c r="A14" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5">
+      <c r="A15" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="E15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="16.5">
+      <c r="A16" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E13" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E14" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="E16" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A17" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A22" s="2"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A33" s="2"/>
       <c r="B33" s="8"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A34" s="2"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="2"/>
@@ -6413,14 +6443,14 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{7809E279-F02A-40C1-AB2D-E61AF4F798DD}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{0D194A37-E911-4189-A8FC-60FE3F16DFFD}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{9437B672-B25D-465B-83A0-862CCF3ECFCF}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{1CBE5935-F9DC-4F39-9021-3D2579D723A1}"/>
-    <hyperlink ref="B14" r:id="rId5" xr:uid="{C873E813-C583-4631-BF09-03EB61041328}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{41D0CA70-A3FA-4DC2-8449-FBB454F504A9}"/>
-    <hyperlink ref="B16" r:id="rId7" xr:uid="{894D2278-B6FA-4D74-AD4E-C9C3D9DC59F3}"/>
-    <hyperlink ref="B17" r:id="rId8" xr:uid="{E673A82D-A9A2-4EB1-A122-E86CF8C66408}"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId5"/>
+    <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B16" r:id="rId7"/>
+    <hyperlink ref="B17" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -6428,14 +6458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="39.875" customWidth="1"/>
     <col min="2" max="2" width="105.875" customWidth="1"/>
@@ -6443,270 +6473,270 @@
     <col min="5" max="5" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="B7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1">
       <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="E10" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>356</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -6721,205 +6751,205 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="141.5" customWidth="1"/>
     <col min="3" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17.25">
       <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="54">
       <c r="A4" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>225</v>
       </c>
-      <c r="C4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
-      </c>
       <c r="C5" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="14.25">
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="14.25">
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14.25">
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="14.25">
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14.25">
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="14.25">
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="14.25">
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" ht="14.25">
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5" ht="14.25">
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" ht="14.25">
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" ht="14.25">
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" ht="14.25">
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5" ht="14.25">
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" ht="14.25">
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5" ht="14.25">
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:5" ht="14.25">
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:5" ht="14.25">
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:5" ht="14.25">
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:5" ht="14.25">
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:5" ht="14.25">
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:5" ht="14.25">
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:5" ht="14.25">
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:5" ht="14.25">
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:5" ht="14.25">
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:5" ht="14.25">
       <c r="E34" s="15"/>
     </row>
   </sheetData>
@@ -6929,14 +6959,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
@@ -6945,124 +6975,124 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="125.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="125.1" customHeight="1">
       <c r="A8" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="B8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="E8" s="10">
         <v>400</v>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{35607653-8F86-4F1E-BA8F-41181F63CF29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="4035" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -25,8 +26,8 @@
     <sheet name="WXAPP" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,11 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="449">
   <si>
     <t>POST</t>
   </si>
   <si>
+    <t>http://115.28.108.130:5000/api/user/login/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>{"name": "张三","password":"123456"}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -70,7 +75,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>test_user_login_normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>url</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_coment</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2022,7 +2035,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>","data":"{\"imgs\":[\"https:\\\/\\\/img.esenyun.com\\\/images\\\/20181106\\\/2c7f989894e3483f85517d34931ecc99.png\"]}","entityId":"5bdc0d898b2d81000199a464","cusId":"5bdc0d898b2d81000199a464","version":0,"sourceType":"APP_IOS","entityType":1}</t>
     </r>
@@ -2118,6 +2130,10 @@
   </si>
   <si>
     <t>test_task_delete</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_xiaobaiban_delete_common</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2265,19 +2281,46 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>test_xiaobaiban_delete_common</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_user_login_normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://115.28.108.130:5000/api/user/login/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_xiaobaiban_coment</t>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenbase/openapi/markers</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_markers</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"markerType":["TENANT","WORD"]}</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/delete-draft</t>
+  </si>
+  <si>
+    <t>test__approval_delete_draft</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/delete-approval</t>
+  </si>
+  <si>
+    <t>test__approval_delete_approval</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>test__approval_chehui</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/approval/esenapproval/openapi/undo-approval</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://workdesk.esenyun.com/apply/esenossaccount/openapi/trial/images/imagecode</t>
+  </si>
+  <si>
+    <t>test_account_imagecode</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2290,17 +2333,14 @@
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/create</t>
-  </si>
-  <si>
-    <t>POST</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2393,7 +2433,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2577,11 +2616,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
@@ -2893,23 +2932,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E41:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.75" customWidth="1"/>
@@ -2918,625 +2955,635 @@
     <col min="5" max="5" width="60.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>432</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>433</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E3" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="44.1" customHeight="1">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B12" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="33">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="54.95" customHeight="1">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="99">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E19" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="191.1" customHeight="1">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="191.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="16.5">
-      <c r="A21" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="B21" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="99">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E26" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="264">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="264" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="66">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E33" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="115.5">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="E35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E36" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="16.5">
-      <c r="A36" s="2"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="8"/>
       <c r="C45" s="2"/>
@@ -3546,14 +3593,14 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
-    <hyperlink ref="B33" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B34" r:id="rId6"/>
-    <hyperlink ref="B32" r:id="rId7"/>
-    <hyperlink ref="B2" r:id="rId8"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{30C5901A-BCEB-416B-9EDC-394B392A7873}"/>
+    <hyperlink ref="B33" r:id="rId2" xr:uid="{5A54E733-BAE4-48C0-A401-AFC875889B53}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{D5ADEA20-C61A-4C2C-A2B3-CCB9450E7319}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{7000B035-3C9A-4AF8-AD3D-76942E17E2C5}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{B81CFBC0-5816-4A07-B651-7947C2C55E2B}"/>
+    <hyperlink ref="B34" r:id="rId6" xr:uid="{6993D596-BC10-4688-AA40-B90B1889A920}"/>
+    <hyperlink ref="B32" r:id="rId7" xr:uid="{FB3B2490-328A-419B-A4FE-AFCFC8605E17}"/>
+    <hyperlink ref="B36" r:id="rId8" xr:uid="{9A1CB852-6E80-4A6E-BD63-0CEE0DBCE95F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -3561,105 +3608,105 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="110.5" customWidth="1"/>
     <col min="3" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="10">
@@ -3673,14 +3720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="110.5" customWidth="1"/>
@@ -3689,200 +3736,253 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
         <v>207</v>
       </c>
-      <c r="D2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" t="s">
-        <v>204</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32.1" customHeight="1">
+    <row r="9" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E9" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="189">
+    <row r="10" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E10" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E11" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" t="s">
+        <v>443</v>
+      </c>
+      <c r="E12" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="C13" t="s">
+        <v>443</v>
+      </c>
+      <c r="E13" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="24">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{46E6670A-2AC7-4BBE-AD17-97CB656EDFF0}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{119C7CE3-D486-43E8-A8C6-60D8444C4DF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
@@ -3891,83 +3991,83 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>310</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27">
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
         <v>317</v>
       </c>
-      <c r="C4" t="s">
-        <v>314</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -3981,14 +4081,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
@@ -3997,83 +4097,83 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" t="s">
         <v>324</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27">
-      <c r="A4" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E4" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" t="s">
-        <v>321</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4086,14 +4186,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="167.5" customWidth="1"/>
@@ -4102,314 +4202,314 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="69.95" customHeight="1">
+    <row r="5" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="89.25">
+    <row r="8" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E9" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:5" ht="14.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="4:4" ht="14.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="4:4" ht="14.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="4:4" ht="14.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="4:4" ht="14.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="4:4" ht="14.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="4:4" ht="14.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="4:4" ht="14.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="4:4" ht="14.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="4:4" ht="14.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="4:4" ht="14.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="4:4" ht="14.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="4:4" ht="14.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="4:4" ht="14.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="4:4" ht="14.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="4:4" ht="14.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="4:4" ht="14.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" s="18"/>
     </row>
-    <row r="33" spans="4:4" ht="14.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="18"/>
     </row>
-    <row r="34" spans="4:4" ht="14.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="18"/>
     </row>
-    <row r="35" spans="4:4" ht="14.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="18"/>
     </row>
-    <row r="36" spans="4:4" ht="14.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="18"/>
     </row>
-    <row r="37" spans="4:4" ht="14.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="18"/>
     </row>
-    <row r="38" spans="4:4" ht="14.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="18"/>
     </row>
-    <row r="39" spans="4:4" ht="14.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" s="18"/>
     </row>
-    <row r="40" spans="4:4" ht="14.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" s="18"/>
     </row>
-    <row r="41" spans="4:4" ht="14.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" s="18"/>
     </row>
-    <row r="42" spans="4:4" ht="14.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{B52FB003-FD32-4F45-8CE0-D61D478FB7BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="141.5" customWidth="1"/>
@@ -4418,395 +4518,395 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="C2" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.25">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>326</v>
-      </c>
       <c r="C23" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E23" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="39" customHeight="1">
+    <row r="24" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B24" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E24" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B25" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E25" s="24">
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.25">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B26" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E26" s="24">
         <v>200</v>
@@ -4819,14 +4919,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
@@ -4835,186 +4935,185 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27">
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E4" s="10">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D6" t="s">
         <v>346</v>
       </c>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D6" t="s">
-        <v>343</v>
-      </c>
       <c r="E6" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>341</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="127" customWidth="1"/>
@@ -5023,191 +5122,191 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E2" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>237</v>
-      </c>
       <c r="B3" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27">
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E4" s="10">
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
         <v>261</v>
       </c>
-      <c r="B5" t="s">
-        <v>258</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E6" s="10">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:5" ht="14.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:5" ht="14.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:5" ht="14.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:5" ht="14.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:5" ht="14.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:5" ht="14.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:5" ht="14.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="4:4" ht="14.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="4:4" ht="14.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="4:4" ht="14.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="4:4" ht="14.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="4:4" ht="14.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="4:4" ht="14.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="4:4" ht="14.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="4:4" ht="14.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="4:4" ht="14.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="4:4" ht="14.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="4:4" ht="14.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="4:4" ht="14.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="4:4" ht="14.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="4:4" ht="14.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="4:4" ht="14.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="4:4" ht="14.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" s="18"/>
     </row>
-    <row r="33" spans="4:4" ht="14.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="18"/>
     </row>
-    <row r="34" spans="4:4" ht="14.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="18"/>
     </row>
-    <row r="35" spans="4:4" ht="14.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="18"/>
     </row>
   </sheetData>
@@ -5218,14 +5317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="115.125" customWidth="1"/>
@@ -5234,214 +5333,226 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="B5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="38.25">
+    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.5">
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E8" s="10">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25">
+      <c r="E9" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:5" ht="14.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:5" ht="14.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:5" ht="14.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:5" ht="14.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="4:4" ht="14.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="4:4" ht="14.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="4:4" ht="14.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="4:4" ht="14.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="4:4" ht="14.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="4:4" ht="14.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="4:4" ht="14.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="4:4" ht="14.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="4:4" ht="14.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="4:4" ht="14.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="4:4" ht="14.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="4:4" ht="14.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="4:4" ht="14.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="4:4" ht="14.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="4:4" ht="14.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="4:4" ht="14.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" s="18"/>
     </row>
-    <row r="33" spans="4:4" ht="14.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="18"/>
     </row>
-    <row r="34" spans="4:4" ht="14.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="18"/>
     </row>
-    <row r="35" spans="4:4" ht="14.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="18"/>
     </row>
   </sheetData>
@@ -5452,14 +5563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="115.125" customWidth="1"/>
@@ -5468,356 +5579,356 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" ht="21.95" customHeight="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="165" customHeight="1">
+    <row r="3" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>274</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="140.25">
+    <row r="5" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E5" s="21">
         <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" t="s">
         <v>284</v>
-      </c>
-      <c r="B6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" t="s">
-        <v>281</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="71.099999999999994" customHeight="1">
+    <row r="11" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E11" s="10">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E12" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="102">
+    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E13" s="10">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D14" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E14" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25">
-      <c r="A15" s="8" t="s">
-        <v>306</v>
-      </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E15" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B16" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C16" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="145.5" customHeight="1">
+    <row r="17" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E17" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="76.5">
+    <row r="18" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E18" s="10">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C19" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="1:5" ht="14.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:5" ht="14.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="1:5" ht="14.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="1:5" ht="14.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="14.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="14.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="14.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="14.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="14.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B17" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{CC3915FE-AE1F-47F9-BF54-D14A2C35049F}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{F66AEA04-533E-4556-B8EF-64F7609FE89C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5825,14 +5936,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="167.5" customWidth="1"/>
@@ -5841,122 +5952,122 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="1:5" ht="14.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:5" ht="14.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:5" ht="14.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:5" ht="14.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:5" ht="14.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:5" ht="14.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:5" ht="14.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:5" ht="14.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="4:4" ht="14.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="4:4" ht="14.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="4:4" ht="14.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="4:4" ht="14.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="4:4" ht="14.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="4:4" ht="14.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="4:4" ht="14.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="4:4" ht="14.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="4:4" ht="14.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="4:4" ht="14.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="4:4" ht="14.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="4:4" ht="14.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="4:4" ht="14.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="4:4" ht="14.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="4:4" ht="14.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" s="18"/>
     </row>
   </sheetData>
@@ -5966,14 +6077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="126.875" customWidth="1"/>
@@ -5982,458 +6093,458 @@
     <col min="5" max="5" width="60.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="149.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="44.1" customHeight="1">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B14" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="E13" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5">
-      <c r="A14" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E14" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5">
-      <c r="A15" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>406</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="8"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="2"/>
@@ -6443,14 +6554,14 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
-    <hyperlink ref="B10" r:id="rId3"/>
-    <hyperlink ref="B13" r:id="rId4"/>
-    <hyperlink ref="B14" r:id="rId5"/>
-    <hyperlink ref="B15" r:id="rId6"/>
-    <hyperlink ref="B16" r:id="rId7"/>
-    <hyperlink ref="B17" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{7809E279-F02A-40C1-AB2D-E61AF4F798DD}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{0D194A37-E911-4189-A8FC-60FE3F16DFFD}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{9437B672-B25D-465B-83A0-862CCF3ECFCF}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{1CBE5935-F9DC-4F39-9021-3D2579D723A1}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{C873E813-C583-4631-BF09-03EB61041328}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{41D0CA70-A3FA-4DC2-8449-FBB454F504A9}"/>
+    <hyperlink ref="B16" r:id="rId7" xr:uid="{894D2278-B6FA-4D74-AD4E-C9C3D9DC59F3}"/>
+    <hyperlink ref="B17" r:id="rId8" xr:uid="{E673A82D-A9A2-4EB1-A122-E86CF8C66408}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -6458,14 +6569,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.875" customWidth="1"/>
     <col min="2" max="2" width="105.875" customWidth="1"/>
@@ -6473,270 +6584,270 @@
     <col min="5" max="5" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1">
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1">
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1">
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1">
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E11" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -6751,205 +6862,205 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="141.5" customWidth="1"/>
     <col min="3" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="17.25">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="54">
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E4" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" ht="14.25">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" ht="14.25">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" ht="14.25">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="14.25">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="14.25">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="5:5" ht="14.25">
+    <row r="17" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="5:5" ht="14.25">
+    <row r="18" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="5:5" ht="14.25">
+    <row r="19" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="5:5" ht="14.25">
+    <row r="20" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="5:5" ht="14.25">
+    <row r="21" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="5:5" ht="14.25">
+    <row r="22" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="5:5" ht="14.25">
+    <row r="23" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="5:5" ht="14.25">
+    <row r="24" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="5:5" ht="14.25">
+    <row r="25" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="5:5" ht="14.25">
+    <row r="26" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="5:5" ht="14.25">
+    <row r="27" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="5:5" ht="14.25">
+    <row r="28" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="5:5" ht="14.25">
+    <row r="29" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="5:5" ht="14.25">
+    <row r="30" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="5:5" ht="14.25">
+    <row r="31" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="5:5" ht="14.25">
+    <row r="32" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="5:5" ht="14.25">
+    <row r="33" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="5:5" ht="14.25">
+    <row r="34" spans="5:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="E34" s="15"/>
     </row>
   </sheetData>
@@ -6959,14 +7070,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="117" customWidth="1"/>
@@ -6975,124 +7086,124 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="125.1" customHeight="1">
+    <row r="8" spans="1:5" ht="125.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E8" s="10">
         <v>400</v>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{35607653-8F86-4F1E-BA8F-41181F63CF29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{97DF27E8-E2EB-46A2-8AFD-B25D626841CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37005" yWindow="4035" windowWidth="27060" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -1083,9 +1083,6 @@
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenuaa/openapi/account/reset_password/init/mobile</t>
-  </si>
-  <si>
-    <t>mobile=15921879033</t>
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/esenuaa/openapi/account/reset_password/verify/pin</t>
@@ -2333,6 +2330,10 @@
   </si>
   <si>
     <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/create</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile=15921879033</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2942,7 +2943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -3000,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E3" s="3">
         <v>201</v>
@@ -3011,7 +3012,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -3026,7 +3027,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -3041,7 +3042,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -3056,7 +3057,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -3071,13 +3072,13 @@
         <v>19</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -3088,7 +3089,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -3103,7 +3104,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -3156,7 +3157,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -3252,7 +3253,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E19" s="3">
         <v>201</v>
@@ -3327,7 +3328,7 @@
         <v>80</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -3386,10 +3387,10 @@
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>33</v>
@@ -3401,13 +3402,13 @@
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
@@ -3416,10 +3417,10 @@
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -3431,10 +3432,10 @@
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -3446,16 +3447,16 @@
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="264" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
@@ -3463,16 +3464,16 @@
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E33" s="3">
         <v>201</v>
@@ -3480,10 +3481,10 @@
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -3495,16 +3496,16 @@
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
@@ -3512,16 +3513,16 @@
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E36" s="3">
         <v>201</v>
@@ -3861,7 +3862,7 @@
         <v>220</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -3886,13 +3887,13 @@
     </row>
     <row r="10" spans="1:5" ht="171" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
         <v>235</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E10" s="15">
         <v>200</v>
@@ -3900,10 +3901,10 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -3914,13 +3915,13 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" t="s">
         <v>441</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>442</v>
-      </c>
-      <c r="C12" t="s">
-        <v>443</v>
       </c>
       <c r="E12" s="15">
         <v>200</v>
@@ -3929,7 +3930,7 @@
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="C13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E13" s="15">
         <v>200</v>
@@ -3937,10 +3938,10 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3951,10 +3952,10 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -4010,16 +4011,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>313</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>314</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -4027,16 +4028,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>318</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -4044,16 +4045,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="B4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -4061,13 +4062,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" t="s">
         <v>323</v>
-      </c>
-      <c r="C5" t="s">
-        <v>324</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4116,16 +4117,16 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -4133,16 +4134,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>318</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -4150,16 +4151,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="B4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="E4" s="10">
         <v>200</v>
@@ -4167,13 +4168,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" t="s">
         <v>323</v>
-      </c>
-      <c r="C5" t="s">
-        <v>324</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -4268,7 +4269,7 @@
         <v>184</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>169</v>
@@ -4365,10 +4366,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>12</v>
@@ -4380,10 +4381,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>12</v>
@@ -4395,10 +4396,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="10">
@@ -4852,16 +4853,16 @@
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E23" s="15">
         <v>200</v>
@@ -4869,16 +4870,16 @@
     </row>
     <row r="24" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="B24" t="s">
+        <v>358</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="B24" t="s">
-        <v>359</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>361</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>362</v>
       </c>
       <c r="E24" s="15">
         <v>200</v>
@@ -4886,10 +4887,10 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>18</v>
@@ -4900,10 +4901,10 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>12</v>
@@ -4954,13 +4955,13 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10">
@@ -4969,16 +4970,16 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>336</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -4986,16 +4987,16 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>339</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>340</v>
       </c>
       <c r="E4" s="10">
         <v>400</v>
@@ -5003,13 +5004,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="E5" s="10">
         <v>200</v>
@@ -5017,16 +5018,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" t="s">
         <v>345</v>
-      </c>
-      <c r="D6" t="s">
-        <v>346</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
@@ -5034,16 +5035,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" t="s">
         <v>345</v>
-      </c>
-      <c r="D7" t="s">
-        <v>346</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -5051,13 +5052,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E8" s="10">
         <v>200</v>
@@ -5321,7 +5322,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5329,7 +5330,7 @@
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="115.125" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="4" max="4" width="47.75" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5430,7 +5431,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
         <v>269</v>
@@ -5439,7 +5440,7 @@
         <v>252</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>270</v>
+        <v>448</v>
       </c>
       <c r="E7" s="10">
         <v>200</v>
@@ -5447,16 +5448,16 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>252</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E8" s="10">
         <v>400</v>
@@ -5464,10 +5465,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>18</v>
@@ -5566,7 +5567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -5596,21 +5597,21 @@
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="E2" s="10">
         <v>200</v>
@@ -5618,16 +5619,16 @@
     </row>
     <row r="3" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" t="s">
         <v>279</v>
       </c>
-      <c r="B3" t="s">
-        <v>280</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E3" s="10">
         <v>200</v>
@@ -5635,13 +5636,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="10">
@@ -5650,33 +5651,33 @@
     </row>
     <row r="5" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E5" s="21">
         <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -5685,13 +5686,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -5700,13 +5701,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -5715,13 +5716,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="10">
@@ -5730,16 +5731,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E10" s="10">
         <v>200</v>
@@ -5747,16 +5748,16 @@
     </row>
     <row r="11" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E11" s="10">
         <v>201</v>
@@ -5764,16 +5765,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>278</v>
       </c>
       <c r="E12" s="10">
         <v>200</v>
@@ -5781,16 +5782,16 @@
     </row>
     <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>305</v>
-      </c>
-      <c r="B13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>306</v>
       </c>
       <c r="E13" s="10">
         <v>201</v>
@@ -5798,16 +5799,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E14" s="10">
         <v>200</v>
@@ -5815,16 +5816,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" t="s">
         <v>309</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>310</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="18" t="s">
         <v>311</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>312</v>
       </c>
       <c r="E15" s="10">
         <v>200</v>
@@ -5832,13 +5833,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" t="s">
         <v>376</v>
-      </c>
-      <c r="B16" t="s">
-        <v>375</v>
-      </c>
-      <c r="C16" t="s">
-        <v>377</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -5847,16 +5848,16 @@
     </row>
     <row r="17" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E17" s="10">
         <v>200</v>
@@ -5864,16 +5865,16 @@
     </row>
     <row r="18" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>383</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E18" s="10">
         <v>201</v>
@@ -5881,13 +5882,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19" t="s">
         <v>430</v>
-      </c>
-      <c r="B19" t="s">
-        <v>429</v>
-      </c>
-      <c r="C19" t="s">
-        <v>431</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="10">
@@ -6252,7 +6253,7 @@
         <v>91</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -6264,13 +6265,13 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -6279,16 +6280,16 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -6296,16 +6297,16 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -6313,16 +6314,16 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -6330,16 +6331,16 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -6347,16 +6348,16 @@
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -6776,13 +6777,13 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -6791,10 +6792,10 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -6806,10 +6807,10 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -1885,7 +1885,12 @@
     <t>https://wxapp.esenyun.com/esenfeedback/openapi/wxa/search?page=0&amp;size=10</t>
   </si>
   <si>
-    <t>{"openId":"oJo0A5RoItIWYfIujWAU3u35t1RQ","status":null,"say":""}</t>
+    <t>{
+  "say": null,
+  "mark": null,
+  "status": null,
+  "tags": []
+}</t>
   </si>
   <si>
     <t>test_wxapp_subscribe</t>
@@ -1927,11 +1932,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1979,10 +1984,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1993,108 +2004,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2116,6 +2026,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2124,9 +2064,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2153,13 +2146,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2171,67 +2242,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2249,19 +2266,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2273,31 +2284,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2309,25 +2320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2342,16 +2335,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2363,6 +2365,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2385,223 +2417,187 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2613,13 +2609,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2632,31 +2628,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -2666,49 +2656,50 @@
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
     <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="注释" xfId="12" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="13" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="15" builtinId="11"/>
-    <cellStyle name="标题" xfId="16" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="17" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="18" builtinId="16"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="19"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="49"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 3" xfId="51"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="20"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="51"/>
+    <cellStyle name="常规 3" xfId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3009,623 +3000,623 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A2" s="20" t="s">
+    <row r="2" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="1" ht="132" spans="1:5">
-      <c r="A3" s="20" t="s">
+    <row r="3" s="18" customFormat="1" ht="132" spans="1:5">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>201</v>
       </c>
     </row>
-    <row r="4" s="19" customFormat="1" ht="44.1" customHeight="1" spans="1:5">
-      <c r="A4" s="20" t="s">
+    <row r="4" s="18" customFormat="1" ht="44.1" customHeight="1" spans="1:5">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" s="19" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A5" s="20" t="s">
+      <c r="C4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A6" s="20" t="s">
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A7" s="20" t="s">
+      <c r="C6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="C7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" s="18" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A9" s="20" t="s">
+      <c r="E8" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A10" s="20" t="s">
+      <c r="C9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" s="19" customFormat="1" ht="77.1" customHeight="1" spans="1:5">
-      <c r="A11" s="20" t="s">
+      <c r="C10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" s="18" customFormat="1" ht="77.1" customHeight="1" spans="1:5">
+      <c r="A11" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A12" s="20" t="s">
+      <c r="E11" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A12" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" s="19" customFormat="1" ht="33" spans="1:5">
-      <c r="A13" s="20" t="s">
+      <c r="C12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" s="18" customFormat="1" ht="33" spans="1:5">
+      <c r="A13" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A14" s="20" t="s">
+      <c r="E13" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A14" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A15" s="20" t="s">
+      <c r="C14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" s="19" customFormat="1" ht="54.95" customHeight="1" spans="1:5">
-      <c r="A16" s="20" t="s">
+      <c r="C15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" s="18" customFormat="1" ht="54.95" customHeight="1" spans="1:5">
+      <c r="A16" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" s="19" customFormat="1" ht="114" customHeight="1" spans="1:5">
-      <c r="A17" s="20" t="s">
+      <c r="E16" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" s="18" customFormat="1" ht="114" customHeight="1" spans="1:5">
+      <c r="A17" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A18" s="20" t="s">
+      <c r="E17" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" s="19" customFormat="1" ht="99" spans="1:5">
-      <c r="A19" s="20" t="s">
+      <c r="C18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" s="18" customFormat="1" ht="99" spans="1:5">
+      <c r="A19" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>201</v>
       </c>
     </row>
-    <row r="20" s="19" customFormat="1" ht="191.1" customHeight="1" spans="1:5">
-      <c r="A20" s="20" t="s">
+    <row r="20" s="18" customFormat="1" ht="191.1" customHeight="1" spans="1:5">
+      <c r="A20" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A21" s="20" t="s">
+      <c r="E20" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A21" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A22" s="20" t="s">
+      <c r="E21" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A22" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A23" s="20" t="s">
+      <c r="C22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A23" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A24" s="20" t="s">
+      <c r="C23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A24" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A25" s="20" t="s">
+      <c r="C24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A25" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" s="19" customFormat="1" ht="99" spans="1:5">
-      <c r="A26" s="20" t="s">
+      <c r="C25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" s="18" customFormat="1" ht="99" spans="1:5">
+      <c r="A26" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>201</v>
       </c>
     </row>
-    <row r="27" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A27" s="20" t="s">
+    <row r="27" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A27" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A28" s="20" t="s">
+      <c r="C27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A28" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A29" s="20" t="s">
+      <c r="C28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A29" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A30" s="20" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A30" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A31" s="20" t="s">
+      <c r="C30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A31" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" s="19" customFormat="1" ht="264" spans="1:5">
-      <c r="A32" s="20" t="s">
+      <c r="C31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" s="18" customFormat="1" ht="264" spans="1:5">
+      <c r="A32" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="21" t="s">
+      <c r="C32" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" s="19" customFormat="1" ht="66" spans="1:5">
-      <c r="A33" s="20" t="s">
+      <c r="E32" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" s="18" customFormat="1" ht="66" spans="1:5">
+      <c r="A33" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="21" t="s">
+      <c r="C33" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>201</v>
       </c>
     </row>
-    <row r="34" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A34" s="20" t="s">
+    <row r="34" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A34" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A35" s="20" t="s">
+      <c r="C34" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A35" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="21" t="s">
+      <c r="C35" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" s="19" customFormat="1" ht="99" spans="1:5">
-      <c r="A36" s="20" t="s">
+      <c r="E35" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" s="18" customFormat="1" ht="99" spans="1:5">
+      <c r="A36" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="21" t="s">
+      <c r="C36" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>201</v>
       </c>
     </row>
-    <row r="37" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A37" s="20"/>
+    <row r="37" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A37" s="19"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A38" s="20"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A38" s="19"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A39" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A39" s="19"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A40" s="20"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A40" s="19"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A41" s="20"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A41" s="19"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A42" s="20"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A42" s="19"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A43" s="20"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A43" s="19"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A44" s="20"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A44" s="19"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A45" s="20"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A45" s="19"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4309,13 +4300,13 @@
       <c r="A5" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>326</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>327</v>
       </c>
       <c r="E5" s="7">
@@ -4332,7 +4323,7 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>327</v>
       </c>
       <c r="E6" s="7">
@@ -4349,7 +4340,7 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="7">
         <v>200</v>
       </c>
@@ -4364,7 +4355,7 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>334</v>
       </c>
       <c r="E8" s="7">
@@ -4381,7 +4372,7 @@
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>337</v>
       </c>
       <c r="E9" s="7">
@@ -4398,7 +4389,7 @@
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>340</v>
       </c>
       <c r="E10" s="7">
@@ -4415,7 +4406,7 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="7">
         <v>200</v>
       </c>
@@ -4430,7 +4421,7 @@
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="7">
         <v>200</v>
       </c>
@@ -4442,97 +4433,97 @@
       <c r="B13" t="s">
         <v>346</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="18"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="18"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="18"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="18"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="18"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="18"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="18"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="18"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="18"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="18"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="18"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="18"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="18"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="18"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="18"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="18"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="18"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="18"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="18"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="18"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="18"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="18"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="18"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="18"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="18"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="18"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="18"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="18"/>
+      <c r="D42" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4993,7 +4984,7 @@
       <c r="A29" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="8" t="s">
         <v>403</v>
       </c>
       <c r="D29" s="15"/>
@@ -5091,8 +5082,8 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -5385,7 +5376,7 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E6" s="7">
@@ -5393,91 +5384,91 @@
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="18"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="18"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="18"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="18"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="18"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="18"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="18"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="18"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="18"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="18"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="18"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="18"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="18"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="18"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="18"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="18"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="18"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="18"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="18"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="18"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="18"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="18"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="18"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="18"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="18"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="18"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="18"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="18"/>
+      <c r="D35" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5562,7 +5553,7 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="7">
         <v>200</v>
       </c>
@@ -5577,7 +5568,7 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="7">
         <v>200</v>
       </c>
@@ -5592,7 +5583,7 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>114</v>
       </c>
       <c r="E6" s="7">
@@ -5609,7 +5600,7 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>117</v>
       </c>
       <c r="E7" s="7">
@@ -5626,7 +5617,7 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>120</v>
       </c>
       <c r="E8" s="7">
@@ -5643,88 +5634,88 @@
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="18"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="18"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="18"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="18"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="18"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="18"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="18"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="18"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="18"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="18"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="18"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="18"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="18"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="18"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="18"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="18"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="18"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="18"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="18"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="18"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="18"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="18"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="18"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="18"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="18"/>
+      <c r="D35" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5798,7 +5789,7 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>128</v>
       </c>
       <c r="E3" s="7">
@@ -5815,7 +5806,7 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="7">
         <v>200</v>
       </c>
@@ -5830,10 +5821,10 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>400</v>
       </c>
       <c r="F5" t="s">
@@ -5850,7 +5841,7 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="7">
         <v>200</v>
       </c>
@@ -5865,7 +5856,7 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="7">
         <v>200</v>
       </c>
@@ -5880,7 +5871,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="7">
         <v>200</v>
       </c>
@@ -5895,7 +5886,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="7">
         <v>200</v>
       </c>
@@ -5910,7 +5901,7 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="7">
@@ -5927,7 +5918,7 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>147</v>
       </c>
       <c r="E11" s="7">
@@ -5944,7 +5935,7 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="7">
@@ -5961,7 +5952,7 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>152</v>
       </c>
       <c r="E13" s="7">
@@ -5978,7 +5969,7 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="7">
@@ -5995,7 +5986,7 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="7">
@@ -6012,7 +6003,7 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="7">
         <v>200</v>
       </c>
@@ -6027,7 +6018,7 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E17" s="7">
@@ -6044,7 +6035,7 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>163</v>
       </c>
       <c r="E18" s="7">
@@ -6061,40 +6052,40 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="18"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="18"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="18"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="18"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="18"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="18"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="18"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="18"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="18"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="18"/>
+      <c r="D29" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6157,91 +6148,91 @@
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="18"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="18"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="18"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="18"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="18"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="18"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="18"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="18"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="18"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="18"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="18"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="18"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="18"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="18"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="18"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="18"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="18"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="18"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="18"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="18"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="18"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="18"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="18"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="18"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="18"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="18"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="18"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="18"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6254,7 +6245,7 @@
   <sheetPr/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -6284,462 +6275,462 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="149.1" customHeight="1" spans="1:5">
-      <c r="A2" s="20" t="s">
+    <row r="2" s="18" customFormat="1" ht="149.1" customHeight="1" spans="1:5">
+      <c r="A2" s="19" t="s">
         <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" s="19" customFormat="1" ht="44.1" customHeight="1" spans="1:5">
-      <c r="A3" s="20" t="s">
+      <c r="C2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="44.1" customHeight="1" spans="1:5">
+      <c r="A3" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" s="19" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A4" s="20" t="s">
+      <c r="C3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" s="18" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="19" t="s">
         <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A5" s="20" t="s">
+      <c r="C4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A5" s="19" t="s">
         <v>174</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A6" s="20" t="s">
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A6" s="19" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A7" s="20" t="s">
+      <c r="C6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" s="18" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A7" s="19" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>201</v>
       </c>
     </row>
-    <row r="8" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A8" s="20" t="s">
+    <row r="8" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A8" s="19" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A9" s="20" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A9" s="19" t="s">
         <v>184</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" s="19" customFormat="1" ht="77.1" customHeight="1" spans="1:5">
-      <c r="A10" s="20" t="s">
+      <c r="C9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" s="18" customFormat="1" ht="77.1" customHeight="1" spans="1:5">
+      <c r="A10" s="19" t="s">
         <v>186</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A11" s="20" t="s">
+      <c r="C10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A11" s="19" t="s">
         <v>188</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A12" s="20" t="s">
+      <c r="C11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A12" s="19" t="s">
         <v>190</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20">
         <v>201</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A13" s="20" t="s">
+    <row r="13" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A13" s="19" t="s">
         <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A14" s="20" t="s">
+      <c r="E13" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A14" s="19" t="s">
         <v>196</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A15" s="20" t="s">
+      <c r="E14" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A15" s="19" t="s">
         <v>198</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A16" s="20" t="s">
+      <c r="E15" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A16" s="19" t="s">
         <v>200</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" s="19" customFormat="1" ht="33" spans="1:5">
-      <c r="A17" s="20" t="s">
+      <c r="E16" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" s="18" customFormat="1" ht="33" spans="1:5">
+      <c r="A17" s="19" t="s">
         <v>202</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A18" s="20" t="s">
+      <c r="E17" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A18" s="19" t="s">
         <v>204</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" s="19" customFormat="1" ht="49.5" spans="1:5">
-      <c r="A19" s="20" t="s">
+      <c r="C18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" s="18" customFormat="1" ht="49.5" spans="1:5">
+      <c r="A19" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E19" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A20" s="20"/>
+      <c r="E19" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A20" s="19"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-    </row>
-    <row r="21" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A21" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A21" s="19"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A22" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A22" s="19"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A23" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A23" s="19"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-    </row>
-    <row r="24" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A24" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A24" s="19"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A25" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A25" s="19"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-    </row>
-    <row r="26" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A26" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A26" s="19"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A27" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A27" s="19"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A28" s="20"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A28" s="19"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A29" s="20"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A29" s="19"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A30" s="20"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A30" s="19"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A31" s="20"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A31" s="19"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A32" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A32" s="19"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A33" s="20"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A33" s="19"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-    </row>
-    <row r="34" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A34" s="20"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A34" s="19"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-    </row>
-    <row r="35" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A35" s="20"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A35" s="19"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-    </row>
-    <row r="36" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A36" s="20"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A36" s="19"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A37" s="20"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A37" s="19"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A38" s="20"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A38" s="19"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A39" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A39" s="19"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A40" s="20"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A40" s="19"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A41" s="20"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A41" s="19"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A42" s="20"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A42" s="19"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A43" s="20"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A43" s="19"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" s="19" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A44" s="20"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" s="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A44" s="19"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6937,7 +6928,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="12" s="18" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>230</v>
       </c>
@@ -6952,93 +6943,93 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A13" s="20" t="s">
+    <row r="13" s="18" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A13" s="19" t="s">
         <v>232</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="21"/>
+      <c r="C13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="20"/>
       <c r="E13" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="14" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="14" s="18" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="C14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" s="18" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="C15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" s="18" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A17" s="20"/>
+      <c r="C16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" s="18" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A17" s="19"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A18" s="20"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" s="18" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A18" s="19"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A19" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" s="18" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A19" s="19"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A20" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" s="18" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A20" s="19"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8"/>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="15"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438">
   <si>
     <t>case_name</t>
   </si>
@@ -1696,6 +1696,12 @@
     <t>https://gateway.workdesk.esenyun.com:9091/esengtp/openapi/group-home-page</t>
   </si>
   <si>
+    <t>test_group-dashboard</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/get-group-data/1/7</t>
+  </si>
+  <si>
     <t>test_user_geren_baseinfo</t>
   </si>
   <si>
@@ -1871,6 +1877,102 @@
   </si>
   <si>
     <t>test_user_cache</t>
+  </si>
+  <si>
+    <t>test_user_jieshao_save</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/personal/personalprofile/openapi/user-profile/save</t>
+  </si>
+  <si>
+    <t>{
+  "userId": "8a9d3ed0609d0e200160f7a3dcae0003",
+  "gender": null,
+  "birthday": null,
+  "constellation": null,
+  "introduction": "搬砖的",
+  "nativePlace": null,
+  "nationality": null
+}</t>
+  </si>
+  <si>
+    <t>test_user_Tag_create</t>
+  </si>
+  <si>
+    <t>[
+  "测试"
+]</t>
+  </si>
+  <si>
+    <t>test_user_background_switch</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/personalprofile/openapi/user-profile/profile/savebackground?userId=8a9d3ed0609d0e200160f7a3dcae0003</t>
+  </si>
+  <si>
+    <t>{"bg":"http:\/\/img.esenyun.com\/images\/20180124\/d26b761b6f25483b8ffea677d6e0d0e0.png"}</t>
+  </si>
+  <si>
+    <t>test_use_language_flag</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/create-flag/Language</t>
+  </si>
+  <si>
+    <t>test_use_language_init</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self/create-init/Language</t>
+  </si>
+  <si>
+    <t>test_use_language_add</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self</t>
+  </si>
+  <si>
+    <t>{
+  "entityType": "Language",
+  "baseInfoSelfItems": [
+    {
+      "id": 1094,
+      "entityOwner": "语言",
+      "name": "name",
+      "displayName": "语种",
+      "visible": true,
+      "editable": true,
+      "editConfirm": false,
+      "value": "法语",
+      "type": "String",
+      "nullable": false,
+      "sizeMax": -1,
+      "defaultValue": null,
+      "entityType": "Language",
+      "dictionaries": [],
+      "location": null,
+      "isShow": false
+    },
+    {
+      "id": 1095,
+      "entityOwner": "语言",
+      "name": "grade",
+      "displayName": "等级",
+      "visible": true,
+      "editable": true,
+      "editConfirm": false,
+      "value": "100000",
+      "type": "String",
+      "nullable": null,
+      "sizeMax": -1,
+      "defaultValue": null,
+      "entityType": "Language",
+      "dictionaries": [],
+      "location": null,
+      "isShow": false
+    }
+  ],
+  "id": null
+}</t>
   </si>
   <si>
     <t>test_wxapp_sns</t>
@@ -1931,10 +2033,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1970,29 +2072,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2004,7 +2094,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2012,14 +2102,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2034,15 +2131,73 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2058,53 +2213,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2115,13 +2224,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2146,6 +2248,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2158,13 +2284,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2182,145 +2422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2331,6 +2433,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2352,34 +2513,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2398,49 +2533,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2452,132 +2554,132 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2628,8 +2730,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2639,7 +2743,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3754,7 +3858,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4222,15 +4326,15 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="167.5" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="32.125" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
@@ -4296,150 +4400,165 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" ht="69.95" customHeight="1" spans="1:5">
+    <row r="5" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="2" t="s">
         <v>326</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="6" ht="51" customHeight="1" spans="1:5">
+    <row r="6" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>329</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="8" ht="89.25" spans="1:5">
+    <row r="8" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>333</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="2" t="s">
         <v>334</v>
       </c>
       <c r="E8" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="9" ht="51" spans="1:5">
+    <row r="9" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>336</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="2" t="s">
         <v>337</v>
       </c>
       <c r="E9" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>339</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="2" t="s">
         <v>340</v>
       </c>
       <c r="E10" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>344</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="17"/>
+      <c r="E14" s="7">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="17"/>
@@ -4537,10 +4656,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4571,10 +4690,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>15</v>
@@ -4586,10 +4705,10 @@
     </row>
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>15</v>
@@ -4601,10 +4720,10 @@
     </row>
     <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>15</v>
@@ -4616,7 +4735,7 @@
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>65</v>
@@ -4631,10 +4750,10 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>15</v>
@@ -4646,10 +4765,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>15</v>
@@ -4661,10 +4780,10 @@
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>15</v>
@@ -4676,10 +4795,10 @@
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>15</v>
@@ -4691,10 +4810,10 @@
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>15</v>
@@ -4706,10 +4825,10 @@
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>15</v>
@@ -4721,10 +4840,10 @@
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="12" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
@@ -4736,10 +4855,10 @@
     </row>
     <row r="13" ht="15.75" spans="1:5">
       <c r="A13" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>15</v>
@@ -4751,10 +4870,10 @@
     </row>
     <row r="14" ht="15.75" spans="1:5">
       <c r="A14" s="12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>15</v>
@@ -4766,10 +4885,10 @@
     </row>
     <row r="15" ht="15.75" spans="1:5">
       <c r="A15" s="12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>15</v>
@@ -4781,10 +4900,10 @@
     </row>
     <row r="16" ht="15.75" spans="1:5">
       <c r="A16" s="12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>15</v>
@@ -4796,10 +4915,10 @@
     </row>
     <row r="17" ht="15.75" spans="1:5">
       <c r="A17" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>15</v>
@@ -4811,10 +4930,10 @@
     </row>
     <row r="18" ht="15.75" spans="1:5">
       <c r="A18" s="12" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>15</v>
@@ -4826,10 +4945,10 @@
     </row>
     <row r="19" ht="15.75" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>15</v>
@@ -4841,10 +4960,10 @@
     </row>
     <row r="20" ht="15.75" spans="1:5">
       <c r="A20" s="12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B20" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>15</v>
@@ -4856,10 +4975,10 @@
     </row>
     <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>15</v>
@@ -4871,10 +4990,10 @@
     </row>
     <row r="22" ht="15.75" spans="1:5">
       <c r="A22" s="12" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B22" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>15</v>
@@ -4886,16 +5005,16 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A23" s="12" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E23" s="13">
         <v>200</v>
@@ -4903,16 +5022,16 @@
     </row>
     <row r="24" customFormat="1" ht="39" customHeight="1" spans="1:5">
       <c r="A24" s="12" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B24" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E24" s="13">
         <v>200</v>
@@ -4920,16 +5039,16 @@
     </row>
     <row r="25" ht="39" customHeight="1" spans="1:5">
       <c r="A25" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25" t="s">
         <v>393</v>
       </c>
-      <c r="B25" t="s">
-        <v>391</v>
-      </c>
       <c r="C25" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E25" s="13">
         <v>200</v>
@@ -4937,10 +5056,10 @@
     </row>
     <row r="26" ht="15.75" spans="1:5">
       <c r="A26" s="12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B26" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>7</v>
@@ -4951,10 +5070,10 @@
     </row>
     <row r="27" ht="15.75" spans="1:5">
       <c r="A27" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -4965,16 +5084,16 @@
     </row>
     <row r="28" ht="47.25" spans="1:5">
       <c r="A28" s="12" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B28" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E28" s="13">
         <v>200</v>
@@ -4982,10 +5101,13 @@
     </row>
     <row r="29" ht="28.5" spans="1:5">
       <c r="A29" s="12" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>403</v>
+        <v>405</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="13">
@@ -4994,10 +5116,10 @@
     </row>
     <row r="30" ht="15.75" spans="1:5">
       <c r="A30" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -5007,71 +5129,173 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="4:5">
-      <c r="D31" s="15"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" ht="15.75" spans="4:5">
-      <c r="D32" s="15"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" ht="15.75" spans="4:5">
-      <c r="D33" s="15"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" ht="15.75" spans="4:5">
+    <row r="31" ht="27" customHeight="1" spans="1:5">
+      <c r="A31" t="s">
+        <v>407</v>
+      </c>
+      <c r="B31" t="s">
+        <v>408</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="E31" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" ht="27" customHeight="1" spans="1:5">
+      <c r="A32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="E32" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" ht="27" customHeight="1" spans="1:5">
+      <c r="A33" t="s">
+        <v>412</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E33" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" ht="27" customHeight="1" spans="1:5">
+      <c r="A34" t="s">
+        <v>415</v>
+      </c>
+      <c r="B34" t="s">
+        <v>416</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
       <c r="D34" s="15"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" ht="15.75" spans="4:5">
+      <c r="E34" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" ht="27" customHeight="1" spans="1:5">
+      <c r="A35" t="s">
+        <v>417</v>
+      </c>
+      <c r="B35" t="s">
+        <v>418</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
       <c r="D35" s="15"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" ht="15.75" spans="4:5">
-      <c r="D36" s="15"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" ht="15.75" spans="4:5">
+      <c r="E35" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" ht="27" customHeight="1" spans="1:5">
+      <c r="A36" t="s">
+        <v>419</v>
+      </c>
+      <c r="B36" t="s">
+        <v>420</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E36" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" ht="27" customHeight="1" spans="4:5">
       <c r="D37" s="15"/>
       <c r="E37" s="13"/>
     </row>
-    <row r="38" ht="15.75" spans="4:5">
+    <row r="38" ht="27" customHeight="1" spans="4:5">
       <c r="D38" s="15"/>
       <c r="E38" s="13"/>
     </row>
-    <row r="39" ht="15.75" spans="4:5">
+    <row r="39" ht="27" customHeight="1" spans="4:5">
       <c r="D39" s="15"/>
       <c r="E39" s="13"/>
     </row>
-    <row r="40" ht="15.75" spans="4:5">
+    <row r="40" ht="27" customHeight="1" spans="4:5">
       <c r="D40" s="15"/>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" ht="15.75" spans="4:5">
+    <row r="41" ht="27" customHeight="1" spans="4:5">
       <c r="D41" s="15"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" ht="15.75" spans="4:5">
+    <row r="42" ht="27" customHeight="1" spans="4:5">
       <c r="D42" s="15"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" ht="15.75" spans="4:5">
+    <row r="43" ht="27" customHeight="1" spans="4:5">
       <c r="D43" s="15"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" ht="15.75" spans="4:4">
+    <row r="44" ht="27" customHeight="1" spans="4:5">
       <c r="D44" s="15"/>
-    </row>
-    <row r="45" ht="15.75" spans="4:4">
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" ht="27" customHeight="1" spans="4:5">
       <c r="D45" s="15"/>
-    </row>
-    <row r="46" ht="15.75" spans="4:4">
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" ht="27" customHeight="1" spans="4:5">
       <c r="D46" s="15"/>
-    </row>
-    <row r="47" ht="15.75" spans="4:4">
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" ht="27" customHeight="1" spans="4:5">
       <c r="D47" s="15"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" ht="27" customHeight="1" spans="4:5">
+      <c r="D48" s="15"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" ht="27" customHeight="1" spans="4:5">
+      <c r="D49" s="15"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" ht="27" customHeight="1" spans="4:5">
+      <c r="D50" s="15"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" ht="77" customHeight="1" spans="4:5">
+      <c r="D51" s="15"/>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" ht="77" customHeight="1" spans="4:5">
+      <c r="D52" s="15"/>
+      <c r="E52" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B32" r:id="rId1" display="https://m.workdesk.esenyun.com/personal/personalprofile/openapi/tags/add?openId="/>
+    <hyperlink ref="B36" r:id="rId2" display="https://m.workdesk.esenyun.com/self/personalprofile/openapi/baseinfo-self"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -5082,8 +5306,8 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -5114,10 +5338,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -5129,16 +5353,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -5146,16 +5370,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="E4" s="7">
         <v>400</v>
@@ -5163,10 +5387,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -5177,16 +5401,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -5194,16 +5418,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="E7" s="7">
         <v>200</v>
@@ -5211,10 +5435,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -1347,7 +1347,7 @@
     <t>test_user_feedback_Detail</t>
   </si>
   <si>
-    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/ops/detail?problemId=1535791197349003</t>
+    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/ops/detail?problemId=1535875892736973</t>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/logs-problem?problemId=1535791197349003</t>
@@ -2145,10 +2145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2198,6 +2198,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2207,7 +2271,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2229,67 +2317,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2301,41 +2332,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2360,7 +2360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2372,7 +2384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2384,13 +2396,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,31 +2486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2438,49 +2498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2498,13 +2522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2516,25 +2534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2557,6 +2557,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2568,21 +2592,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2613,25 +2622,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2640,8 +2640,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2651,10 +2651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2663,135 +2663,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3966,7 +3966,7 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -23688,10 +23688,10 @@
   <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A41" sqref="A41"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -24136,6 +24136,9 @@
       <c r="E35" s="19"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" display="https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/ops/detail?problemId=1535875892736973"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
   <headerFooter/>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481">
   <si>
     <t>case_name</t>
   </si>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>{"groupId":"","data":"{\"attach\":[],\"imgs\":[\"https:\\\/\\\/img.esenyun.com\\\/images\\\/20181109\\\/44dbda1948bb4bc7b0f8fa1c2b3c48ad.png\"]}","content":"","wordId":"2c948b0966cf12560166e8ab7fb80710","sourceType":"APP_IOS","producedGTD":false}</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_increase</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/get-day-report-list/day_employee_wb_participate_increase_1/14</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_mycreate</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/get-report-segm-list/day_employee_wb_create_increase_7_segm</t>
   </si>
   <si>
     <t>test_uaa_invite_mobile</t>
@@ -1347,7 +1359,7 @@
     <t>test_user_feedback_Detail</t>
   </si>
   <si>
-    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/ops/detail?problemId=1535875892736973</t>
+    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/ops/detail?problemId=1534559735147668</t>
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/pc/logs-problem?problemId=1535791197349003</t>
@@ -2146,9 +2158,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2199,56 +2211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2263,7 +2226,103 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2277,11 +2336,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2290,52 +2348,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2360,7 +2372,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2372,13 +2510,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2390,151 +2540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2548,24 +2560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2576,6 +2570,45 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2596,17 +2629,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2621,40 +2657,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2663,135 +2675,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3183,8 +3195,8 @@
   <sheetPr/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3769,18 +3781,34 @@
       </c>
     </row>
     <row r="37" s="17" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A37" s="18"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="E37" s="19">
+        <v>200</v>
+      </c>
     </row>
     <row r="38" s="17" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A38" s="18"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="E38" s="19">
+        <v>200</v>
+      </c>
     </row>
     <row r="39" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A39" s="18"/>
@@ -3883,10 +3911,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -3897,10 +3925,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -3912,10 +3940,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -3927,10 +3955,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -3942,10 +3970,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -3998,16 +4026,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E2" s="7">
         <v>200</v>
@@ -4015,10 +4043,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -4030,16 +4058,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" t="s">
         <v>307</v>
-      </c>
-      <c r="B4" t="s">
-        <v>303</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -4047,16 +4075,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -4064,16 +4092,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -4081,10 +4109,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -4095,16 +4123,16 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E8" s="7">
         <v>200</v>
@@ -4112,16 +4140,16 @@
     </row>
     <row r="9" ht="32.1" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E9" s="13">
         <v>200</v>
@@ -4129,13 +4157,13 @@
     </row>
     <row r="10" ht="171" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E10" s="13">
         <v>200</v>
@@ -4143,10 +4171,10 @@
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -4157,10 +4185,10 @@
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -4180,10 +4208,10 @@
     </row>
     <row r="14" ht="15.75" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -4194,10 +4222,10 @@
     </row>
     <row r="15" ht="15.75" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B15" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -4254,16 +4282,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E2" s="7">
         <v>200</v>
@@ -4271,16 +4299,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -4288,16 +4316,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -4305,13 +4333,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -4361,16 +4389,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E2" s="7">
         <v>200</v>
@@ -4378,16 +4406,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -4395,16 +4423,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -4412,13 +4440,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -4467,10 +4495,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -4481,10 +4509,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -4496,10 +4524,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -4511,16 +4539,16 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -4528,16 +4556,16 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -4545,10 +4573,10 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -4559,16 +4587,16 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E8" s="7">
         <v>200</v>
@@ -4576,16 +4604,16 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E9" s="7">
         <v>200</v>
@@ -4593,16 +4621,16 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E10" s="7">
         <v>200</v>
@@ -4610,10 +4638,10 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -4624,10 +4652,10 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -4638,10 +4666,10 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -4652,10 +4680,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -4667,10 +4695,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -4681,16 +4709,16 @@
     </row>
     <row r="16" ht="51" spans="1:5">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E16" s="7">
         <v>200</v>
@@ -4820,10 +4848,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>15</v>
@@ -4835,10 +4863,10 @@
     </row>
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>15</v>
@@ -4850,10 +4878,10 @@
     </row>
     <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="12" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>15</v>
@@ -4865,7 +4893,7 @@
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>65</v>
@@ -4880,10 +4908,10 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>15</v>
@@ -4895,10 +4923,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="12" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>15</v>
@@ -4910,10 +4938,10 @@
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="12" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>15</v>
@@ -4925,10 +4953,10 @@
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="12" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>15</v>
@@ -4940,10 +4968,10 @@
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="12" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>15</v>
@@ -4955,10 +4983,10 @@
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="12" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>15</v>
@@ -4970,10 +4998,10 @@
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="12" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
@@ -4985,10 +5013,10 @@
     </row>
     <row r="13" ht="15.75" spans="1:5">
       <c r="A13" s="12" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>15</v>
@@ -5000,10 +5028,10 @@
     </row>
     <row r="14" ht="15.75" spans="1:5">
       <c r="A14" s="12" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>15</v>
@@ -5015,10 +5043,10 @@
     </row>
     <row r="15" ht="15.75" spans="1:5">
       <c r="A15" s="12" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>15</v>
@@ -5030,10 +5058,10 @@
     </row>
     <row r="16" ht="15.75" spans="1:5">
       <c r="A16" s="12" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B16" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>15</v>
@@ -5045,10 +5073,10 @@
     </row>
     <row r="17" ht="15.75" spans="1:5">
       <c r="A17" s="12" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>15</v>
@@ -5060,10 +5088,10 @@
     </row>
     <row r="18" ht="15.75" spans="1:5">
       <c r="A18" s="12" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B18" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>15</v>
@@ -5075,10 +5103,10 @@
     </row>
     <row r="19" ht="15.75" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B19" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>15</v>
@@ -5090,10 +5118,10 @@
     </row>
     <row r="20" ht="15.75" spans="1:5">
       <c r="A20" s="12" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B20" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>15</v>
@@ -5105,10 +5133,10 @@
     </row>
     <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="12" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B21" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>15</v>
@@ -5120,10 +5148,10 @@
     </row>
     <row r="22" ht="15.75" spans="1:5">
       <c r="A22" s="12" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>15</v>
@@ -5135,16 +5163,16 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A23" s="12" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E23" s="13">
         <v>200</v>
@@ -5152,16 +5180,16 @@
     </row>
     <row r="24" customFormat="1" ht="39" customHeight="1" spans="1:5">
       <c r="A24" s="12" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B24" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E24" s="13">
         <v>200</v>
@@ -5169,16 +5197,16 @@
     </row>
     <row r="25" ht="39" customHeight="1" spans="1:5">
       <c r="A25" s="12" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B25" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E25" s="13">
         <v>200</v>
@@ -5186,10 +5214,10 @@
     </row>
     <row r="26" ht="15.75" spans="1:5">
       <c r="A26" s="12" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B26" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>7</v>
@@ -5200,10 +5228,10 @@
     </row>
     <row r="27" ht="15.75" spans="1:5">
       <c r="A27" s="12" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B27" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -5214,16 +5242,16 @@
     </row>
     <row r="28" ht="47.25" spans="1:5">
       <c r="A28" s="12" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B28" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E28" s="13">
         <v>200</v>
@@ -5231,10 +5259,10 @@
     </row>
     <row r="29" ht="28.5" spans="1:5">
       <c r="A29" s="12" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -5246,10 +5274,10 @@
     </row>
     <row r="30" ht="15.75" spans="1:5">
       <c r="A30" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B30" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -5261,16 +5289,16 @@
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:5">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B31" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E31" s="13">
         <v>200</v>
@@ -5278,16 +5306,16 @@
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:5">
       <c r="A32" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B32" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E32" s="13">
         <v>200</v>
@@ -5295,16 +5323,16 @@
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:5">
       <c r="A33" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E33" s="13">
         <v>200</v>
@@ -5312,10 +5340,10 @@
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:5">
       <c r="A34" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B34" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -5327,10 +5355,10 @@
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:5">
       <c r="A35" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B35" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5342,16 +5370,16 @@
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:5">
       <c r="A36" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B36" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E36" s="13">
         <v>200</v>
@@ -5470,10 +5498,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -5485,16 +5513,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -5502,16 +5530,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -5519,10 +5547,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -5533,16 +5561,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -5550,16 +5578,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E7" s="7">
         <v>200</v>
@@ -5567,16 +5595,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E8" s="7">
         <v>200</v>
@@ -5584,16 +5612,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E9" s="7">
         <v>200</v>
@@ -5601,10 +5629,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -5618,16 +5646,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E11" s="7">
         <v>200</v>
@@ -5635,10 +5663,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -5649,10 +5677,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -5847,16 +5875,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E2" s="7">
         <v>200</v>
@@ -5864,10 +5892,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -5879,16 +5907,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E4" s="7">
         <v>401</v>
@@ -5896,16 +5924,16 @@
     </row>
     <row r="5" ht="28.5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -5913,16 +5941,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E6" s="7">
         <v>400</v>
@@ -6059,10 +6087,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -6073,16 +6101,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -6090,10 +6118,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -6105,10 +6133,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -6120,16 +6148,16 @@
     </row>
     <row r="6" ht="38.25" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -6137,16 +6165,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E7" s="7">
         <v>200</v>
@@ -6154,16 +6182,16 @@
     </row>
     <row r="8" ht="25.5" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E8" s="7">
         <v>400</v>
@@ -6171,10 +6199,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -6304,15 +6332,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -6326,16 +6354,16 @@
     </row>
     <row r="3" ht="165" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -6343,10 +6371,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -6358,30 +6386,30 @@
     </row>
     <row r="5" ht="140.25" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E5" s="20">
         <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -6393,10 +6421,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -6408,10 +6436,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -6423,10 +6451,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -6438,10 +6466,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -6455,16 +6483,16 @@
     </row>
     <row r="11" ht="71.1" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E11" s="7">
         <v>201</v>
@@ -6472,10 +6500,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -6489,16 +6517,16 @@
     </row>
     <row r="13" ht="102" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E13" s="7">
         <v>201</v>
@@ -6506,10 +6534,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -6523,10 +6551,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -6540,10 +6568,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -6555,16 +6583,16 @@
     </row>
     <row r="17" ht="145.5" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E17" s="7">
         <v>200</v>
@@ -6572,16 +6600,16 @@
     </row>
     <row r="18" ht="76.5" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E18" s="7">
         <v>201</v>
@@ -6589,10 +6617,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -6680,10 +6708,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -6822,10 +6850,10 @@
     </row>
     <row r="2" s="17" customFormat="1" ht="149.1" customHeight="1" spans="1:5">
       <c r="A2" s="18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>15</v>
@@ -6837,10 +6865,10 @@
     </row>
     <row r="3" s="17" customFormat="1" ht="44.1" customHeight="1" spans="1:5">
       <c r="A3" s="18" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>15</v>
@@ -6852,10 +6880,10 @@
     </row>
     <row r="4" s="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A4" s="18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>15</v>
@@ -6867,10 +6895,10 @@
     </row>
     <row r="5" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A5" s="18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>15</v>
@@ -6882,10 +6910,10 @@
     </row>
     <row r="6" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A6" s="18" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>15</v>
@@ -6897,16 +6925,16 @@
     </row>
     <row r="7" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E7" s="19">
         <v>201</v>
@@ -6914,13 +6942,13 @@
     </row>
     <row r="8" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A8" s="18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19">
@@ -6929,10 +6957,10 @@
     </row>
     <row r="9" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A9" s="18" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>7</v>
@@ -6944,10 +6972,10 @@
     </row>
     <row r="10" s="17" customFormat="1" ht="77.1" customHeight="1" spans="1:5">
       <c r="A10" s="18" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>15</v>
@@ -6959,10 +6987,10 @@
     </row>
     <row r="11" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A11" s="18" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>15</v>
@@ -6974,13 +7002,13 @@
     </row>
     <row r="12" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A12" s="18" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19">
@@ -6989,16 +7017,16 @@
     </row>
     <row r="13" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A13" s="18" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E13" s="19">
         <v>200</v>
@@ -7006,16 +7034,16 @@
     </row>
     <row r="14" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A14" s="18" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E14" s="19">
         <v>200</v>
@@ -7023,16 +7051,16 @@
     </row>
     <row r="15" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A15" s="18" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E15" s="19">
         <v>200</v>
@@ -7040,16 +7068,16 @@
     </row>
     <row r="16" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A16" s="18" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E16" s="19">
         <v>200</v>
@@ -7057,16 +7085,16 @@
     </row>
     <row r="17" s="17" customFormat="1" ht="33" spans="1:5">
       <c r="A17" s="18" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E17" s="19">
         <v>200</v>
@@ -7074,10 +7102,10 @@
     </row>
     <row r="18" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A18" s="18" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>7</v>
@@ -7087,16 +7115,16 @@
     </row>
     <row r="19" s="17" customFormat="1" ht="77.1" customHeight="1" spans="1:16384">
       <c r="A19" s="18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E19" s="18">
         <v>200</v>
@@ -23483,10 +23511,10 @@
     </row>
     <row r="20" s="17" customFormat="1" ht="16.5" spans="1:5">
       <c r="A20" s="18" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>15</v>
@@ -23688,16 +23716,16 @@
   <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="39.875" customWidth="1"/>
-    <col min="2" max="2" width="105.875" customWidth="1"/>
+    <col min="2" max="2" width="129.625" customWidth="1"/>
     <col min="4" max="4" width="39.375" customWidth="1"/>
     <col min="5" max="5" width="54.5" customWidth="1"/>
   </cols>
@@ -23721,10 +23749,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -23735,10 +23763,10 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -23749,10 +23777,10 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -23763,10 +23791,10 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="29.1" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -23777,10 +23805,10 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -23791,10 +23819,10 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="35.1" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -23805,10 +23833,10 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="35.1" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -23819,10 +23847,10 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -23833,16 +23861,16 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E10" s="7">
         <v>200</v>
@@ -23850,10 +23878,10 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -23864,10 +23892,10 @@
     </row>
     <row r="12" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -23879,10 +23907,10 @@
     </row>
     <row r="13" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A13" s="18" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>7</v>
@@ -23894,10 +23922,10 @@
     </row>
     <row r="14" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>7</v>
@@ -23909,10 +23937,10 @@
     </row>
     <row r="15" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>15</v>
@@ -23924,10 +23952,10 @@
     </row>
     <row r="16" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>15</v>
@@ -23939,10 +23967,10 @@
     </row>
     <row r="17" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>15</v>
@@ -23956,10 +23984,10 @@
     </row>
     <row r="18" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>15</v>
@@ -23971,10 +23999,10 @@
     </row>
     <row r="19" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>7</v>
@@ -23988,16 +24016,16 @@
     </row>
     <row r="20" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E20" s="19">
         <v>200</v>
@@ -24005,10 +24033,10 @@
     </row>
     <row r="21" ht="16.5" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>15</v>
@@ -24020,16 +24048,16 @@
     </row>
     <row r="22" ht="16.5" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B22" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E22" s="19">
         <v>200</v>
@@ -24037,10 +24065,10 @@
     </row>
     <row r="23" ht="16.5" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -24051,10 +24079,10 @@
     </row>
     <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -24065,10 +24093,10 @@
     </row>
     <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -24079,10 +24107,10 @@
     </row>
     <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -24096,10 +24124,10 @@
     </row>
     <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -24136,9 +24164,6 @@
       <c r="E35" s="19"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/ops/detail?problemId=1535875892736973"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
   <headerFooter/>
@@ -24180,10 +24205,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>15</v>
@@ -24195,10 +24220,10 @@
     </row>
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>15</v>
@@ -24210,16 +24235,16 @@
     </row>
     <row r="4" ht="42.75" spans="1:5">
       <c r="A4" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E4" s="13">
         <v>200</v>
@@ -24227,10 +24252,10 @@
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>15</v>
@@ -24242,10 +24267,10 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>15</v>
@@ -24257,10 +24282,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="12" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>15</v>
@@ -24391,10 +24416,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -24405,10 +24430,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -24420,10 +24445,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -24435,10 +24460,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -24450,10 +24475,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -24465,10 +24490,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -24480,16 +24505,16 @@
     </row>
     <row r="8" ht="125.1" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E8" s="7">
         <v>400</v>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498">
   <si>
     <t>case_name</t>
   </si>
@@ -331,6 +331,30 @@
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/get-report-segm-list/day_employee_wb_create_increase_7_segm</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_mycollect</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/get-report-segm-list/day_employee_wb_collect_increase_7_segm</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_myreply</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/get-report-segm-list/day_employee_wb_reply_increase_7_segm</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_at_my</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/get-report-segm-list/day_employee_wb_at_increase_7_segm</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_myjoin</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/get-report-segm-list/day_employee_wb_participate_increase_7_segm</t>
   </si>
   <si>
     <t>test_uaa_invite_mobile</t>
@@ -1221,6 +1245,21 @@
     <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtds/v3?category=to-verify&amp;page=0&amp;size=20&amp;sort=createdTime&amp;type=todo</t>
   </si>
   <si>
+    <t>test_task_dashboard</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/result-person-tasks?page=0&amp;size=7</t>
+  </si>
+  <si>
+    <t>test_task_remind</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esentask/openapi/gtd-option?option=gtd.remind.overdue&amp;value=CLOSE-300s</t>
+  </si>
+  <si>
+    <t>test_task_Zidongguize</t>
+  </si>
+  <si>
     <t>test_user_day_Canyudu</t>
   </si>
   <si>
@@ -1236,9 +1275,6 @@
     <t>test_user_words_dashboard_7days</t>
   </si>
   <si>
-    <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/get-report-segm-list/day_employee_wb_participate_increase_7_segm</t>
-  </si>
-  <si>
     <t>test_user_words_base_report</t>
   </si>
   <si>
@@ -1381,6 +1417,12 @@
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/count/customer</t>
+  </si>
+  <si>
+    <t>test_user_feedback_share</t>
+  </si>
+  <si>
+    <t>https://m.workdesk.esenyun.com/feedback/esenfeedback/openapi/ops/wxapp/share</t>
   </si>
   <si>
     <t>test_VCARD</t>
@@ -1793,6 +1835,18 @@
   </si>
   <si>
     <t>test_tenant_option</t>
+  </si>
+  <si>
+    <t>test_badge_delete_group</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/esenbadge/openapi/badges-delete/group</t>
+  </si>
+  <si>
+    <t>{
+ "groupId": "8a9c8ff35f81891f015f8569aa580002",
+ "spanId": "ESENYUN:APP:INVOLVEMENT"
+}</t>
   </si>
   <si>
     <t>test_user_geren_baseinfo</t>
@@ -2854,10 +2908,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3195,8 +3249,8 @@
   <sheetPr/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3225,7 +3279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="2" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
@@ -3242,7 +3296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" ht="132" spans="1:5">
+    <row r="3" s="16" customFormat="1" ht="132" spans="1:5">
       <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
@@ -3259,7 +3313,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" ht="44.1" customHeight="1" spans="1:5">
+    <row r="4" s="16" customFormat="1" ht="44.1" customHeight="1" spans="1:5">
       <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
@@ -3274,7 +3328,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="5" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
@@ -3289,7 +3343,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="6" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
@@ -3304,7 +3358,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="7" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A7" s="18" t="s">
         <v>20</v>
       </c>
@@ -3319,7 +3373,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="8" s="16" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
@@ -3336,7 +3390,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="9" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
@@ -3351,7 +3405,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="10" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -3366,7 +3420,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" ht="77.1" customHeight="1" spans="1:5">
+    <row r="11" s="16" customFormat="1" ht="77.1" customHeight="1" spans="1:5">
       <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
@@ -3383,7 +3437,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="12" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A12" s="18" t="s">
         <v>32</v>
       </c>
@@ -3398,7 +3452,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" ht="33" spans="1:5">
+    <row r="13" s="16" customFormat="1" ht="33" spans="1:5">
       <c r="A13" s="18" t="s">
         <v>34</v>
       </c>
@@ -3415,7 +3469,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="14" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A14" s="18" t="s">
         <v>37</v>
       </c>
@@ -3430,7 +3484,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="15" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A15" s="18" t="s">
         <v>39</v>
       </c>
@@ -3445,7 +3499,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" ht="54.95" customHeight="1" spans="1:5">
+    <row r="16" s="16" customFormat="1" ht="54.95" customHeight="1" spans="1:5">
       <c r="A16" s="18" t="s">
         <v>41</v>
       </c>
@@ -3462,7 +3516,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" ht="114" customHeight="1" spans="1:5">
+    <row r="17" s="16" customFormat="1" ht="114" customHeight="1" spans="1:5">
       <c r="A17" s="18" t="s">
         <v>44</v>
       </c>
@@ -3479,7 +3533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="18" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
@@ -3494,7 +3548,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" s="17" customFormat="1" ht="99" spans="1:5">
+    <row r="19" s="16" customFormat="1" ht="99" spans="1:5">
       <c r="A19" s="18" t="s">
         <v>49</v>
       </c>
@@ -3511,7 +3565,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" s="17" customFormat="1" ht="191.1" customHeight="1" spans="1:5">
+    <row r="20" s="16" customFormat="1" ht="191.1" customHeight="1" spans="1:5">
       <c r="A20" s="18" t="s">
         <v>52</v>
       </c>
@@ -3528,7 +3582,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="21" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A21" s="18" t="s">
         <v>55</v>
       </c>
@@ -3545,7 +3599,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="22" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A22" s="18" t="s">
         <v>58</v>
       </c>
@@ -3560,7 +3614,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="23" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A23" s="18" t="s">
         <v>60</v>
       </c>
@@ -3575,7 +3629,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="24" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A24" s="18" t="s">
         <v>62</v>
       </c>
@@ -3590,7 +3644,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="25" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A25" s="18" t="s">
         <v>64</v>
       </c>
@@ -3605,7 +3659,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" s="17" customFormat="1" ht="99" spans="1:5">
+    <row r="26" s="16" customFormat="1" ht="99" spans="1:5">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -3622,7 +3676,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="27" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A27" s="18" t="s">
         <v>68</v>
       </c>
@@ -3637,7 +3691,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="28" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A28" s="18" t="s">
         <v>70</v>
       </c>
@@ -3652,7 +3706,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="29" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A29" s="18" t="s">
         <v>72</v>
       </c>
@@ -3667,7 +3721,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="30" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A30" s="18" t="s">
         <v>75</v>
       </c>
@@ -3682,7 +3736,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="31" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A31" s="18" t="s">
         <v>75</v>
       </c>
@@ -3697,7 +3751,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" s="17" customFormat="1" ht="264" spans="1:5">
+    <row r="32" s="16" customFormat="1" ht="264" spans="1:5">
       <c r="A32" s="18" t="s">
         <v>77</v>
       </c>
@@ -3714,7 +3768,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" s="17" customFormat="1" ht="66" spans="1:5">
+    <row r="33" s="16" customFormat="1" ht="66" spans="1:5">
       <c r="A33" s="18" t="s">
         <v>80</v>
       </c>
@@ -3731,7 +3785,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="34" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A34" s="18" t="s">
         <v>83</v>
       </c>
@@ -3746,7 +3800,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="35" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A35" s="18" t="s">
         <v>85</v>
       </c>
@@ -3763,7 +3817,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" s="17" customFormat="1" ht="99" spans="1:5">
+    <row r="36" s="16" customFormat="1" ht="99" spans="1:5">
       <c r="A36" s="18" t="s">
         <v>88</v>
       </c>
@@ -3780,7 +3834,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="37" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A37" s="18" t="s">
         <v>90</v>
       </c>
@@ -3795,7 +3849,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="38" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A38" s="18" t="s">
         <v>92</v>
       </c>
@@ -3810,49 +3864,81 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" s="17" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A39" s="18"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="18"/>
+    <row r="39" s="16" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A39" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="40" s="17" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A40" s="18"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="18"/>
+      <c r="E39" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" s="16" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A40" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-    </row>
-    <row r="41" s="17" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A41" s="18"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="18"/>
+      <c r="E40" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" s="16" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A41" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-    </row>
-    <row r="42" s="17" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A42" s="18"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="18"/>
+      <c r="E41" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" s="16" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A42" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" s="17" customFormat="1" ht="16.5" spans="1:5">
+      <c r="E42" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A43" s="18"/>
       <c r="B43" s="2"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
     </row>
-    <row r="44" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="44" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A44" s="18"/>
       <c r="B44" s="2"/>
       <c r="C44" s="18"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
     </row>
-    <row r="45" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="45" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A45" s="18"/>
       <c r="B45" s="2"/>
       <c r="C45" s="18"/>
@@ -3911,10 +3997,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -3925,10 +4011,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -3940,10 +4026,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -3955,10 +4041,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -3970,10 +4056,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -4026,16 +4112,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E2" s="7">
         <v>200</v>
@@ -4043,10 +4129,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -4058,16 +4144,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -4075,16 +4161,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -4092,16 +4178,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -4109,10 +4195,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -4123,16 +4209,16 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="E8" s="7">
         <v>200</v>
@@ -4140,16 +4226,16 @@
     </row>
     <row r="9" ht="32.1" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E9" s="13">
         <v>200</v>
@@ -4157,13 +4243,13 @@
     </row>
     <row r="10" ht="171" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E10" s="13">
         <v>200</v>
@@ -4171,10 +4257,10 @@
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -4185,10 +4271,10 @@
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -4208,10 +4294,10 @@
     </row>
     <row r="14" ht="15.75" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -4222,10 +4308,10 @@
     </row>
     <row r="15" ht="15.75" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -4282,16 +4368,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="E2" s="7">
         <v>200</v>
@@ -4299,16 +4385,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -4316,16 +4402,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -4333,13 +4419,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -4389,16 +4475,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E2" s="7">
         <v>200</v>
@@ -4406,16 +4492,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -4423,16 +4509,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -4440,13 +4526,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -4463,8 +4549,8 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4495,10 +4581,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -4509,10 +4595,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -4524,10 +4610,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -4539,16 +4625,16 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -4556,16 +4642,16 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -4573,10 +4659,10 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -4587,16 +4673,16 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="E8" s="7">
         <v>200</v>
@@ -4604,16 +4690,16 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="E9" s="7">
         <v>200</v>
@@ -4621,16 +4707,16 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="E10" s="7">
         <v>200</v>
@@ -4638,10 +4724,10 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -4652,10 +4738,10 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -4666,10 +4752,10 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -4680,25 +4766,25 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -4707,100 +4793,114 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" ht="51" spans="1:5">
+    <row r="16" ht="33" customHeight="1" spans="1:5">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>118</v>
+      <c r="D16" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="E16" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="16"/>
+    <row r="17" s="16" customFormat="1" ht="115.5" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="E17" s="19">
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="16"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="16"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="16"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="16"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="16"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="16"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="16"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="16"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="16"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="16"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="16"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="16"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="16"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="16"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="16"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="16"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="16"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="16"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="16"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="16"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="16"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="16"/>
+      <c r="D42" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4848,10 +4948,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>15</v>
@@ -4863,10 +4963,10 @@
     </row>
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>15</v>
@@ -4878,10 +4978,10 @@
     </row>
     <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="12" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>15</v>
@@ -4893,7 +4993,7 @@
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>65</v>
@@ -4908,10 +5008,10 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>15</v>
@@ -4923,10 +5023,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="12" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>15</v>
@@ -4938,10 +5038,10 @@
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="12" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>15</v>
@@ -4953,10 +5053,10 @@
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="12" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>15</v>
@@ -4968,10 +5068,10 @@
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="12" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>15</v>
@@ -4983,10 +5083,10 @@
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="12" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>15</v>
@@ -4998,10 +5098,10 @@
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="12" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
@@ -5013,10 +5113,10 @@
     </row>
     <row r="13" ht="15.75" spans="1:5">
       <c r="A13" s="12" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>15</v>
@@ -5028,10 +5128,10 @@
     </row>
     <row r="14" ht="15.75" spans="1:5">
       <c r="A14" s="12" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>15</v>
@@ -5043,10 +5143,10 @@
     </row>
     <row r="15" ht="15.75" spans="1:5">
       <c r="A15" s="12" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>15</v>
@@ -5058,10 +5158,10 @@
     </row>
     <row r="16" ht="15.75" spans="1:5">
       <c r="A16" s="12" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B16" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>15</v>
@@ -5073,10 +5173,10 @@
     </row>
     <row r="17" ht="15.75" spans="1:5">
       <c r="A17" s="12" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>15</v>
@@ -5088,10 +5188,10 @@
     </row>
     <row r="18" ht="15.75" spans="1:5">
       <c r="A18" s="12" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>15</v>
@@ -5103,10 +5203,10 @@
     </row>
     <row r="19" ht="15.75" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>15</v>
@@ -5118,10 +5218,10 @@
     </row>
     <row r="20" ht="15.75" spans="1:5">
       <c r="A20" s="12" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>15</v>
@@ -5133,10 +5233,10 @@
     </row>
     <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="12" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B21" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>15</v>
@@ -5148,10 +5248,10 @@
     </row>
     <row r="22" ht="15.75" spans="1:5">
       <c r="A22" s="12" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B22" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>15</v>
@@ -5163,16 +5263,16 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A23" s="12" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="E23" s="13">
         <v>200</v>
@@ -5180,16 +5280,16 @@
     </row>
     <row r="24" customFormat="1" ht="39" customHeight="1" spans="1:5">
       <c r="A24" s="12" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="B24" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="E24" s="13">
         <v>200</v>
@@ -5197,16 +5297,16 @@
     </row>
     <row r="25" ht="39" customHeight="1" spans="1:5">
       <c r="A25" s="12" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="B25" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="E25" s="13">
         <v>200</v>
@@ -5214,10 +5314,10 @@
     </row>
     <row r="26" ht="15.75" spans="1:5">
       <c r="A26" s="12" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="B26" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>7</v>
@@ -5228,10 +5328,10 @@
     </row>
     <row r="27" ht="15.75" spans="1:5">
       <c r="A27" s="12" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B27" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -5242,16 +5342,16 @@
     </row>
     <row r="28" ht="47.25" spans="1:5">
       <c r="A28" s="12" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="B28" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="E28" s="13">
         <v>200</v>
@@ -5259,10 +5359,10 @@
     </row>
     <row r="29" ht="28.5" spans="1:5">
       <c r="A29" s="12" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -5274,10 +5374,10 @@
     </row>
     <row r="30" ht="15.75" spans="1:5">
       <c r="A30" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="B30" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -5289,16 +5389,16 @@
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:5">
       <c r="A31" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="B31" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="E31" s="13">
         <v>200</v>
@@ -5306,16 +5406,16 @@
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:5">
       <c r="A32" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="B32" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="E32" s="13">
         <v>200</v>
@@ -5323,16 +5423,16 @@
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:5">
       <c r="A33" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="E33" s="13">
         <v>200</v>
@@ -5340,10 +5440,10 @@
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:5">
       <c r="A34" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="B34" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -5355,10 +5455,10 @@
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:5">
       <c r="A35" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="B35" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5370,16 +5470,16 @@
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:5">
       <c r="A36" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="B36" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="E36" s="13">
         <v>200</v>
@@ -5498,10 +5598,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -5513,16 +5613,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -5530,16 +5630,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -5547,10 +5647,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -5561,16 +5661,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -5578,16 +5678,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="E7" s="7">
         <v>200</v>
@@ -5595,16 +5695,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="E8" s="7">
         <v>200</v>
@@ -5612,16 +5712,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="E9" s="7">
         <v>200</v>
@@ -5629,10 +5729,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -5646,16 +5746,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="E11" s="7">
         <v>200</v>
@@ -5663,10 +5763,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -5677,10 +5777,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -5875,16 +5975,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E2" s="7">
         <v>200</v>
@@ -5892,10 +5992,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -5907,16 +6007,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E4" s="7">
         <v>401</v>
@@ -5924,16 +6024,16 @@
     </row>
     <row r="5" ht="28.5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -5941,107 +6041,107 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>106</v>
+      <c r="D6" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="E6" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="16"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="16"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="16"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="16"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="16"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="16"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="16"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="16"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="16"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="16"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="16"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="16"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="16"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="16"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="16"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="16"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="16"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="16"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="16"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="16"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="16"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="16"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="16"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="16"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="16"/>
+      <c r="D35" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6056,7 +6156,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -6087,10 +6187,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -6101,16 +6201,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -6118,46 +6218,46 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>118</v>
+      <c r="D6" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -6165,16 +6265,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>121</v>
+      <c r="D7" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="E7" s="7">
         <v>200</v>
@@ -6182,16 +6282,16 @@
     </row>
     <row r="8" ht="25.5" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>124</v>
+      <c r="D8" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="E8" s="7">
         <v>400</v>
@@ -6199,96 +6299,94 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="16"/>
-    </row>
+    <row r="10" customFormat="1"/>
     <row r="11" spans="4:4">
-      <c r="D11" s="16"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="16"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="16"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="16"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="16"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="16"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="16"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="16"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="16"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="16"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="16"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="16"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="16"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="16"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="16"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="16"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="16"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="16"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="16"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="16"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="16"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="16"/>
+      <c r="D35" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6302,8 +6400,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -6332,15 +6430,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -6354,16 +6452,16 @@
     </row>
     <row r="3" ht="165" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>132</v>
+      <c r="D3" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -6371,110 +6469,110 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="5" ht="140.25" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>137</v>
+      <c r="D5" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="E5" s="20">
         <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="7">
@@ -6483,16 +6581,16 @@
     </row>
     <row r="11" ht="71.1" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>151</v>
+      <c r="D11" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="E11" s="7">
         <v>201</v>
@@ -6500,15 +6598,15 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="7">
@@ -6517,16 +6615,16 @@
     </row>
     <row r="13" ht="102" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>156</v>
+      <c r="D13" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="E13" s="7">
         <v>201</v>
@@ -6534,15 +6632,15 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="7">
@@ -6551,15 +6649,15 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="7">
@@ -6568,31 +6666,31 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="17" ht="145.5" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>164</v>
+      <c r="D17" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="E17" s="7">
         <v>200</v>
@@ -6600,16 +6698,16 @@
     </row>
     <row r="18" ht="76.5" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>167</v>
+      <c r="D18" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="E18" s="7">
         <v>201</v>
@@ -6617,48 +6715,48 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="16"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="16"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="16"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="16"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="16"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="16"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="16"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="16"/>
+      <c r="D29" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6708,10 +6806,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -6721,91 +6819,91 @@
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="16"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="16"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="16"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="16"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="16"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="16"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="16"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="16"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="16"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="16"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="16"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="16"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="16"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="16"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="16"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="16"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="16"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="16"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="16"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="16"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="16"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="16"/>
+      <c r="D31" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6818,8 +6916,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6848,12 +6946,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="149.1" customHeight="1" spans="1:5">
+    <row r="2" s="16" customFormat="1" ht="149.1" customHeight="1" spans="1:5">
       <c r="A2" s="18" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>15</v>
@@ -6863,12 +6961,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" ht="44.1" customHeight="1" spans="1:5">
+    <row r="3" s="16" customFormat="1" ht="44.1" customHeight="1" spans="1:5">
       <c r="A3" s="18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>15</v>
@@ -6878,12 +6976,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="4" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A4" s="18" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>15</v>
@@ -6893,12 +6991,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="5" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A5" s="18" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>15</v>
@@ -6908,12 +7006,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="6" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A6" s="18" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>15</v>
@@ -6923,44 +7021,44 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="7" s="16" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E7" s="19">
         <v>201</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="8" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A8" s="18" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="9" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A9" s="18" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>7</v>
@@ -6970,12 +7068,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" ht="77.1" customHeight="1" spans="1:5">
+    <row r="10" s="16" customFormat="1" ht="77.1" customHeight="1" spans="1:5">
       <c r="A10" s="18" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>15</v>
@@ -6985,12 +7083,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="11" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A11" s="18" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>15</v>
@@ -7000,112 +7098,112 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="12" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A12" s="18" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19">
         <v>201</v>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="13" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A13" s="18" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E13" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="14" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A14" s="18" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E14" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="15" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A15" s="18" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E15" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="16" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A16" s="18" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E16" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" ht="33" spans="1:5">
+    <row r="17" s="16" customFormat="1" ht="33" spans="1:5">
       <c r="A17" s="18" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E17" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="18" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A18" s="18" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>7</v>
@@ -7113,18 +7211,18 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" s="17" customFormat="1" ht="77.1" customHeight="1" spans="1:16384">
+    <row r="19" s="16" customFormat="1" ht="77.1" customHeight="1" spans="1:16384">
       <c r="A19" s="18" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E19" s="18">
         <v>200</v>
@@ -23509,12 +23607,12 @@
       <c r="XFC19" s="18"/>
       <c r="XFD19" s="18"/>
     </row>
-    <row r="20" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="20" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A20" s="18" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>15</v>
@@ -23524,168 +23622,186 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" s="17" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A21" s="18"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="18"/>
+    <row r="21" s="16" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A21" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" s="17" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A22" s="18"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="18"/>
+      <c r="E21" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" s="16" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A22" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" s="17" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A23" s="18"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="18"/>
+      <c r="E22" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" s="16" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A23" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" s="17" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A24" s="18"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" s="17" customFormat="1" ht="16.5" spans="1:5">
+      <c r="E23" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1"/>
+    <row r="25" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A25" s="18"/>
       <c r="B25" s="2"/>
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="26" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A26" s="18"/>
       <c r="B26" s="2"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="27" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A27" s="18"/>
       <c r="B27" s="2"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="28" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A28" s="18"/>
       <c r="B28" s="2"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="29" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A29" s="18"/>
       <c r="B29" s="2"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
     </row>
-    <row r="30" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="30" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A30" s="18"/>
       <c r="B30" s="2"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="31" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A31" s="18"/>
       <c r="B31" s="2"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="32" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A32" s="18"/>
       <c r="B32" s="2"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
     </row>
-    <row r="33" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="33" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A33" s="18"/>
       <c r="B33" s="2"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
     </row>
-    <row r="34" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="34" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A34" s="18"/>
       <c r="B34" s="2"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
     </row>
-    <row r="35" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="35" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A35" s="18"/>
       <c r="B35" s="2"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="36" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A36" s="18"/>
       <c r="B36" s="2"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
     </row>
-    <row r="37" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="37" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A37" s="18"/>
       <c r="B37" s="2"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
     </row>
-    <row r="38" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="38" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A38" s="18"/>
       <c r="B38" s="2"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="39" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A39" s="18"/>
       <c r="B39" s="2"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
     </row>
-    <row r="40" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="40" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A40" s="18"/>
       <c r="B40" s="2"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="41" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A41" s="18"/>
       <c r="B41" s="2"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
     </row>
-    <row r="42" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="42" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A42" s="18"/>
       <c r="B42" s="2"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="43" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A43" s="18"/>
       <c r="B43" s="2"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
     </row>
-    <row r="44" s="17" customFormat="1" ht="16.5" spans="1:5">
+    <row r="44" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A44" s="18"/>
       <c r="B44" s="2"/>
       <c r="C44" s="18"/>
@@ -23716,10 +23832,10 @@
   <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -23749,10 +23865,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -23763,10 +23879,10 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -23777,10 +23893,10 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -23791,10 +23907,10 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="29.1" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -23805,10 +23921,10 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -23819,10 +23935,10 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="35.1" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -23833,10 +23949,10 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="35.1" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -23847,10 +23963,10 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -23861,16 +23977,16 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E10" s="7">
         <v>200</v>
@@ -23878,10 +23994,10 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -23890,12 +24006,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="12" s="16" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -23905,12 +24021,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="13" s="16" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A13" s="18" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>7</v>
@@ -23920,12 +24036,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="14" s="16" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>7</v>
@@ -23935,12 +24051,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="15" s="16" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>15</v>
@@ -23950,12 +24066,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="16" s="16" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>15</v>
@@ -23965,12 +24081,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="17" s="16" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>15</v>
@@ -23982,12 +24098,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="18" s="16" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>15</v>
@@ -23997,12 +24113,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="19" s="16" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>7</v>
@@ -24014,18 +24130,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" s="17" customFormat="1" ht="78" customHeight="1" spans="1:5">
+    <row r="20" s="16" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E20" s="19">
         <v>200</v>
@@ -24033,10 +24149,10 @@
     </row>
     <row r="21" ht="16.5" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>15</v>
@@ -24048,16 +24164,16 @@
     </row>
     <row r="22" ht="16.5" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="E22" s="19">
         <v>200</v>
@@ -24065,24 +24181,24 @@
     </row>
     <row r="23" ht="16.5" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="19">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -24093,10 +24209,10 @@
     </row>
     <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -24107,10 +24223,10 @@
     </row>
     <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -24124,10 +24240,10 @@
     </row>
     <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -24139,8 +24255,19 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="5:5">
-      <c r="E28" s="19"/>
+    <row r="28" ht="16.5" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="19">
+        <v>200</v>
+      </c>
     </row>
     <row r="29" ht="16.5" spans="5:5">
       <c r="E29" s="19"/>
@@ -24205,10 +24332,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>15</v>
@@ -24220,10 +24347,10 @@
     </row>
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>15</v>
@@ -24235,16 +24362,16 @@
     </row>
     <row r="4" ht="42.75" spans="1:5">
       <c r="A4" s="12" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E4" s="13">
         <v>200</v>
@@ -24252,10 +24379,10 @@
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>15</v>
@@ -24267,10 +24394,10 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>15</v>
@@ -24282,10 +24409,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="12" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>15</v>
@@ -24416,10 +24543,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -24430,10 +24557,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -24445,10 +24572,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -24460,10 +24587,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -24475,10 +24602,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -24490,10 +24617,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -24505,16 +24632,16 @@
     </row>
     <row r="8" ht="125.1" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="E8" s="7">
         <v>400</v>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="13"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="TestXiaobaiban" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512">
   <si>
     <t>case_name</t>
   </si>
@@ -355,6 +355,48 @@
   </si>
   <si>
     <t>https://m.workdesk.esenyun.com/dashboard/esenmosaic/openapi/get-report-segm-list/day_employee_wb_participate_increase_7_segm</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_combline</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/topics/combine-list</t>
+  </si>
+  <si>
+    <t>{"selectPersonal":true,"selectRecommend":false}</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_Addtags</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/topics/query-add</t>
+  </si>
+  <si>
+    <t>{"name":"19119"}</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_update</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/words/update/participate</t>
+  </si>
+  <si>
+    <t>{"participateIds":["c4d18eb76d9548f29c46dbef29944d21"],"participateGroupIds":["8a9c8ff35f81891f015f8569aa580002"],"needGroupChildrenFlag":true}</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_caogao</t>
+  </si>
+  <si>
+    <t>https://gateway.workdesk.esenyun.com:9091/words/openapi/list/search-words</t>
+  </si>
+  <si>
+    <t>{"status":"1","wordTagQueryType":"USER"}</t>
+  </si>
+  <si>
+    <t>test_xiaobaiban_jieluncaogao</t>
+  </si>
+  <si>
+    <t>{"status":"3","wordTagQueryType":"USER"}</t>
   </si>
   <si>
     <t>test_uaa_invite_mobile</t>
@@ -2211,10 +2253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2265,7 +2307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2273,7 +2315,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2299,16 +2356,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2322,11 +2372,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2337,46 +2387,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2399,7 +2411,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2426,13 +2468,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,85 +2612,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2540,67 +2642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2611,6 +2653,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2633,7 +2710,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2653,61 +2745,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2717,10 +2759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2729,135 +2771,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3247,10 +3289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3751,7 +3793,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" s="16" customFormat="1" ht="264" spans="1:5">
+    <row r="32" s="16" customFormat="1" ht="37" customHeight="1" spans="1:5">
       <c r="A32" s="18" t="s">
         <v>77</v>
       </c>
@@ -3817,7 +3859,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" s="16" customFormat="1" ht="99" spans="1:5">
+    <row r="36" s="16" customFormat="1" ht="39" customHeight="1" spans="1:5">
       <c r="A36" s="18" t="s">
         <v>88</v>
       </c>
@@ -3924,26 +3966,90 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" s="16" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A43" s="18"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
+    <row r="43" s="16" customFormat="1" ht="33" spans="1:5">
+      <c r="A43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="19">
+        <v>200</v>
+      </c>
     </row>
     <row r="44" s="16" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A44" s="18"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-    </row>
-    <row r="45" s="16" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A45" s="18"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+      <c r="A44" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" s="16" customFormat="1" ht="66" spans="1:5">
+      <c r="A45" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:5">
+      <c r="A46" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="1:5">
+      <c r="A47" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="19">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3955,6 +4061,7 @@
     <hyperlink ref="B34" r:id="rId6" display="https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/destroy/"/>
     <hyperlink ref="B32" r:id="rId7" display="https://gateway.workdesk.esenyun.com:9091/words/openapi/words/create"/>
     <hyperlink ref="B36" r:id="rId2" display="https://gateway.workdesk.esenyun.com:9091/words/openapi/comments/create"/>
+    <hyperlink ref="B47" r:id="rId8" display="https://gateway.workdesk.esenyun.com:9091/words/openapi/list/search-words"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3997,10 +4104,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -4011,10 +4118,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -4026,10 +4133,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -4041,10 +4148,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -4056,10 +4163,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -4080,8 +4187,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4112,16 +4219,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E2" s="7">
         <v>200</v>
@@ -4129,10 +4236,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -4144,16 +4251,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -4161,16 +4268,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -4178,16 +4285,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -4195,10 +4302,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -4209,16 +4316,16 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="E8" s="7">
         <v>200</v>
@@ -4226,16 +4333,16 @@
     </row>
     <row r="9" ht="32.1" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="E9" s="13">
         <v>200</v>
@@ -4243,13 +4350,13 @@
     </row>
     <row r="10" ht="171" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E10" s="13">
         <v>200</v>
@@ -4257,10 +4364,10 @@
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -4271,10 +4378,10 @@
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -4294,10 +4401,10 @@
     </row>
     <row r="14" ht="15.75" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -4308,10 +4415,10 @@
     </row>
     <row r="15" ht="15.75" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -4336,8 +4443,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -4368,16 +4475,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="E2" s="7">
         <v>200</v>
@@ -4385,16 +4492,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -4402,16 +4509,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -4419,13 +4526,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -4475,16 +4582,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E2" s="7">
         <v>200</v>
@@ -4492,16 +4599,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -4509,16 +4616,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -4526,13 +4633,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -4549,7 +4656,7 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -4581,10 +4688,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -4595,10 +4702,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -4610,10 +4717,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -4625,16 +4732,16 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -4642,16 +4749,16 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -4659,10 +4766,10 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -4673,16 +4780,16 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="E8" s="7">
         <v>200</v>
@@ -4690,16 +4797,16 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="E9" s="7">
         <v>200</v>
@@ -4707,16 +4814,16 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="E10" s="7">
         <v>200</v>
@@ -4724,10 +4831,10 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -4738,10 +4845,10 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -4752,10 +4859,10 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -4766,10 +4873,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -4781,10 +4888,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -4795,16 +4902,16 @@
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:5">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E16" s="7">
         <v>200</v>
@@ -4812,16 +4919,16 @@
     </row>
     <row r="17" s="16" customFormat="1" ht="115.5" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="E17" s="19">
         <v>200</v>
@@ -4948,10 +5055,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>15</v>
@@ -4963,10 +5070,10 @@
     </row>
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>15</v>
@@ -4978,10 +5085,10 @@
     </row>
     <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="12" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>15</v>
@@ -4993,7 +5100,7 @@
     </row>
     <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>65</v>
@@ -5008,10 +5115,10 @@
     </row>
     <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>15</v>
@@ -5023,10 +5130,10 @@
     </row>
     <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="12" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>15</v>
@@ -5038,10 +5145,10 @@
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="12" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>15</v>
@@ -5053,10 +5160,10 @@
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="12" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>15</v>
@@ -5068,10 +5175,10 @@
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="12" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>15</v>
@@ -5083,10 +5190,10 @@
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="12" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>15</v>
@@ -5098,10 +5205,10 @@
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="12" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
@@ -5113,10 +5220,10 @@
     </row>
     <row r="13" ht="15.75" spans="1:5">
       <c r="A13" s="12" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>15</v>
@@ -5128,10 +5235,10 @@
     </row>
     <row r="14" ht="15.75" spans="1:5">
       <c r="A14" s="12" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>15</v>
@@ -5143,10 +5250,10 @@
     </row>
     <row r="15" ht="15.75" spans="1:5">
       <c r="A15" s="12" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>15</v>
@@ -5158,10 +5265,10 @@
     </row>
     <row r="16" ht="15.75" spans="1:5">
       <c r="A16" s="12" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B16" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>15</v>
@@ -5173,10 +5280,10 @@
     </row>
     <row r="17" ht="15.75" spans="1:5">
       <c r="A17" s="12" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>15</v>
@@ -5188,10 +5295,10 @@
     </row>
     <row r="18" ht="15.75" spans="1:5">
       <c r="A18" s="12" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>15</v>
@@ -5203,10 +5310,10 @@
     </row>
     <row r="19" ht="15.75" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="B19" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>15</v>
@@ -5218,10 +5325,10 @@
     </row>
     <row r="20" ht="15.75" spans="1:5">
       <c r="A20" s="12" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="B20" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>15</v>
@@ -5233,10 +5340,10 @@
     </row>
     <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="12" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="B21" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>15</v>
@@ -5248,10 +5355,10 @@
     </row>
     <row r="22" ht="15.75" spans="1:5">
       <c r="A22" s="12" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B22" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>15</v>
@@ -5263,16 +5370,16 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A23" s="12" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="E23" s="13">
         <v>200</v>
@@ -5280,16 +5387,16 @@
     </row>
     <row r="24" customFormat="1" ht="39" customHeight="1" spans="1:5">
       <c r="A24" s="12" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="B24" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="E24" s="13">
         <v>200</v>
@@ -5297,16 +5404,16 @@
     </row>
     <row r="25" ht="39" customHeight="1" spans="1:5">
       <c r="A25" s="12" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="B25" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="E25" s="13">
         <v>200</v>
@@ -5314,10 +5421,10 @@
     </row>
     <row r="26" ht="15.75" spans="1:5">
       <c r="A26" s="12" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="B26" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>7</v>
@@ -5328,10 +5435,10 @@
     </row>
     <row r="27" ht="15.75" spans="1:5">
       <c r="A27" s="12" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B27" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>15</v>
@@ -5342,16 +5449,16 @@
     </row>
     <row r="28" ht="47.25" spans="1:5">
       <c r="A28" s="12" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B28" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="E28" s="13">
         <v>200</v>
@@ -5359,10 +5466,10 @@
     </row>
     <row r="29" ht="28.5" spans="1:5">
       <c r="A29" s="12" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -5374,10 +5481,10 @@
     </row>
     <row r="30" ht="15.75" spans="1:5">
       <c r="A30" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="B30" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -5389,16 +5496,16 @@
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:5">
       <c r="A31" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="B31" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="E31" s="13">
         <v>200</v>
@@ -5406,16 +5513,16 @@
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:5">
       <c r="A32" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B32" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="E32" s="13">
         <v>200</v>
@@ -5423,16 +5530,16 @@
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:5">
       <c r="A33" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E33" s="13">
         <v>200</v>
@@ -5440,10 +5547,10 @@
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:5">
       <c r="A34" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B34" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -5455,10 +5562,10 @@
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:5">
       <c r="A35" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="B35" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5470,16 +5577,16 @@
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:5">
       <c r="A36" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="B36" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="E36" s="13">
         <v>200</v>
@@ -5567,7 +5674,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -5598,10 +5705,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -5613,16 +5720,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="83.1" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -5630,16 +5737,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="E4" s="7">
         <v>200</v>
@@ -5647,10 +5754,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -5661,16 +5768,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -5678,16 +5785,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="E7" s="7">
         <v>200</v>
@@ -5695,16 +5802,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="E8" s="7">
         <v>200</v>
@@ -5712,16 +5819,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="E9" s="7">
         <v>200</v>
@@ -5729,10 +5836,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -5746,16 +5853,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="E11" s="7">
         <v>200</v>
@@ -5763,10 +5870,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -5777,10 +5884,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -5975,16 +6082,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E2" s="7">
         <v>200</v>
@@ -5992,10 +6099,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -6007,16 +6114,16 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E4" s="7">
         <v>401</v>
@@ -6024,16 +6131,16 @@
     </row>
     <row r="5" ht="28.5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E5" s="7">
         <v>200</v>
@@ -6041,16 +6148,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E6" s="7">
         <v>400</v>
@@ -6187,10 +6294,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -6201,16 +6308,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -6218,10 +6325,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -6233,10 +6340,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -6248,16 +6355,16 @@
     </row>
     <row r="6" ht="38.25" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E6" s="7">
         <v>200</v>
@@ -6265,16 +6372,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E7" s="7">
         <v>200</v>
@@ -6282,16 +6389,16 @@
     </row>
     <row r="8" ht="25.5" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E8" s="7">
         <v>400</v>
@@ -6299,10 +6406,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -6430,15 +6537,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -6452,16 +6559,16 @@
     </row>
     <row r="3" ht="165" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E3" s="7">
         <v>200</v>
@@ -6469,10 +6576,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -6484,30 +6591,30 @@
     </row>
     <row r="5" ht="140.25" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E5" s="20">
         <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -6519,10 +6626,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -6534,10 +6641,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -6549,10 +6656,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -6564,10 +6671,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -6581,16 +6688,16 @@
     </row>
     <row r="11" ht="71.1" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E11" s="7">
         <v>201</v>
@@ -6598,10 +6705,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -6615,16 +6722,16 @@
     </row>
     <row r="13" ht="102" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E13" s="7">
         <v>201</v>
@@ -6632,10 +6739,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -6649,10 +6756,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -6666,10 +6773,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -6681,16 +6788,16 @@
     </row>
     <row r="17" ht="145.5" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="E17" s="7">
         <v>200</v>
@@ -6698,16 +6805,16 @@
     </row>
     <row r="18" ht="76.5" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E18" s="7">
         <v>201</v>
@@ -6715,10 +6822,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -6806,10 +6913,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -6948,10 +7055,10 @@
     </row>
     <row r="2" s="16" customFormat="1" ht="149.1" customHeight="1" spans="1:5">
       <c r="A2" s="18" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>15</v>
@@ -6963,10 +7070,10 @@
     </row>
     <row r="3" s="16" customFormat="1" ht="44.1" customHeight="1" spans="1:5">
       <c r="A3" s="18" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>15</v>
@@ -6978,10 +7085,10 @@
     </row>
     <row r="4" s="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A4" s="18" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>15</v>
@@ -6993,10 +7100,10 @@
     </row>
     <row r="5" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A5" s="18" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>15</v>
@@ -7008,10 +7115,10 @@
     </row>
     <row r="6" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A6" s="18" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>15</v>
@@ -7023,16 +7130,16 @@
     </row>
     <row r="7" s="16" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="E7" s="19">
         <v>201</v>
@@ -7040,13 +7147,13 @@
     </row>
     <row r="8" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A8" s="18" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19">
@@ -7055,10 +7162,10 @@
     </row>
     <row r="9" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A9" s="18" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>7</v>
@@ -7070,10 +7177,10 @@
     </row>
     <row r="10" s="16" customFormat="1" ht="77.1" customHeight="1" spans="1:5">
       <c r="A10" s="18" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>15</v>
@@ -7085,10 +7192,10 @@
     </row>
     <row r="11" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A11" s="18" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>15</v>
@@ -7100,13 +7207,13 @@
     </row>
     <row r="12" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A12" s="18" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19">
@@ -7115,16 +7222,16 @@
     </row>
     <row r="13" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A13" s="18" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="E13" s="19">
         <v>200</v>
@@ -7132,16 +7239,16 @@
     </row>
     <row r="14" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A14" s="18" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E14" s="19">
         <v>200</v>
@@ -7149,16 +7256,16 @@
     </row>
     <row r="15" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A15" s="18" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E15" s="19">
         <v>200</v>
@@ -7166,16 +7273,16 @@
     </row>
     <row r="16" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A16" s="18" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="E16" s="19">
         <v>200</v>
@@ -7183,16 +7290,16 @@
     </row>
     <row r="17" s="16" customFormat="1" ht="33" spans="1:5">
       <c r="A17" s="18" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E17" s="19">
         <v>200</v>
@@ -7200,10 +7307,10 @@
     </row>
     <row r="18" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A18" s="18" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>7</v>
@@ -7213,16 +7320,16 @@
     </row>
     <row r="19" s="16" customFormat="1" ht="77.1" customHeight="1" spans="1:16384">
       <c r="A19" s="18" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="E19" s="18">
         <v>200</v>
@@ -23609,10 +23716,10 @@
     </row>
     <row r="20" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A20" s="18" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>15</v>
@@ -23624,10 +23731,10 @@
     </row>
     <row r="21" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A21" s="18" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>15</v>
@@ -23639,10 +23746,10 @@
     </row>
     <row r="22" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A22" s="18" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>7</v>
@@ -23654,10 +23761,10 @@
     </row>
     <row r="23" s="16" customFormat="1" ht="16.5" spans="1:5">
       <c r="A23" s="18" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>15</v>
@@ -23865,10 +23972,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -23879,10 +23986,10 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -23893,7 +24000,7 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>101</v>
@@ -23907,10 +24014,10 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="29.1" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -23921,10 +24028,10 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -23935,10 +24042,10 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="35.1" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -23949,10 +24056,10 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="35.1" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -23963,10 +24070,10 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -23977,16 +24084,16 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E10" s="7">
         <v>200</v>
@@ -23994,10 +24101,10 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -24008,10 +24115,10 @@
     </row>
     <row r="12" s="16" customFormat="1" ht="78" custom